--- a/excel/finished/wg4#烧结/4烧结生产报表.xlsx
+++ b/excel/finished/wg4#烧结/4烧结生产报表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C023EEC-1FD5-4209-B6BF-E116B8D6295D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07456C91-6F46-4153-806E-C26BF111E9FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="305">
   <si>
     <t>产量</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -206,18 +206,6 @@
     <t>CaO(%)</t>
   </si>
   <si>
-    <t>SiO2(%)</t>
-  </si>
-  <si>
-    <t>MgO（%)</t>
-  </si>
-  <si>
-    <t>TFe(%)</t>
-  </si>
-  <si>
-    <t>S(%)</t>
-  </si>
-  <si>
     <t>活性度</t>
   </si>
   <si>
@@ -243,9 +231,6 @@
   </si>
   <si>
     <t>生石灰</t>
-  </si>
-  <si>
-    <t>生石灰(PL9)</t>
   </si>
   <si>
     <t>焦粉灰</t>
@@ -1054,6 +1039,172 @@
   </si>
   <si>
     <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_1To5OreBldUseP</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_1To5OreBldSetP</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_6To7FuelUseP</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_6To7FuelSetP</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_8ATo8BQuLimeUsePg</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_8ATo8BQuLimeSetP</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_9ATo9BCkPUseP</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_9ATo9BQuLimeSetP</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_10To12CoReFineUseP</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_10To12CoReFineSetP</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_13To14LimeUseP</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_13To14LimeSetP</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_15To16DoloUseP</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_15To16DoloSetP</t>
+  </si>
+  <si>
+    <t>LC_TFe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC_CaO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC_SiO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC_FeO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC_MgO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC_Al2O3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG_GF40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG_LD25_40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG_LD16_25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG_LD10_16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG_LD5_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG_LF5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LP_AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LP_TI+6.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SiO2(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MgO（%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFe(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YL_SiO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YL_MgO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YL_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YL_H2O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生石灰(PL9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石灰石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白云石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YL_CaO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YL_TFe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1549,7 +1700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1587,9 +1738,6 @@
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1634,9 +1782,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1652,12 +1797,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1687,12 +1826,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1726,17 +1859,137 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1745,12 +1998,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1760,91 +2013,67 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1874,50 +2103,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2257,78 +2447,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="22"/>
-    <col min="2" max="2" width="9.5" style="22" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="22" customWidth="1"/>
-    <col min="6" max="6" width="10" style="22" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="22" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="22" customWidth="1"/>
-    <col min="9" max="9" width="9" style="22"/>
-    <col min="10" max="10" width="10.25" style="22" customWidth="1"/>
-    <col min="11" max="16" width="9" style="22"/>
-    <col min="17" max="17" width="30.5" style="22" customWidth="1"/>
-    <col min="18" max="18" width="9" style="22" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="9" style="21"/>
+    <col min="2" max="2" width="9.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="21" customWidth="1"/>
+    <col min="6" max="6" width="10" style="21" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="21" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="9" style="21"/>
+    <col min="10" max="10" width="10.25" style="21" customWidth="1"/>
+    <col min="11" max="16" width="9" style="21"/>
+    <col min="17" max="17" width="30.5" style="21" customWidth="1"/>
+    <col min="18" max="18" width="9" style="21" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="71"/>
+      <c r="A1" s="100" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="102"/>
     </row>
     <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="65" t="s">
-        <v>157</v>
-      </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="68"/>
+      <c r="A2" s="96" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="96" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="98"/>
     </row>
     <row r="3" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="83" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2338,19 +2528,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>2</v>
@@ -2362,29 +2552,29 @@
         <v>4</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="P3" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q3" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="R3" s="25" t="s">
-        <v>146</v>
+      <c r="M3" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="64"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2413,19 +2603,19 @@
         <v>8</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="27"/>
+      <c r="M4" s="79" t="s">
+        <v>142</v>
+      </c>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="26"/>
     </row>
     <row r="5" spans="1:18" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
@@ -2439,7 +2629,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
@@ -2447,13 +2637,13 @@
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="41" t="str">
+      <c r="I5" s="37" t="str">
         <f>IF(_scrb1_day_twoshift!B2="","",_scrb1_day_twoshift!B2)</f>
         <v/>
       </c>
@@ -2467,12 +2657,12 @@
       <c r="L5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="27"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="26"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
@@ -2488,121 +2678,121 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="41" t="str">
+      <c r="I6" s="37" t="str">
         <f>IF(_scrb1_day_twoshift!B3="","",_scrb1_day_twoshift!B3)</f>
         <v/>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="40" t="str">
+      <c r="K6" s="36" t="str">
         <f>IF(_scrb1_day_twoshift!C3="","",_scrb1_day_twoshift!C3)</f>
         <v/>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="27"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="26"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="79" t="str">
+      <c r="B7" s="85" t="str">
         <f>IF(SUM(B5:B6),SUM(B5:B6),"")</f>
         <v/>
       </c>
-      <c r="C7" s="72" t="str">
+      <c r="C7" s="86" t="str">
         <f t="shared" ref="C7" si="0">IFERROR(AVERAGE(C5:C6),"")</f>
         <v/>
       </c>
-      <c r="D7" s="72" t="str">
+      <c r="D7" s="86" t="str">
         <f t="shared" ref="D7" si="1">IFERROR(AVERAGE(D5:D6),"")</f>
         <v/>
       </c>
-      <c r="E7" s="72" t="str">
+      <c r="E7" s="86" t="str">
         <f t="shared" ref="E7" si="2">IFERROR(AVERAGE(E5:E6),"")</f>
         <v/>
       </c>
-      <c r="F7" s="72" t="str">
+      <c r="F7" s="86" t="str">
         <f t="shared" ref="F7" si="3">IFERROR(AVERAGE(F5:F6),"")</f>
         <v/>
       </c>
-      <c r="G7" s="72" t="str">
+      <c r="G7" s="86" t="str">
         <f t="shared" ref="G7" si="4">IFERROR(AVERAGE(G5:G6),"")</f>
         <v/>
       </c>
-      <c r="H7" s="72" t="str">
+      <c r="H7" s="86" t="str">
         <f t="shared" ref="H7" si="5">IFERROR(AVERAGE(H5:H6),"")</f>
         <v/>
       </c>
-      <c r="I7" s="72" t="str">
+      <c r="I7" s="86" t="str">
         <f t="shared" ref="I7" si="6">IFERROR(AVERAGE(I5:I6),"")</f>
         <v/>
       </c>
-      <c r="J7" s="72" t="str">
+      <c r="J7" s="86" t="str">
         <f t="shared" ref="J7" si="7">IFERROR(AVERAGE(J5:J6),"")</f>
         <v/>
       </c>
-      <c r="K7" s="72" t="str">
+      <c r="K7" s="86" t="str">
         <f t="shared" ref="K7" si="8">IFERROR(AVERAGE(K5:K6),"")</f>
         <v/>
       </c>
-      <c r="L7" s="88"/>
-      <c r="M7" s="76"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="80"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
       <c r="Q7" s="6"/>
-      <c r="R7" s="27"/>
+      <c r="R7" s="26"/>
     </row>
     <row r="8" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="78"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="27"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="26"/>
     </row>
     <row r="9" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="27"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="26"/>
     </row>
     <row r="10" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="90" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2618,10 +2808,10 @@
         <v>22</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>23</v>
@@ -2638,15 +2828,15 @@
       <c r="L10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="75"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="27"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="26"/>
     </row>
     <row r="11" spans="1:18" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
@@ -2666,7 +2856,7 @@
         <v>30</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>33</v>
@@ -2680,126 +2870,126 @@
       <c r="L11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="75"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="27"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="26"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="41" t="str">
+      <c r="B12" s="37" t="str">
         <f>IF(_scrb1_day_twoshift!E2="","",_scrb1_day_twoshift!E2)</f>
         <v/>
       </c>
-      <c r="C12" s="41" t="str">
+      <c r="C12" s="37" t="str">
         <f>IF(_scrb1_day_twoshift!F2="","",_scrb1_day_twoshift!F2)</f>
         <v/>
       </c>
-      <c r="D12" s="41" t="str">
+      <c r="D12" s="37" t="str">
         <f>IF(_scrb1_day_twoshift!G2="","",_scrb1_day_twoshift!G2)</f>
         <v/>
       </c>
-      <c r="E12" s="41" t="str">
+      <c r="E12" s="37" t="str">
         <f>IF(_scrb1_day_twoshift!H2="","",_scrb1_day_twoshift!H2)</f>
         <v/>
       </c>
-      <c r="F12" s="41" t="str">
+      <c r="F12" s="37" t="str">
         <f>IF(_scrb1_day_twoshift!I2="","",_scrb1_day_twoshift!I2)</f>
         <v/>
       </c>
-      <c r="G12" s="41" t="str">
+      <c r="G12" s="37" t="str">
         <f>IF(_scrb1_day_twoshift!J2="","",_scrb1_day_twoshift!J2)</f>
         <v/>
       </c>
-      <c r="H12" s="41" t="str">
+      <c r="H12" s="37" t="str">
         <f>IF(_scrb1_day_twoshift!K2="","",_scrb1_day_twoshift!K2)</f>
         <v/>
       </c>
-      <c r="I12" s="41" t="str">
+      <c r="I12" s="37" t="str">
         <f>IF(_scrb1_day_twoshift!L2="","",_scrb1_day_twoshift!L2)</f>
         <v/>
       </c>
-      <c r="J12" s="41" t="str">
+      <c r="J12" s="37" t="str">
         <f>IF(_scrb1_day_twoshift!M2="","",_scrb1_day_twoshift!M2)</f>
         <v/>
       </c>
-      <c r="K12" s="41" t="str">
+      <c r="K12" s="37" t="str">
         <f>IF(_scrb1_day_twoshift!N2="","",_scrb1_day_twoshift!N2)</f>
         <v/>
       </c>
-      <c r="L12" s="41" t="str">
+      <c r="L12" s="37" t="str">
         <f>IF(_scrb1_day_twoshift!O2="","",_scrb1_day_twoshift!O2)</f>
         <v/>
       </c>
-      <c r="M12" s="75"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="27"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="26"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="41" t="str">
+      <c r="B13" s="37" t="str">
         <f>IF(_scrb1_day_twoshift!E3="","",_scrb1_day_twoshift!E3)</f>
         <v/>
       </c>
-      <c r="C13" s="41" t="str">
+      <c r="C13" s="37" t="str">
         <f>IF(_scrb1_day_twoshift!F3="","",_scrb1_day_twoshift!F3)</f>
         <v/>
       </c>
-      <c r="D13" s="41" t="str">
+      <c r="D13" s="37" t="str">
         <f>IF(_scrb1_day_twoshift!G3="","",_scrb1_day_twoshift!G3)</f>
         <v/>
       </c>
-      <c r="E13" s="41" t="str">
+      <c r="E13" s="37" t="str">
         <f>IF(_scrb1_day_twoshift!H3="","",_scrb1_day_twoshift!H3)</f>
         <v/>
       </c>
-      <c r="F13" s="41" t="str">
+      <c r="F13" s="37" t="str">
         <f>IF(_scrb1_day_twoshift!I3="","",_scrb1_day_twoshift!I3)</f>
         <v/>
       </c>
-      <c r="G13" s="41" t="str">
+      <c r="G13" s="37" t="str">
         <f>IF(_scrb1_day_twoshift!J3="","",_scrb1_day_twoshift!J3)</f>
         <v/>
       </c>
-      <c r="H13" s="41" t="str">
+      <c r="H13" s="37" t="str">
         <f>IF(_scrb1_day_twoshift!K3="","",_scrb1_day_twoshift!K3)</f>
         <v/>
       </c>
-      <c r="I13" s="41" t="str">
+      <c r="I13" s="37" t="str">
         <f>IF(_scrb1_day_twoshift!L3="","",_scrb1_day_twoshift!L3)</f>
         <v/>
       </c>
-      <c r="J13" s="41" t="str">
+      <c r="J13" s="37" t="str">
         <f>IF(_scrb1_day_twoshift!M3="","",_scrb1_day_twoshift!M3)</f>
         <v/>
       </c>
-      <c r="K13" s="41" t="str">
+      <c r="K13" s="37" t="str">
         <f>IF(_scrb1_day_twoshift!N3="","",_scrb1_day_twoshift!N3)</f>
         <v/>
       </c>
-      <c r="L13" s="41" t="str">
+      <c r="L13" s="37" t="str">
         <f>IF(_scrb1_day_twoshift!O3="","",_scrb1_day_twoshift!O3)</f>
         <v/>
       </c>
-      <c r="M13" s="76"/>
+      <c r="M13" s="80"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
       <c r="Q13" s="6"/>
-      <c r="R13" s="27"/>
+      <c r="R13" s="26"/>
     </row>
     <row r="14" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B14" s="12" t="str">
         <f>IFERROR(AVERAGE(B12:B13),"")</f>
@@ -2845,636 +3035,843 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M14" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="N14" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30" t="s">
+      <c r="M14" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="R14" s="29"/>
+    </row>
+    <row r="15" spans="1:18" ht="21" x14ac:dyDescent="0.15">
+      <c r="A15" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="75"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="77"/>
+      <c r="D16" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="77"/>
+      <c r="F16" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="78"/>
+      <c r="H16" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="78"/>
+    </row>
+    <row r="17" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="80"/>
+      <c r="B17" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="80"/>
+      <c r="I17" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="R17" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="58"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A19" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!Q2="","",_scrb1_day_twoshift!Q2)</f>
+        <v/>
+      </c>
+      <c r="C19" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!R2="","",_scrb1_day_twoshift!R2)</f>
+        <v/>
+      </c>
+      <c r="D19" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!Q3="","",_scrb1_day_twoshift!Q3)</f>
+        <v/>
+      </c>
+      <c r="E19" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!R3="","",_scrb1_day_twoshift!R3)</f>
+        <v/>
+      </c>
+      <c r="F19" s="23" t="str">
+        <f>IFERROR(AVERAGE(B19,D19),"")</f>
+        <v/>
+      </c>
+      <c r="G19" s="23" t="str">
+        <f>IFERROR(AVERAGE(C19,E19),"")</f>
+        <v/>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O19" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="R19" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A20" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!S2="","",_scrb1_day_twoshift!S2)</f>
+        <v/>
+      </c>
+      <c r="C20" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!T2="","",_scrb1_day_twoshift!T2)</f>
+        <v/>
+      </c>
+      <c r="D20" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!S3="","",_scrb1_day_twoshift!S3)</f>
+        <v/>
+      </c>
+      <c r="E20" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!T3="","",_scrb1_day_twoshift!T3)</f>
+        <v/>
+      </c>
+      <c r="F20" s="23" t="str">
+        <f t="shared" ref="F20:F25" si="10">IFERROR(AVERAGE(B20,D20),"")</f>
+        <v/>
+      </c>
+      <c r="G20" s="23" t="str">
+        <f t="shared" ref="G20:G25" si="11">IFERROR(AVERAGE(C20,E20),"")</f>
+        <v/>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="24"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A21" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!U2="","",_scrb1_day_twoshift!U2)</f>
+        <v/>
+      </c>
+      <c r="C21" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!V2="","",_scrb1_day_twoshift!V2)</f>
+        <v/>
+      </c>
+      <c r="D21" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!U3="","",_scrb1_day_twoshift!U3)</f>
+        <v/>
+      </c>
+      <c r="E21" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!V3="","",_scrb1_day_twoshift!V3)</f>
+        <v/>
+      </c>
+      <c r="F21" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G21" s="23" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="24"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A22" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!W2="","",_scrb1_day_twoshift!W2)</f>
+        <v/>
+      </c>
+      <c r="C22" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!X2="","",_scrb1_day_twoshift!X2)</f>
+        <v/>
+      </c>
+      <c r="D22" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!W3="","",_scrb1_day_twoshift!W3)</f>
+        <v/>
+      </c>
+      <c r="E22" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!X3="","",_scrb1_day_twoshift!X3)</f>
+        <v/>
+      </c>
+      <c r="F22" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G22" s="23" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="24"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A23" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!Y2="","",_scrb1_day_twoshift!Y2)</f>
+        <v/>
+      </c>
+      <c r="C23" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!Z2="","",_scrb1_day_twoshift!Z2)</f>
+        <v/>
+      </c>
+      <c r="D23" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!Y3="","",_scrb1_day_twoshift!Y3)</f>
+        <v/>
+      </c>
+      <c r="E23" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!Z3="","",_scrb1_day_twoshift!Z3)</f>
+        <v/>
+      </c>
+      <c r="F23" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G23" s="23" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="24"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A24" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!AA2="","",_scrb1_day_twoshift!AA2)</f>
+        <v/>
+      </c>
+      <c r="C24" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!AB2="","",_scrb1_day_twoshift!AB2)</f>
+        <v/>
+      </c>
+      <c r="D24" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!AA3="","",_scrb1_day_twoshift!AA3)</f>
+        <v/>
+      </c>
+      <c r="E24" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!AB3="","",_scrb1_day_twoshift!AB3)</f>
+        <v/>
+      </c>
+      <c r="F24" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G24" s="23" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="24"/>
+    </row>
+    <row r="25" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!AC2="","",_scrb1_day_twoshift!AC2)</f>
+        <v/>
+      </c>
+      <c r="C25" s="23" t="str">
+        <f>IF(_scrb1_day_twoshift!AD2="","",_scrb1_day_twoshift!AD2)</f>
+        <v/>
+      </c>
+      <c r="D25" s="28" t="str">
+        <f>IF(_scrb1_day_twoshift!AC3="","",_scrb1_day_twoshift!AC3)</f>
+        <v/>
+      </c>
+      <c r="E25" s="28" t="str">
+        <f>IF(_scrb1_day_twoshift!AD3="","",_scrb1_day_twoshift!AD3)</f>
+        <v/>
+      </c>
+      <c r="F25" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G25" s="23" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="66"/>
+    </row>
+    <row r="26" spans="1:18" ht="21" x14ac:dyDescent="0.15">
+      <c r="A26" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="75"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A27" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="92"/>
+    </row>
+    <row r="28" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="R14" s="31"/>
-    </row>
-    <row r="15" spans="1:18" ht="21" x14ac:dyDescent="0.15">
-      <c r="A15" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="91" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="93"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A16" s="74" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="94"/>
-      <c r="F16" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="86"/>
-      <c r="H16" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="86"/>
-    </row>
-    <row r="17" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="76"/>
-      <c r="B17" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="76"/>
-      <c r="I17" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="M17" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q17" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="R17" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A18" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="K18" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="L18" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="M18" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="N18" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="O18" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="P18" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q18" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="R18" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A19" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="27"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A20" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="27"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A21" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="27"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A22" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="27"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A23" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="27"/>
-    </row>
-    <row r="24" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="31"/>
-    </row>
-    <row r="25" spans="1:18" ht="21" x14ac:dyDescent="0.15">
-      <c r="A25" s="91" t="s">
-        <v>159</v>
-      </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="93"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A26" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="87"/>
-    </row>
-    <row r="27" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
+      <c r="G28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="H28" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="J28" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="K28" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="L28" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="M28" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="N28" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I27" s="2" t="s">
+      <c r="O28" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="J27" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="K27" s="15" t="s">
+      <c r="P28" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="L27" s="15" t="s">
+      <c r="Q28" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="M27" s="15" t="s">
+      <c r="R28" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="N27" s="15" t="s">
+    </row>
+    <row r="29" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="55"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="K29" s="57" t="s">
+        <v>282</v>
+      </c>
+      <c r="L29" s="57" t="s">
+        <v>283</v>
+      </c>
+      <c r="M29" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="N29" s="57" t="s">
+        <v>285</v>
+      </c>
+      <c r="O29" s="57" t="s">
+        <v>286</v>
+      </c>
+      <c r="P29" s="57" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="R29" s="19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A30" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="O27" s="15" t="s">
+      <c r="B30" s="3">
+        <v>2</v>
+      </c>
+      <c r="C30" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="P27" s="15" t="s">
+      <c r="D30" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="Q27" s="16" t="s">
+      <c r="G30" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="R27" s="20" t="s">
+      <c r="H30" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="K30" s="129" t="s">
+        <v>79</v>
+      </c>
+      <c r="L30" s="129" t="s">
+        <v>79</v>
+      </c>
+      <c r="M30" s="129" t="s">
+        <v>79</v>
+      </c>
+      <c r="N30" s="129" t="s">
+        <v>81</v>
+      </c>
+      <c r="O30" s="129" t="s">
+        <v>81</v>
+      </c>
+      <c r="P30" s="129" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q30" s="129" t="s">
+        <v>79</v>
+      </c>
+      <c r="R30" s="130"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A31" s="87" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A28" s="21" t="s">
+      <c r="B31" s="3">
+        <v>5</v>
+      </c>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="65"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A32" s="87"/>
+      <c r="B32" s="3">
+        <v>8</v>
+      </c>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="65"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A33" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="3">
-        <v>2</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="I28" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="J28" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="K28" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="L28" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="M28" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="N28" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="O28" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="P28" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q28" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="R28" s="46"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A29" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="3">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="35"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A30" s="80"/>
-      <c r="B30" s="3">
-        <v>8</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="35"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A31" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="3">
+      <c r="B33" s="3">
         <v>11</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="35"/>
-    </row>
-    <row r="32" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="B32" s="73"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="31"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="65"/>
+    </row>
+    <row r="34" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="82"/>
+      <c r="C34" s="12" t="str">
+        <f>IFERROR(AVERAGE(C30:C32),"")</f>
+        <v/>
+      </c>
+      <c r="D34" s="12" t="str">
+        <f t="shared" ref="D34:R34" si="12">IFERROR(AVERAGE(D30:D32),"")</f>
+        <v/>
+      </c>
+      <c r="E34" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F34" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G34" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H34" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I34" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="J34" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="K34" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L34" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M34" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N34" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="O34" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="P34" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Q34" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="R34" s="60" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A25:R25"/>
-    <mergeCell ref="H15:R15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="K26:R26"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A15:G15"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="M2:R2"/>
@@ -3485,6 +3882,29 @@
     <mergeCell ref="M8:M13"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="K27:R27"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A26:R26"/>
+    <mergeCell ref="H15:R15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3497,314 +3917,314 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="10.75" style="19" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="19"/>
+    <col min="1" max="18" width="10.75" style="18" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="106" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="108"/>
+      <c r="A1" s="104" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="111"/>
+      <c r="A2" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="109"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="15">
+      <c r="A3" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="14">
         <v>1</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>2</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>5</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>8</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>10</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="14">
         <v>12</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="14">
         <v>14</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <v>16</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="14">
         <v>18</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="14">
         <v>19</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="14">
         <v>20</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="14">
         <v>21</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="14">
         <v>22</v>
       </c>
-      <c r="Q3" s="82">
+      <c r="Q3" s="89">
         <v>23</v>
       </c>
-      <c r="R3" s="87"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="42" t="str">
+      <c r="A4" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!A2="","",_scrb2_day_twoshift!A2)</f>
         <v/>
       </c>
-      <c r="C4" s="42" t="str">
+      <c r="C4" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!B2="","",_scrb2_day_twoshift!B2)</f>
         <v/>
       </c>
-      <c r="D4" s="42" t="str">
+      <c r="D4" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!C2="","",_scrb2_day_twoshift!C2)</f>
         <v/>
       </c>
-      <c r="E4" s="42" t="str">
+      <c r="E4" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!D2="","",_scrb2_day_twoshift!D2)</f>
         <v/>
       </c>
-      <c r="F4" s="42" t="str">
+      <c r="F4" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!E2="","",_scrb2_day_twoshift!E2)</f>
         <v/>
       </c>
-      <c r="G4" s="42" t="str">
+      <c r="G4" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!F2="","",_scrb2_day_twoshift!F2)</f>
         <v/>
       </c>
-      <c r="H4" s="42" t="str">
+      <c r="H4" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!G2="","",_scrb2_day_twoshift!G2)</f>
         <v/>
       </c>
-      <c r="I4" s="42" t="str">
+      <c r="I4" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!H2="","",_scrb2_day_twoshift!H2)</f>
         <v/>
       </c>
-      <c r="J4" s="42" t="str">
+      <c r="J4" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!I2="","",_scrb2_day_twoshift!I2)</f>
         <v/>
       </c>
-      <c r="K4" s="42" t="str">
+      <c r="K4" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!J2="","",_scrb2_day_twoshift!J2)</f>
         <v/>
       </c>
-      <c r="L4" s="42" t="str">
+      <c r="L4" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!K2="","",_scrb2_day_twoshift!K2)</f>
         <v/>
       </c>
-      <c r="M4" s="42" t="str">
+      <c r="M4" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!L2="","",_scrb2_day_twoshift!L2)</f>
         <v/>
       </c>
-      <c r="N4" s="42" t="str">
+      <c r="N4" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!M2="","",_scrb2_day_twoshift!M2)</f>
         <v/>
       </c>
-      <c r="O4" s="42" t="str">
+      <c r="O4" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!N2="","",_scrb2_day_twoshift!N2)</f>
         <v/>
       </c>
-      <c r="P4" s="42" t="str">
+      <c r="P4" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!O2="","",_scrb2_day_twoshift!O2)</f>
         <v/>
       </c>
-      <c r="Q4" s="97" t="str">
+      <c r="Q4" s="114" t="str">
         <f>IF(_scrb2_day_twoshift!P2="","",_scrb2_day_twoshift!P2)</f>
         <v/>
       </c>
-      <c r="R4" s="98"/>
+      <c r="R4" s="115"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="42" t="str">
+      <c r="A5" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!A3="","",_scrb2_day_twoshift!A3)</f>
         <v/>
       </c>
-      <c r="C5" s="42" t="str">
+      <c r="C5" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!B3="","",_scrb2_day_twoshift!B3)</f>
         <v/>
       </c>
-      <c r="D5" s="42" t="str">
+      <c r="D5" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!C3="","",_scrb2_day_twoshift!C3)</f>
         <v/>
       </c>
-      <c r="E5" s="42" t="str">
+      <c r="E5" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!D3="","",_scrb2_day_twoshift!D3)</f>
         <v/>
       </c>
-      <c r="F5" s="42" t="str">
+      <c r="F5" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!E3="","",_scrb2_day_twoshift!E3)</f>
         <v/>
       </c>
-      <c r="G5" s="42" t="str">
+      <c r="G5" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!F3="","",_scrb2_day_twoshift!F3)</f>
         <v/>
       </c>
-      <c r="H5" s="42" t="str">
+      <c r="H5" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!G3="","",_scrb2_day_twoshift!G3)</f>
         <v/>
       </c>
-      <c r="I5" s="42" t="str">
+      <c r="I5" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!H3="","",_scrb2_day_twoshift!H3)</f>
         <v/>
       </c>
-      <c r="J5" s="42" t="str">
+      <c r="J5" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!I3="","",_scrb2_day_twoshift!I3)</f>
         <v/>
       </c>
-      <c r="K5" s="42" t="str">
+      <c r="K5" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!J3="","",_scrb2_day_twoshift!J3)</f>
         <v/>
       </c>
-      <c r="L5" s="42" t="str">
+      <c r="L5" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!K3="","",_scrb2_day_twoshift!K3)</f>
         <v/>
       </c>
-      <c r="M5" s="42" t="str">
+      <c r="M5" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!L3="","",_scrb2_day_twoshift!L3)</f>
         <v/>
       </c>
-      <c r="N5" s="42" t="str">
+      <c r="N5" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!M3="","",_scrb2_day_twoshift!M3)</f>
         <v/>
       </c>
-      <c r="O5" s="42" t="str">
+      <c r="O5" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!N3="","",_scrb2_day_twoshift!N3)</f>
         <v/>
       </c>
-      <c r="P5" s="42" t="str">
+      <c r="P5" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!O3="","",_scrb2_day_twoshift!O3)</f>
         <v/>
       </c>
-      <c r="Q5" s="97" t="str">
+      <c r="Q5" s="114" t="str">
         <f>IF(_scrb2_day_twoshift!P3="","",_scrb2_day_twoshift!P3)</f>
         <v/>
       </c>
-      <c r="R5" s="98"/>
+      <c r="R5" s="115"/>
     </row>
     <row r="6" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="13" t="str">
+      <c r="A6" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="67" t="str">
         <f>IFERROR(AVERAGE(B4:B5),"")</f>
         <v/>
       </c>
-      <c r="C6" s="13" t="str">
+      <c r="C6" s="67" t="str">
         <f t="shared" ref="C6:P6" si="0">IFERROR(AVERAGE(C4:C5),"")</f>
         <v/>
       </c>
-      <c r="D6" s="13" t="str">
+      <c r="D6" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E6" s="13" t="str">
+      <c r="E6" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F6" s="13" t="str">
+      <c r="F6" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G6" s="13" t="str">
+      <c r="G6" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H6" s="13" t="str">
+      <c r="H6" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I6" s="13" t="str">
+      <c r="I6" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J6" s="13" t="str">
+      <c r="J6" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K6" s="13" t="str">
+      <c r="K6" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L6" s="13" t="str">
+      <c r="L6" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M6" s="13" t="str">
+      <c r="M6" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N6" s="13" t="str">
+      <c r="N6" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O6" s="13" t="str">
+      <c r="O6" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P6" s="13" t="str">
+      <c r="P6" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3815,282 +4235,282 @@
       <c r="R6" s="117"/>
     </row>
     <row r="7" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="109" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="111"/>
+      <c r="A7" s="107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="109"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="B8" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="14">
         <v>1</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>2</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>5</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>8</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>10</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <v>12</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <v>14</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <v>16</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="14">
         <v>18</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="14">
         <v>19</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="14">
         <v>20</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="14">
         <v>21</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="14">
         <v>22</v>
       </c>
-      <c r="Q8" s="82">
+      <c r="Q8" s="89">
         <v>23</v>
       </c>
-      <c r="R8" s="87"/>
+      <c r="R8" s="92"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="42" t="str">
+      <c r="A9" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!R2="","",_scrb2_day_twoshift!R2)</f>
         <v/>
       </c>
-      <c r="C9" s="42" t="str">
+      <c r="C9" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!S2="","",_scrb2_day_twoshift!S2)</f>
         <v/>
       </c>
-      <c r="D9" s="42" t="str">
+      <c r="D9" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!T2="","",_scrb2_day_twoshift!T2)</f>
         <v/>
       </c>
-      <c r="E9" s="42" t="str">
+      <c r="E9" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!U2="","",_scrb2_day_twoshift!U2)</f>
         <v/>
       </c>
-      <c r="F9" s="42" t="str">
+      <c r="F9" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!V2="","",_scrb2_day_twoshift!V2)</f>
         <v/>
       </c>
-      <c r="G9" s="42" t="str">
+      <c r="G9" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!W2="","",_scrb2_day_twoshift!W2)</f>
         <v/>
       </c>
-      <c r="H9" s="42" t="str">
+      <c r="H9" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!X2="","",_scrb2_day_twoshift!X2)</f>
         <v/>
       </c>
-      <c r="I9" s="42" t="str">
+      <c r="I9" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!Y2="","",_scrb2_day_twoshift!Y2)</f>
         <v/>
       </c>
-      <c r="J9" s="42" t="str">
+      <c r="J9" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!Z2="","",_scrb2_day_twoshift!Z2)</f>
         <v/>
       </c>
-      <c r="K9" s="42" t="str">
+      <c r="K9" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!AA2="","",_scrb2_day_twoshift!AA2)</f>
         <v/>
       </c>
-      <c r="L9" s="42" t="str">
+      <c r="L9" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!AB2="","",_scrb2_day_twoshift!AB2)</f>
         <v/>
       </c>
-      <c r="M9" s="42" t="str">
+      <c r="M9" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!AC2="","",_scrb2_day_twoshift!AC2)</f>
         <v/>
       </c>
-      <c r="N9" s="42" t="str">
+      <c r="N9" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!AD2="","",_scrb2_day_twoshift!AD2)</f>
         <v/>
       </c>
-      <c r="O9" s="42" t="str">
+      <c r="O9" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!AE2="","",_scrb2_day_twoshift!AE2)</f>
         <v/>
       </c>
-      <c r="P9" s="42" t="str">
+      <c r="P9" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!AF2="","",_scrb2_day_twoshift!AF2)</f>
         <v/>
       </c>
-      <c r="Q9" s="97" t="str">
+      <c r="Q9" s="114" t="str">
         <f>IF(_scrb2_day_twoshift!AG2="","",_scrb2_day_twoshift!AG2)</f>
         <v/>
       </c>
-      <c r="R9" s="98"/>
+      <c r="R9" s="115"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="42" t="str">
+      <c r="A10" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!R3="","",_scrb2_day_twoshift!R3)</f>
         <v/>
       </c>
-      <c r="C10" s="42" t="str">
+      <c r="C10" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!S3="","",_scrb2_day_twoshift!S3)</f>
         <v/>
       </c>
-      <c r="D10" s="42" t="str">
+      <c r="D10" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!T3="","",_scrb2_day_twoshift!T3)</f>
         <v/>
       </c>
-      <c r="E10" s="42" t="str">
+      <c r="E10" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!U3="","",_scrb2_day_twoshift!U3)</f>
         <v/>
       </c>
-      <c r="F10" s="42" t="str">
+      <c r="F10" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!V3="","",_scrb2_day_twoshift!V3)</f>
         <v/>
       </c>
-      <c r="G10" s="42" t="str">
+      <c r="G10" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!W3="","",_scrb2_day_twoshift!W3)</f>
         <v/>
       </c>
-      <c r="H10" s="42" t="str">
+      <c r="H10" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!X3="","",_scrb2_day_twoshift!X3)</f>
         <v/>
       </c>
-      <c r="I10" s="42" t="str">
+      <c r="I10" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!Y3="","",_scrb2_day_twoshift!Y3)</f>
         <v/>
       </c>
-      <c r="J10" s="42" t="str">
+      <c r="J10" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!Z3="","",_scrb2_day_twoshift!Z3)</f>
         <v/>
       </c>
-      <c r="K10" s="42" t="str">
+      <c r="K10" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!AA3="","",_scrb2_day_twoshift!AA3)</f>
         <v/>
       </c>
-      <c r="L10" s="42" t="str">
+      <c r="L10" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!AB3="","",_scrb2_day_twoshift!AB3)</f>
         <v/>
       </c>
-      <c r="M10" s="42" t="str">
+      <c r="M10" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!AC3="","",_scrb2_day_twoshift!AC3)</f>
         <v/>
       </c>
-      <c r="N10" s="42" t="str">
+      <c r="N10" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!AD3="","",_scrb2_day_twoshift!AD3)</f>
         <v/>
       </c>
-      <c r="O10" s="42" t="str">
+      <c r="O10" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!AE3="","",_scrb2_day_twoshift!AE3)</f>
         <v/>
       </c>
-      <c r="P10" s="42" t="str">
+      <c r="P10" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!AF3="","",_scrb2_day_twoshift!AF3)</f>
         <v/>
       </c>
-      <c r="Q10" s="97" t="str">
+      <c r="Q10" s="114" t="str">
         <f>IF(_scrb2_day_twoshift!AG3="","",_scrb2_day_twoshift!AG3)</f>
         <v/>
       </c>
-      <c r="R10" s="98"/>
+      <c r="R10" s="115"/>
     </row>
     <row r="11" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" s="49" t="str">
+      <c r="A11" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="72" t="str">
         <f>IFERROR(AVERAGE(B9:B10),"")</f>
         <v/>
       </c>
-      <c r="C11" s="49" t="str">
+      <c r="C11" s="72" t="str">
         <f t="shared" ref="C11:P11" si="2">IFERROR(AVERAGE(C9:C10),"")</f>
         <v/>
       </c>
-      <c r="D11" s="49" t="str">
+      <c r="D11" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E11" s="49" t="str">
+      <c r="E11" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F11" s="49" t="str">
+      <c r="F11" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G11" s="49" t="str">
+      <c r="G11" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H11" s="49" t="str">
+      <c r="H11" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I11" s="49" t="str">
+      <c r="I11" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J11" s="49" t="str">
+      <c r="J11" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K11" s="49" t="str">
+      <c r="K11" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L11" s="49" t="str">
+      <c r="L11" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M11" s="49" t="str">
+      <c r="M11" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N11" s="49" t="str">
+      <c r="N11" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O11" s="49" t="str">
+      <c r="O11" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P11" s="49" t="str">
+      <c r="P11" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4101,607 +4521,612 @@
       <c r="R11" s="119"/>
     </row>
     <row r="12" spans="1:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="112" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="115" t="s">
-        <v>186</v>
-      </c>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="114"/>
+      <c r="A12" s="110" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="112"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="124" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="G13" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="H13" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="I13" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="J13" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="K13" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="M13" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="N13" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="50" t="s">
+      <c r="O13" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="R13" s="45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="125"/>
+      <c r="B14" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="J13" s="51" t="s">
+      <c r="C14" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="K13" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="50" t="s">
+      <c r="D14" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="M13" s="50" t="s">
+      <c r="L14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="N13" s="50" t="s">
+      <c r="M14" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="O13" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="P13" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q13" s="50" t="s">
+      <c r="P14" s="44" t="str">
+        <f>IF(_scrb2_day_twoshift!AN2="","",_scrb2_day_twoshift!AN2)</f>
+        <v/>
+      </c>
+      <c r="Q14" s="44" t="str">
+        <f>IF(_scrb2_day_twoshift!AO2="","",_scrb2_day_twoshift!AO2)</f>
+        <v/>
+      </c>
+      <c r="R14" s="45"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="R13" s="51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="102"/>
-      <c r="B14" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="50" t="s">
+      <c r="C15" s="44" t="str">
+        <f>IF(_scrb2_day_twoshift!AI2="","",_scrb2_day_twoshift!AI2)</f>
+        <v/>
+      </c>
+      <c r="D15" s="44" t="str">
+        <f>IF(_scrb2_day_twoshift!AJ2="","",_scrb2_day_twoshift!AJ2)</f>
+        <v/>
+      </c>
+      <c r="E15" s="44" t="str">
+        <f>IF(_scrb2_day_twoshift!AK2="","",_scrb2_day_twoshift!AK2)</f>
+        <v/>
+      </c>
+      <c r="F15" s="44" t="str">
+        <f>IF(_scrb2_day_twoshift!AL2="","",_scrb2_day_twoshift!AL2)</f>
+        <v/>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="J14" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="52" t="s">
+      <c r="L15" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="M15" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="L14" s="50" t="s">
+      <c r="P15" s="44" t="str">
+        <f>IF(_scrb2_day_twoshift!AP2="","",_scrb2_day_twoshift!AP2)</f>
+        <v/>
+      </c>
+      <c r="Q15" s="44" t="str">
+        <f>IF(_scrb2_day_twoshift!AQ2="","",_scrb2_day_twoshift!AQ2)</f>
+        <v/>
+      </c>
+      <c r="R15" s="45"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44" t="str">
+        <f>IF(_scrb2_day_twoshift!AI3="","",_scrb2_day_twoshift!AI3)</f>
+        <v/>
+      </c>
+      <c r="D16" s="44" t="str">
+        <f>IF(_scrb2_day_twoshift!AJ3="","",_scrb2_day_twoshift!AJ3)</f>
+        <v/>
+      </c>
+      <c r="E16" s="44" t="str">
+        <f>IF(_scrb2_day_twoshift!AK3="","",_scrb2_day_twoshift!AK3)</f>
+        <v/>
+      </c>
+      <c r="F16" s="44" t="str">
+        <f>IF(_scrb2_day_twoshift!AL3="","",_scrb2_day_twoshift!AL3)</f>
+        <v/>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="M14" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50" t="s">
+      <c r="L16" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="M16" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="P14" s="50" t="str">
-        <f>IF(_scrb2_day_twoshift!AN2="","",_scrb2_day_twoshift!AN2)</f>
-        <v/>
-      </c>
-      <c r="Q14" s="50" t="str">
-        <f>IF(_scrb2_day_twoshift!AO2="","",_scrb2_day_twoshift!AO2)</f>
-        <v/>
-      </c>
-      <c r="R14" s="51"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="53" t="s">
+      <c r="P16" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="R16" s="45"/>
+    </row>
+    <row r="17" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="50" t="str">
-        <f>IF(_scrb2_day_twoshift!AI2="","",_scrb2_day_twoshift!AI2)</f>
-        <v/>
-      </c>
-      <c r="D15" s="50" t="str">
-        <f>IF(_scrb2_day_twoshift!AJ2="","",_scrb2_day_twoshift!AJ2)</f>
-        <v/>
-      </c>
-      <c r="E15" s="50" t="str">
-        <f>IF(_scrb2_day_twoshift!AK2="","",_scrb2_day_twoshift!AK2)</f>
-        <v/>
-      </c>
-      <c r="F15" s="50" t="str">
-        <f>IF(_scrb2_day_twoshift!AL2="","",_scrb2_day_twoshift!AL2)</f>
-        <v/>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="J15" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="K15" s="52" t="s">
+      <c r="L17" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="L15" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="M15" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="P15" s="50" t="str">
-        <f>IF(_scrb2_day_twoshift!AP2="","",_scrb2_day_twoshift!AP2)</f>
-        <v/>
-      </c>
-      <c r="Q15" s="50" t="str">
-        <f>IF(_scrb2_day_twoshift!AQ2="","",_scrb2_day_twoshift!AQ2)</f>
-        <v/>
-      </c>
-      <c r="R15" s="51"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50" t="str">
-        <f>IF(_scrb2_day_twoshift!AI3="","",_scrb2_day_twoshift!AI3)</f>
-        <v/>
-      </c>
-      <c r="D16" s="50" t="str">
-        <f>IF(_scrb2_day_twoshift!AJ3="","",_scrb2_day_twoshift!AJ3)</f>
-        <v/>
-      </c>
-      <c r="E16" s="50" t="str">
-        <f>IF(_scrb2_day_twoshift!AK3="","",_scrb2_day_twoshift!AK3)</f>
-        <v/>
-      </c>
-      <c r="F16" s="50" t="str">
-        <f>IF(_scrb2_day_twoshift!AL3="","",_scrb2_day_twoshift!AL3)</f>
-        <v/>
-      </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="M16" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="P16" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="R16" s="51"/>
-    </row>
-    <row r="17" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="L17" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="M17" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="P17" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="R17" s="54"/>
+      <c r="P17" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="R17" s="48"/>
     </row>
     <row r="18" spans="1:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="103" t="s">
-        <v>187</v>
-      </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="104"/>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="105"/>
+      <c r="A18" s="126" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="127"/>
+      <c r="N18" s="127"/>
+      <c r="O18" s="127"/>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="127"/>
+      <c r="R18" s="128"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="G19" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="H19" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="I19" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="J19" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="K19" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="L19" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="M19" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="N19" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="J19" s="42" t="s">
+      <c r="O19" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="42" t="s">
+      <c r="P19" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="L19" s="42" t="s">
+      <c r="Q19" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="M19" s="42" t="s">
+      <c r="R19" s="121"/>
+    </row>
+    <row r="20" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!AS2="","",_scrb2_day_twoshift!AS2)</f>
+        <v/>
+      </c>
+      <c r="C20" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!AT2="","",_scrb2_day_twoshift!AT2)</f>
+        <v/>
+      </c>
+      <c r="D20" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!AU2="","",_scrb2_day_twoshift!AU2)</f>
+        <v/>
+      </c>
+      <c r="E20" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!AV2="","",_scrb2_day_twoshift!AV2)</f>
+        <v/>
+      </c>
+      <c r="F20" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!AW2="","",_scrb2_day_twoshift!AW2)</f>
+        <v/>
+      </c>
+      <c r="G20" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!AX2="","",_scrb2_day_twoshift!AX2)</f>
+        <v/>
+      </c>
+      <c r="H20" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!AY2="","",_scrb2_day_twoshift!AY2)</f>
+        <v/>
+      </c>
+      <c r="I20" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!AZ2="","",_scrb2_day_twoshift!AZ2)</f>
+        <v/>
+      </c>
+      <c r="J20" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!BA2="","",_scrb2_day_twoshift!BA2)</f>
+        <v/>
+      </c>
+      <c r="K20" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!BB2="","",_scrb2_day_twoshift!BB2)</f>
+        <v/>
+      </c>
+      <c r="L20" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!BC2="","",_scrb2_day_twoshift!BC2)</f>
+        <v/>
+      </c>
+      <c r="M20" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!BD2="","",_scrb2_day_twoshift!BD2)</f>
+        <v/>
+      </c>
+      <c r="N20" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!BE2="","",_scrb2_day_twoshift!BE2)</f>
+        <v/>
+      </c>
+      <c r="O20" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!BF2="","",_scrb2_day_twoshift!BF2)</f>
+        <v/>
+      </c>
+      <c r="P20" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!BG2="","",_scrb2_day_twoshift!BG2)</f>
+        <v/>
+      </c>
+      <c r="Q20" s="114" t="str">
+        <f>IF(_scrb2_day_twoshift!BH2="","",_scrb2_day_twoshift!BH2)</f>
+        <v/>
+      </c>
+      <c r="R20" s="115"/>
+    </row>
+    <row r="21" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!AS3="","",_scrb2_day_twoshift!AS3)</f>
+        <v/>
+      </c>
+      <c r="C21" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!AT3="","",_scrb2_day_twoshift!AT3)</f>
+        <v/>
+      </c>
+      <c r="D21" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!AU3="","",_scrb2_day_twoshift!AU3)</f>
+        <v/>
+      </c>
+      <c r="E21" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!AV3="","",_scrb2_day_twoshift!AV3)</f>
+        <v/>
+      </c>
+      <c r="F21" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!AW3="","",_scrb2_day_twoshift!AW3)</f>
+        <v/>
+      </c>
+      <c r="G21" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!AX3="","",_scrb2_day_twoshift!AX3)</f>
+        <v/>
+      </c>
+      <c r="H21" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!AY3="","",_scrb2_day_twoshift!AY3)</f>
+        <v/>
+      </c>
+      <c r="I21" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!AZ3="","",_scrb2_day_twoshift!AZ3)</f>
+        <v/>
+      </c>
+      <c r="J21" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!BA3="","",_scrb2_day_twoshift!BA3)</f>
+        <v/>
+      </c>
+      <c r="K21" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!BB3="","",_scrb2_day_twoshift!BB3)</f>
+        <v/>
+      </c>
+      <c r="L21" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!BC3="","",_scrb2_day_twoshift!BC3)</f>
+        <v/>
+      </c>
+      <c r="M21" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!BD3="","",_scrb2_day_twoshift!BD3)</f>
+        <v/>
+      </c>
+      <c r="N21" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!BE3="","",_scrb2_day_twoshift!BE3)</f>
+        <v/>
+      </c>
+      <c r="O21" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!BF3="","",_scrb2_day_twoshift!BF3)</f>
+        <v/>
+      </c>
+      <c r="P21" s="62" t="str">
+        <f>IF(_scrb2_day_twoshift!BG3="","",_scrb2_day_twoshift!BG3)</f>
+        <v/>
+      </c>
+      <c r="Q21" s="122" t="str">
+        <f>IF(_scrb2_day_twoshift!BH3="","",_scrb2_day_twoshift!BH3)</f>
+        <v/>
+      </c>
+      <c r="R21" s="123"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="N19" s="42" t="s">
+      <c r="B22" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="O19" s="42" t="s">
+      <c r="E22" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="P19" s="42" t="s">
+      <c r="F22" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="Q19" s="95" t="s">
+      <c r="G22" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="J22" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="R19" s="96"/>
-    </row>
-    <row r="20" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!AS2="","",_scrb2_day_twoshift!AS2)</f>
-        <v/>
-      </c>
-      <c r="C20" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!AT2="","",_scrb2_day_twoshift!AT2)</f>
-        <v/>
-      </c>
-      <c r="D20" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!AU2="","",_scrb2_day_twoshift!AU2)</f>
-        <v/>
-      </c>
-      <c r="E20" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!AV2="","",_scrb2_day_twoshift!AV2)</f>
-        <v/>
-      </c>
-      <c r="F20" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!AW2="","",_scrb2_day_twoshift!AW2)</f>
-        <v/>
-      </c>
-      <c r="G20" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!AX2="","",_scrb2_day_twoshift!AX2)</f>
-        <v/>
-      </c>
-      <c r="H20" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!AY2="","",_scrb2_day_twoshift!AY2)</f>
-        <v/>
-      </c>
-      <c r="I20" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!AZ2="","",_scrb2_day_twoshift!AZ2)</f>
-        <v/>
-      </c>
-      <c r="J20" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!BA2="","",_scrb2_day_twoshift!BA2)</f>
-        <v/>
-      </c>
-      <c r="K20" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!BB2="","",_scrb2_day_twoshift!BB2)</f>
-        <v/>
-      </c>
-      <c r="L20" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!BC2="","",_scrb2_day_twoshift!BC2)</f>
-        <v/>
-      </c>
-      <c r="M20" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!BD2="","",_scrb2_day_twoshift!BD2)</f>
-        <v/>
-      </c>
-      <c r="N20" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!BE2="","",_scrb2_day_twoshift!BE2)</f>
-        <v/>
-      </c>
-      <c r="O20" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!BF2="","",_scrb2_day_twoshift!BF2)</f>
-        <v/>
-      </c>
-      <c r="P20" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!BG2="","",_scrb2_day_twoshift!BG2)</f>
-        <v/>
-      </c>
-      <c r="Q20" s="97" t="str">
-        <f>IF(_scrb2_day_twoshift!BH2="","",_scrb2_day_twoshift!BH2)</f>
-        <v/>
-      </c>
-      <c r="R20" s="98"/>
-    </row>
-    <row r="21" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!AS3="","",_scrb2_day_twoshift!AS3)</f>
-        <v/>
-      </c>
-      <c r="C21" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!AT3="","",_scrb2_day_twoshift!AT3)</f>
-        <v/>
-      </c>
-      <c r="D21" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!AU3="","",_scrb2_day_twoshift!AU3)</f>
-        <v/>
-      </c>
-      <c r="E21" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!AV3="","",_scrb2_day_twoshift!AV3)</f>
-        <v/>
-      </c>
-      <c r="F21" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!AW3="","",_scrb2_day_twoshift!AW3)</f>
-        <v/>
-      </c>
-      <c r="G21" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!AX3="","",_scrb2_day_twoshift!AX3)</f>
-        <v/>
-      </c>
-      <c r="H21" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!AY3="","",_scrb2_day_twoshift!AY3)</f>
-        <v/>
-      </c>
-      <c r="I21" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!AZ3="","",_scrb2_day_twoshift!AZ3)</f>
-        <v/>
-      </c>
-      <c r="J21" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!BA3="","",_scrb2_day_twoshift!BA3)</f>
-        <v/>
-      </c>
-      <c r="K21" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!BB3="","",_scrb2_day_twoshift!BB3)</f>
-        <v/>
-      </c>
-      <c r="L21" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!BC3="","",_scrb2_day_twoshift!BC3)</f>
-        <v/>
-      </c>
-      <c r="M21" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!BD3="","",_scrb2_day_twoshift!BD3)</f>
-        <v/>
-      </c>
-      <c r="N21" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!BE3="","",_scrb2_day_twoshift!BE3)</f>
-        <v/>
-      </c>
-      <c r="O21" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!BF3="","",_scrb2_day_twoshift!BF3)</f>
-        <v/>
-      </c>
-      <c r="P21" s="42" t="str">
-        <f>IF(_scrb2_day_twoshift!BG3="","",_scrb2_day_twoshift!BG3)</f>
-        <v/>
-      </c>
-      <c r="Q21" s="99" t="str">
-        <f>IF(_scrb2_day_twoshift!BH3="","",_scrb2_day_twoshift!BH3)</f>
-        <v/>
-      </c>
-      <c r="R21" s="100"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="H22" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="I22" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="J22" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="K22" s="60"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="B23" s="42" t="str">
+      <c r="A23" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!BJ2="","",_scrb2_day_twoshift!BJ2)</f>
         <v/>
       </c>
-      <c r="C23" s="42" t="str">
+      <c r="C23" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!BK2="","",_scrb2_day_twoshift!BK2)</f>
         <v/>
       </c>
-      <c r="D23" s="42" t="str">
+      <c r="D23" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!BL2="","",_scrb2_day_twoshift!BL2)</f>
         <v/>
       </c>
-      <c r="E23" s="42" t="str">
+      <c r="E23" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!BM2="","",_scrb2_day_twoshift!BM2)</f>
         <v/>
       </c>
-      <c r="F23" s="42" t="str">
+      <c r="F23" s="62" t="str">
         <f>IF(_scrb2_day_twoshift!BN2="","",_scrb2_day_twoshift!BN2)</f>
         <v/>
       </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
     </row>
     <row r="24" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="B24" s="43" t="str">
+      <c r="A24" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" s="39" t="str">
         <f>IF(_scrb2_day_twoshift!BJ3="","",_scrb2_day_twoshift!BJ3)</f>
         <v/>
       </c>
-      <c r="C24" s="43" t="str">
+      <c r="C24" s="39" t="str">
         <f>IF(_scrb2_day_twoshift!BK3="","",_scrb2_day_twoshift!BK3)</f>
         <v/>
       </c>
-      <c r="D24" s="43" t="str">
+      <c r="D24" s="39" t="str">
         <f>IF(_scrb2_day_twoshift!BL3="","",_scrb2_day_twoshift!BL3)</f>
         <v/>
       </c>
-      <c r="E24" s="43" t="str">
+      <c r="E24" s="39" t="str">
         <f>IF(_scrb2_day_twoshift!BM3="","",_scrb2_day_twoshift!BM3)</f>
         <v/>
       </c>
-      <c r="F24" s="43" t="str">
+      <c r="F24" s="39" t="str">
         <f>IF(_scrb2_day_twoshift!BN3="","",_scrb2_day_twoshift!BN3)</f>
         <v/>
       </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A18:R18"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A7:R7"/>
@@ -4715,11 +5140,6 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A18:R18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4729,10 +5149,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7A3F53-6C3A-4C66-80DC-0EECF6D56C42}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4744,48 +5164,90 @@
     <col min="13" max="43" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" t="s">
         <v>189</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>190</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>191</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>192</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>193</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>194</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>195</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>196</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>197</v>
       </c>
-      <c r="K1" t="s">
-        <v>198</v>
-      </c>
-      <c r="L1" t="s">
-        <v>199</v>
-      </c>
-      <c r="M1" t="s">
-        <v>200</v>
-      </c>
-      <c r="N1" t="s">
-        <v>201</v>
-      </c>
-      <c r="O1" t="s">
-        <v>202</v>
+      <c r="Q1" t="s">
+        <v>260</v>
+      </c>
+      <c r="R1" t="s">
+        <v>261</v>
+      </c>
+      <c r="S1" t="s">
+        <v>262</v>
+      </c>
+      <c r="T1" t="s">
+        <v>263</v>
+      </c>
+      <c r="U1" t="s">
+        <v>264</v>
+      </c>
+      <c r="V1" t="s">
+        <v>265</v>
+      </c>
+      <c r="W1" t="s">
+        <v>266</v>
+      </c>
+      <c r="X1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4809,187 +5271,187 @@
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" t="s">
         <v>203</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>204</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>205</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>206</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>207</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>208</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>209</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>210</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>211</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>212</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>213</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>214</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>215</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>216</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>217</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>218</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>219</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>220</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>221</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
         <v>222</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
         <v>223</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AB1" t="s">
         <v>224</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AC1" t="s">
         <v>225</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AD1" t="s">
         <v>226</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AE1" t="s">
         <v>227</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AF1" t="s">
         <v>228</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AG1" t="s">
         <v>229</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AI1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN1" t="s">
         <v>230</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AO1" t="s">
         <v>231</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AP1" t="s">
         <v>232</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AQ1" t="s">
         <v>233</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AS1" t="s">
         <v>234</v>
       </c>
-      <c r="AI1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AN1" t="s">
+      <c r="AT1" t="s">
         <v>235</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AU1" t="s">
         <v>236</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AV1" t="s">
         <v>237</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AW1" t="s">
         <v>238</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AX1" t="s">
         <v>239</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AY1" t="s">
         <v>240</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AZ1" t="s">
         <v>241</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BA1" t="s">
         <v>242</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BB1" t="s">
         <v>243</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BC1" t="s">
         <v>244</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BD1" t="s">
         <v>245</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BE1" t="s">
         <v>246</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BF1" t="s">
         <v>247</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BG1" t="s">
         <v>248</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BH1" t="s">
         <v>249</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BJ1" t="s">
         <v>250</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BK1" t="s">
         <v>251</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BL1" t="s">
         <v>252</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BM1" t="s">
         <v>253</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BN1" t="s">
         <v>254</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>255</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>257</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>258</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -5010,7 +5472,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B1">
         <v>4</v>

--- a/excel/finished/wg4#烧结/4烧结生产报表.xlsx
+++ b/excel/finished/wg4#烧结/4烧结生产报表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7529E7-85C3-49C3-9DBF-D3D8DFD27965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96065EFC-4A38-4BC5-BE54-B63CFC151EC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3812,7 +3812,7 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4656,10 +4656,22 @@
         <v>164</v>
       </c>
       <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
+      <c r="C17" s="38" t="str">
+        <f>IFERROR(AVERAGE(C15:C16),"")</f>
+        <v/>
+      </c>
+      <c r="D17" s="38" t="str">
+        <f t="shared" ref="D17:F17" si="4">IFERROR(AVERAGE(D15:D16),"")</f>
+        <v/>
+      </c>
+      <c r="E17" s="38" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F17" s="38" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
       <c r="I17" s="38"/>

--- a/excel/finished/wg4#烧结/4烧结生产报表.xlsx
+++ b/excel/finished/wg4#烧结/4烧结生产报表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96065EFC-4A38-4BC5-BE54-B63CFC151EC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C631882-1776-4DFA-8BED-B02F6F763C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="306">
   <si>
     <t>产量</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,14 +67,6 @@
   </si>
   <si>
     <t>夜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -668,10 +660,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计算点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>混匀粉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1191,6 +1179,34 @@
   <si>
     <t>YL_TFe</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_ProductPerHour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP_ST4_MESR_SIN_SinterUF</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_QualifiedRate</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_Grade1Rate</t>
+  </si>
+  <si>
+    <t>YL_Ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YL_Vdaf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YL_FCd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_Bed103BedMatInsFl</t>
   </si>
 </sst>
 </file>
@@ -1685,7 +1701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1870,6 +1886,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2417,53 +2436,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="87"/>
+      <c r="A1" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="88"/>
     </row>
     <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="81" t="s">
-        <v>148</v>
-      </c>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="83"/>
+      <c r="A2" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="84"/>
     </row>
     <row r="3" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="44" t="s">
@@ -2473,19 +2492,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H3" s="44" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I3" s="44" t="s">
         <v>2</v>
@@ -2497,29 +2516,29 @@
         <v>4</v>
       </c>
       <c r="L3" s="48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N3" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="P3" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="Q3" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="R3" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="Q3" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="68"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="44" t="s">
         <v>6</v>
       </c>
@@ -2548,13 +2567,13 @@
         <v>8</v>
       </c>
       <c r="K4" s="44" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="64" t="s">
-        <v>138</v>
+      <c r="M4" s="65" t="s">
+        <v>136</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -2570,39 +2589,43 @@
         <f>IF(_scrb1_day_twoshift!A2="","",_scrb1_day_twoshift!A2)</f>
         <v/>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="58" t="str">
+        <f>IF(_scrb1_day_twoshift!B2="","",_scrb1_day_twoshift!B2)</f>
+        <v/>
+      </c>
+      <c r="D5" s="58" t="str">
+        <f>IF(_scrb1_day_twoshift!C2="","",_scrb1_day_twoshift!C2)</f>
+        <v/>
+      </c>
+      <c r="E5" s="58" t="str">
+        <f>IF(_scrb1_day_twoshift!D2="","",_scrb1_day_twoshift!D2)</f>
+        <v/>
+      </c>
+      <c r="F5" s="58" t="str">
+        <f>IF(_scrb1_day_twoshift!E2="","",_scrb1_day_twoshift!E2)</f>
+        <v/>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="44" t="s">
+      <c r="H5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="I5" s="18" t="str">
+        <f>IF(_scrb1_day_twoshift!F2="","",_scrb1_day_twoshift!F2)</f>
+        <v/>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="44" t="str">
+        <f>IF(_scrb1_day_twoshift!G2="","",_scrb1_day_twoshift!G2)</f>
+        <v/>
+      </c>
+      <c r="L5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!B2="","",_scrb1_day_twoshift!B2)</f>
-        <v/>
-      </c>
-      <c r="J5" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="44" t="str">
-        <f>IF(_scrb1_day_twoshift!C2="","",_scrb1_day_twoshift!C2)</f>
-        <v/>
-      </c>
-      <c r="L5" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="88"/>
+      <c r="M5" s="89"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
@@ -2611,29 +2634,41 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="43" t="str">
+        <v>14</v>
+      </c>
+      <c r="B6" s="58" t="str">
         <f>IF(_scrb1_day_twoshift!A3="","",_scrb1_day_twoshift!A3)</f>
         <v/>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="C6" s="58" t="str">
+        <f>IF(_scrb1_day_twoshift!B3="","",_scrb1_day_twoshift!B3)</f>
+        <v/>
+      </c>
+      <c r="D6" s="58" t="str">
+        <f>IF(_scrb1_day_twoshift!C3="","",_scrb1_day_twoshift!C3)</f>
+        <v/>
+      </c>
+      <c r="E6" s="58" t="str">
+        <f>IF(_scrb1_day_twoshift!D3="","",_scrb1_day_twoshift!D3)</f>
+        <v/>
+      </c>
+      <c r="F6" s="58" t="str">
+        <f>IF(_scrb1_day_twoshift!E3="","",_scrb1_day_twoshift!E3)</f>
+        <v/>
+      </c>
       <c r="G6" s="44"/>
       <c r="H6" s="44"/>
       <c r="I6" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!B3="","",_scrb1_day_twoshift!B3)</f>
+        <f>IF(_scrb1_day_twoshift!F3="","",_scrb1_day_twoshift!F3)</f>
         <v/>
       </c>
       <c r="J6" s="44"/>
       <c r="K6" s="44" t="str">
-        <f>IF(_scrb1_day_twoshift!C3="","",_scrb1_day_twoshift!C3)</f>
+        <f>IF(_scrb1_day_twoshift!G3="","",_scrb1_day_twoshift!G3)</f>
         <v/>
       </c>
       <c r="L6" s="48"/>
-      <c r="M6" s="88"/>
+      <c r="M6" s="89"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
@@ -2641,51 +2676,51 @@
       <c r="R6" s="13"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A7" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="70" t="str">
+      <c r="A7" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="71" t="str">
         <f>IF(SUM(B5:B6),SUM(B5:B6),"")</f>
         <v/>
       </c>
-      <c r="C7" s="71" t="str">
-        <f t="shared" ref="C7" si="0">IFERROR(AVERAGE(C5:C6),"")</f>
-        <v/>
-      </c>
-      <c r="D7" s="71" t="str">
-        <f t="shared" ref="D7" si="1">IFERROR(AVERAGE(D5:D6),"")</f>
-        <v/>
-      </c>
-      <c r="E7" s="71" t="str">
-        <f t="shared" ref="E7" si="2">IFERROR(AVERAGE(E5:E6),"")</f>
-        <v/>
-      </c>
-      <c r="F7" s="71" t="str">
-        <f t="shared" ref="F7" si="3">IFERROR(AVERAGE(F5:F6),"")</f>
-        <v/>
-      </c>
-      <c r="G7" s="71" t="str">
-        <f t="shared" ref="G7" si="4">IFERROR(AVERAGE(G5:G6),"")</f>
-        <v/>
-      </c>
-      <c r="H7" s="71" t="str">
-        <f t="shared" ref="H7" si="5">IFERROR(AVERAGE(H5:H6),"")</f>
-        <v/>
-      </c>
-      <c r="I7" s="71" t="str">
-        <f t="shared" ref="I7" si="6">IFERROR(AVERAGE(I5:I6),"")</f>
-        <v/>
-      </c>
-      <c r="J7" s="71" t="str">
-        <f t="shared" ref="J7" si="7">IFERROR(AVERAGE(J5:J6),"")</f>
-        <v/>
-      </c>
-      <c r="K7" s="71" t="str">
-        <f t="shared" ref="K7" si="8">IFERROR(AVERAGE(K5:K6),"")</f>
-        <v/>
-      </c>
-      <c r="L7" s="78"/>
-      <c r="M7" s="65"/>
+      <c r="C7" s="72" t="str">
+        <f t="shared" ref="C7:F7" si="0">IFERROR(AVERAGE(C5:C6),"")</f>
+        <v/>
+      </c>
+      <c r="D7" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E7" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F7" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G7" s="72" t="str">
+        <f t="shared" ref="G7" si="1">IFERROR(AVERAGE(G5:G6),"")</f>
+        <v/>
+      </c>
+      <c r="H7" s="72" t="str">
+        <f t="shared" ref="H7" si="2">IFERROR(AVERAGE(H5:H6),"")</f>
+        <v/>
+      </c>
+      <c r="I7" s="72" t="str">
+        <f t="shared" ref="I7" si="3">IFERROR(AVERAGE(I5:I6),"")</f>
+        <v/>
+      </c>
+      <c r="J7" s="72" t="str">
+        <f t="shared" ref="J7" si="4">IFERROR(AVERAGE(J5:J6),"")</f>
+        <v/>
+      </c>
+      <c r="K7" s="72" t="str">
+        <f t="shared" ref="K7" si="5">IFERROR(AVERAGE(K5:K6),"")</f>
+        <v/>
+      </c>
+      <c r="L7" s="79"/>
+      <c r="M7" s="66"/>
       <c r="N7" s="2"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
@@ -2693,20 +2728,20 @@
       <c r="R7" s="13"/>
     </row>
     <row r="8" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="69"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="64" t="s">
-        <v>139</v>
+      <c r="A8" s="70"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="65" t="s">
+        <v>137</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -2715,21 +2750,21 @@
       <c r="R8" s="13"/>
     </row>
     <row r="9" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="88"/>
+      <c r="A9" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="89"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
@@ -2737,43 +2772,43 @@
       <c r="R9" s="13"/>
     </row>
     <row r="10" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="I10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="L10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="88"/>
+      <c r="M10" s="89"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
@@ -2781,41 +2816,41 @@
       <c r="R10" s="13"/>
     </row>
     <row r="11" spans="1:18" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="E11" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="F11" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="G11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="J11" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="I11" s="44" t="s">
+      <c r="K11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="L11" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="88"/>
+      <c r="M11" s="89"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
@@ -2827,50 +2862,50 @@
         <v>10</v>
       </c>
       <c r="B12" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!E2="","",_scrb1_day_twoshift!E2)</f>
+        <f>IF(_scrb1_day_twoshift!I2="","",_scrb1_day_twoshift!I2)</f>
         <v/>
       </c>
       <c r="C12" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!F2="","",_scrb1_day_twoshift!F2)</f>
+        <f>IF(_scrb1_day_twoshift!J2="","",_scrb1_day_twoshift!J2)</f>
         <v/>
       </c>
       <c r="D12" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!G2="","",_scrb1_day_twoshift!G2)</f>
+        <f>IF(_scrb1_day_twoshift!K2="","",_scrb1_day_twoshift!K2)</f>
         <v/>
       </c>
       <c r="E12" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!H2="","",_scrb1_day_twoshift!H2)</f>
+        <f>IF(_scrb1_day_twoshift!L2="","",_scrb1_day_twoshift!L2)</f>
         <v/>
       </c>
       <c r="F12" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!I2="","",_scrb1_day_twoshift!I2)</f>
+        <f>IF(_scrb1_day_twoshift!M2="","",_scrb1_day_twoshift!M2)</f>
         <v/>
       </c>
       <c r="G12" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!J2="","",_scrb1_day_twoshift!J2)</f>
+        <f>IF(_scrb1_day_twoshift!N2="","",_scrb1_day_twoshift!N2)</f>
         <v/>
       </c>
       <c r="H12" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!K2="","",_scrb1_day_twoshift!K2)</f>
+        <f>IF(_scrb1_day_twoshift!O2="","",_scrb1_day_twoshift!O2)</f>
         <v/>
       </c>
       <c r="I12" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!L2="","",_scrb1_day_twoshift!L2)</f>
+        <f>IF(_scrb1_day_twoshift!P2="","",_scrb1_day_twoshift!P2)</f>
         <v/>
       </c>
       <c r="J12" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!M2="","",_scrb1_day_twoshift!M2)</f>
+        <f>IF(_scrb1_day_twoshift!Q2="","",_scrb1_day_twoshift!Q2)</f>
         <v/>
       </c>
       <c r="K12" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!N2="","",_scrb1_day_twoshift!N2)</f>
+        <f>IF(_scrb1_day_twoshift!R2="","",_scrb1_day_twoshift!R2)</f>
         <v/>
       </c>
       <c r="L12" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!O2="","",_scrb1_day_twoshift!O2)</f>
-        <v/>
-      </c>
-      <c r="M12" s="88"/>
+        <f>IF(_scrb1_day_twoshift!S2="","",_scrb1_day_twoshift!S2)</f>
+        <v/>
+      </c>
+      <c r="M12" s="89"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
@@ -2879,53 +2914,53 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!E3="","",_scrb1_day_twoshift!E3)</f>
+        <f>IF(_scrb1_day_twoshift!I3="","",_scrb1_day_twoshift!I3)</f>
         <v/>
       </c>
       <c r="C13" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!F3="","",_scrb1_day_twoshift!F3)</f>
+        <f>IF(_scrb1_day_twoshift!J3="","",_scrb1_day_twoshift!J3)</f>
         <v/>
       </c>
       <c r="D13" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!G3="","",_scrb1_day_twoshift!G3)</f>
+        <f>IF(_scrb1_day_twoshift!K3="","",_scrb1_day_twoshift!K3)</f>
         <v/>
       </c>
       <c r="E13" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!H3="","",_scrb1_day_twoshift!H3)</f>
+        <f>IF(_scrb1_day_twoshift!L3="","",_scrb1_day_twoshift!L3)</f>
         <v/>
       </c>
       <c r="F13" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!I3="","",_scrb1_day_twoshift!I3)</f>
+        <f>IF(_scrb1_day_twoshift!M3="","",_scrb1_day_twoshift!M3)</f>
         <v/>
       </c>
       <c r="G13" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!J3="","",_scrb1_day_twoshift!J3)</f>
+        <f>IF(_scrb1_day_twoshift!N3="","",_scrb1_day_twoshift!N3)</f>
         <v/>
       </c>
       <c r="H13" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!K3="","",_scrb1_day_twoshift!K3)</f>
+        <f>IF(_scrb1_day_twoshift!O3="","",_scrb1_day_twoshift!O3)</f>
         <v/>
       </c>
       <c r="I13" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!L3="","",_scrb1_day_twoshift!L3)</f>
+        <f>IF(_scrb1_day_twoshift!P3="","",_scrb1_day_twoshift!P3)</f>
         <v/>
       </c>
       <c r="J13" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!M3="","",_scrb1_day_twoshift!M3)</f>
+        <f>IF(_scrb1_day_twoshift!Q3="","",_scrb1_day_twoshift!Q3)</f>
         <v/>
       </c>
       <c r="K13" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!N3="","",_scrb1_day_twoshift!N3)</f>
+        <f>IF(_scrb1_day_twoshift!R3="","",_scrb1_day_twoshift!R3)</f>
         <v/>
       </c>
       <c r="L13" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!O3="","",_scrb1_day_twoshift!O3)</f>
-        <v/>
-      </c>
-      <c r="M13" s="65"/>
+        <f>IF(_scrb1_day_twoshift!S3="","",_scrb1_day_twoshift!S3)</f>
+        <v/>
+      </c>
+      <c r="M13" s="66"/>
       <c r="N13" s="2"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
@@ -2934,171 +2969,171 @@
     </row>
     <row r="14" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B14" s="6" t="str">
         <f>IFERROR(AVERAGE(B12:B13),"")</f>
         <v/>
       </c>
       <c r="C14" s="6" t="str">
-        <f t="shared" ref="C14:L14" si="9">IFERROR(AVERAGE(C12:C13),"")</f>
+        <f t="shared" ref="C14:L14" si="6">IFERROR(AVERAGE(C12:C13),"")</f>
         <v/>
       </c>
       <c r="D14" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E14" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F14" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G14" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H14" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I14" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J14" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K14" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L14" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M14" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R14" s="32"/>
     </row>
     <row r="15" spans="1:18" ht="21" x14ac:dyDescent="0.15">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="61"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="63"/>
+      <c r="D16" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="60"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A16" s="64" t="s">
-        <v>149</v>
-      </c>
-      <c r="B16" s="61" t="s">
+      <c r="E16" s="63"/>
+      <c r="F16" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="61" t="s">
+      <c r="G16" s="64"/>
+      <c r="H16" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="61" t="s">
+      <c r="I16" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="64" t="s">
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="64"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A17" s="66"/>
+      <c r="B17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="61" t="s">
+      <c r="C17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="63"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A17" s="65"/>
-      <c r="B17" s="12" t="s">
+      <c r="D17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="66"/>
+      <c r="I17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="J17" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="N17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="65"/>
-      <c r="I17" s="12" t="s">
+      <c r="O17" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="N17" s="12" t="s">
+      <c r="P17" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="O17" s="12" t="s">
+      <c r="Q17" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P17" s="12" t="s">
+      <c r="R17" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.15">
@@ -3111,46 +3146,52 @@
       <c r="G18" s="39"/>
       <c r="H18" s="40"/>
       <c r="I18" s="12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J18" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="R18" s="13" t="s">
         <v>290</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="13" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!Q2="","",_scrb1_day_twoshift!Q2)</f>
+        <f>IF(_scrb1_day_twoshift!U2="","",_scrb1_day_twoshift!U2)</f>
         <v/>
       </c>
       <c r="C19" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!R2="","",_scrb1_day_twoshift!R2)</f>
+        <f>IF(_scrb1_day_twoshift!V2="","",_scrb1_day_twoshift!V2)</f>
         <v/>
       </c>
       <c r="D19" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!Q3="","",_scrb1_day_twoshift!Q3)</f>
+        <f>IF(_scrb1_day_twoshift!U3="","",_scrb1_day_twoshift!U3)</f>
         <v/>
       </c>
       <c r="E19" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!R3="","",_scrb1_day_twoshift!R3)</f>
+        <f>IF(_scrb1_day_twoshift!V3="","",_scrb1_day_twoshift!V3)</f>
         <v/>
       </c>
       <c r="F19" s="12" t="str">
@@ -3162,7 +3203,7 @@
         <v/>
       </c>
       <c r="H19" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -3177,34 +3218,34 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!S2="","",_scrb1_day_twoshift!S2)</f>
+        <f>IF(_scrb1_day_twoshift!W2="","",_scrb1_day_twoshift!W2)</f>
         <v/>
       </c>
       <c r="C20" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!T2="","",_scrb1_day_twoshift!T2)</f>
+        <f>IF(_scrb1_day_twoshift!X2="","",_scrb1_day_twoshift!X2)</f>
         <v/>
       </c>
       <c r="D20" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!S3="","",_scrb1_day_twoshift!S3)</f>
+        <f>IF(_scrb1_day_twoshift!W3="","",_scrb1_day_twoshift!W3)</f>
         <v/>
       </c>
       <c r="E20" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!T3="","",_scrb1_day_twoshift!T3)</f>
+        <f>IF(_scrb1_day_twoshift!X3="","",_scrb1_day_twoshift!X3)</f>
         <v/>
       </c>
       <c r="F20" s="12" t="str">
-        <f t="shared" ref="F20:F25" si="10">IFERROR(AVERAGE(B20,D20),"")</f>
+        <f t="shared" ref="F20:F25" si="7">IFERROR(AVERAGE(B20,D20),"")</f>
         <v/>
       </c>
       <c r="G20" s="12" t="str">
-        <f t="shared" ref="G20:G25" si="11">IFERROR(AVERAGE(C20,E20),"")</f>
+        <f t="shared" ref="G20:G25" si="8">IFERROR(AVERAGE(C20,E20),"")</f>
         <v/>
       </c>
       <c r="H20" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -3219,34 +3260,34 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!U2="","",_scrb1_day_twoshift!U2)</f>
+        <f>IF(_scrb1_day_twoshift!Y2="","",_scrb1_day_twoshift!Y2)</f>
         <v/>
       </c>
       <c r="C21" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!V2="","",_scrb1_day_twoshift!V2)</f>
+        <f>IF(_scrb1_day_twoshift!Z2="","",_scrb1_day_twoshift!Z2)</f>
         <v/>
       </c>
       <c r="D21" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!U3="","",_scrb1_day_twoshift!U3)</f>
+        <f>IF(_scrb1_day_twoshift!Y3="","",_scrb1_day_twoshift!Y3)</f>
         <v/>
       </c>
       <c r="E21" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!V3="","",_scrb1_day_twoshift!V3)</f>
+        <f>IF(_scrb1_day_twoshift!Z3="","",_scrb1_day_twoshift!Z3)</f>
         <v/>
       </c>
       <c r="F21" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G21" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H21" s="11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -3261,34 +3302,34 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!W2="","",_scrb1_day_twoshift!W2)</f>
+        <f>IF(_scrb1_day_twoshift!AA2="","",_scrb1_day_twoshift!AA2)</f>
         <v/>
       </c>
       <c r="C22" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!X2="","",_scrb1_day_twoshift!X2)</f>
+        <f>IF(_scrb1_day_twoshift!AB2="","",_scrb1_day_twoshift!AB2)</f>
         <v/>
       </c>
       <c r="D22" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!W3="","",_scrb1_day_twoshift!W3)</f>
+        <f>IF(_scrb1_day_twoshift!AA3="","",_scrb1_day_twoshift!AA3)</f>
         <v/>
       </c>
       <c r="E22" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!X3="","",_scrb1_day_twoshift!X3)</f>
+        <f>IF(_scrb1_day_twoshift!AB3="","",_scrb1_day_twoshift!AB3)</f>
         <v/>
       </c>
       <c r="F22" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G22" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H22" s="11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -3303,34 +3344,34 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!Y2="","",_scrb1_day_twoshift!Y2)</f>
+        <f>IF(_scrb1_day_twoshift!AC2="","",_scrb1_day_twoshift!AC2)</f>
         <v/>
       </c>
       <c r="C23" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!Z2="","",_scrb1_day_twoshift!Z2)</f>
+        <f>IF(_scrb1_day_twoshift!AD2="","",_scrb1_day_twoshift!AD2)</f>
         <v/>
       </c>
       <c r="D23" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!Y3="","",_scrb1_day_twoshift!Y3)</f>
+        <f>IF(_scrb1_day_twoshift!AC3="","",_scrb1_day_twoshift!AC3)</f>
         <v/>
       </c>
       <c r="E23" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!Z3="","",_scrb1_day_twoshift!Z3)</f>
+        <f>IF(_scrb1_day_twoshift!AD3="","",_scrb1_day_twoshift!AD3)</f>
         <v/>
       </c>
       <c r="F23" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G23" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H23" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -3345,34 +3386,34 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!AA2="","",_scrb1_day_twoshift!AA2)</f>
+        <f>IF(_scrb1_day_twoshift!AE2="","",_scrb1_day_twoshift!AE2)</f>
         <v/>
       </c>
       <c r="C24" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!AB2="","",_scrb1_day_twoshift!AB2)</f>
+        <f>IF(_scrb1_day_twoshift!AF2="","",_scrb1_day_twoshift!AF2)</f>
         <v/>
       </c>
       <c r="D24" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!AA3="","",_scrb1_day_twoshift!AA3)</f>
+        <f>IF(_scrb1_day_twoshift!AE3="","",_scrb1_day_twoshift!AE3)</f>
         <v/>
       </c>
       <c r="E24" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!AB3="","",_scrb1_day_twoshift!AB3)</f>
+        <f>IF(_scrb1_day_twoshift!AF3="","",_scrb1_day_twoshift!AF3)</f>
         <v/>
       </c>
       <c r="F24" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G24" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H24" s="11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -3387,34 +3428,34 @@
     </row>
     <row r="25" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!AC2="","",_scrb1_day_twoshift!AC2)</f>
+        <f>IF(_scrb1_day_twoshift!AG2="","",_scrb1_day_twoshift!AG2)</f>
         <v/>
       </c>
       <c r="C25" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!AD2="","",_scrb1_day_twoshift!AD2)</f>
+        <f>IF(_scrb1_day_twoshift!AH2="","",_scrb1_day_twoshift!AH2)</f>
         <v/>
       </c>
       <c r="D25" s="15" t="str">
-        <f>IF(_scrb1_day_twoshift!AC3="","",_scrb1_day_twoshift!AC3)</f>
+        <f>IF(_scrb1_day_twoshift!AG3="","",_scrb1_day_twoshift!AG3)</f>
         <v/>
       </c>
       <c r="E25" s="15" t="str">
-        <f>IF(_scrb1_day_twoshift!AD3="","",_scrb1_day_twoshift!AD3)</f>
+        <f>IF(_scrb1_day_twoshift!AH3="","",_scrb1_day_twoshift!AH3)</f>
         <v/>
       </c>
       <c r="F25" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G25" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H25" s="14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
@@ -3428,162 +3469,162 @@
       <c r="R25" s="32"/>
     </row>
     <row r="26" spans="1:18" ht="21" x14ac:dyDescent="0.15">
-      <c r="A26" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="60"/>
+      <c r="A26" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="61"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A27" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="77"/>
+      <c r="A27" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="78"/>
     </row>
     <row r="28" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="D28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="F28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="H28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="J28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I28" s="1" t="s">
+      <c r="L28" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K28" s="46" t="s">
+      <c r="M28" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="L28" s="46" t="s">
+      <c r="N28" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="M28" s="46" t="s">
+      <c r="O28" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="N28" s="46" t="s">
+      <c r="P28" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="O28" s="46" t="s">
+      <c r="Q28" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="P28" s="46" t="s">
+      <c r="R28" s="47" t="s">
         <v>74</v>
-      </c>
-      <c r="Q28" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="R28" s="47" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
       <c r="B29" s="44"/>
       <c r="C29" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="J29" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="K29" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="L29" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="M29" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="K29" s="46" t="s">
+      <c r="N29" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="L29" s="46" t="s">
+      <c r="O29" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="M29" s="46" t="s">
+      <c r="P29" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="N29" s="46" t="s">
+      <c r="Q29" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="O29" s="46" t="s">
+      <c r="R29" s="47" t="s">
         <v>282</v>
-      </c>
-      <c r="P29" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q29" s="46" t="s">
-        <v>284</v>
-      </c>
-      <c r="R29" s="47" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B30" s="44">
         <v>2</v>
@@ -3606,8 +3647,8 @@
       <c r="R30" s="52"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A31" s="72" t="s">
-        <v>78</v>
+      <c r="A31" s="73" t="s">
+        <v>76</v>
       </c>
       <c r="B31" s="44">
         <v>5</v>
@@ -3630,7 +3671,7 @@
       <c r="R31" s="31"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A32" s="72"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="44">
         <v>8</v>
       </c>
@@ -3653,7 +3694,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B33" s="44">
         <v>11</v>
@@ -3676,72 +3717,72 @@
       <c r="R33" s="31"/>
     </row>
     <row r="34" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="B34" s="67"/>
+      <c r="A34" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="68"/>
       <c r="C34" s="6" t="str">
         <f>IFERROR(AVERAGE(C30:C32),"")</f>
         <v/>
       </c>
       <c r="D34" s="6" t="str">
-        <f t="shared" ref="D34:R34" si="12">IFERROR(AVERAGE(D30:D32),"")</f>
+        <f t="shared" ref="D34:R34" si="9">IFERROR(AVERAGE(D30:D32),"")</f>
         <v/>
       </c>
       <c r="E34" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F34" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G34" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H34" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I34" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J34" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K34" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L34" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M34" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N34" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O34" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P34" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q34" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R34" s="29" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -3812,7 +3853,7 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3822,58 +3863,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="91"/>
+      <c r="A1" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="92"/>
     </row>
     <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="94"/>
+      <c r="A2" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="95"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D3" s="46">
         <v>1</v>
@@ -3914,14 +3955,14 @@
       <c r="P3" s="46">
         <v>22</v>
       </c>
-      <c r="Q3" s="74">
+      <c r="Q3" s="75">
         <v>23</v>
       </c>
-      <c r="R3" s="77"/>
+      <c r="R3" s="78"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" s="49" t="str">
         <f>IF(_scrb2_day_twoshift!A2="","",_scrb2_day_twoshift!A2)</f>
@@ -3983,15 +4024,15 @@
         <f>IF(_scrb2_day_twoshift!O2="","",_scrb2_day_twoshift!O2)</f>
         <v/>
       </c>
-      <c r="Q4" s="99" t="str">
+      <c r="Q4" s="100" t="str">
         <f>IF(_scrb2_day_twoshift!P2="","",_scrb2_day_twoshift!P2)</f>
         <v/>
       </c>
-      <c r="R4" s="100"/>
+      <c r="R4" s="101"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" s="49" t="str">
         <f>IF(_scrb2_day_twoshift!A3="","",_scrb2_day_twoshift!A3)</f>
@@ -4053,15 +4094,15 @@
         <f>IF(_scrb2_day_twoshift!O3="","",_scrb2_day_twoshift!O3)</f>
         <v/>
       </c>
-      <c r="Q5" s="99" t="str">
+      <c r="Q5" s="100" t="str">
         <f>IF(_scrb2_day_twoshift!P3="","",_scrb2_day_twoshift!P3)</f>
         <v/>
       </c>
-      <c r="R5" s="100"/>
+      <c r="R5" s="101"/>
     </row>
     <row r="6" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B6" s="33" t="str">
         <f>IFERROR(AVERAGE(B4:B5),"")</f>
@@ -4123,43 +4164,43 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q6" s="101" t="str">
+      <c r="Q6" s="102" t="str">
         <f t="shared" ref="Q6" si="1">IFERROR(AVERAGE(Q4:Q5),"")</f>
         <v/>
       </c>
-      <c r="R6" s="102"/>
+      <c r="R6" s="103"/>
     </row>
     <row r="7" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="92" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="94"/>
+      <c r="A7" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="95"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D8" s="46">
         <v>1</v>
@@ -4200,14 +4241,14 @@
       <c r="P8" s="46">
         <v>22</v>
       </c>
-      <c r="Q8" s="74">
+      <c r="Q8" s="75">
         <v>23</v>
       </c>
-      <c r="R8" s="77"/>
+      <c r="R8" s="78"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" s="49" t="str">
         <f>IF(_scrb2_day_twoshift!R2="","",_scrb2_day_twoshift!R2)</f>
@@ -4269,15 +4310,15 @@
         <f>IF(_scrb2_day_twoshift!AF2="","",_scrb2_day_twoshift!AF2)</f>
         <v/>
       </c>
-      <c r="Q9" s="99" t="str">
+      <c r="Q9" s="100" t="str">
         <f>IF(_scrb2_day_twoshift!AG2="","",_scrb2_day_twoshift!AG2)</f>
         <v/>
       </c>
-      <c r="R9" s="100"/>
+      <c r="R9" s="101"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B10" s="49" t="str">
         <f>IF(_scrb2_day_twoshift!R3="","",_scrb2_day_twoshift!R3)</f>
@@ -4339,15 +4380,15 @@
         <f>IF(_scrb2_day_twoshift!AF3="","",_scrb2_day_twoshift!AF3)</f>
         <v/>
       </c>
-      <c r="Q10" s="99" t="str">
+      <c r="Q10" s="100" t="str">
         <f>IF(_scrb2_day_twoshift!AG3="","",_scrb2_day_twoshift!AG3)</f>
         <v/>
       </c>
-      <c r="R10" s="100"/>
+      <c r="R10" s="101"/>
     </row>
     <row r="11" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B11" s="38" t="str">
         <f>IFERROR(AVERAGE(B9:B10),"")</f>
@@ -4409,150 +4450,150 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q11" s="103" t="str">
+      <c r="Q11" s="104" t="str">
         <f t="shared" ref="Q11" si="3">IFERROR(AVERAGE(Q9:Q10),"")</f>
         <v/>
       </c>
-      <c r="R11" s="104"/>
+      <c r="R11" s="105"/>
     </row>
     <row r="12" spans="1:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="95" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="98" t="s">
-        <v>177</v>
-      </c>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="97"/>
+      <c r="A12" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="98"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="D13" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="E13" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="F13" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="G13" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="H13" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="I13" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="J13" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="K13" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="54" t="s">
+      <c r="M13" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="37" t="s">
+      <c r="N13" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="M13" s="37" t="s">
+      <c r="O13" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="R13" s="54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="111"/>
+      <c r="B14" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="N13" s="37" t="s">
+      <c r="C14" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="O13" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="P13" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="R13" s="54" t="s">
+      <c r="D14" s="37" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="110"/>
-      <c r="B14" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>94</v>
-      </c>
       <c r="E14" s="37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J14" s="54" t="s">
         <v>6</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L14" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M14" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N14" s="37"/>
       <c r="O14" s="37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P14" s="37" t="str">
-        <f>IF(_scrb2_day_twoshift!AN2="","",_scrb2_day_twoshift!AN2)</f>
+        <f>IF(_scrb2_day_twoshift!AO2="","",_scrb2_day_twoshift!AO2)</f>
         <v/>
       </c>
       <c r="Q14" s="37" t="str">
-        <f>IF(_scrb2_day_twoshift!AO2="","",_scrb2_day_twoshift!AO2)</f>
+        <f>IF(_scrb2_day_twoshift!AP2="","",_scrb2_day_twoshift!AP2)</f>
         <v/>
       </c>
       <c r="R14" s="54"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C15" s="37" t="str">
         <f>IF(_scrb2_day_twoshift!AI2="","",_scrb2_day_twoshift!AI2)</f>
@@ -4570,44 +4611,45 @@
         <f>IF(_scrb2_day_twoshift!AL2="","",_scrb2_day_twoshift!AL2)</f>
         <v/>
       </c>
-      <c r="G15" s="37" t="s">
-        <v>96</v>
+      <c r="G15" s="37" t="str">
+        <f>IF(_scrb2_day_twoshift!AM2="","",_scrb2_day_twoshift!AM2)</f>
+        <v/>
       </c>
       <c r="H15" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J15" s="54" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L15" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M15" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N15" s="37"/>
       <c r="O15" s="37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P15" s="37" t="str">
-        <f>IF(_scrb2_day_twoshift!AP2="","",_scrb2_day_twoshift!AP2)</f>
+        <f>IF(_scrb2_day_twoshift!AQ2="","",_scrb2_day_twoshift!AQ2)</f>
         <v/>
       </c>
       <c r="Q15" s="37" t="str">
-        <f>IF(_scrb2_day_twoshift!AQ2="","",_scrb2_day_twoshift!AQ2)</f>
+        <f>IF(_scrb2_day_twoshift!AR2="","",_scrb2_day_twoshift!AR2)</f>
         <v/>
       </c>
       <c r="R15" s="54"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="37"/>
       <c r="C16" s="37" t="str">
@@ -4626,34 +4668,37 @@
         <f>IF(_scrb2_day_twoshift!AL3="","",_scrb2_day_twoshift!AL3)</f>
         <v/>
       </c>
-      <c r="G16" s="37"/>
+      <c r="G16" s="37" t="str">
+        <f>IF(_scrb2_day_twoshift!AM3="","",_scrb2_day_twoshift!AM3)</f>
+        <v/>
+      </c>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
       <c r="J16" s="54"/>
       <c r="K16" s="36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L16" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M16" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N16" s="37"/>
       <c r="O16" s="37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P16" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R16" s="54"/>
     </row>
     <row r="17" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B17" s="38"/>
       <c r="C17" s="38" t="str">
@@ -4661,7 +4706,7 @@
         <v/>
       </c>
       <c r="D17" s="38" t="str">
-        <f t="shared" ref="D17:F17" si="4">IFERROR(AVERAGE(D15:D16),"")</f>
+        <f t="shared" ref="D17:E17" si="4">IFERROR(AVERAGE(D15:D16),"")</f>
         <v/>
       </c>
       <c r="E17" s="38" t="str">
@@ -4669,280 +4714,283 @@
         <v/>
       </c>
       <c r="F17" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G17" s="38"/>
+        <f>IFERROR(AVERAGE(F15:F16),"")</f>
+        <v/>
+      </c>
+      <c r="G17" s="38" t="str">
+        <f>IFERROR(AVERAGE(G15:G16),"")</f>
+        <v/>
+      </c>
       <c r="H17" s="38"/>
       <c r="I17" s="38"/>
       <c r="J17" s="55"/>
       <c r="K17" s="56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M17" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N17" s="38"/>
       <c r="O17" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P17" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R17" s="55"/>
     </row>
     <row r="18" spans="1:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="111" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="113"/>
+      <c r="A18" s="112" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="113"/>
+      <c r="P18" s="113"/>
+      <c r="Q18" s="113"/>
+      <c r="R18" s="114"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="D19" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="E19" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="F19" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="G19" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="49" t="s">
+      <c r="H19" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="I19" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H19" s="49" t="s">
+      <c r="J19" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="I19" s="49" t="s">
+      <c r="K19" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="J19" s="49" t="s">
+      <c r="L19" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="M19" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="L19" s="49" t="s">
+      <c r="N19" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="M19" s="49" t="s">
+      <c r="O19" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="N19" s="49" t="s">
+      <c r="P19" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="O19" s="49" t="s">
+      <c r="Q19" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="P19" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q19" s="105" t="s">
-        <v>127</v>
-      </c>
-      <c r="R19" s="106"/>
+      <c r="R19" s="107"/>
     </row>
     <row r="20" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AS2="","",_scrb2_day_twoshift!AS2)</f>
+        <f>IF(_scrb2_day_twoshift!AT2="","",_scrb2_day_twoshift!AT2)</f>
         <v/>
       </c>
       <c r="C20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AT2="","",_scrb2_day_twoshift!AT2)</f>
+        <f>IF(_scrb2_day_twoshift!AU2="","",_scrb2_day_twoshift!AU2)</f>
         <v/>
       </c>
       <c r="D20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AU2="","",_scrb2_day_twoshift!AU2)</f>
+        <f>IF(_scrb2_day_twoshift!AV2="","",_scrb2_day_twoshift!AV2)</f>
         <v/>
       </c>
       <c r="E20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AV2="","",_scrb2_day_twoshift!AV2)</f>
+        <f>IF(_scrb2_day_twoshift!AW2="","",_scrb2_day_twoshift!AW2)</f>
         <v/>
       </c>
       <c r="F20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AW2="","",_scrb2_day_twoshift!AW2)</f>
+        <f>IF(_scrb2_day_twoshift!AX2="","",_scrb2_day_twoshift!AX2)</f>
         <v/>
       </c>
       <c r="G20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AX2="","",_scrb2_day_twoshift!AX2)</f>
+        <f>IF(_scrb2_day_twoshift!AY2="","",_scrb2_day_twoshift!AY2)</f>
         <v/>
       </c>
       <c r="H20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AY2="","",_scrb2_day_twoshift!AY2)</f>
+        <f>IF(_scrb2_day_twoshift!AZ2="","",_scrb2_day_twoshift!AZ2)</f>
         <v/>
       </c>
       <c r="I20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AZ2="","",_scrb2_day_twoshift!AZ2)</f>
+        <f>IF(_scrb2_day_twoshift!BA2="","",_scrb2_day_twoshift!BA2)</f>
         <v/>
       </c>
       <c r="J20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BA2="","",_scrb2_day_twoshift!BA2)</f>
+        <f>IF(_scrb2_day_twoshift!BB2="","",_scrb2_day_twoshift!BB2)</f>
         <v/>
       </c>
       <c r="K20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BB2="","",_scrb2_day_twoshift!BB2)</f>
+        <f>IF(_scrb2_day_twoshift!BC2="","",_scrb2_day_twoshift!BC2)</f>
         <v/>
       </c>
       <c r="L20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BC2="","",_scrb2_day_twoshift!BC2)</f>
+        <f>IF(_scrb2_day_twoshift!BD2="","",_scrb2_day_twoshift!BD2)</f>
         <v/>
       </c>
       <c r="M20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BD2="","",_scrb2_day_twoshift!BD2)</f>
+        <f>IF(_scrb2_day_twoshift!BE2="","",_scrb2_day_twoshift!BE2)</f>
         <v/>
       </c>
       <c r="N20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BE2="","",_scrb2_day_twoshift!BE2)</f>
+        <f>IF(_scrb2_day_twoshift!BF2="","",_scrb2_day_twoshift!BF2)</f>
         <v/>
       </c>
       <c r="O20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BF2="","",_scrb2_day_twoshift!BF2)</f>
+        <f>IF(_scrb2_day_twoshift!BG2="","",_scrb2_day_twoshift!BG2)</f>
         <v/>
       </c>
       <c r="P20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BG2="","",_scrb2_day_twoshift!BG2)</f>
-        <v/>
-      </c>
-      <c r="Q20" s="99" t="str">
         <f>IF(_scrb2_day_twoshift!BH2="","",_scrb2_day_twoshift!BH2)</f>
         <v/>
       </c>
-      <c r="R20" s="100"/>
+      <c r="Q20" s="100" t="str">
+        <f>IF(_scrb2_day_twoshift!BI2="","",_scrb2_day_twoshift!BI2)</f>
+        <v/>
+      </c>
+      <c r="R20" s="101"/>
     </row>
     <row r="21" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AS3="","",_scrb2_day_twoshift!AS3)</f>
+        <f>IF(_scrb2_day_twoshift!AT3="","",_scrb2_day_twoshift!AT3)</f>
         <v/>
       </c>
       <c r="C21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AT3="","",_scrb2_day_twoshift!AT3)</f>
+        <f>IF(_scrb2_day_twoshift!AU3="","",_scrb2_day_twoshift!AU3)</f>
         <v/>
       </c>
       <c r="D21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AU3="","",_scrb2_day_twoshift!AU3)</f>
+        <f>IF(_scrb2_day_twoshift!AV3="","",_scrb2_day_twoshift!AV3)</f>
         <v/>
       </c>
       <c r="E21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AV3="","",_scrb2_day_twoshift!AV3)</f>
+        <f>IF(_scrb2_day_twoshift!AW3="","",_scrb2_day_twoshift!AW3)</f>
         <v/>
       </c>
       <c r="F21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AW3="","",_scrb2_day_twoshift!AW3)</f>
+        <f>IF(_scrb2_day_twoshift!AX3="","",_scrb2_day_twoshift!AX3)</f>
         <v/>
       </c>
       <c r="G21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AX3="","",_scrb2_day_twoshift!AX3)</f>
+        <f>IF(_scrb2_day_twoshift!AY3="","",_scrb2_day_twoshift!AY3)</f>
         <v/>
       </c>
       <c r="H21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AY3="","",_scrb2_day_twoshift!AY3)</f>
+        <f>IF(_scrb2_day_twoshift!AZ3="","",_scrb2_day_twoshift!AZ3)</f>
         <v/>
       </c>
       <c r="I21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AZ3="","",_scrb2_day_twoshift!AZ3)</f>
+        <f>IF(_scrb2_day_twoshift!BA3="","",_scrb2_day_twoshift!BA3)</f>
         <v/>
       </c>
       <c r="J21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BA3="","",_scrb2_day_twoshift!BA3)</f>
+        <f>IF(_scrb2_day_twoshift!BB3="","",_scrb2_day_twoshift!BB3)</f>
         <v/>
       </c>
       <c r="K21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BB3="","",_scrb2_day_twoshift!BB3)</f>
+        <f>IF(_scrb2_day_twoshift!BC3="","",_scrb2_day_twoshift!BC3)</f>
         <v/>
       </c>
       <c r="L21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BC3="","",_scrb2_day_twoshift!BC3)</f>
+        <f>IF(_scrb2_day_twoshift!BD3="","",_scrb2_day_twoshift!BD3)</f>
         <v/>
       </c>
       <c r="M21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BD3="","",_scrb2_day_twoshift!BD3)</f>
+        <f>IF(_scrb2_day_twoshift!BE3="","",_scrb2_day_twoshift!BE3)</f>
         <v/>
       </c>
       <c r="N21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BE3="","",_scrb2_day_twoshift!BE3)</f>
+        <f>IF(_scrb2_day_twoshift!BF3="","",_scrb2_day_twoshift!BF3)</f>
         <v/>
       </c>
       <c r="O21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BF3="","",_scrb2_day_twoshift!BF3)</f>
+        <f>IF(_scrb2_day_twoshift!BG3="","",_scrb2_day_twoshift!BG3)</f>
         <v/>
       </c>
       <c r="P21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BG3="","",_scrb2_day_twoshift!BG3)</f>
-        <v/>
-      </c>
-      <c r="Q21" s="107" t="str">
         <f>IF(_scrb2_day_twoshift!BH3="","",_scrb2_day_twoshift!BH3)</f>
         <v/>
       </c>
-      <c r="R21" s="108"/>
+      <c r="Q21" s="108" t="str">
+        <f>IF(_scrb2_day_twoshift!BI3="","",_scrb2_day_twoshift!BI3)</f>
+        <v/>
+      </c>
+      <c r="R21" s="109"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="26" t="s">
+      <c r="F22" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="G22" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" s="27" t="s">
         <v>130</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>132</v>
       </c>
       <c r="K22" s="34"/>
       <c r="L22" s="35"/>
@@ -4955,26 +5003,26 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B23" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BJ2="","",_scrb2_day_twoshift!BJ2)</f>
+        <f>IF(_scrb2_day_twoshift!BK2="","",_scrb2_day_twoshift!BK2)</f>
         <v/>
       </c>
       <c r="C23" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BK2="","",_scrb2_day_twoshift!BK2)</f>
+        <f>IF(_scrb2_day_twoshift!BL2="","",_scrb2_day_twoshift!BL2)</f>
         <v/>
       </c>
       <c r="D23" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BL2="","",_scrb2_day_twoshift!BL2)</f>
+        <f>IF(_scrb2_day_twoshift!BM2="","",_scrb2_day_twoshift!BM2)</f>
         <v/>
       </c>
       <c r="E23" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BM2="","",_scrb2_day_twoshift!BM2)</f>
+        <f>IF(_scrb2_day_twoshift!BN2="","",_scrb2_day_twoshift!BN2)</f>
         <v/>
       </c>
       <c r="F23" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BN2="","",_scrb2_day_twoshift!BN2)</f>
+        <f>IF(_scrb2_day_twoshift!BO2="","",_scrb2_day_twoshift!BO2)</f>
         <v/>
       </c>
       <c r="G23" s="49"/>
@@ -4992,26 +5040,26 @@
     </row>
     <row r="24" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B24" s="19" t="str">
-        <f>IF(_scrb2_day_twoshift!BJ3="","",_scrb2_day_twoshift!BJ3)</f>
+        <f>IF(_scrb2_day_twoshift!BK3="","",_scrb2_day_twoshift!BK3)</f>
         <v/>
       </c>
       <c r="C24" s="19" t="str">
-        <f>IF(_scrb2_day_twoshift!BK3="","",_scrb2_day_twoshift!BK3)</f>
+        <f>IF(_scrb2_day_twoshift!BL3="","",_scrb2_day_twoshift!BL3)</f>
         <v/>
       </c>
       <c r="D24" s="19" t="str">
-        <f>IF(_scrb2_day_twoshift!BL3="","",_scrb2_day_twoshift!BL3)</f>
+        <f>IF(_scrb2_day_twoshift!BM3="","",_scrb2_day_twoshift!BM3)</f>
         <v/>
       </c>
       <c r="E24" s="19" t="str">
-        <f>IF(_scrb2_day_twoshift!BM3="","",_scrb2_day_twoshift!BM3)</f>
+        <f>IF(_scrb2_day_twoshift!BN3="","",_scrb2_day_twoshift!BN3)</f>
         <v/>
       </c>
       <c r="F24" s="19" t="str">
-        <f>IF(_scrb2_day_twoshift!BN3="","",_scrb2_day_twoshift!BN3)</f>
+        <f>IF(_scrb2_day_twoshift!BO3="","",_scrb2_day_twoshift!BO3)</f>
         <v/>
       </c>
       <c r="G24" s="19"/>
@@ -5056,105 +5104,117 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7A3F53-6C3A-4C66-80DC-0EECF6D56C42}">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AH1"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="35.125" customWidth="1"/>
-    <col min="2" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="12" width="32.5" customWidth="1"/>
-    <col min="13" max="43" width="31.625" customWidth="1"/>
+    <col min="1" max="5" width="35.125" customWidth="1"/>
+    <col min="6" max="7" width="32.5" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="16" width="32.5" customWidth="1"/>
+    <col min="17" max="47" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" t="s">
         <v>180</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
         <v>181</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>182</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>183</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>184</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>185</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>186</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>187</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>188</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
         <v>189</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
         <v>190</v>
       </c>
-      <c r="M1" t="s">
-        <v>191</v>
-      </c>
-      <c r="N1" t="s">
-        <v>192</v>
-      </c>
-      <c r="O1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
+        <v>253</v>
+      </c>
+      <c r="V1" t="s">
+        <v>254</v>
+      </c>
+      <c r="W1" t="s">
+        <v>255</v>
+      </c>
+      <c r="X1" t="s">
         <v>256</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Y1" t="s">
         <v>257</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Z1" t="s">
         <v>258</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AA1" t="s">
         <v>259</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AB1" t="s">
         <v>260</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AC1" t="s">
         <v>261</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AD1" t="s">
         <v>262</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AE1" t="s">
         <v>263</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AF1" t="s">
         <v>264</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AG1" t="s">
         <v>265</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AH1" t="s">
         <v>266</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -5165,200 +5225,205 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204F0FB8-83F2-4FC5-B799-03F8050D48FF}">
-  <dimension ref="A1:BN1"/>
+  <dimension ref="A1:BO1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AJ45" sqref="AJ45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="66" width="30.625" customWidth="1"/>
+    <col min="1" max="38" width="30.625" customWidth="1"/>
+    <col min="39" max="39" width="33.625" customWidth="1"/>
+    <col min="40" max="67" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" t="s">
         <v>194</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>195</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>196</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>197</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>198</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>199</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>200</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>201</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>202</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>203</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>204</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>205</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>206</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>207</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>208</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>209</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>210</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>211</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>212</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>213</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>214</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>215</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>216</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>217</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>218</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>219</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>220</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>221</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>222</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO1" t="s">
         <v>223</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AP1" t="s">
         <v>224</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AQ1" t="s">
         <v>225</v>
       </c>
-      <c r="AI1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AN1" t="s">
+      <c r="AR1" t="s">
         <v>226</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AT1" t="s">
         <v>227</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AU1" t="s">
         <v>228</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AV1" t="s">
         <v>229</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AW1" t="s">
         <v>230</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AX1" t="s">
         <v>231</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AY1" t="s">
         <v>232</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AZ1" t="s">
         <v>233</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BA1" t="s">
         <v>234</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BB1" t="s">
         <v>235</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BC1" t="s">
         <v>236</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BD1" t="s">
         <v>237</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BE1" t="s">
         <v>238</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BF1" t="s">
         <v>239</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BG1" t="s">
         <v>240</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BH1" t="s">
         <v>241</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BI1" t="s">
         <v>242</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BK1" t="s">
         <v>243</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BL1" t="s">
         <v>244</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BM1" t="s">
         <v>245</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BN1" t="s">
         <v>246</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BO1" t="s">
         <v>247</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>248</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>249</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -5379,7 +5444,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B1">
         <v>4</v>

--- a/excel/finished/wg4#烧结/4烧结生产报表.xlsx
+++ b/excel/finished/wg4#烧结/4烧结生产报表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C631882-1776-4DFA-8BED-B02F6F763C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25E2B77-9751-43ED-A8F2-8D659EC2EB2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7860" yWindow="1740" windowWidth="21555" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="生产日报(一)" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,210 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{4B844337-EAA8-47E3-AE97-6F72E89E9786}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+计算点、待确认</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{EFA104A3-4285-49C9-B51F-4AD519AFB81E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+计算点、待确认</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{7CF3129E-EDA4-44E5-953D-AF84975118BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+计算点、待确认</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{1DB40FD2-274D-4C05-BC2C-E78CB892230A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+待定</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{C58FC0B9-082E-4C40-B31B-ECCA14317B15}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+待定</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{DBE27D58-5155-4B32-B950-198196A82BAB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+待定</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{AB029D49-7C68-42F6-8DF2-8987A4FEBD22}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+待定</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="327">
   <si>
     <t>产量</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,18 +272,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>计算点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>白</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -352,9 +542,6 @@
     <t>1#瓦振动</t>
   </si>
   <si>
-    <t>待定</t>
-  </si>
-  <si>
     <t>马达电流</t>
   </si>
   <si>
@@ -483,9 +670,6 @@
   <si>
     <t>9#</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>停机起时</t>
   </si>
   <si>
     <t>停机止时</t>
@@ -1208,16 +1392,103 @@
   <si>
     <t>ZP_ST4_L1R_SIN_Bed103BedMatInsFl</t>
   </si>
+  <si>
+    <t>ZP_ST4_L1R_MESR_CoalShtAmtMES</t>
+  </si>
+  <si>
+    <t>停机起时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{停机记录.停机起时.夜}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{停机记录.停机起时.白}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{停机记录.停机次数}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{停机记录.共停}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_AAirFanMNoDrVi</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_BAirFanMNoDrVi</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_AAirFanMDrVi</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_BAirFanMDrVi</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_AAirFanFanNoDrVi</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_BAirFanFanNoDrVi</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_AAirFanFanDrVi</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_BAirFanFanDrVi</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_AAirFanFanDrTe</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_BAirFanFanDrTe</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_AAirFanMDrTe</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_BAirFanMDrTe</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_AirFanMNoDrVi</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_AirFanMDrVi</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_AirFanFanNoDrVi</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_AirFanFanDrVi</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_MainMaA</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_MainMaGaOP</t>
+  </si>
+  <si>
+    <t>ST4_L1R_SIN_AirFanFanDrTe_1d_max</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_AirFanMDrTe</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1304,6 +1575,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1319,7 +1605,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1697,11 +1983,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1758,10 +2075,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1791,10 +2104,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1803,12 +2112,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1837,9 +2140,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1859,10 +2159,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1878,16 +2174,232 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1899,92 +2411,50 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2019,59 +2489,17 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2410,11 +2838,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2429,246 +2857,249 @@
     <col min="8" max="8" width="9.875" style="16" customWidth="1"/>
     <col min="9" max="9" width="9" style="16"/>
     <col min="10" max="10" width="10.25" style="16" customWidth="1"/>
-    <col min="11" max="16" width="9" style="16"/>
+    <col min="11" max="13" width="9" style="16"/>
+    <col min="14" max="14" width="21" style="16" customWidth="1"/>
+    <col min="15" max="15" width="21.375" style="16" customWidth="1"/>
+    <col min="16" max="16" width="9" style="16"/>
     <col min="17" max="17" width="30.5" style="16" customWidth="1"/>
-    <col min="18" max="18" width="9" style="16" customWidth="1"/>
+    <col min="18" max="18" width="17.5" style="16" customWidth="1"/>
     <col min="19" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="88"/>
+      <c r="A1" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="94"/>
     </row>
     <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="82" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="84"/>
+      <c r="A2" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="91"/>
     </row>
     <row r="3" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="44" t="s">
+      <c r="D3" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="H3" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="I3" s="44" t="s">
+      <c r="F3" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="I3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="48" t="s">
-        <v>139</v>
+      <c r="L3" s="43" t="s">
+        <v>134</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N3" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="87"/>
+      <c r="B4" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="L4" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="O3" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="69"/>
-      <c r="B4" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="L4" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="N4" s="12"/>
+      <c r="N4" s="12" t="s">
+        <v>303</v>
+      </c>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="43" t="str">
+      <c r="B5" s="52" t="str">
         <f>IF(_scrb1_day_twoshift!A2="","",_scrb1_day_twoshift!A2)</f>
         <v/>
       </c>
-      <c r="C5" s="58" t="str">
+      <c r="C5" s="52" t="str">
         <f>IF(_scrb1_day_twoshift!B2="","",_scrb1_day_twoshift!B2)</f>
         <v/>
       </c>
-      <c r="D5" s="58" t="str">
+      <c r="D5" s="53" t="str">
         <f>IF(_scrb1_day_twoshift!C2="","",_scrb1_day_twoshift!C2)</f>
         <v/>
       </c>
-      <c r="E5" s="58" t="str">
+      <c r="E5" s="54" t="str">
         <f>IF(_scrb1_day_twoshift!D2="","",_scrb1_day_twoshift!D2)</f>
         <v/>
       </c>
-      <c r="F5" s="58" t="str">
+      <c r="F5" s="52" t="str">
         <f>IF(_scrb1_day_twoshift!E2="","",_scrb1_day_twoshift!E2)</f>
         <v/>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="18" t="str">
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55" t="str">
         <f>IF(_scrb1_day_twoshift!F2="","",_scrb1_day_twoshift!F2)</f>
         <v/>
       </c>
-      <c r="J5" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="44" t="str">
+      <c r="J5" s="56"/>
+      <c r="K5" s="58" t="str">
         <f>IF(_scrb1_day_twoshift!G2="","",_scrb1_day_twoshift!G2)</f>
         <v/>
       </c>
-      <c r="L5" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="89"/>
+      <c r="L5" s="59" t="str">
+        <f>IF(_scrb1_day_twoshift!H2="","",_scrb1_day_twoshift!H2)</f>
+        <v/>
+      </c>
+      <c r="M5" s="102"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="13"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A6" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="58" t="str">
+    <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="52" t="str">
         <f>IF(_scrb1_day_twoshift!A3="","",_scrb1_day_twoshift!A3)</f>
         <v/>
       </c>
-      <c r="C6" s="58" t="str">
+      <c r="C6" s="52" t="str">
         <f>IF(_scrb1_day_twoshift!B3="","",_scrb1_day_twoshift!B3)</f>
         <v/>
       </c>
-      <c r="D6" s="58" t="str">
+      <c r="D6" s="53" t="str">
         <f>IF(_scrb1_day_twoshift!C3="","",_scrb1_day_twoshift!C3)</f>
         <v/>
       </c>
-      <c r="E6" s="58" t="str">
+      <c r="E6" s="54" t="str">
         <f>IF(_scrb1_day_twoshift!D3="","",_scrb1_day_twoshift!D3)</f>
         <v/>
       </c>
-      <c r="F6" s="58" t="str">
+      <c r="F6" s="52" t="str">
         <f>IF(_scrb1_day_twoshift!E3="","",_scrb1_day_twoshift!E3)</f>
         <v/>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="18" t="str">
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="55" t="str">
         <f>IF(_scrb1_day_twoshift!F3="","",_scrb1_day_twoshift!F3)</f>
         <v/>
       </c>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44" t="str">
+      <c r="J6" s="56"/>
+      <c r="K6" s="58" t="str">
         <f>IF(_scrb1_day_twoshift!G3="","",_scrb1_day_twoshift!G3)</f>
         <v/>
       </c>
-      <c r="L6" s="48"/>
-      <c r="M6" s="89"/>
+      <c r="L6" s="59" t="str">
+        <f>IF(_scrb1_day_twoshift!H3="","",_scrb1_day_twoshift!H3)</f>
+        <v/>
+      </c>
+      <c r="M6" s="102"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
@@ -2676,51 +3107,54 @@
       <c r="R6" s="13"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A7" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="71" t="str">
+      <c r="A7" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="97" t="str">
         <f>IF(SUM(B5:B6),SUM(B5:B6),"")</f>
         <v/>
       </c>
-      <c r="C7" s="72" t="str">
+      <c r="C7" s="97" t="str">
         <f t="shared" ref="C7:F7" si="0">IFERROR(AVERAGE(C5:C6),"")</f>
         <v/>
       </c>
-      <c r="D7" s="72" t="str">
+      <c r="D7" s="107" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E7" s="72" t="str">
+      <c r="E7" s="95" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F7" s="72" t="str">
+      <c r="F7" s="97" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G7" s="72" t="str">
+      <c r="G7" s="99" t="str">
         <f t="shared" ref="G7" si="1">IFERROR(AVERAGE(G5:G6),"")</f>
         <v/>
       </c>
-      <c r="H7" s="72" t="str">
+      <c r="H7" s="99" t="str">
         <f t="shared" ref="H7" si="2">IFERROR(AVERAGE(H5:H6),"")</f>
         <v/>
       </c>
-      <c r="I7" s="72" t="str">
+      <c r="I7" s="99" t="str">
         <f t="shared" ref="I7" si="3">IFERROR(AVERAGE(I5:I6),"")</f>
         <v/>
       </c>
-      <c r="J7" s="72" t="str">
+      <c r="J7" s="99" t="str">
         <f t="shared" ref="J7" si="4">IFERROR(AVERAGE(J5:J6),"")</f>
         <v/>
       </c>
-      <c r="K7" s="72" t="str">
-        <f t="shared" ref="K7" si="5">IFERROR(AVERAGE(K5:K6),"")</f>
-        <v/>
-      </c>
-      <c r="L7" s="79"/>
-      <c r="M7" s="66"/>
+      <c r="K7" s="117" t="str">
+        <f t="shared" ref="K7:L7" si="5">IFERROR(AVERAGE(K5:K6),"")</f>
+        <v/>
+      </c>
+      <c r="L7" s="119" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M7" s="102"/>
       <c r="N7" s="2"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
@@ -2728,21 +3162,19 @@
       <c r="R7" s="13"/>
     </row>
     <row r="8" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="65" t="s">
-        <v>137</v>
-      </c>
+      <c r="A8" s="106"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="103"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
@@ -2750,65 +3182,69 @@
       <c r="R8" s="13"/>
     </row>
     <row r="9" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="12"/>
+      <c r="A9" s="121" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>304</v>
+      </c>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="13"/>
     </row>
     <row r="10" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="112" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="F10" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="I10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="J10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="L10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="89"/>
+      <c r="M10" s="85"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
@@ -2816,41 +3252,41 @@
       <c r="R10" s="13"/>
     </row>
     <row r="11" spans="1:18" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="73"/>
-      <c r="B11" s="44" t="s">
+      <c r="A11" s="109"/>
+      <c r="B11" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="F11" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="G11" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="J11" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="K11" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="I11" s="44" t="s">
+      <c r="L11" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="89"/>
+      <c r="M11" s="85"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
@@ -2858,54 +3294,54 @@
       <c r="R11" s="13"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!I2="","",_scrb1_day_twoshift!I2)</f>
-        <v/>
-      </c>
-      <c r="C12" s="18" t="str">
+      <c r="B12" s="60" t="str">
         <f>IF(_scrb1_day_twoshift!J2="","",_scrb1_day_twoshift!J2)</f>
         <v/>
       </c>
-      <c r="D12" s="18" t="str">
+      <c r="C12" s="62" t="str">
         <f>IF(_scrb1_day_twoshift!K2="","",_scrb1_day_twoshift!K2)</f>
         <v/>
       </c>
-      <c r="E12" s="18" t="str">
+      <c r="D12" s="62" t="str">
         <f>IF(_scrb1_day_twoshift!L2="","",_scrb1_day_twoshift!L2)</f>
         <v/>
       </c>
-      <c r="F12" s="18" t="str">
+      <c r="E12" s="55" t="str">
         <f>IF(_scrb1_day_twoshift!M2="","",_scrb1_day_twoshift!M2)</f>
         <v/>
       </c>
-      <c r="G12" s="18" t="str">
+      <c r="F12" s="62" t="str">
         <f>IF(_scrb1_day_twoshift!N2="","",_scrb1_day_twoshift!N2)</f>
         <v/>
       </c>
-      <c r="H12" s="18" t="str">
+      <c r="G12" s="62" t="str">
         <f>IF(_scrb1_day_twoshift!O2="","",_scrb1_day_twoshift!O2)</f>
         <v/>
       </c>
-      <c r="I12" s="18" t="str">
+      <c r="H12" s="62" t="str">
         <f>IF(_scrb1_day_twoshift!P2="","",_scrb1_day_twoshift!P2)</f>
         <v/>
       </c>
-      <c r="J12" s="18" t="str">
+      <c r="I12" s="60" t="str">
         <f>IF(_scrb1_day_twoshift!Q2="","",_scrb1_day_twoshift!Q2)</f>
         <v/>
       </c>
-      <c r="K12" s="18" t="str">
+      <c r="J12" s="62" t="str">
         <f>IF(_scrb1_day_twoshift!R2="","",_scrb1_day_twoshift!R2)</f>
         <v/>
       </c>
-      <c r="L12" s="18" t="str">
+      <c r="K12" s="60" t="str">
         <f>IF(_scrb1_day_twoshift!S2="","",_scrb1_day_twoshift!S2)</f>
         <v/>
       </c>
-      <c r="M12" s="89"/>
+      <c r="L12" s="60" t="str">
+        <f>IF(_scrb1_day_twoshift!T2="","",_scrb1_day_twoshift!T2)</f>
+        <v/>
+      </c>
+      <c r="M12" s="85"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
@@ -2913,54 +3349,54 @@
       <c r="R12" s="13"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A13" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="18" t="str">
-        <f>IF(_scrb1_day_twoshift!I3="","",_scrb1_day_twoshift!I3)</f>
-        <v/>
-      </c>
-      <c r="C13" s="18" t="str">
+      <c r="A13" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="60" t="str">
         <f>IF(_scrb1_day_twoshift!J3="","",_scrb1_day_twoshift!J3)</f>
         <v/>
       </c>
-      <c r="D13" s="18" t="str">
+      <c r="C13" s="62" t="str">
         <f>IF(_scrb1_day_twoshift!K3="","",_scrb1_day_twoshift!K3)</f>
         <v/>
       </c>
-      <c r="E13" s="18" t="str">
+      <c r="D13" s="62" t="str">
         <f>IF(_scrb1_day_twoshift!L3="","",_scrb1_day_twoshift!L3)</f>
         <v/>
       </c>
-      <c r="F13" s="18" t="str">
+      <c r="E13" s="55" t="str">
         <f>IF(_scrb1_day_twoshift!M3="","",_scrb1_day_twoshift!M3)</f>
         <v/>
       </c>
-      <c r="G13" s="18" t="str">
+      <c r="F13" s="62" t="str">
         <f>IF(_scrb1_day_twoshift!N3="","",_scrb1_day_twoshift!N3)</f>
         <v/>
       </c>
-      <c r="H13" s="18" t="str">
+      <c r="G13" s="62" t="str">
         <f>IF(_scrb1_day_twoshift!O3="","",_scrb1_day_twoshift!O3)</f>
         <v/>
       </c>
-      <c r="I13" s="18" t="str">
+      <c r="H13" s="62" t="str">
         <f>IF(_scrb1_day_twoshift!P3="","",_scrb1_day_twoshift!P3)</f>
         <v/>
       </c>
-      <c r="J13" s="18" t="str">
+      <c r="I13" s="60" t="str">
         <f>IF(_scrb1_day_twoshift!Q3="","",_scrb1_day_twoshift!Q3)</f>
         <v/>
       </c>
-      <c r="K13" s="18" t="str">
+      <c r="J13" s="62" t="str">
         <f>IF(_scrb1_day_twoshift!R3="","",_scrb1_day_twoshift!R3)</f>
         <v/>
       </c>
-      <c r="L13" s="18" t="str">
+      <c r="K13" s="60" t="str">
         <f>IF(_scrb1_day_twoshift!S3="","",_scrb1_day_twoshift!S3)</f>
         <v/>
       </c>
-      <c r="M13" s="66"/>
+      <c r="L13" s="60" t="str">
+        <f>IF(_scrb1_day_twoshift!T3="","",_scrb1_day_twoshift!T3)</f>
+        <v/>
+      </c>
+      <c r="M13" s="86"/>
       <c r="N13" s="2"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
@@ -2968,665 +3404,669 @@
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="6" t="str">
+      <c r="A14" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="61" t="str">
         <f>IFERROR(AVERAGE(B12:B13),"")</f>
         <v/>
       </c>
-      <c r="C14" s="6" t="str">
+      <c r="C14" s="63" t="str">
         <f t="shared" ref="C14:L14" si="6">IFERROR(AVERAGE(C12:C13),"")</f>
         <v/>
       </c>
-      <c r="D14" s="6" t="str">
+      <c r="D14" s="63" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E14" s="6" t="str">
+      <c r="E14" s="57" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F14" s="6" t="str">
+      <c r="F14" s="63" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G14" s="6" t="str">
+      <c r="G14" s="63" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H14" s="6" t="str">
+      <c r="H14" s="63" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I14" s="6" t="str">
+      <c r="I14" s="61" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J14" s="6" t="str">
+      <c r="J14" s="63" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K14" s="6" t="str">
+      <c r="K14" s="61" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L14" s="6" t="str">
+      <c r="L14" s="61" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M14" s="14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
+      <c r="P14" s="15" t="s">
+        <v>306</v>
+      </c>
       <c r="Q14" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="R14" s="32"/>
+        <v>133</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="15" spans="1:18" ht="21" x14ac:dyDescent="0.15">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="122" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="124"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="113" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="125"/>
+      <c r="D16" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="125"/>
+      <c r="F16" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="61"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A16" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16" s="62" t="s">
+      <c r="G16" s="115"/>
+      <c r="H16" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="62" t="s">
+      <c r="I16" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="62" t="s">
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="114"/>
+      <c r="Q16" s="114"/>
+      <c r="R16" s="115"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A17" s="86"/>
+      <c r="B17" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65" t="s">
+      <c r="C17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="62" t="s">
+      <c r="D17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="86"/>
+      <c r="I17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="64"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A17" s="66"/>
-      <c r="B17" s="12" t="s">
+      <c r="J17" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="N17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="O17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="66"/>
-      <c r="I17" s="12" t="s">
+      <c r="P17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="N17" s="12" t="s">
+      <c r="Q17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="O17" s="12" t="s">
+      <c r="R17" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="P17" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A18" s="40"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="12" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="N18" s="12"/>
       <c r="O18" s="12" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!U2="","",_scrb1_day_twoshift!U2)</f>
-        <v/>
-      </c>
-      <c r="C19" s="12" t="str">
+        <v>48</v>
+      </c>
+      <c r="B19" s="64" t="str">
         <f>IF(_scrb1_day_twoshift!V2="","",_scrb1_day_twoshift!V2)</f>
         <v/>
       </c>
-      <c r="D19" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!U3="","",_scrb1_day_twoshift!U3)</f>
-        <v/>
-      </c>
-      <c r="E19" s="12" t="str">
+      <c r="C19" s="64" t="str">
+        <f>IF(_scrb1_day_twoshift!W2="","",_scrb1_day_twoshift!W2)</f>
+        <v/>
+      </c>
+      <c r="D19" s="64" t="str">
         <f>IF(_scrb1_day_twoshift!V3="","",_scrb1_day_twoshift!V3)</f>
         <v/>
       </c>
-      <c r="F19" s="12" t="str">
+      <c r="E19" s="64" t="str">
+        <f>IF(_scrb1_day_twoshift!W3="","",_scrb1_day_twoshift!W3)</f>
+        <v/>
+      </c>
+      <c r="F19" s="64" t="str">
         <f>IFERROR(AVERAGE(B19,D19),"")</f>
         <v/>
       </c>
-      <c r="G19" s="12" t="str">
+      <c r="G19" s="64" t="str">
         <f>IFERROR(AVERAGE(C19,E19),"")</f>
         <v/>
       </c>
       <c r="H19" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="13"/>
+        <v>154</v>
+      </c>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="67"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!W2="","",_scrb1_day_twoshift!W2)</f>
-        <v/>
-      </c>
-      <c r="C20" s="12" t="str">
+        <v>49</v>
+      </c>
+      <c r="B20" s="64" t="str">
         <f>IF(_scrb1_day_twoshift!X2="","",_scrb1_day_twoshift!X2)</f>
         <v/>
       </c>
-      <c r="D20" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!W3="","",_scrb1_day_twoshift!W3)</f>
-        <v/>
-      </c>
-      <c r="E20" s="12" t="str">
+      <c r="C20" s="64" t="str">
+        <f>IF(_scrb1_day_twoshift!Y2="","",_scrb1_day_twoshift!Y2)</f>
+        <v/>
+      </c>
+      <c r="D20" s="64" t="str">
         <f>IF(_scrb1_day_twoshift!X3="","",_scrb1_day_twoshift!X3)</f>
         <v/>
       </c>
-      <c r="F20" s="12" t="str">
+      <c r="E20" s="64" t="str">
+        <f>IF(_scrb1_day_twoshift!Y3="","",_scrb1_day_twoshift!Y3)</f>
+        <v/>
+      </c>
+      <c r="F20" s="64" t="str">
         <f t="shared" ref="F20:F25" si="7">IFERROR(AVERAGE(B20,D20),"")</f>
         <v/>
       </c>
-      <c r="G20" s="12" t="str">
+      <c r="G20" s="64" t="str">
         <f t="shared" ref="G20:G25" si="8">IFERROR(AVERAGE(C20,E20),"")</f>
         <v/>
       </c>
       <c r="H20" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="67"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!Y2="","",_scrb1_day_twoshift!Y2)</f>
-        <v/>
-      </c>
-      <c r="C21" s="12" t="str">
+        <v>50</v>
+      </c>
+      <c r="B21" s="64" t="str">
         <f>IF(_scrb1_day_twoshift!Z2="","",_scrb1_day_twoshift!Z2)</f>
         <v/>
       </c>
-      <c r="D21" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!Y3="","",_scrb1_day_twoshift!Y3)</f>
-        <v/>
-      </c>
-      <c r="E21" s="12" t="str">
+      <c r="C21" s="64" t="str">
+        <f>IF(_scrb1_day_twoshift!AA2="","",_scrb1_day_twoshift!AA2)</f>
+        <v/>
+      </c>
+      <c r="D21" s="64" t="str">
         <f>IF(_scrb1_day_twoshift!Z3="","",_scrb1_day_twoshift!Z3)</f>
         <v/>
       </c>
-      <c r="F21" s="12" t="str">
+      <c r="E21" s="64" t="str">
+        <f>IF(_scrb1_day_twoshift!AA3="","",_scrb1_day_twoshift!AA3)</f>
+        <v/>
+      </c>
+      <c r="F21" s="64" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G21" s="12" t="str">
+      <c r="G21" s="64" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H21" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="13"/>
+        <v>286</v>
+      </c>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="67"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!AA2="","",_scrb1_day_twoshift!AA2)</f>
-        <v/>
-      </c>
-      <c r="C22" s="12" t="str">
+        <v>51</v>
+      </c>
+      <c r="B22" s="64" t="str">
         <f>IF(_scrb1_day_twoshift!AB2="","",_scrb1_day_twoshift!AB2)</f>
         <v/>
       </c>
-      <c r="D22" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!AA3="","",_scrb1_day_twoshift!AA3)</f>
-        <v/>
-      </c>
-      <c r="E22" s="12" t="str">
+      <c r="C22" s="64" t="str">
+        <f>IF(_scrb1_day_twoshift!AC2="","",_scrb1_day_twoshift!AC2)</f>
+        <v/>
+      </c>
+      <c r="D22" s="64" t="str">
         <f>IF(_scrb1_day_twoshift!AB3="","",_scrb1_day_twoshift!AB3)</f>
         <v/>
       </c>
-      <c r="F22" s="12" t="str">
+      <c r="E22" s="64" t="str">
+        <f>IF(_scrb1_day_twoshift!AC3="","",_scrb1_day_twoshift!AC3)</f>
+        <v/>
+      </c>
+      <c r="F22" s="64" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G22" s="12" t="str">
+      <c r="G22" s="64" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H22" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="13"/>
+        <v>287</v>
+      </c>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="67"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!AC2="","",_scrb1_day_twoshift!AC2)</f>
-        <v/>
-      </c>
-      <c r="C23" s="12" t="str">
+        <v>53</v>
+      </c>
+      <c r="B23" s="64" t="str">
         <f>IF(_scrb1_day_twoshift!AD2="","",_scrb1_day_twoshift!AD2)</f>
         <v/>
       </c>
-      <c r="D23" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!AC3="","",_scrb1_day_twoshift!AC3)</f>
-        <v/>
-      </c>
-      <c r="E23" s="12" t="str">
+      <c r="C23" s="64" t="str">
+        <f>IF(_scrb1_day_twoshift!AE2="","",_scrb1_day_twoshift!AE2)</f>
+        <v/>
+      </c>
+      <c r="D23" s="64" t="str">
         <f>IF(_scrb1_day_twoshift!AD3="","",_scrb1_day_twoshift!AD3)</f>
         <v/>
       </c>
-      <c r="F23" s="12" t="str">
+      <c r="E23" s="64" t="str">
+        <f>IF(_scrb1_day_twoshift!AE3="","",_scrb1_day_twoshift!AE3)</f>
+        <v/>
+      </c>
+      <c r="F23" s="64" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G23" s="12" t="str">
+      <c r="G23" s="64" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H23" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="13"/>
+        <v>288</v>
+      </c>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="67"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!AE2="","",_scrb1_day_twoshift!AE2)</f>
-        <v/>
-      </c>
-      <c r="C24" s="12" t="str">
+        <v>52</v>
+      </c>
+      <c r="B24" s="64" t="str">
         <f>IF(_scrb1_day_twoshift!AF2="","",_scrb1_day_twoshift!AF2)</f>
         <v/>
       </c>
-      <c r="D24" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!AE3="","",_scrb1_day_twoshift!AE3)</f>
-        <v/>
-      </c>
-      <c r="E24" s="12" t="str">
+      <c r="C24" s="64" t="str">
+        <f>IF(_scrb1_day_twoshift!AG2="","",_scrb1_day_twoshift!AG2)</f>
+        <v/>
+      </c>
+      <c r="D24" s="64" t="str">
         <f>IF(_scrb1_day_twoshift!AF3="","",_scrb1_day_twoshift!AF3)</f>
         <v/>
       </c>
-      <c r="F24" s="12" t="str">
+      <c r="E24" s="64" t="str">
+        <f>IF(_scrb1_day_twoshift!AG3="","",_scrb1_day_twoshift!AG3)</f>
+        <v/>
+      </c>
+      <c r="F24" s="64" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G24" s="12" t="str">
+      <c r="G24" s="64" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H24" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="13"/>
+        <v>289</v>
+      </c>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="67"/>
     </row>
     <row r="25" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="64" t="str">
+        <f>IF(_scrb1_day_twoshift!AH2="","",_scrb1_day_twoshift!AH2)</f>
+        <v/>
+      </c>
+      <c r="C25" s="64" t="str">
+        <f>IF(_scrb1_day_twoshift!AI2="","",_scrb1_day_twoshift!AI2)</f>
+        <v/>
+      </c>
+      <c r="D25" s="65" t="str">
+        <f>IF(_scrb1_day_twoshift!AH3="","",_scrb1_day_twoshift!AH3)</f>
+        <v/>
+      </c>
+      <c r="E25" s="65" t="str">
+        <f>IF(_scrb1_day_twoshift!AI3="","",_scrb1_day_twoshift!AI3)</f>
+        <v/>
+      </c>
+      <c r="F25" s="64" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G25" s="64" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="69"/>
+    </row>
+    <row r="26" spans="1:18" ht="21" x14ac:dyDescent="0.15">
+      <c r="A26" s="122" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="123"/>
+      <c r="Q26" s="123"/>
+      <c r="R26" s="124"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A27" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="116"/>
+    </row>
+    <row r="28" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!AG2="","",_scrb1_day_twoshift!AG2)</f>
-        <v/>
-      </c>
-      <c r="C25" s="12" t="str">
-        <f>IF(_scrb1_day_twoshift!AH2="","",_scrb1_day_twoshift!AH2)</f>
-        <v/>
-      </c>
-      <c r="D25" s="15" t="str">
-        <f>IF(_scrb1_day_twoshift!AG3="","",_scrb1_day_twoshift!AG3)</f>
-        <v/>
-      </c>
-      <c r="E25" s="15" t="str">
-        <f>IF(_scrb1_day_twoshift!AH3="","",_scrb1_day_twoshift!AH3)</f>
-        <v/>
-      </c>
-      <c r="F25" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G25" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="32"/>
-    </row>
-    <row r="26" spans="1:18" ht="21" x14ac:dyDescent="0.15">
-      <c r="A26" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="61"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A27" s="74" t="s">
+      <c r="B28" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75" t="s">
+      <c r="C28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="78"/>
-    </row>
-    <row r="28" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="42" t="s">
+      <c r="D28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="E28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="F28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="H28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="J28" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K28" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="L28" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I28" s="1" t="s">
+      <c r="M28" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K28" s="46" t="s">
+      <c r="N28" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="L28" s="46" t="s">
+      <c r="O28" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="M28" s="46" t="s">
+      <c r="P28" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="N28" s="46" t="s">
+      <c r="Q28" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="O28" s="46" t="s">
+      <c r="R28" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="P28" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q28" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="R28" s="47" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="29" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="42"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="J29" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="K29" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="L29" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="M29" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="N29" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="O29" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="K29" s="46" t="s">
+      <c r="P29" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="L29" s="46" t="s">
+      <c r="Q29" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="M29" s="46" t="s">
+      <c r="R29" s="42" t="s">
         <v>277</v>
-      </c>
-      <c r="N29" s="46" t="s">
-        <v>278</v>
-      </c>
-      <c r="O29" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="P29" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q29" s="46" t="s">
-        <v>281</v>
-      </c>
-      <c r="R29" s="47" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="44">
+        <v>72</v>
+      </c>
+      <c r="B30" s="39">
         <v>2</v>
       </c>
       <c r="C30" s="18"/>
@@ -3637,90 +4077,90 @@
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="52"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="46"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A31" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="44">
+      <c r="A31" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="39">
         <v>5</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="31"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="29"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A32" s="73"/>
-      <c r="B32" s="44">
+      <c r="A32" s="109"/>
+      <c r="B32" s="39">
         <v>8</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="31"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="29"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="44">
+        <v>74</v>
+      </c>
+      <c r="B33" s="39">
         <v>11</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="31"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="29"/>
     </row>
     <row r="34" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="67" t="s">
-        <v>162</v>
-      </c>
-      <c r="B34" s="68"/>
+      <c r="A34" s="104" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="105"/>
       <c r="C34" s="6" t="str">
         <f>IFERROR(AVERAGE(C30:C32),"")</f>
         <v/>
@@ -3781,7 +4221,7 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R34" s="29" t="str">
+      <c r="R34" s="27" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -3797,27 +4237,24 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="M8:M13"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A26:R26"/>
+    <mergeCell ref="H15:R15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3834,1254 +4271,1283 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="A9:L9"/>
     <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A26:R26"/>
-    <mergeCell ref="H15:R15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="M4:M8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="10.75" style="53" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="53"/>
+    <col min="1" max="14" width="10.75" style="47" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="47" customWidth="1"/>
+    <col min="16" max="18" width="10.75" style="47" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="90" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="92"/>
+      <c r="A1" s="137" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="139"/>
     </row>
     <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="93" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="95"/>
+      <c r="A2" s="140" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="142"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="46">
+      <c r="A3" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="41">
         <v>1</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="41">
         <v>2</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="41">
         <v>5</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="41">
         <v>8</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="41">
         <v>10</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3" s="41">
         <v>12</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3" s="41">
         <v>14</v>
       </c>
-      <c r="K3" s="46">
+      <c r="K3" s="41">
         <v>16</v>
       </c>
-      <c r="L3" s="46">
+      <c r="L3" s="41">
         <v>18</v>
       </c>
-      <c r="M3" s="46">
+      <c r="M3" s="41">
         <v>19</v>
       </c>
-      <c r="N3" s="46">
+      <c r="N3" s="41">
         <v>20</v>
       </c>
-      <c r="O3" s="46">
+      <c r="O3" s="41">
         <v>21</v>
       </c>
-      <c r="P3" s="46">
+      <c r="P3" s="41">
         <v>22</v>
       </c>
-      <c r="Q3" s="75">
+      <c r="Q3" s="111">
         <v>23</v>
       </c>
-      <c r="R3" s="78"/>
+      <c r="R3" s="116"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="49" t="str">
+      <c r="A4" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="70" t="str">
         <f>IF(_scrb2_day_twoshift!A2="","",_scrb2_day_twoshift!A2)</f>
         <v/>
       </c>
-      <c r="C4" s="49" t="str">
+      <c r="C4" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!B2="","",_scrb2_day_twoshift!B2)</f>
         <v/>
       </c>
-      <c r="D4" s="49" t="str">
+      <c r="D4" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!C2="","",_scrb2_day_twoshift!C2)</f>
         <v/>
       </c>
-      <c r="E4" s="49" t="str">
+      <c r="E4" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!D2="","",_scrb2_day_twoshift!D2)</f>
         <v/>
       </c>
-      <c r="F4" s="49" t="str">
+      <c r="F4" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!E2="","",_scrb2_day_twoshift!E2)</f>
         <v/>
       </c>
-      <c r="G4" s="49" t="str">
+      <c r="G4" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!F2="","",_scrb2_day_twoshift!F2)</f>
         <v/>
       </c>
-      <c r="H4" s="49" t="str">
+      <c r="H4" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!G2="","",_scrb2_day_twoshift!G2)</f>
         <v/>
       </c>
-      <c r="I4" s="49" t="str">
+      <c r="I4" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!H2="","",_scrb2_day_twoshift!H2)</f>
         <v/>
       </c>
-      <c r="J4" s="49" t="str">
+      <c r="J4" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!I2="","",_scrb2_day_twoshift!I2)</f>
         <v/>
       </c>
-      <c r="K4" s="49" t="str">
+      <c r="K4" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!J2="","",_scrb2_day_twoshift!J2)</f>
         <v/>
       </c>
-      <c r="L4" s="49" t="str">
+      <c r="L4" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!K2="","",_scrb2_day_twoshift!K2)</f>
         <v/>
       </c>
-      <c r="M4" s="49" t="str">
+      <c r="M4" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!L2="","",_scrb2_day_twoshift!L2)</f>
         <v/>
       </c>
-      <c r="N4" s="49" t="str">
+      <c r="N4" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!M2="","",_scrb2_day_twoshift!M2)</f>
         <v/>
       </c>
-      <c r="O4" s="49" t="str">
+      <c r="O4" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!N2="","",_scrb2_day_twoshift!N2)</f>
         <v/>
       </c>
-      <c r="P4" s="49" t="str">
+      <c r="P4" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!O2="","",_scrb2_day_twoshift!O2)</f>
         <v/>
       </c>
-      <c r="Q4" s="100" t="str">
+      <c r="Q4" s="128" t="str">
         <f>IF(_scrb2_day_twoshift!P2="","",_scrb2_day_twoshift!P2)</f>
         <v/>
       </c>
-      <c r="R4" s="101"/>
+      <c r="R4" s="129"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="49" t="str">
+      <c r="A5" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="70" t="str">
         <f>IF(_scrb2_day_twoshift!A3="","",_scrb2_day_twoshift!A3)</f>
         <v/>
       </c>
-      <c r="C5" s="49" t="str">
+      <c r="C5" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!B3="","",_scrb2_day_twoshift!B3)</f>
         <v/>
       </c>
-      <c r="D5" s="49" t="str">
+      <c r="D5" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!C3="","",_scrb2_day_twoshift!C3)</f>
         <v/>
       </c>
-      <c r="E5" s="49" t="str">
+      <c r="E5" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!D3="","",_scrb2_day_twoshift!D3)</f>
         <v/>
       </c>
-      <c r="F5" s="49" t="str">
+      <c r="F5" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!E3="","",_scrb2_day_twoshift!E3)</f>
         <v/>
       </c>
-      <c r="G5" s="49" t="str">
+      <c r="G5" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!F3="","",_scrb2_day_twoshift!F3)</f>
         <v/>
       </c>
-      <c r="H5" s="49" t="str">
+      <c r="H5" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!G3="","",_scrb2_day_twoshift!G3)</f>
         <v/>
       </c>
-      <c r="I5" s="49" t="str">
+      <c r="I5" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!H3="","",_scrb2_day_twoshift!H3)</f>
         <v/>
       </c>
-      <c r="J5" s="49" t="str">
+      <c r="J5" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!I3="","",_scrb2_day_twoshift!I3)</f>
         <v/>
       </c>
-      <c r="K5" s="49" t="str">
+      <c r="K5" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!J3="","",_scrb2_day_twoshift!J3)</f>
         <v/>
       </c>
-      <c r="L5" s="49" t="str">
+      <c r="L5" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!K3="","",_scrb2_day_twoshift!K3)</f>
         <v/>
       </c>
-      <c r="M5" s="49" t="str">
+      <c r="M5" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!L3="","",_scrb2_day_twoshift!L3)</f>
         <v/>
       </c>
-      <c r="N5" s="49" t="str">
+      <c r="N5" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!M3="","",_scrb2_day_twoshift!M3)</f>
         <v/>
       </c>
-      <c r="O5" s="49" t="str">
+      <c r="O5" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!N3="","",_scrb2_day_twoshift!N3)</f>
         <v/>
       </c>
-      <c r="P5" s="49" t="str">
+      <c r="P5" s="72" t="str">
         <f>IF(_scrb2_day_twoshift!O3="","",_scrb2_day_twoshift!O3)</f>
         <v/>
       </c>
-      <c r="Q5" s="100" t="str">
+      <c r="Q5" s="128" t="str">
         <f>IF(_scrb2_day_twoshift!P3="","",_scrb2_day_twoshift!P3)</f>
         <v/>
       </c>
-      <c r="R5" s="101"/>
+      <c r="R5" s="129"/>
     </row>
     <row r="6" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="33" t="str">
+        <v>156</v>
+      </c>
+      <c r="B6" s="71" t="str">
         <f>IFERROR(AVERAGE(B4:B5),"")</f>
         <v/>
       </c>
-      <c r="C6" s="33" t="str">
+      <c r="C6" s="73" t="str">
         <f t="shared" ref="C6:P6" si="0">IFERROR(AVERAGE(C4:C5),"")</f>
         <v/>
       </c>
-      <c r="D6" s="33" t="str">
+      <c r="D6" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E6" s="33" t="str">
+      <c r="E6" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F6" s="33" t="str">
+      <c r="F6" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G6" s="33" t="str">
+      <c r="G6" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H6" s="33" t="str">
+      <c r="H6" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I6" s="33" t="str">
+      <c r="I6" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J6" s="33" t="str">
+      <c r="J6" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K6" s="33" t="str">
+      <c r="K6" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L6" s="33" t="str">
+      <c r="L6" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M6" s="33" t="str">
+      <c r="M6" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N6" s="33" t="str">
+      <c r="N6" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O6" s="33" t="str">
+      <c r="O6" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P6" s="33" t="str">
+      <c r="P6" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q6" s="102" t="str">
+      <c r="Q6" s="147" t="str">
         <f t="shared" ref="Q6" si="1">IFERROR(AVERAGE(Q4:Q5),"")</f>
         <v/>
       </c>
-      <c r="R6" s="103"/>
+      <c r="R6" s="148"/>
     </row>
     <row r="7" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="140" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="141"/>
+      <c r="R7" s="142"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="41">
+        <v>1</v>
+      </c>
+      <c r="E8" s="41">
+        <v>2</v>
+      </c>
+      <c r="F8" s="41">
+        <v>5</v>
+      </c>
+      <c r="G8" s="41">
+        <v>8</v>
+      </c>
+      <c r="H8" s="41">
+        <v>10</v>
+      </c>
+      <c r="I8" s="41">
+        <v>12</v>
+      </c>
+      <c r="J8" s="41">
+        <v>14</v>
+      </c>
+      <c r="K8" s="41">
+        <v>16</v>
+      </c>
+      <c r="L8" s="41">
+        <v>18</v>
+      </c>
+      <c r="M8" s="41">
+        <v>19</v>
+      </c>
+      <c r="N8" s="41">
+        <v>20</v>
+      </c>
+      <c r="O8" s="41">
+        <v>21</v>
+      </c>
+      <c r="P8" s="41">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="111">
+        <v>23</v>
+      </c>
+      <c r="R8" s="116"/>
+    </row>
+    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="70" t="str">
+        <f>IF(_scrb2_day_twoshift!R2="","",_scrb2_day_twoshift!R2)</f>
+        <v/>
+      </c>
+      <c r="C9" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!S2="","",_scrb2_day_twoshift!S2)</f>
+        <v/>
+      </c>
+      <c r="D9" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!T2="","",_scrb2_day_twoshift!T2)</f>
+        <v/>
+      </c>
+      <c r="E9" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!U2="","",_scrb2_day_twoshift!U2)</f>
+        <v/>
+      </c>
+      <c r="F9" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!V2="","",_scrb2_day_twoshift!V2)</f>
+        <v/>
+      </c>
+      <c r="G9" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!W2="","",_scrb2_day_twoshift!W2)</f>
+        <v/>
+      </c>
+      <c r="H9" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!X2="","",_scrb2_day_twoshift!X2)</f>
+        <v/>
+      </c>
+      <c r="I9" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!Y2="","",_scrb2_day_twoshift!Y2)</f>
+        <v/>
+      </c>
+      <c r="J9" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!Z2="","",_scrb2_day_twoshift!Z2)</f>
+        <v/>
+      </c>
+      <c r="K9" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!AA2="","",_scrb2_day_twoshift!AA2)</f>
+        <v/>
+      </c>
+      <c r="L9" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!AB2="","",_scrb2_day_twoshift!AB2)</f>
+        <v/>
+      </c>
+      <c r="M9" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!AC2="","",_scrb2_day_twoshift!AC2)</f>
+        <v/>
+      </c>
+      <c r="N9" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!AD2="","",_scrb2_day_twoshift!AD2)</f>
+        <v/>
+      </c>
+      <c r="O9" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!AE2="","",_scrb2_day_twoshift!AE2)</f>
+        <v/>
+      </c>
+      <c r="P9" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!AF2="","",_scrb2_day_twoshift!AF2)</f>
+        <v/>
+      </c>
+      <c r="Q9" s="128" t="str">
+        <f>IF(_scrb2_day_twoshift!AG2="","",_scrb2_day_twoshift!AG2)</f>
+        <v/>
+      </c>
+      <c r="R9" s="129"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="70" t="str">
+        <f>IF(_scrb2_day_twoshift!R3="","",_scrb2_day_twoshift!R3)</f>
+        <v/>
+      </c>
+      <c r="C10" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!S3="","",_scrb2_day_twoshift!S3)</f>
+        <v/>
+      </c>
+      <c r="D10" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!T3="","",_scrb2_day_twoshift!T3)</f>
+        <v/>
+      </c>
+      <c r="E10" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!U3="","",_scrb2_day_twoshift!U3)</f>
+        <v/>
+      </c>
+      <c r="F10" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!V3="","",_scrb2_day_twoshift!V3)</f>
+        <v/>
+      </c>
+      <c r="G10" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!W3="","",_scrb2_day_twoshift!W3)</f>
+        <v/>
+      </c>
+      <c r="H10" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!X3="","",_scrb2_day_twoshift!X3)</f>
+        <v/>
+      </c>
+      <c r="I10" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!Y3="","",_scrb2_day_twoshift!Y3)</f>
+        <v/>
+      </c>
+      <c r="J10" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!Z3="","",_scrb2_day_twoshift!Z3)</f>
+        <v/>
+      </c>
+      <c r="K10" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!AA3="","",_scrb2_day_twoshift!AA3)</f>
+        <v/>
+      </c>
+      <c r="L10" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!AB3="","",_scrb2_day_twoshift!AB3)</f>
+        <v/>
+      </c>
+      <c r="M10" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!AC3="","",_scrb2_day_twoshift!AC3)</f>
+        <v/>
+      </c>
+      <c r="N10" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!AD3="","",_scrb2_day_twoshift!AD3)</f>
+        <v/>
+      </c>
+      <c r="O10" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!AE3="","",_scrb2_day_twoshift!AE3)</f>
+        <v/>
+      </c>
+      <c r="P10" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!AF3="","",_scrb2_day_twoshift!AF3)</f>
+        <v/>
+      </c>
+      <c r="Q10" s="128" t="str">
+        <f>IF(_scrb2_day_twoshift!AG3="","",_scrb2_day_twoshift!AG3)</f>
+        <v/>
+      </c>
+      <c r="R10" s="129"/>
+    </row>
+    <row r="11" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="74" t="str">
+        <f>IFERROR(AVERAGE(B9:B10),"")</f>
+        <v/>
+      </c>
+      <c r="C11" s="75" t="str">
+        <f t="shared" ref="C11:P11" si="2">IFERROR(AVERAGE(C9:C10),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="75" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E11" s="75" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F11" s="75" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G11" s="75" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H11" s="75" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" s="75" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J11" s="75" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K11" s="75" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L11" s="75" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M11" s="75" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N11" s="75" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O11" s="75" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P11" s="75" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q11" s="149" t="str">
+        <f t="shared" ref="Q11" si="3">IFERROR(AVERAGE(Q9:Q10),"")</f>
+        <v/>
+      </c>
+      <c r="R11" s="150"/>
+    </row>
+    <row r="12" spans="1:18" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="143" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="144"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="146" t="s">
+        <v>169</v>
+      </c>
+      <c r="L12" s="144"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="144"/>
+      <c r="P12" s="144"/>
+      <c r="Q12" s="144"/>
+      <c r="R12" s="145"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="132" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="O13" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="R13" s="48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="133"/>
+      <c r="B14" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="33" t="str">
+        <f>IF(_scrb2_day_twoshift!AO2="","",_scrb2_day_twoshift!AO2)</f>
+        <v/>
+      </c>
+      <c r="M14" s="33" t="str">
+        <f>IF(_scrb2_day_twoshift!AP2="","",_scrb2_day_twoshift!AP2)</f>
+        <v/>
+      </c>
+      <c r="N14" s="33" t="str">
+        <f>IF(_scrb2_day_twoshift!AQ2="","",_scrb2_day_twoshift!AQ2)</f>
+        <v/>
+      </c>
+      <c r="O14" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="33" t="str">
+        <f>IF(_scrb2_day_twoshift!BA2="","",_scrb2_day_twoshift!BA2)</f>
+        <v/>
+      </c>
+      <c r="Q14" s="33" t="str">
+        <f>IF(_scrb2_day_twoshift!BB2="","",_scrb2_day_twoshift!BB2)</f>
+        <v/>
+      </c>
+      <c r="R14" s="48" t="str">
+        <f>IF(_scrb2_day_twoshift!BC2="","",_scrb2_day_twoshift!BC2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76" t="str">
+        <f>IF(_scrb2_day_twoshift!AI2="","",_scrb2_day_twoshift!AI2)</f>
+        <v/>
+      </c>
+      <c r="D15" s="76" t="str">
+        <f>IF(_scrb2_day_twoshift!AJ2="","",_scrb2_day_twoshift!AJ2)</f>
+        <v/>
+      </c>
+      <c r="E15" s="76" t="str">
+        <f>IF(_scrb2_day_twoshift!AK2="","",_scrb2_day_twoshift!AK2)</f>
+        <v/>
+      </c>
+      <c r="F15" s="76" t="str">
+        <f>IF(_scrb2_day_twoshift!AL2="","",_scrb2_day_twoshift!AL2)</f>
+        <v/>
+      </c>
+      <c r="G15" s="76" t="str">
+        <f>IF(_scrb2_day_twoshift!AM2="","",_scrb2_day_twoshift!AM2)</f>
+        <v/>
+      </c>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="33" t="str">
+        <f>IF(_scrb2_day_twoshift!AR2="","",_scrb2_day_twoshift!AR2)</f>
+        <v/>
+      </c>
+      <c r="M15" s="33" t="str">
+        <f>IF(_scrb2_day_twoshift!AS2="","",_scrb2_day_twoshift!AS2)</f>
+        <v/>
+      </c>
+      <c r="N15" s="33" t="str">
+        <f>IF(_scrb2_day_twoshift!AT2="","",_scrb2_day_twoshift!AT2)</f>
+        <v/>
+      </c>
+      <c r="O15" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="P15" s="33" t="str">
+        <f>IF(_scrb2_day_twoshift!BD2="","",_scrb2_day_twoshift!BD2)</f>
+        <v/>
+      </c>
+      <c r="Q15" s="33" t="str">
+        <f>IF(_scrb2_day_twoshift!BE2="","",_scrb2_day_twoshift!BE2)</f>
+        <v/>
+      </c>
+      <c r="R15" s="48" t="str">
+        <f>IF(_scrb2_day_twoshift!BF2="","",_scrb2_day_twoshift!BF2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76" t="str">
+        <f>IF(_scrb2_day_twoshift!AI3="","",_scrb2_day_twoshift!AI3)</f>
+        <v/>
+      </c>
+      <c r="D16" s="76" t="str">
+        <f>IF(_scrb2_day_twoshift!AJ3="","",_scrb2_day_twoshift!AJ3)</f>
+        <v/>
+      </c>
+      <c r="E16" s="76" t="str">
+        <f>IF(_scrb2_day_twoshift!AK3="","",_scrb2_day_twoshift!AK3)</f>
+        <v/>
+      </c>
+      <c r="F16" s="76" t="str">
+        <f>IF(_scrb2_day_twoshift!AL3="","",_scrb2_day_twoshift!AL3)</f>
+        <v/>
+      </c>
+      <c r="G16" s="76" t="str">
+        <f>IF(_scrb2_day_twoshift!AM3="","",_scrb2_day_twoshift!AM3)</f>
+        <v/>
+      </c>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="33" t="str">
+        <f>IF(_scrb2_day_twoshift!AU2="","",_scrb2_day_twoshift!AU2)</f>
+        <v/>
+      </c>
+      <c r="M16" s="33" t="str">
+        <f>IF(_scrb2_day_twoshift!AV2="","",_scrb2_day_twoshift!AV2)</f>
+        <v/>
+      </c>
+      <c r="N16" s="33" t="str">
+        <f>IF(_scrb2_day_twoshift!AW2="","",_scrb2_day_twoshift!AW2)</f>
+        <v/>
+      </c>
+      <c r="O16" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="33" t="str">
+        <f>IF(_scrb2_day_twoshift!BG2="","",_scrb2_day_twoshift!BG2)</f>
+        <v/>
+      </c>
+      <c r="Q16" s="33" t="str">
+        <f>IF(_scrb2_day_twoshift!BH2="","",_scrb2_day_twoshift!BH2)</f>
+        <v/>
+      </c>
+      <c r="R16" s="48" t="str">
+        <f>IF(_scrb2_day_twoshift!BI2="","",_scrb2_day_twoshift!BI2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78" t="str">
+        <f>IFERROR(AVERAGE(C15:C16),"")</f>
+        <v/>
+      </c>
+      <c r="D17" s="78" t="str">
+        <f t="shared" ref="D17:E17" si="4">IFERROR(AVERAGE(D15:D16),"")</f>
+        <v/>
+      </c>
+      <c r="E17" s="78" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F17" s="78" t="str">
+        <f>IFERROR(AVERAGE(F15:F16),"")</f>
+        <v/>
+      </c>
+      <c r="G17" s="78" t="str">
+        <f>IFERROR(AVERAGE(G15:G16),"")</f>
+        <v/>
+      </c>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="33" t="str">
+        <f>IF(_scrb2_day_twoshift!AX2="","",_scrb2_day_twoshift!AX2)</f>
+        <v/>
+      </c>
+      <c r="M17" s="33" t="str">
+        <f>IF(_scrb2_day_twoshift!AY2="","",_scrb2_day_twoshift!AY2)</f>
+        <v/>
+      </c>
+      <c r="N17" s="33" t="str">
+        <f>IF(_scrb2_day_twoshift!AZ2="","",_scrb2_day_twoshift!AZ2)</f>
+        <v/>
+      </c>
+      <c r="O17" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="34" t="str">
+        <f>IF(_scrb2_day_twoshift!BJ2="","",_scrb2_day_twoshift!BJ2)</f>
+        <v/>
+      </c>
+      <c r="Q17" s="34" t="str">
+        <f>IF(_scrb2_day_twoshift!BK2="","",_scrb2_day_twoshift!BK2)</f>
+        <v/>
+      </c>
+      <c r="R17" s="48" t="str">
+        <f>IF(_scrb2_day_twoshift!BL2="","",_scrb2_day_twoshift!BL2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="21" x14ac:dyDescent="0.3">
+      <c r="A18" s="134" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="135"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="135"/>
+      <c r="R18" s="136"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="95"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="46" t="s">
+      <c r="D19" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="L19" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="M19" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="N19" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="O19" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="P19" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q19" s="126" t="s">
+        <v>121</v>
+      </c>
+      <c r="R19" s="127"/>
+    </row>
+    <row r="20" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BN2="","",_scrb2_day_twoshift!BN2)</f>
+        <v/>
+      </c>
+      <c r="C20" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BO2="","",_scrb2_day_twoshift!BO2)</f>
+        <v/>
+      </c>
+      <c r="D20" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BP2="","",_scrb2_day_twoshift!BP2)</f>
+        <v/>
+      </c>
+      <c r="E20" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BQ2="","",_scrb2_day_twoshift!BQ2)</f>
+        <v/>
+      </c>
+      <c r="F20" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BR2="","",_scrb2_day_twoshift!BR2)</f>
+        <v/>
+      </c>
+      <c r="G20" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BS2="","",_scrb2_day_twoshift!BS2)</f>
+        <v/>
+      </c>
+      <c r="H20" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BT2="","",_scrb2_day_twoshift!BT2)</f>
+        <v/>
+      </c>
+      <c r="I20" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BU2="","",_scrb2_day_twoshift!BU2)</f>
+        <v/>
+      </c>
+      <c r="J20" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BV2="","",_scrb2_day_twoshift!BV2)</f>
+        <v/>
+      </c>
+      <c r="K20" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BW2="","",_scrb2_day_twoshift!BW2)</f>
+        <v/>
+      </c>
+      <c r="L20" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BX2="","",_scrb2_day_twoshift!BX2)</f>
+        <v/>
+      </c>
+      <c r="M20" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BY2="","",_scrb2_day_twoshift!BY2)</f>
+        <v/>
+      </c>
+      <c r="N20" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BZ2="","",_scrb2_day_twoshift!BZ2)</f>
+        <v/>
+      </c>
+      <c r="O20" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!CA2="","",_scrb2_day_twoshift!CA2)</f>
+        <v/>
+      </c>
+      <c r="P20" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!CB2="","",_scrb2_day_twoshift!CB2)</f>
+        <v/>
+      </c>
+      <c r="Q20" s="128" t="str">
+        <f>IF(_scrb2_day_twoshift!CC2="","",_scrb2_day_twoshift!CC2)</f>
+        <v/>
+      </c>
+      <c r="R20" s="129"/>
+    </row>
+    <row r="21" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BN3="","",_scrb2_day_twoshift!BN3)</f>
+        <v/>
+      </c>
+      <c r="C21" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BO3="","",_scrb2_day_twoshift!BO3)</f>
+        <v/>
+      </c>
+      <c r="D21" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BP3="","",_scrb2_day_twoshift!BP3)</f>
+        <v/>
+      </c>
+      <c r="E21" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BQ3="","",_scrb2_day_twoshift!BQ3)</f>
+        <v/>
+      </c>
+      <c r="F21" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BR3="","",_scrb2_day_twoshift!BR3)</f>
+        <v/>
+      </c>
+      <c r="G21" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BS3="","",_scrb2_day_twoshift!BS3)</f>
+        <v/>
+      </c>
+      <c r="H21" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BT3="","",_scrb2_day_twoshift!BT3)</f>
+        <v/>
+      </c>
+      <c r="I21" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BU3="","",_scrb2_day_twoshift!BU3)</f>
+        <v/>
+      </c>
+      <c r="J21" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BV3="","",_scrb2_day_twoshift!BV3)</f>
+        <v/>
+      </c>
+      <c r="K21" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BW3="","",_scrb2_day_twoshift!BW3)</f>
+        <v/>
+      </c>
+      <c r="L21" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BX3="","",_scrb2_day_twoshift!BX3)</f>
+        <v/>
+      </c>
+      <c r="M21" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BY3="","",_scrb2_day_twoshift!BY3)</f>
+        <v/>
+      </c>
+      <c r="N21" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!BZ3="","",_scrb2_day_twoshift!BZ3)</f>
+        <v/>
+      </c>
+      <c r="O21" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!CA3="","",_scrb2_day_twoshift!CA3)</f>
+        <v/>
+      </c>
+      <c r="P21" s="72" t="str">
+        <f>IF(_scrb2_day_twoshift!CB3="","",_scrb2_day_twoshift!CB3)</f>
+        <v/>
+      </c>
+      <c r="Q21" s="130" t="str">
+        <f>IF(_scrb2_day_twoshift!CC3="","",_scrb2_day_twoshift!CC3)</f>
+        <v/>
+      </c>
+      <c r="R21" s="131"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="80" t="str">
+        <f>IF(_scrb2_day_twoshift!CE2="","",_scrb2_day_twoshift!CE2)</f>
+        <v/>
+      </c>
+      <c r="C23" s="80" t="str">
+        <f>IF(_scrb2_day_twoshift!CF2="","",_scrb2_day_twoshift!CF2)</f>
+        <v/>
+      </c>
+      <c r="D23" s="80" t="str">
+        <f>IF(_scrb2_day_twoshift!CG2="","",_scrb2_day_twoshift!CG2)</f>
+        <v/>
+      </c>
+      <c r="E23" s="80" t="str">
+        <f>IF(_scrb2_day_twoshift!CH2="","",_scrb2_day_twoshift!CH2)</f>
+        <v/>
+      </c>
+      <c r="F23" s="80" t="str">
+        <f>IF(_scrb2_day_twoshift!CI2="","",_scrb2_day_twoshift!CI2)</f>
+        <v/>
+      </c>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+    </row>
+    <row r="24" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" s="46">
-        <v>1</v>
-      </c>
-      <c r="E8" s="46">
-        <v>2</v>
-      </c>
-      <c r="F8" s="46">
-        <v>5</v>
-      </c>
-      <c r="G8" s="46">
-        <v>8</v>
-      </c>
-      <c r="H8" s="46">
-        <v>10</v>
-      </c>
-      <c r="I8" s="46">
-        <v>12</v>
-      </c>
-      <c r="J8" s="46">
-        <v>14</v>
-      </c>
-      <c r="K8" s="46">
-        <v>16</v>
-      </c>
-      <c r="L8" s="46">
-        <v>18</v>
-      </c>
-      <c r="M8" s="46">
-        <v>19</v>
-      </c>
-      <c r="N8" s="46">
-        <v>20</v>
-      </c>
-      <c r="O8" s="46">
-        <v>21</v>
-      </c>
-      <c r="P8" s="46">
-        <v>22</v>
-      </c>
-      <c r="Q8" s="75">
-        <v>23</v>
-      </c>
-      <c r="R8" s="78"/>
-    </row>
-    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!R2="","",_scrb2_day_twoshift!R2)</f>
-        <v/>
-      </c>
-      <c r="C9" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!S2="","",_scrb2_day_twoshift!S2)</f>
-        <v/>
-      </c>
-      <c r="D9" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!T2="","",_scrb2_day_twoshift!T2)</f>
-        <v/>
-      </c>
-      <c r="E9" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!U2="","",_scrb2_day_twoshift!U2)</f>
-        <v/>
-      </c>
-      <c r="F9" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!V2="","",_scrb2_day_twoshift!V2)</f>
-        <v/>
-      </c>
-      <c r="G9" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!W2="","",_scrb2_day_twoshift!W2)</f>
-        <v/>
-      </c>
-      <c r="H9" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!X2="","",_scrb2_day_twoshift!X2)</f>
-        <v/>
-      </c>
-      <c r="I9" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!Y2="","",_scrb2_day_twoshift!Y2)</f>
-        <v/>
-      </c>
-      <c r="J9" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!Z2="","",_scrb2_day_twoshift!Z2)</f>
-        <v/>
-      </c>
-      <c r="K9" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AA2="","",_scrb2_day_twoshift!AA2)</f>
-        <v/>
-      </c>
-      <c r="L9" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AB2="","",_scrb2_day_twoshift!AB2)</f>
-        <v/>
-      </c>
-      <c r="M9" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AC2="","",_scrb2_day_twoshift!AC2)</f>
-        <v/>
-      </c>
-      <c r="N9" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AD2="","",_scrb2_day_twoshift!AD2)</f>
-        <v/>
-      </c>
-      <c r="O9" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AE2="","",_scrb2_day_twoshift!AE2)</f>
-        <v/>
-      </c>
-      <c r="P9" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AF2="","",_scrb2_day_twoshift!AF2)</f>
-        <v/>
-      </c>
-      <c r="Q9" s="100" t="str">
-        <f>IF(_scrb2_day_twoshift!AG2="","",_scrb2_day_twoshift!AG2)</f>
-        <v/>
-      </c>
-      <c r="R9" s="101"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!R3="","",_scrb2_day_twoshift!R3)</f>
-        <v/>
-      </c>
-      <c r="C10" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!S3="","",_scrb2_day_twoshift!S3)</f>
-        <v/>
-      </c>
-      <c r="D10" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!T3="","",_scrb2_day_twoshift!T3)</f>
-        <v/>
-      </c>
-      <c r="E10" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!U3="","",_scrb2_day_twoshift!U3)</f>
-        <v/>
-      </c>
-      <c r="F10" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!V3="","",_scrb2_day_twoshift!V3)</f>
-        <v/>
-      </c>
-      <c r="G10" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!W3="","",_scrb2_day_twoshift!W3)</f>
-        <v/>
-      </c>
-      <c r="H10" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!X3="","",_scrb2_day_twoshift!X3)</f>
-        <v/>
-      </c>
-      <c r="I10" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!Y3="","",_scrb2_day_twoshift!Y3)</f>
-        <v/>
-      </c>
-      <c r="J10" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!Z3="","",_scrb2_day_twoshift!Z3)</f>
-        <v/>
-      </c>
-      <c r="K10" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AA3="","",_scrb2_day_twoshift!AA3)</f>
-        <v/>
-      </c>
-      <c r="L10" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AB3="","",_scrb2_day_twoshift!AB3)</f>
-        <v/>
-      </c>
-      <c r="M10" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AC3="","",_scrb2_day_twoshift!AC3)</f>
-        <v/>
-      </c>
-      <c r="N10" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AD3="","",_scrb2_day_twoshift!AD3)</f>
-        <v/>
-      </c>
-      <c r="O10" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AE3="","",_scrb2_day_twoshift!AE3)</f>
-        <v/>
-      </c>
-      <c r="P10" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AF3="","",_scrb2_day_twoshift!AF3)</f>
-        <v/>
-      </c>
-      <c r="Q10" s="100" t="str">
-        <f>IF(_scrb2_day_twoshift!AG3="","",_scrb2_day_twoshift!AG3)</f>
-        <v/>
-      </c>
-      <c r="R10" s="101"/>
-    </row>
-    <row r="11" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="38" t="str">
-        <f>IFERROR(AVERAGE(B9:B10),"")</f>
-        <v/>
-      </c>
-      <c r="C11" s="38" t="str">
-        <f t="shared" ref="C11:P11" si="2">IFERROR(AVERAGE(C9:C10),"")</f>
-        <v/>
-      </c>
-      <c r="D11" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E11" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F11" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G11" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H11" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I11" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J11" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K11" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L11" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M11" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N11" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O11" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P11" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q11" s="104" t="str">
-        <f t="shared" ref="Q11" si="3">IFERROR(AVERAGE(Q9:Q10),"")</f>
-        <v/>
-      </c>
-      <c r="R11" s="105"/>
-    </row>
-    <row r="12" spans="1:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="96" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="99" t="s">
-        <v>174</v>
-      </c>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="98"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="110" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M13" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="N13" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="O13" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="P13" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q13" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="R13" s="54" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="M14" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="P14" s="37" t="str">
-        <f>IF(_scrb2_day_twoshift!AO2="","",_scrb2_day_twoshift!AO2)</f>
-        <v/>
-      </c>
-      <c r="Q14" s="37" t="str">
-        <f>IF(_scrb2_day_twoshift!AP2="","",_scrb2_day_twoshift!AP2)</f>
-        <v/>
-      </c>
-      <c r="R14" s="54"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="37" t="str">
-        <f>IF(_scrb2_day_twoshift!AI2="","",_scrb2_day_twoshift!AI2)</f>
-        <v/>
-      </c>
-      <c r="D15" s="37" t="str">
-        <f>IF(_scrb2_day_twoshift!AJ2="","",_scrb2_day_twoshift!AJ2)</f>
-        <v/>
-      </c>
-      <c r="E15" s="37" t="str">
-        <f>IF(_scrb2_day_twoshift!AK2="","",_scrb2_day_twoshift!AK2)</f>
-        <v/>
-      </c>
-      <c r="F15" s="37" t="str">
-        <f>IF(_scrb2_day_twoshift!AL2="","",_scrb2_day_twoshift!AL2)</f>
-        <v/>
-      </c>
-      <c r="G15" s="37" t="str">
-        <f>IF(_scrb2_day_twoshift!AM2="","",_scrb2_day_twoshift!AM2)</f>
-        <v/>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="M15" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="P15" s="37" t="str">
-        <f>IF(_scrb2_day_twoshift!AQ2="","",_scrb2_day_twoshift!AQ2)</f>
-        <v/>
-      </c>
-      <c r="Q15" s="37" t="str">
-        <f>IF(_scrb2_day_twoshift!AR2="","",_scrb2_day_twoshift!AR2)</f>
-        <v/>
-      </c>
-      <c r="R15" s="54"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37" t="str">
-        <f>IF(_scrb2_day_twoshift!AI3="","",_scrb2_day_twoshift!AI3)</f>
-        <v/>
-      </c>
-      <c r="D16" s="37" t="str">
-        <f>IF(_scrb2_day_twoshift!AJ3="","",_scrb2_day_twoshift!AJ3)</f>
-        <v/>
-      </c>
-      <c r="E16" s="37" t="str">
-        <f>IF(_scrb2_day_twoshift!AK3="","",_scrb2_day_twoshift!AK3)</f>
-        <v/>
-      </c>
-      <c r="F16" s="37" t="str">
-        <f>IF(_scrb2_day_twoshift!AL3="","",_scrb2_day_twoshift!AL3)</f>
-        <v/>
-      </c>
-      <c r="G16" s="37" t="str">
-        <f>IF(_scrb2_day_twoshift!AM3="","",_scrb2_day_twoshift!AM3)</f>
-        <v/>
-      </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="L16" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="P16" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="R16" s="54"/>
-    </row>
-    <row r="17" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38" t="str">
-        <f>IFERROR(AVERAGE(C15:C16),"")</f>
-        <v/>
-      </c>
-      <c r="D17" s="38" t="str">
-        <f t="shared" ref="D17:E17" si="4">IFERROR(AVERAGE(D15:D16),"")</f>
-        <v/>
-      </c>
-      <c r="E17" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F17" s="38" t="str">
-        <f>IFERROR(AVERAGE(F15:F16),"")</f>
-        <v/>
-      </c>
-      <c r="G17" s="38" t="str">
-        <f>IFERROR(AVERAGE(G15:G16),"")</f>
-        <v/>
-      </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="M17" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="P17" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q17" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="R17" s="55"/>
-    </row>
-    <row r="18" spans="1:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="112" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="113"/>
-      <c r="O18" s="113"/>
-      <c r="P18" s="113"/>
-      <c r="Q18" s="113"/>
-      <c r="R18" s="114"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="I19" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="J19" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="K19" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="L19" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="M19" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="N19" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="O19" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="P19" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q19" s="106" t="s">
-        <v>125</v>
-      </c>
-      <c r="R19" s="107"/>
-    </row>
-    <row r="20" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="B20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AT2="","",_scrb2_day_twoshift!AT2)</f>
-        <v/>
-      </c>
-      <c r="C20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AU2="","",_scrb2_day_twoshift!AU2)</f>
-        <v/>
-      </c>
-      <c r="D20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AV2="","",_scrb2_day_twoshift!AV2)</f>
-        <v/>
-      </c>
-      <c r="E20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AW2="","",_scrb2_day_twoshift!AW2)</f>
-        <v/>
-      </c>
-      <c r="F20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AX2="","",_scrb2_day_twoshift!AX2)</f>
-        <v/>
-      </c>
-      <c r="G20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AY2="","",_scrb2_day_twoshift!AY2)</f>
-        <v/>
-      </c>
-      <c r="H20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AZ2="","",_scrb2_day_twoshift!AZ2)</f>
-        <v/>
-      </c>
-      <c r="I20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BA2="","",_scrb2_day_twoshift!BA2)</f>
-        <v/>
-      </c>
-      <c r="J20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BB2="","",_scrb2_day_twoshift!BB2)</f>
-        <v/>
-      </c>
-      <c r="K20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BC2="","",_scrb2_day_twoshift!BC2)</f>
-        <v/>
-      </c>
-      <c r="L20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BD2="","",_scrb2_day_twoshift!BD2)</f>
-        <v/>
-      </c>
-      <c r="M20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BE2="","",_scrb2_day_twoshift!BE2)</f>
-        <v/>
-      </c>
-      <c r="N20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BF2="","",_scrb2_day_twoshift!BF2)</f>
-        <v/>
-      </c>
-      <c r="O20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BG2="","",_scrb2_day_twoshift!BG2)</f>
-        <v/>
-      </c>
-      <c r="P20" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BH2="","",_scrb2_day_twoshift!BH2)</f>
-        <v/>
-      </c>
-      <c r="Q20" s="100" t="str">
-        <f>IF(_scrb2_day_twoshift!BI2="","",_scrb2_day_twoshift!BI2)</f>
-        <v/>
-      </c>
-      <c r="R20" s="101"/>
-    </row>
-    <row r="21" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AT3="","",_scrb2_day_twoshift!AT3)</f>
-        <v/>
-      </c>
-      <c r="C21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AU3="","",_scrb2_day_twoshift!AU3)</f>
-        <v/>
-      </c>
-      <c r="D21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AV3="","",_scrb2_day_twoshift!AV3)</f>
-        <v/>
-      </c>
-      <c r="E21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AW3="","",_scrb2_day_twoshift!AW3)</f>
-        <v/>
-      </c>
-      <c r="F21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AX3="","",_scrb2_day_twoshift!AX3)</f>
-        <v/>
-      </c>
-      <c r="G21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AY3="","",_scrb2_day_twoshift!AY3)</f>
-        <v/>
-      </c>
-      <c r="H21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!AZ3="","",_scrb2_day_twoshift!AZ3)</f>
-        <v/>
-      </c>
-      <c r="I21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BA3="","",_scrb2_day_twoshift!BA3)</f>
-        <v/>
-      </c>
-      <c r="J21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BB3="","",_scrb2_day_twoshift!BB3)</f>
-        <v/>
-      </c>
-      <c r="K21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BC3="","",_scrb2_day_twoshift!BC3)</f>
-        <v/>
-      </c>
-      <c r="L21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BD3="","",_scrb2_day_twoshift!BD3)</f>
-        <v/>
-      </c>
-      <c r="M21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BE3="","",_scrb2_day_twoshift!BE3)</f>
-        <v/>
-      </c>
-      <c r="N21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BF3="","",_scrb2_day_twoshift!BF3)</f>
-        <v/>
-      </c>
-      <c r="O21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BG3="","",_scrb2_day_twoshift!BG3)</f>
-        <v/>
-      </c>
-      <c r="P21" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BH3="","",_scrb2_day_twoshift!BH3)</f>
-        <v/>
-      </c>
-      <c r="Q21" s="108" t="str">
-        <f>IF(_scrb2_day_twoshift!BI3="","",_scrb2_day_twoshift!BI3)</f>
-        <v/>
-      </c>
-      <c r="R21" s="109"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="K22" s="34"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="B23" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BK2="","",_scrb2_day_twoshift!BK2)</f>
-        <v/>
-      </c>
-      <c r="C23" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BL2="","",_scrb2_day_twoshift!BL2)</f>
-        <v/>
-      </c>
-      <c r="D23" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BM2="","",_scrb2_day_twoshift!BM2)</f>
-        <v/>
-      </c>
-      <c r="E23" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BN2="","",_scrb2_day_twoshift!BN2)</f>
-        <v/>
-      </c>
-      <c r="F23" s="49" t="str">
-        <f>IF(_scrb2_day_twoshift!BO2="","",_scrb2_day_twoshift!BO2)</f>
-        <v/>
-      </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-    </row>
-    <row r="24" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="19" t="str">
-        <f>IF(_scrb2_day_twoshift!BK3="","",_scrb2_day_twoshift!BK3)</f>
-        <v/>
-      </c>
-      <c r="C24" s="19" t="str">
-        <f>IF(_scrb2_day_twoshift!BL3="","",_scrb2_day_twoshift!BL3)</f>
-        <v/>
-      </c>
-      <c r="D24" s="19" t="str">
-        <f>IF(_scrb2_day_twoshift!BM3="","",_scrb2_day_twoshift!BM3)</f>
-        <v/>
-      </c>
-      <c r="E24" s="19" t="str">
-        <f>IF(_scrb2_day_twoshift!BN3="","",_scrb2_day_twoshift!BN3)</f>
-        <v/>
-      </c>
-      <c r="F24" s="19" t="str">
-        <f>IF(_scrb2_day_twoshift!BO3="","",_scrb2_day_twoshift!BO3)</f>
-        <v/>
-      </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
+      <c r="B24" s="82" t="str">
+        <f>IF(_scrb2_day_twoshift!CE3="","",_scrb2_day_twoshift!CE3)</f>
+        <v/>
+      </c>
+      <c r="C24" s="82" t="str">
+        <f>IF(_scrb2_day_twoshift!CF3="","",_scrb2_day_twoshift!CF3)</f>
+        <v/>
+      </c>
+      <c r="D24" s="82" t="str">
+        <f>IF(_scrb2_day_twoshift!CG3="","",_scrb2_day_twoshift!CG3)</f>
+        <v/>
+      </c>
+      <c r="E24" s="82" t="str">
+        <f>IF(_scrb2_day_twoshift!CH3="","",_scrb2_day_twoshift!CH3)</f>
+        <v/>
+      </c>
+      <c r="F24" s="82" t="str">
+        <f>IF(_scrb2_day_twoshift!CI3="","",_scrb2_day_twoshift!CI3)</f>
+        <v/>
+      </c>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A18:R18"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A7:R7"/>
@@ -5095,126 +5561,135 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A18:R18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7A3F53-6C3A-4C66-80DC-0EECF6D56C42}">
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A1:AI1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="35.125" customWidth="1"/>
-    <col min="6" max="7" width="32.5" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="16" width="32.5" customWidth="1"/>
-    <col min="17" max="47" width="31.625" customWidth="1"/>
+    <col min="6" max="8" width="32.5" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="17" width="32.5" customWidth="1"/>
+    <col min="18" max="48" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" t="s">
         <v>177</v>
       </c>
-      <c r="B1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>178</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>179</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>180</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>181</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>182</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>183</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>184</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>185</v>
       </c>
-      <c r="O1" t="s">
-        <v>186</v>
-      </c>
-      <c r="P1" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>188</v>
-      </c>
-      <c r="R1" t="s">
-        <v>189</v>
-      </c>
-      <c r="S1" t="s">
-        <v>190</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>248</v>
+      </c>
+      <c r="W1" t="s">
+        <v>249</v>
+      </c>
+      <c r="X1" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA1" t="s">
         <v>253</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AB1" t="s">
         <v>254</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
         <v>255</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AD1" t="s">
         <v>256</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AE1" t="s">
         <v>257</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AF1" t="s">
         <v>258</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AG1" t="s">
         <v>259</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AH1" t="s">
         <v>260</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AI1" t="s">
         <v>261</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>264</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>265</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -5225,205 +5700,265 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204F0FB8-83F2-4FC5-B799-03F8050D48FF}">
-  <dimension ref="A1:BO1"/>
+  <dimension ref="A1:CI1"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AJ45" sqref="AJ45"/>
+    <sheetView topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="BL11" sqref="BL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="38" width="30.625" customWidth="1"/>
     <col min="39" max="39" width="33.625" customWidth="1"/>
-    <col min="40" max="67" width="30.625" customWidth="1"/>
+    <col min="40" max="87" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" t="s">
         <v>191</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>192</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>193</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>194</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>195</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>196</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>197</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>198</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>199</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>200</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>201</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>202</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>203</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>204</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>205</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>206</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>207</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>208</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>209</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
         <v>210</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
         <v>211</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AB1" t="s">
         <v>212</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AC1" t="s">
         <v>213</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AD1" t="s">
         <v>214</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AE1" t="s">
         <v>215</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AF1" t="s">
         <v>216</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AG1" t="s">
         <v>217</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AI1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>322</v>
+      </c>
+      <c r="BA1" t="s">
         <v>218</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="BB1" t="s">
         <v>219</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="BC1" t="s">
+        <v>323</v>
+      </c>
+      <c r="BD1" t="s">
         <v>220</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="BE1" t="s">
         <v>221</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="BF1" t="s">
+        <v>324</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>316</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>325</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>317</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>318</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BN1" t="s">
         <v>222</v>
       </c>
-      <c r="AI1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AO1" t="s">
+      <c r="BO1" t="s">
         <v>223</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="BP1" t="s">
         <v>224</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BQ1" t="s">
         <v>225</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BR1" t="s">
         <v>226</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BS1" t="s">
         <v>227</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BT1" t="s">
         <v>228</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BU1" t="s">
         <v>229</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BV1" t="s">
         <v>230</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BW1" t="s">
         <v>231</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BX1" t="s">
         <v>232</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BY1" t="s">
         <v>233</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BZ1" t="s">
         <v>234</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="CA1" t="s">
         <v>235</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="CB1" t="s">
         <v>236</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="CC1" t="s">
         <v>237</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="CE1" t="s">
         <v>238</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="CF1" t="s">
         <v>239</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="CG1" t="s">
         <v>240</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="CH1" t="s">
         <v>241</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="CI1" t="s">
         <v>242</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>243</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>244</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>245</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>246</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -5444,7 +5979,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B1">
         <v>4</v>

--- a/excel/finished/wg4#烧结/4烧结生产报表.xlsx
+++ b/excel/finished/wg4#烧结/4烧结生产报表.xlsx
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="282">
   <si>
     <t>4#烧结机生产日报（一）</t>
   </si>
@@ -214,7 +214,13 @@
     <t>{停机记录.停机起时.夜}</t>
   </si>
   <si>
+    <t>{累计作业率1}</t>
+  </si>
+  <si>
     <t>白</t>
+  </si>
+  <si>
+    <t>{累计作业率2}</t>
   </si>
   <si>
     <t>全天</t>
@@ -2887,7 +2893,7 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3095,7 +3101,9 @@
         <f>IF(_scrb1_day_twoshift!H2="","",_scrb1_day_twoshift!H2)</f>
         <v/>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="68" t="s">
+        <v>26</v>
+      </c>
       <c r="K5" s="108" t="str">
         <f>IF(_scrb1_day_twoshift!J2="","",_scrb1_day_twoshift!J2)</f>
         <v/>
@@ -3113,7 +3121,7 @@
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:18">
       <c r="A6" s="63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="65" t="str">
         <f>IF(_scrb1_day_twoshift!A3="","",_scrb1_day_twoshift!A3)</f>
@@ -3141,7 +3149,9 @@
         <f>IF(_scrb1_day_twoshift!H3="","",_scrb1_day_twoshift!H3)</f>
         <v/>
       </c>
-      <c r="J6" s="68"/>
+      <c r="J6" s="68" t="s">
+        <v>28</v>
+      </c>
       <c r="K6" s="108" t="str">
         <f>IF(_scrb1_day_twoshift!J3="","",_scrb1_day_twoshift!J3)</f>
         <v/>
@@ -3159,7 +3169,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="63" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="65" t="str">
         <f>IF(SUM(B5:B6),SUM(B5:B6),"")</f>
@@ -3234,7 +3244,7 @@
     </row>
     <row r="9" ht="21.75" spans="1:18">
       <c r="A9" s="74" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" s="74"/>
       <c r="C9" s="74"/>
@@ -3248,10 +3258,10 @@
       <c r="K9" s="74"/>
       <c r="L9" s="74"/>
       <c r="M9" s="86" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N9" s="91" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O9" s="91"/>
       <c r="P9" s="91"/>
@@ -3263,37 +3273,37 @@
         <v>3</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" s="76" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F10" s="77" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G10" s="77" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H10" s="77" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="77" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K10" s="76" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L10" s="115" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M10" s="116"/>
       <c r="N10" s="91"/>
@@ -3305,31 +3315,31 @@
     <row r="11" spans="1:18">
       <c r="A11" s="78"/>
       <c r="B11" s="64" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H11" s="64" t="s">
         <v>23</v>
       </c>
       <c r="I11" s="64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J11" s="64" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K11" s="64" t="s">
         <v>22</v>
@@ -3401,7 +3411,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="80" t="str">
         <f>IF(_scrb1_day_twoshift!M3="","",_scrb1_day_twoshift!M3)</f>
@@ -3456,7 +3466,7 @@
     </row>
     <row r="14" ht="17.25" spans="1:18">
       <c r="A14" s="83" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="71" t="str">
         <f>IFERROR(AVERAGE(B12:B13),"")</f>
@@ -3503,25 +3513,25 @@
         <v/>
       </c>
       <c r="M14" s="95" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N14" s="117" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O14" s="117"/>
       <c r="P14" s="117" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q14" s="117" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R14" s="92" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" ht="21" spans="1:18">
       <c r="A15" s="61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B15" s="62"/>
       <c r="C15" s="62"/>
@@ -3530,7 +3540,7 @@
       <c r="F15" s="62"/>
       <c r="G15" s="84"/>
       <c r="H15" s="85" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I15" s="97"/>
       <c r="J15" s="97"/>
@@ -3545,25 +3555,25 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="86" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B16" s="87" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C16" s="88"/>
       <c r="D16" s="87" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E16" s="88"/>
       <c r="F16" s="87" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G16" s="89"/>
       <c r="H16" s="86" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I16" s="87" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J16" s="118"/>
       <c r="K16" s="118"/>
@@ -3578,53 +3588,53 @@
     <row r="17" spans="1:18">
       <c r="A17" s="90"/>
       <c r="B17" s="91" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17" s="91" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E17" s="91" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F17" s="91" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G17" s="92" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H17" s="90"/>
       <c r="I17" s="91" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J17" s="91" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K17" s="91" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L17" s="91" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M17" s="91" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N17" s="91" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O17" s="91" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P17" s="91" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="91" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R17" s="92" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3637,37 +3647,37 @@
       <c r="G18" s="87"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J18" s="91" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K18" s="91" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L18" s="91" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M18" s="91" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N18" s="91"/>
       <c r="O18" s="91" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P18" s="91" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="91" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R18" s="92" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="93" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B19" s="94" t="str">
         <f>IF(_scrb1_day_twoshift!Y2="","",_scrb1_day_twoshift!Y2)</f>
@@ -3694,7 +3704,7 @@
         <v/>
       </c>
       <c r="H19" s="93" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I19" s="119"/>
       <c r="J19" s="119"/>
@@ -3709,7 +3719,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="93" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" s="94" t="str">
         <f>IF(_scrb1_day_twoshift!AA2="","",_scrb1_day_twoshift!AA2)</f>
@@ -3736,7 +3746,7 @@
         <v/>
       </c>
       <c r="H20" s="93" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I20" s="119"/>
       <c r="J20" s="119"/>
@@ -3751,7 +3761,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="93" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B21" s="94" t="str">
         <f>IF(_scrb1_day_twoshift!AC2="","",_scrb1_day_twoshift!AC2)</f>
@@ -3778,7 +3788,7 @@
         <v/>
       </c>
       <c r="H21" s="93" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I21" s="119"/>
       <c r="J21" s="119"/>
@@ -3793,7 +3803,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="93" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B22" s="94" t="str">
         <f>IF(_scrb1_day_twoshift!AE2="","",_scrb1_day_twoshift!AE2)</f>
@@ -3820,7 +3830,7 @@
         <v/>
       </c>
       <c r="H22" s="93" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I22" s="119"/>
       <c r="J22" s="119"/>
@@ -3835,7 +3845,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="93" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B23" s="94" t="str">
         <f>IF(_scrb1_day_twoshift!AG2="","",_scrb1_day_twoshift!AG2)</f>
@@ -3862,7 +3872,7 @@
         <v/>
       </c>
       <c r="H23" s="93" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I23" s="119"/>
       <c r="J23" s="119"/>
@@ -3877,7 +3887,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="93" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B24" s="94" t="str">
         <f>IF(_scrb1_day_twoshift!AI2="","",_scrb1_day_twoshift!AI2)</f>
@@ -3904,7 +3914,7 @@
         <v/>
       </c>
       <c r="H24" s="93" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I24" s="119"/>
       <c r="J24" s="119"/>
@@ -3919,7 +3929,7 @@
     </row>
     <row r="25" ht="17.25" spans="1:18">
       <c r="A25" s="95" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B25" s="94" t="str">
         <f>IF(_scrb1_day_twoshift!AK2="","",_scrb1_day_twoshift!AK2)</f>
@@ -3946,7 +3956,7 @@
         <v/>
       </c>
       <c r="H25" s="95" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I25" s="120"/>
       <c r="J25" s="120"/>
@@ -3961,7 +3971,7 @@
     </row>
     <row r="26" ht="21" spans="1:18">
       <c r="A26" s="85" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B26" s="97"/>
       <c r="C26" s="97"/>
@@ -3983,7 +3993,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -3995,7 +4005,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
@@ -4010,107 +4020,107 @@
         <v>3</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C28" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="98" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="98" t="s">
-        <v>57</v>
-      </c>
       <c r="F28" s="98" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G28" s="98" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H28" s="98" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I28" s="98" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J28" s="121" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="R28" s="46" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" ht="37.5" customHeight="1" spans="1:18">
       <c r="A29" s="63"/>
       <c r="B29" s="64"/>
       <c r="C29" s="98" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D29" s="98" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E29" s="98" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F29" s="98" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G29" s="98" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H29" s="98" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I29" s="98" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J29" s="121" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R29" s="46" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -4139,7 +4149,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="78" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" s="64">
         <v>5</v>
@@ -4209,7 +4219,7 @@
     </row>
     <row r="34" ht="17.25" spans="1:18">
       <c r="A34" s="83" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B34" s="101"/>
       <c r="C34" s="73" t="str">
@@ -4358,7 +4368,7 @@
   <sheetData>
     <row r="1" ht="49.5" customHeight="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4380,7 +4390,7 @@
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:18">
       <c r="A2" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -4405,10 +4415,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D3" s="7">
         <v>1</v>
@@ -4456,7 +4466,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:18">
       <c r="A4" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B4" s="8" t="str">
         <f>IF(_scrb2_day_twoshift!A2="","",_scrb2_day_twoshift!A2)</f>
@@ -4526,7 +4536,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B5" s="8" t="str">
         <f>IF(_scrb2_day_twoshift!A3="","",_scrb2_day_twoshift!A3)</f>
@@ -4596,7 +4606,7 @@
     </row>
     <row r="6" ht="17.25" spans="1:18">
       <c r="A6" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" s="11" t="str">
         <f>IFERROR(AVERAGE(B4:B5),"")</f>
@@ -4666,7 +4676,7 @@
     </row>
     <row r="7" ht="21.75" customHeight="1" spans="1:18">
       <c r="A7" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -4691,10 +4701,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -4742,7 +4752,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:18">
       <c r="A9" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B9" s="8" t="str">
         <f>IF(_scrb2_day_twoshift!R2="","",_scrb2_day_twoshift!R2)</f>
@@ -4812,7 +4822,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B10" s="8" t="str">
         <f>IF(_scrb2_day_twoshift!R3="","",_scrb2_day_twoshift!R3)</f>
@@ -4882,7 +4892,7 @@
     </row>
     <row r="11" ht="17.25" spans="1:18">
       <c r="A11" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="15" t="str">
         <f>IFERROR(AVERAGE(B9:B10),"")</f>
@@ -4952,7 +4962,7 @@
     </row>
     <row r="12" ht="21" spans="1:18">
       <c r="A12" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -4964,7 +4974,7 @@
       <c r="I12" s="18"/>
       <c r="J12" s="33"/>
       <c r="K12" s="34" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
@@ -4979,88 +4989,88 @@
         <v>3</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J13" s="35" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N13" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="O13" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="P13" s="20" t="s">
-        <v>132</v>
-      </c>
       <c r="Q13" s="20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="21"/>
       <c r="B14" s="20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J14" s="35" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L14" s="20" t="str">
         <f>IF(_scrb2_day_twoshift!AO2="","",_scrb2_day_twoshift!AO2)</f>
@@ -5075,7 +5085,7 @@
         <v/>
       </c>
       <c r="O14" s="20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P14" s="20" t="str">
         <f>IF(_scrb2_day_twoshift!BA2="","",_scrb2_day_twoshift!BA2)</f>
@@ -5119,7 +5129,7 @@
       <c r="I15" s="23"/>
       <c r="J15" s="37"/>
       <c r="K15" s="36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L15" s="20" t="str">
         <f>IF(_scrb2_day_twoshift!AR2="","",_scrb2_day_twoshift!AR2)</f>
@@ -5134,7 +5144,7 @@
         <v/>
       </c>
       <c r="O15" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P15" s="20" t="str">
         <f>IF(_scrb2_day_twoshift!BD2="","",_scrb2_day_twoshift!BD2)</f>
@@ -5151,7 +5161,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="23" t="str">
@@ -5178,7 +5188,7 @@
       <c r="I16" s="23"/>
       <c r="J16" s="37"/>
       <c r="K16" s="36" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L16" s="20" t="str">
         <f>IF(_scrb2_day_twoshift!AU2="","",_scrb2_day_twoshift!AU2)</f>
@@ -5193,7 +5203,7 @@
         <v/>
       </c>
       <c r="O16" s="20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P16" s="38" t="str">
         <f>IF(_scrb2_day_twoshift!BG2="","",_scrb2_day_twoshift!BG2)</f>
@@ -5210,7 +5220,7 @@
     </row>
     <row r="17" ht="17.25" spans="1:18">
       <c r="A17" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="24" t="str">
@@ -5237,7 +5247,7 @@
       <c r="I17" s="24"/>
       <c r="J17" s="39"/>
       <c r="K17" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L17" s="20" t="str">
         <f>IF(_scrb2_day_twoshift!AX2="","",_scrb2_day_twoshift!AX2)</f>
@@ -5252,7 +5262,7 @@
         <v/>
       </c>
       <c r="O17" s="41" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P17" s="15" t="str">
         <f>IF(_scrb2_day_twoshift!BJ2="","",_scrb2_day_twoshift!BJ2)</f>
@@ -5269,7 +5279,7 @@
     </row>
     <row r="18" ht="21" spans="1:18">
       <c r="A18" s="25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -5291,55 +5301,55 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K19" s="27" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L19" s="27" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O19" s="27" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P19" s="27" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q19" s="27" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="R19" s="55"/>
     </row>
@@ -5415,7 +5425,7 @@
     </row>
     <row r="21" ht="17.25" spans="1:18">
       <c r="A21" s="28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="9" t="str">
         <f>IF(_scrb2_day_twoshift!BN3="","",_scrb2_day_twoshift!BN3)</f>
@@ -5485,22 +5495,22 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="29" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
@@ -5554,7 +5564,7 @@
     </row>
     <row r="24" ht="17.25" spans="1:18">
       <c r="A24" s="28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="32" t="str">
         <f>IF(_scrb2_day_twoshift!CE3="","",_scrb2_day_twoshift!CE3)</f>
@@ -5639,112 +5649,112 @@
   <sheetData>
     <row r="1" spans="1:38">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="R1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="S1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="T1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="U1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="V1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="W1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Y1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AA1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AB1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AC1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AD1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AE1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AF1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AH1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AI1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AJ1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AK1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AL1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -5771,250 +5781,250 @@
   <sheetData>
     <row r="1" spans="1:87">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="R1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="S1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="T1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="U1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="V1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="W1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="X1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Y1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Z1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AA1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AB1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AC1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AD1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AE1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AG1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AI1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AJ1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AK1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AL1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AM1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AO1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AP1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AQ1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AR1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AS1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AT1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AU1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AV1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AW1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AX1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AY1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AZ1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="BA1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="BB1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="BC1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="BD1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BE1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BF1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BG1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BH1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="BI1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="BJ1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="BK1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="BL1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="BN1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="BO1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="BP1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="BQ1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="BR1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="BS1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BT1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="BU1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="BV1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="BW1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="BX1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BY1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BZ1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CA1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="CB1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="CC1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CE1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="CF1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="CG1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="CH1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CI1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -6036,7 +6046,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B1">
         <v>4</v>

--- a/excel/finished/wg4#烧结/4烧结生产报表.xlsx
+++ b/excel/finished/wg4#烧结/4烧结生产报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="253">
   <si>
     <t>四烧作业区生产日报</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>车</t>
     </r>
     <r>
@@ -114,6 +120,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>产</t>
     </r>
     <r>
@@ -149,6 +161,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>台时能力</t>
     </r>
     <r>
@@ -193,6 +211,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>利用系数</t>
     </r>
     <r>
@@ -229,6 +253,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>综合合格率</t>
     </r>
     <r>
@@ -243,6 +273,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>综合一级品率</t>
     </r>
     <r>
@@ -272,6 +308,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>Ro(</t>
     </r>
     <r>
@@ -304,6 +346,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>小于</t>
     </r>
     <r>
@@ -318,6 +366,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>转鼓</t>
     </r>
     <r>
@@ -332,6 +386,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>耐磨</t>
     </r>
     <r>
@@ -346,6 +406,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>筛分</t>
     </r>
     <r>
@@ -405,6 +471,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>作业率</t>
     </r>
     <r>
@@ -431,6 +503,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -499,6 +577,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>返</t>
     </r>
     <r>
@@ -513,6 +597,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>冶返</t>
     </r>
     <r>
@@ -527,6 +617,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>铺</t>
     </r>
     <r>
@@ -541,6 +637,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>堆</t>
     </r>
     <r>
@@ -558,6 +660,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>堆</t>
     </r>
     <r>
@@ -587,6 +695,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>B</t>
     </r>
     <r>
@@ -600,6 +714,170 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>堆料时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取料时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>堆料时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取料时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
     <t>全天</t>
   </si>
   <si>
@@ -607,6 +885,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>共</t>
     </r>
     <r>
@@ -630,6 +914,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -689,6 +979,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -748,6 +1044,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -840,6 +1142,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -899,6 +1207,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -961,6 +1275,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -1002,6 +1322,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -1115,6 +1441,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>1#</t>
     </r>
     <r>
@@ -1129,6 +1461,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>2#</t>
     </r>
     <r>
@@ -1143,6 +1481,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>3#</t>
     </r>
     <r>
@@ -1157,6 +1501,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>4#</t>
     </r>
     <r>
@@ -1180,6 +1530,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>生石灰</t>
     </r>
     <r>
@@ -1194,6 +1550,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>1#</t>
     </r>
     <r>
@@ -1208,6 +1570,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>生石灰</t>
     </r>
     <r>
@@ -1222,6 +1590,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>2#</t>
     </r>
     <r>
@@ -1248,6 +1622,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>粒度</t>
     </r>
     <r>
@@ -1632,18 +2012,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1655,18 +2035,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1678,23 +2051,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1707,6 +2073,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1722,9 +2089,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1736,41 +2142,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1804,7 +2184,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1816,7 +2196,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1828,73 +2316,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1906,13 +2328,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1924,19 +2340,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1948,31 +2352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2187,11 +2567,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2220,32 +2606,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2265,13 +2641,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2279,8 +2659,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2290,7 +2670,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2302,16 +2682,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2320,119 +2700,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2630,9 +3010,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2643,9 +3020,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3002,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" ht="13.5" spans="1:24">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3038,7 +3412,7 @@
       <c r="W2" s="5"/>
       <c r="X2" s="6"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" ht="13.5" spans="1:24">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -3297,8 +3671,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
       <c r="U6" s="8" t="str">
         <f>IFERROR(AVERAGE(U4:U5),"")</f>
         <v/>
@@ -3485,13 +3859,13 @@
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
       <c r="T10" s="36"/>
-      <c r="U10" s="70" t="str">
+      <c r="U10" s="69" t="str">
         <f>IF(SUM(S10:T10)=0,"",SUM(S10:T10))</f>
         <v/>
       </c>
       <c r="V10" s="36"/>
       <c r="W10" s="36"/>
-      <c r="X10" s="70"/>
+      <c r="X10" s="69"/>
     </row>
     <row r="11" ht="13.5" spans="1:24">
       <c r="A11" s="8" t="s">
@@ -3520,13 +3894,13 @@
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
       <c r="T11" s="36"/>
-      <c r="U11" s="70" t="str">
+      <c r="U11" s="69" t="str">
         <f>IF(SUM(S11:T11)=0,"",SUM(S11:T11))</f>
         <v/>
       </c>
       <c r="V11" s="36"/>
       <c r="W11" s="36"/>
-      <c r="X11" s="70"/>
+      <c r="X11" s="69"/>
     </row>
     <row r="12" ht="13.5" spans="1:24">
       <c r="A12" s="7" t="s">
@@ -3558,13 +3932,13 @@
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
       <c r="T12" s="36"/>
-      <c r="U12" s="70" t="str">
+      <c r="U12" s="69" t="str">
         <f>IF(SUM(S12:T12)=0,"",SUM(S12:T12))</f>
         <v/>
       </c>
       <c r="V12" s="36"/>
       <c r="W12" s="36"/>
-      <c r="X12" s="70"/>
+      <c r="X12" s="69"/>
     </row>
     <row r="13" ht="13.5" spans="1:24">
       <c r="A13" s="9"/>
@@ -3589,13 +3963,13 @@
       <c r="R13" s="36"/>
       <c r="S13" s="36"/>
       <c r="T13" s="36"/>
-      <c r="U13" s="70" t="str">
+      <c r="U13" s="69" t="str">
         <f>IF(SUM(S13:T13)=0,"",SUM(S13:T13))</f>
         <v/>
       </c>
       <c r="V13" s="36"/>
       <c r="W13" s="36"/>
-      <c r="X13" s="70"/>
+      <c r="X13" s="69"/>
     </row>
     <row r="14" ht="13.5" spans="1:24">
       <c r="A14" s="7" t="s">
@@ -3625,10 +3999,10 @@
       <c r="R14" s="39"/>
       <c r="S14" s="39"/>
       <c r="T14" s="39"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="39"/>
       <c r="W14" s="39"/>
-      <c r="X14" s="71"/>
+      <c r="X14" s="70"/>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:24">
       <c r="A15" s="11" t="s">
@@ -3652,10 +4026,10 @@
       <c r="R15" s="36"/>
       <c r="S15" s="36"/>
       <c r="T15" s="36"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="36"/>
       <c r="W15" s="36"/>
-      <c r="X15" s="70"/>
+      <c r="X15" s="69"/>
     </row>
     <row r="16" ht="28" customHeight="1" spans="1:24">
       <c r="A16" s="12"/>
@@ -3701,7 +4075,7 @@
       </c>
       <c r="S16" s="36"/>
       <c r="T16" s="36"/>
-      <c r="U16" s="70" t="str">
+      <c r="U16" s="69" t="str">
         <f>IFERROR(AVERAGE(U10:U13),"")</f>
         <v/>
       </c>
@@ -3713,7 +4087,7 @@
         <f>IFERROR(AVERAGE(W10:W13),"")</f>
         <v/>
       </c>
-      <c r="X16" s="70" t="str">
+      <c r="X16" s="69" t="str">
         <f>IFERROR(AVERAGE(X10:X13),"")</f>
         <v/>
       </c>
@@ -3771,7 +4145,7 @@
       <c r="P18" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="Q18" s="43" t="s">
+      <c r="Q18" s="14" t="s">
         <v>74</v>
       </c>
       <c r="R18" s="43" t="s">
@@ -3779,7 +4153,7 @@
       </c>
       <c r="S18" s="45"/>
       <c r="T18" s="45"/>
-      <c r="U18" s="43" t="s">
+      <c r="U18" s="14" t="s">
         <v>76</v>
       </c>
       <c r="V18" s="43" t="s">
@@ -3814,7 +4188,7 @@
       <c r="P19" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="Q19" s="45" t="s">
+      <c r="Q19" s="17" t="s">
         <v>80</v>
       </c>
       <c r="R19" s="45" t="s">
@@ -3822,7 +4196,7 @@
       </c>
       <c r="S19" s="45"/>
       <c r="T19" s="45"/>
-      <c r="U19" s="45" t="s">
+      <c r="U19" s="17" t="s">
         <v>80</v>
       </c>
       <c r="V19" s="45" t="s">
@@ -3860,16 +4234,16 @@
         <v/>
       </c>
       <c r="P20" s="45"/>
-      <c r="Q20" s="45">
-        <v>0</v>
+      <c r="Q20" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="R20" s="45">
         <v>0</v>
       </c>
       <c r="S20" s="45"/>
       <c r="T20" s="45"/>
-      <c r="U20" s="45">
-        <v>942</v>
+      <c r="U20" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="V20" s="45"/>
     </row>
@@ -3904,16 +4278,16 @@
         <v/>
       </c>
       <c r="P21" s="45"/>
-      <c r="Q21" s="45">
-        <v>0</v>
+      <c r="Q21" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="R21" s="45">
         <v>0</v>
       </c>
       <c r="S21" s="45"/>
       <c r="T21" s="45"/>
-      <c r="U21" s="45">
-        <v>4465</v>
+      <c r="U21" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="V21" s="45"/>
     </row>
@@ -3924,7 +4298,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="I22" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J22" s="44">
         <f t="shared" ref="J22:O22" si="2">IF(SUM(J20:J21)="","",SUM(J20:J21))</f>
@@ -3953,32 +4327,41 @@
       <c r="P22" s="45">
         <v>5558</v>
       </c>
-      <c r="Q22" s="45">
+      <c r="Q22" s="17">
+        <f>SUM(Q20:Q21)</f>
         <v>0</v>
       </c>
       <c r="R22" s="45">
+        <f>SUM(R20:R21)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45">
-        <v>5408</v>
+      <c r="S22" s="45">
+        <f>SUM(S20:S21)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="45">
+        <f>SUM(T20:T21)</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="17">
+        <f>SUM(U20:U21)</f>
+        <v>0</v>
       </c>
       <c r="V22" s="45"/>
     </row>
     <row r="23" ht="26.25" spans="1:37">
       <c r="A23" s="14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="17" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I23" s="46"/>
       <c r="J23" s="46"/>
@@ -4015,7 +4398,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -4024,26 +4407,26 @@
         <v>8</v>
       </c>
       <c r="J24" s="48" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K24" s="49"/>
       <c r="L24" s="50" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="51" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O24" s="42" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P24" s="52"/>
       <c r="Q24" s="42" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="R24" s="52"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
     </row>
     <row r="25" ht="28" customHeight="1" spans="1:20">
       <c r="A25" s="19"/>
@@ -4077,8 +4460,8 @@
       <c r="R25" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
     </row>
     <row r="26" ht="21" customHeight="1" spans="1:20">
       <c r="A26" s="19"/>
@@ -4087,7 +4470,7 @@
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="I26" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J26" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!CF2="","",_scrb1_day_twoshift!CF2)</f>
@@ -4117,8 +4500,8 @@
       </c>
       <c r="Q26" s="45"/>
       <c r="R26" s="45"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
     </row>
     <row r="27" ht="21" customHeight="1" spans="1:20">
       <c r="A27" s="19"/>
@@ -4127,7 +4510,7 @@
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="I27" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J27" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!CH2="","",_scrb1_day_twoshift!CH2)</f>
@@ -4157,8 +4540,8 @@
       </c>
       <c r="Q27" s="45"/>
       <c r="R27" s="45"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
     </row>
     <row r="28" ht="24" customHeight="1" spans="1:20">
       <c r="A28" s="19"/>
@@ -4167,7 +4550,7 @@
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="I28" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J28" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!CG4="","",_scrb1_day_twoshift!CG4)</f>
@@ -4197,8 +4580,8 @@
       </c>
       <c r="Q28" s="45"/>
       <c r="R28" s="45"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:20">
       <c r="A29" s="19"/>
@@ -4207,7 +4590,7 @@
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="I29" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J29" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!CL2="","",_scrb1_day_twoshift!CL2)</f>
@@ -4237,8 +4620,8 @@
       </c>
       <c r="Q29" s="45"/>
       <c r="R29" s="45"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
     </row>
     <row r="30" ht="26" customHeight="1" spans="1:20">
       <c r="A30" s="19"/>
@@ -4247,7 +4630,7 @@
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="I30" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J30" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!CN2="","",_scrb1_day_twoshift!CN2)</f>
@@ -4277,8 +4660,8 @@
       </c>
       <c r="Q30" s="45"/>
       <c r="R30" s="45"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="72"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
     </row>
     <row r="31" ht="26" customHeight="1" spans="1:20">
       <c r="A31" s="20"/>
@@ -4287,7 +4670,7 @@
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="I31" s="14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J31" s="56" t="str">
         <f>IF(_scrb1_day_twoshift!CP2="","",_scrb1_day_twoshift!CP2)</f>
@@ -4317,22 +4700,22 @@
       </c>
       <c r="Q31" s="45"/>
       <c r="R31" s="45"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="72"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
     </row>
     <row r="32" ht="29" customHeight="1" spans="1:37">
       <c r="A32" s="14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="17" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I32" s="46"/>
       <c r="J32" s="46"/>
@@ -4366,46 +4749,46 @@
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:26">
       <c r="A33" s="14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="17" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I33" s="57"/>
       <c r="J33" s="11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K33" s="43" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L33" s="43" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M33" s="43" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="N33" s="43" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="O33" s="45" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P33" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="Q33" s="73"/>
+      <c r="Q33" s="72"/>
       <c r="R33" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="S33" s="74"/>
-      <c r="T33" s="74"/>
+        <v>114</v>
+      </c>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
@@ -4424,25 +4807,25 @@
       <c r="H34" s="21"/>
       <c r="I34" s="57"/>
       <c r="J34" s="58" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K34" s="45" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L34" s="45" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M34" s="45" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="N34" s="45" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="O34" s="45" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P34" s="59"/>
-      <c r="Q34" s="75"/>
+      <c r="Q34" s="73"/>
       <c r="R34" s="8" t="s">
         <v>34</v>
       </c>
@@ -4461,10 +4844,10 @@
         <v>39</v>
       </c>
       <c r="Y34" s="45" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Z34" s="43" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" ht="13.5" spans="1:26">
@@ -4484,23 +4867,23 @@
       <c r="N35" s="45"/>
       <c r="O35" s="45"/>
       <c r="P35" s="59"/>
-      <c r="Q35" s="75"/>
+      <c r="Q35" s="73"/>
       <c r="R35" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="S35" s="8"/>
       <c r="T35" s="8"/>
       <c r="U35" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V35" s="8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="W35" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="X35" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Y35" s="45"/>
       <c r="Z35" s="45"/>
@@ -4513,22 +4896,22 @@
         <v>2</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I36" s="57"/>
       <c r="J36" s="13"/>
@@ -4538,7 +4921,7 @@
       <c r="N36" s="45"/>
       <c r="O36" s="45"/>
       <c r="P36" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="8"/>
@@ -4555,22 +4938,22 @@
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="24" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I37" s="57"/>
       <c r="J37" s="60"/>
@@ -4580,7 +4963,7 @@
       <c r="N37" s="60"/>
       <c r="O37" s="61"/>
       <c r="P37" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="8"/>
@@ -4595,7 +4978,7 @@
     </row>
     <row r="38" ht="13.5" spans="1:26">
       <c r="A38" s="23" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>26</v>
@@ -4632,7 +5015,7 @@
       <c r="N38" s="62"/>
       <c r="O38" s="63"/>
       <c r="P38" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="8"/>
@@ -4682,7 +5065,7 @@
       <c r="N39" s="62"/>
       <c r="O39" s="63"/>
       <c r="P39" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="8"/>
@@ -4711,7 +5094,7 @@
       <c r="N40" s="62"/>
       <c r="O40" s="63"/>
       <c r="P40" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q40" s="6"/>
       <c r="R40" s="8"/>
@@ -4726,7 +5109,7 @@
     </row>
     <row r="41" ht="13.5" spans="1:26">
       <c r="A41" s="23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>26</v>
@@ -4763,7 +5146,7 @@
       <c r="N41" s="64"/>
       <c r="O41" s="65"/>
       <c r="P41" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q41" s="6"/>
       <c r="R41" s="8"/>
@@ -4810,14 +5193,14 @@
         <v>2</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="6"/>
       <c r="P42" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="8"/>
@@ -4841,35 +5224,35 @@
       <c r="I43" s="66"/>
       <c r="J43" s="13"/>
       <c r="K43" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M43" s="45" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N43" s="43" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="O43" s="45" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P43" s="67"/>
-      <c r="Q43" s="76"/>
-      <c r="R43" s="76"/>
-      <c r="S43" s="76"/>
-      <c r="T43" s="76"/>
-      <c r="U43" s="76"/>
-      <c r="V43" s="76"/>
-      <c r="W43" s="76"/>
-      <c r="X43" s="76"/>
-      <c r="Y43" s="76"/>
-      <c r="Z43" s="76"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="74"/>
+      <c r="S43" s="74"/>
+      <c r="T43" s="74"/>
+      <c r="U43" s="74"/>
+      <c r="V43" s="74"/>
+      <c r="W43" s="74"/>
+      <c r="X43" s="74"/>
+      <c r="Y43" s="74"/>
+      <c r="Z43" s="74"/>
     </row>
     <row r="44" ht="13.5" spans="1:26">
       <c r="A44" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="8" t="str">
@@ -4912,16 +5295,16 @@
       <c r="N44" s="45"/>
       <c r="O44" s="45"/>
       <c r="P44" s="68"/>
-      <c r="Q44" s="77"/>
-      <c r="R44" s="77"/>
-      <c r="S44" s="77"/>
-      <c r="T44" s="77"/>
-      <c r="U44" s="77"/>
-      <c r="V44" s="77"/>
-      <c r="W44" s="77"/>
-      <c r="X44" s="77"/>
-      <c r="Y44" s="77"/>
-      <c r="Z44" s="77"/>
+      <c r="Q44" s="75"/>
+      <c r="R44" s="75"/>
+      <c r="S44" s="75"/>
+      <c r="T44" s="75"/>
+      <c r="U44" s="75"/>
+      <c r="V44" s="75"/>
+      <c r="W44" s="75"/>
+      <c r="X44" s="75"/>
+      <c r="Y44" s="75"/>
+      <c r="Z44" s="75"/>
     </row>
     <row r="45" ht="13.5" spans="1:26">
       <c r="A45" s="28"/>
@@ -4948,32 +5331,32 @@
       <c r="N45" s="45"/>
       <c r="O45" s="45"/>
       <c r="P45" s="68"/>
-      <c r="Q45" s="77"/>
-      <c r="R45" s="77"/>
-      <c r="S45" s="77"/>
-      <c r="T45" s="77"/>
-      <c r="U45" s="77"/>
-      <c r="V45" s="77"/>
-      <c r="W45" s="77"/>
-      <c r="X45" s="77"/>
-      <c r="Y45" s="77"/>
-      <c r="Z45" s="77"/>
+      <c r="Q45" s="75"/>
+      <c r="R45" s="75"/>
+      <c r="S45" s="75"/>
+      <c r="T45" s="75"/>
+      <c r="U45" s="75"/>
+      <c r="V45" s="75"/>
+      <c r="W45" s="75"/>
+      <c r="X45" s="75"/>
+      <c r="Y45" s="75"/>
+      <c r="Z45" s="75"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" ht="13.5" spans="1:20">
       <c r="A46" s="11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -4988,8 +5371,8 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="6"/>
-      <c r="S46" s="78"/>
-      <c r="T46" s="78"/>
+      <c r="S46" s="76"/>
+      <c r="T46" s="76"/>
     </row>
     <row r="47" ht="13.5" spans="1:20">
       <c r="A47" s="13"/>
@@ -5013,44 +5396,44 @@
         <v>23</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q47" s="8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="S47" s="78"/>
-      <c r="T47" s="78"/>
+        <v>157</v>
+      </c>
+      <c r="S47" s="76"/>
+      <c r="T47" s="76"/>
     </row>
     <row r="48" ht="13.5" spans="1:20">
       <c r="A48" s="11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C48" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!AC2="","",_scrb1_day_twoshift!AC2)</f>
@@ -5116,13 +5499,13 @@
         <f>IF(_scrb1_day_twoshift!AR2="","",_scrb1_day_twoshift!AR2)</f>
         <v/>
       </c>
-      <c r="S48" s="78"/>
-      <c r="T48" s="78"/>
+      <c r="S48" s="76"/>
+      <c r="T48" s="76"/>
     </row>
     <row r="49" ht="13.5" spans="1:20">
       <c r="A49" s="13"/>
       <c r="B49" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C49" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!AC3="","",_scrb1_day_twoshift!AC3)</f>
@@ -5188,15 +5571,15 @@
         <f>IF(_scrb1_day_twoshift!AR3="","",_scrb1_day_twoshift!AR3)</f>
         <v/>
       </c>
-      <c r="S49" s="78"/>
-      <c r="T49" s="78"/>
+      <c r="S49" s="76"/>
+      <c r="T49" s="76"/>
     </row>
     <row r="50" ht="13.5" spans="1:20">
       <c r="A50" s="11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C50" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!AT2="","",_scrb1_day_twoshift!AT2)</f>
@@ -5262,13 +5645,13 @@
         <f>IF(_scrb1_day_twoshift!BI2="","",_scrb1_day_twoshift!BI2)</f>
         <v/>
       </c>
-      <c r="S50" s="78"/>
-      <c r="T50" s="78"/>
+      <c r="S50" s="76"/>
+      <c r="T50" s="76"/>
     </row>
     <row r="51" ht="13.5" spans="1:20">
       <c r="A51" s="13"/>
       <c r="B51" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C51" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!AT3="","",_scrb1_day_twoshift!AT3)</f>
@@ -5334,8 +5717,8 @@
         <f>IF(_scrb1_day_twoshift!BI3="","",_scrb1_day_twoshift!BI3)</f>
         <v/>
       </c>
-      <c r="S51" s="78"/>
-      <c r="T51" s="78"/>
+      <c r="S51" s="76"/>
+      <c r="T51" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -5412,277 +5795,277 @@
   <sheetData>
     <row r="1" spans="1:98">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="O1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="R1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="S1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="T1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="U1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="V1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="W1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="X1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Y1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Z1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AA1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="BP1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="BQ1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="BR1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="BS1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="BT1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="BU1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="BV1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="BW1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="BX1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="BZ1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="CA1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="CB1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="CC1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="CD1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="CF1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="CG1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="CH1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="CI1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="CJ1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="CK1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="CL1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="CM1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="CN1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="CO1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="CP1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="CQ1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="CR1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="CS1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="CT1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -5704,7 +6087,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B1">
         <v>4</v>

--- a/excel/finished/wg4#烧结/4烧结生产报表.xlsx
+++ b/excel/finished/wg4#烧结/4烧结生产报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="255">
   <si>
     <t>四烧作业区生产日报</t>
   </si>
@@ -1927,6 +1927,12 @@
   </si>
   <si>
     <t>ZP_ST4_L1R_SIN_Bed103BedMatInsFl</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_Stk2InstanFl</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_Stk6InstanFl</t>
   </si>
   <si>
     <t>ZP_ST4_L1R_SIN_1To5OreBldSetP</t>
@@ -2932,43 +2938,43 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4142,21 +4148,21 @@
       <c r="O18" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P18" s="43" t="s">
+      <c r="P18" s="14" t="s">
         <v>73</v>
       </c>
       <c r="Q18" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="R18" s="43" t="s">
+      <c r="R18" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
       <c r="U18" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="V18" s="43" t="s">
+      <c r="V18" s="53" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4167,7 +4173,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="44" t="s">
+      <c r="J19" s="43" t="s">
         <v>78</v>
       </c>
       <c r="K19" s="30" t="s">
@@ -4185,21 +4191,21 @@
       <c r="O19" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="P19" s="45" t="s">
+      <c r="P19" s="17" t="s">
         <v>79</v>
       </c>
       <c r="Q19" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="R19" s="45" t="s">
+      <c r="R19" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
       <c r="U19" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="V19" s="45" t="s">
+      <c r="V19" s="55" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4212,7 +4218,7 @@
       <c r="I20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="44"/>
+      <c r="J20" s="43"/>
       <c r="K20" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!BZ2="","",_scrb1_day_twoshift!BZ2)</f>
         <v/>
@@ -4233,19 +4239,23 @@
         <f>IF(_scrb1_day_twoshift!CD2="","",_scrb1_day_twoshift!CD2)</f>
         <v/>
       </c>
-      <c r="P20" s="45"/>
+      <c r="P20" s="30" t="str">
+        <f>IF(_scrb1_day_twoshift!CE2="","",_scrb1_day_twoshift!CE2)</f>
+        <v/>
+      </c>
       <c r="Q20" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="R20" s="45">
-        <v>0</v>
-      </c>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
+      <c r="R20" s="17" t="str">
+        <f>IF(_scrb1_day_twoshift!CF2="","",_scrb1_day_twoshift!CF2)</f>
+        <v/>
+      </c>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
       <c r="U20" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="V20" s="45"/>
+      <c r="V20" s="55"/>
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:22">
       <c r="A21" s="12"/>
@@ -4256,7 +4266,7 @@
       <c r="I21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="44"/>
+      <c r="J21" s="43"/>
       <c r="K21" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!BZ3="","",_scrb1_day_twoshift!BZ3)</f>
         <v/>
@@ -4277,19 +4287,23 @@
         <f>IF(_scrb1_day_twoshift!CD3="","",_scrb1_day_twoshift!CD3)</f>
         <v/>
       </c>
-      <c r="P21" s="45"/>
+      <c r="P21" s="30" t="str">
+        <f>IF(_scrb1_day_twoshift!CE3="","",_scrb1_day_twoshift!CE3)</f>
+        <v/>
+      </c>
       <c r="Q21" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="R21" s="45">
-        <v>0</v>
-      </c>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
+      <c r="R21" s="17" t="str">
+        <f>IF(_scrb1_day_twoshift!CF3="","",_scrb1_day_twoshift!CF3)</f>
+        <v/>
+      </c>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
       <c r="U21" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="V21" s="45"/>
+      <c r="V21" s="55"/>
     </row>
     <row r="22" ht="26" customHeight="1" spans="1:22">
       <c r="A22" s="13"/>
@@ -4300,7 +4314,7 @@
       <c r="I22" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="43">
         <f t="shared" ref="J22:O22" si="2">IF(SUM(J20:J21)="","",SUM(J20:J21))</f>
         <v>0</v>
       </c>
@@ -4324,22 +4338,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P22" s="45">
-        <v>5558</v>
-      </c>
-      <c r="Q22" s="17">
-        <f>SUM(Q20:Q21)</f>
+      <c r="P22" s="30">
+        <f>IF(SUM(P20:P21)="","",SUM(P20:P21))</f>
         <v>0</v>
       </c>
-      <c r="R22" s="45">
-        <f>SUM(R20:R21)</f>
+      <c r="Q22" s="30">
+        <f>IF(SUM(Q20:Q21)="","",SUM(Q20:Q21))</f>
         <v>0</v>
       </c>
-      <c r="S22" s="45">
+      <c r="R22" s="30">
+        <f>IF(SUM(R20:R21)="","",SUM(R20:R21))</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="55">
         <f>SUM(S20:S21)</f>
         <v>0</v>
       </c>
-      <c r="T22" s="45">
+      <c r="T22" s="55">
         <f>SUM(T20:T21)</f>
         <v>0</v>
       </c>
@@ -4347,7 +4362,7 @@
         <f>SUM(U20:U21)</f>
         <v>0</v>
       </c>
-      <c r="V22" s="45"/>
+      <c r="V22" s="55"/>
     </row>
     <row r="23" ht="26.25" spans="1:37">
       <c r="A23" s="14" t="s">
@@ -4363,35 +4378,35 @@
       <c r="E23" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="46"/>
-      <c r="AE23" s="46"/>
-      <c r="AF23" s="46"/>
-      <c r="AG23" s="46"/>
-      <c r="AH23" s="46"/>
-      <c r="AI23" s="46"/>
-      <c r="AJ23" s="46"/>
-      <c r="AK23" s="46"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="44"/>
+      <c r="AI23" s="44"/>
+      <c r="AJ23" s="44"/>
+      <c r="AK23" s="44"/>
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:20">
       <c r="A24" s="18" t="s">
@@ -4403,28 +4418,28 @@
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
-      <c r="I24" s="47" t="s">
+      <c r="I24" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="48" t="s">
+      <c r="J24" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="K24" s="49"/>
-      <c r="L24" s="50" t="s">
+      <c r="K24" s="47"/>
+      <c r="L24" s="48" t="s">
         <v>93</v>
       </c>
       <c r="M24" s="6"/>
-      <c r="N24" s="51" t="s">
+      <c r="N24" s="49" t="s">
         <v>94</v>
       </c>
       <c r="O24" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="P24" s="52"/>
+      <c r="P24" s="50"/>
       <c r="Q24" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="R24" s="52"/>
+      <c r="R24" s="50"/>
       <c r="S24" s="71"/>
       <c r="T24" s="71"/>
     </row>
@@ -4435,10 +4450,10 @@
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="53" t="s">
+      <c r="J25" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="53" t="s">
+      <c r="K25" s="51" t="s">
         <v>28</v>
       </c>
       <c r="L25" s="7" t="s">
@@ -4447,17 +4462,17 @@
       <c r="M25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N25" s="54"/>
-      <c r="O25" s="43" t="s">
+      <c r="N25" s="52"/>
+      <c r="O25" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="43" t="s">
+      <c r="P25" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="Q25" s="43" t="s">
+      <c r="Q25" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="R25" s="43" t="s">
+      <c r="R25" s="53" t="s">
         <v>28</v>
       </c>
       <c r="S25" s="71"/>
@@ -4473,33 +4488,33 @@
         <v>97</v>
       </c>
       <c r="J26" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CF2="","",_scrb1_day_twoshift!CF2)</f>
+        <f>IF(_scrb1_day_twoshift!CH2="","",_scrb1_day_twoshift!CH2)</f>
         <v/>
       </c>
       <c r="K26" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CF3="","",_scrb1_day_twoshift!CF3)</f>
+        <f>IF(_scrb1_day_twoshift!CH3="","",_scrb1_day_twoshift!CH3)</f>
         <v/>
       </c>
       <c r="L26" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CG2="","",_scrb1_day_twoshift!CG2)</f>
+        <f>IF(_scrb1_day_twoshift!CI2="","",_scrb1_day_twoshift!CI2)</f>
         <v/>
       </c>
       <c r="M26" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CG3="","",_scrb1_day_twoshift!CG3)</f>
-        <v/>
-      </c>
-      <c r="N26" s="55">
+        <f>IF(_scrb1_day_twoshift!CI3="","",_scrb1_day_twoshift!CI3)</f>
+        <v/>
+      </c>
+      <c r="N26" s="54">
         <f t="shared" ref="N26:N31" si="3">SUM(J26:M26)</f>
         <v>0</v>
       </c>
-      <c r="O26" s="45">
+      <c r="O26" s="55">
         <v>0.91</v>
       </c>
-      <c r="P26" s="45">
+      <c r="P26" s="55">
         <v>0.85</v>
       </c>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
       <c r="S26" s="71"/>
       <c r="T26" s="71"/>
     </row>
@@ -4513,33 +4528,33 @@
         <v>98</v>
       </c>
       <c r="J27" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CH2="","",_scrb1_day_twoshift!CH2)</f>
+        <f>IF(_scrb1_day_twoshift!CJ2="","",_scrb1_day_twoshift!CJ2)</f>
         <v/>
       </c>
       <c r="K27" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CH3="","",_scrb1_day_twoshift!CH3)</f>
+        <f>IF(_scrb1_day_twoshift!CJ3="","",_scrb1_day_twoshift!CJ3)</f>
         <v/>
       </c>
       <c r="L27" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CI2="","",_scrb1_day_twoshift!CI2)</f>
+        <f>IF(_scrb1_day_twoshift!CK2="","",_scrb1_day_twoshift!CK2)</f>
         <v/>
       </c>
       <c r="M27" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CI3="","",_scrb1_day_twoshift!CI3)</f>
-        <v/>
-      </c>
-      <c r="N27" s="55">
+        <f>IF(_scrb1_day_twoshift!CK3="","",_scrb1_day_twoshift!CK3)</f>
+        <v/>
+      </c>
+      <c r="N27" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O27" s="45">
+      <c r="O27" s="55">
         <v>0.05</v>
       </c>
-      <c r="P27" s="45">
+      <c r="P27" s="55">
         <v>0.04</v>
       </c>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
       <c r="S27" s="71"/>
       <c r="T27" s="71"/>
     </row>
@@ -4553,33 +4568,33 @@
         <v>99</v>
       </c>
       <c r="J28" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CG4="","",_scrb1_day_twoshift!CG4)</f>
+        <f>IF(_scrb1_day_twoshift!CI4="","",_scrb1_day_twoshift!CI4)</f>
         <v/>
       </c>
       <c r="K28" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CJ3="","",_scrb1_day_twoshift!CJ3)</f>
+        <f>IF(_scrb1_day_twoshift!CL3="","",_scrb1_day_twoshift!CL3)</f>
         <v/>
       </c>
       <c r="L28" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CK2="","",_scrb1_day_twoshift!CK2)</f>
+        <f>IF(_scrb1_day_twoshift!CM2="","",_scrb1_day_twoshift!CM2)</f>
         <v/>
       </c>
       <c r="M28" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CK3="","",_scrb1_day_twoshift!CK3)</f>
-        <v/>
-      </c>
-      <c r="N28" s="55">
+        <f>IF(_scrb1_day_twoshift!CM3="","",_scrb1_day_twoshift!CM3)</f>
+        <v/>
+      </c>
+      <c r="N28" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O28" s="45">
+      <c r="O28" s="55">
         <v>0.1</v>
       </c>
-      <c r="P28" s="45">
+      <c r="P28" s="55">
         <v>0.1</v>
       </c>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
       <c r="S28" s="71"/>
       <c r="T28" s="71"/>
     </row>
@@ -4593,33 +4608,33 @@
         <v>100</v>
       </c>
       <c r="J29" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CL2="","",_scrb1_day_twoshift!CL2)</f>
+        <f>IF(_scrb1_day_twoshift!CN2="","",_scrb1_day_twoshift!CN2)</f>
         <v/>
       </c>
       <c r="K29" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CL3="","",_scrb1_day_twoshift!CL3)</f>
+        <f>IF(_scrb1_day_twoshift!CN3="","",_scrb1_day_twoshift!CN3)</f>
         <v/>
       </c>
       <c r="L29" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CM2="","",_scrb1_day_twoshift!CM2)</f>
+        <f>IF(_scrb1_day_twoshift!CO2="","",_scrb1_day_twoshift!CO2)</f>
         <v/>
       </c>
       <c r="M29" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CM3="","",_scrb1_day_twoshift!CM3)</f>
-        <v/>
-      </c>
-      <c r="N29" s="55">
+        <f>IF(_scrb1_day_twoshift!CO3="","",_scrb1_day_twoshift!CO3)</f>
+        <v/>
+      </c>
+      <c r="N29" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O29" s="45">
+      <c r="O29" s="55">
         <v>0.06</v>
       </c>
-      <c r="P29" s="45">
+      <c r="P29" s="55">
         <v>0.06</v>
       </c>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
       <c r="S29" s="71"/>
       <c r="T29" s="71"/>
     </row>
@@ -4633,33 +4648,33 @@
         <v>101</v>
       </c>
       <c r="J30" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CN2="","",_scrb1_day_twoshift!CN2)</f>
+        <f>IF(_scrb1_day_twoshift!CP2="","",_scrb1_day_twoshift!CP2)</f>
         <v/>
       </c>
       <c r="K30" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CN3="","",_scrb1_day_twoshift!CN3)</f>
+        <f>IF(_scrb1_day_twoshift!CP3="","",_scrb1_day_twoshift!CP3)</f>
         <v/>
       </c>
       <c r="L30" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CO2="","",_scrb1_day_twoshift!CO2)</f>
+        <f>IF(_scrb1_day_twoshift!CQ2="","",_scrb1_day_twoshift!CQ2)</f>
         <v/>
       </c>
       <c r="M30" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CO3="","",_scrb1_day_twoshift!CO3)</f>
-        <v/>
-      </c>
-      <c r="N30" s="55">
+        <f>IF(_scrb1_day_twoshift!CQ3="","",_scrb1_day_twoshift!CQ3)</f>
+        <v/>
+      </c>
+      <c r="N30" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O30" s="45">
+      <c r="O30" s="55">
         <v>0.43</v>
       </c>
-      <c r="P30" s="45">
+      <c r="P30" s="55">
         <v>0.4</v>
       </c>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
       <c r="S30" s="71"/>
       <c r="T30" s="71"/>
     </row>
@@ -4673,33 +4688,33 @@
         <v>102</v>
       </c>
       <c r="J31" s="56" t="str">
-        <f>IF(_scrb1_day_twoshift!CP2="","",_scrb1_day_twoshift!CP2)</f>
+        <f>IF(_scrb1_day_twoshift!CR2="","",_scrb1_day_twoshift!CR2)</f>
         <v/>
       </c>
       <c r="K31" s="56" t="str">
-        <f>IF(_scrb1_day_twoshift!CP3="","",_scrb1_day_twoshift!CP3)</f>
+        <f>IF(_scrb1_day_twoshift!CR3="","",_scrb1_day_twoshift!CR3)</f>
         <v/>
       </c>
       <c r="L31" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!CQ2="","",_scrb1_day_twoshift!CQ2)</f>
+        <f>IF(_scrb1_day_twoshift!CS2="","",_scrb1_day_twoshift!CS2)</f>
         <v/>
       </c>
       <c r="M31" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!CQ3="","",_scrb1_day_twoshift!CQ3)</f>
+        <f>IF(_scrb1_day_twoshift!CS3="","",_scrb1_day_twoshift!CS3)</f>
         <v/>
       </c>
       <c r="N31" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O31" s="45">
+      <c r="O31" s="55">
         <v>0.06</v>
       </c>
-      <c r="P31" s="45">
+      <c r="P31" s="55">
         <v>0.06</v>
       </c>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
       <c r="S31" s="71"/>
       <c r="T31" s="71"/>
     </row>
@@ -4717,35 +4732,35 @@
       <c r="E32" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="46"/>
-      <c r="AB32" s="46"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="46"/>
-      <c r="AE32" s="46"/>
-      <c r="AF32" s="46"/>
-      <c r="AG32" s="46"/>
-      <c r="AH32" s="46"/>
-      <c r="AI32" s="46"/>
-      <c r="AJ32" s="46"/>
-      <c r="AK32" s="46"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="44"/>
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="44"/>
+      <c r="AI32" s="44"/>
+      <c r="AJ32" s="44"/>
+      <c r="AK32" s="44"/>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:26">
       <c r="A33" s="14" t="s">
@@ -4765,22 +4780,22 @@
       <c r="J33" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="K33" s="43" t="s">
+      <c r="K33" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="L33" s="43" t="s">
+      <c r="L33" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="M33" s="43" t="s">
+      <c r="M33" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="N33" s="43" t="s">
+      <c r="N33" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="O33" s="45" t="s">
+      <c r="O33" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="P33" s="47" t="s">
+      <c r="P33" s="45" t="s">
         <v>8</v>
       </c>
       <c r="Q33" s="72"/>
@@ -4809,19 +4824,19 @@
       <c r="J34" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="K34" s="45" t="s">
+      <c r="K34" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="L34" s="45" t="s">
+      <c r="L34" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="M34" s="45" t="s">
+      <c r="M34" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="N34" s="45" t="s">
+      <c r="N34" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="O34" s="45" t="s">
+      <c r="O34" s="55" t="s">
         <v>116</v>
       </c>
       <c r="P34" s="59"/>
@@ -4843,10 +4858,10 @@
       <c r="X34" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Y34" s="45" t="s">
+      <c r="Y34" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="Z34" s="43" t="s">
+      <c r="Z34" s="53" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4861,11 +4876,11 @@
       <c r="H35" s="22"/>
       <c r="I35" s="57"/>
       <c r="J35" s="12"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
       <c r="P35" s="59"/>
       <c r="Q35" s="73"/>
       <c r="R35" s="8" t="s">
@@ -4885,8 +4900,8 @@
       <c r="X35" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="Y35" s="45"/>
-      <c r="Z35" s="45"/>
+      <c r="Y35" s="55"/>
+      <c r="Z35" s="55"/>
     </row>
     <row r="36" ht="13.5" spans="1:26">
       <c r="A36" s="11" t="s">
@@ -4915,11 +4930,11 @@
       </c>
       <c r="I36" s="57"/>
       <c r="J36" s="13"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
       <c r="P36" s="4" t="s">
         <v>97</v>
       </c>
@@ -4931,8 +4946,8 @@
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
       <c r="X36" s="8"/>
-      <c r="Y36" s="45"/>
-      <c r="Z36" s="45"/>
+      <c r="Y36" s="55"/>
+      <c r="Z36" s="55"/>
     </row>
     <row r="37" ht="13.5" spans="1:26">
       <c r="A37" s="13"/>
@@ -4973,8 +4988,8 @@
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
       <c r="X37" s="8"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
+      <c r="Y37" s="55"/>
+      <c r="Z37" s="55"/>
     </row>
     <row r="38" ht="13.5" spans="1:26">
       <c r="A38" s="23" t="s">
@@ -5025,8 +5040,8 @@
       <c r="V38" s="8"/>
       <c r="W38" s="8"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="45"/>
-      <c r="Z38" s="45"/>
+      <c r="Y38" s="55"/>
+      <c r="Z38" s="55"/>
     </row>
     <row r="39" ht="13.5" spans="1:26">
       <c r="A39" s="13"/>
@@ -5075,8 +5090,8 @@
       <c r="V39" s="8"/>
       <c r="W39" s="8"/>
       <c r="X39" s="8"/>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="45"/>
+      <c r="Y39" s="55"/>
+      <c r="Z39" s="55"/>
     </row>
     <row r="40" ht="13.5" spans="1:26">
       <c r="A40" s="25"/>
@@ -5104,8 +5119,8 @@
       <c r="V40" s="8"/>
       <c r="W40" s="8"/>
       <c r="X40" s="8"/>
-      <c r="Y40" s="45"/>
-      <c r="Z40" s="45"/>
+      <c r="Y40" s="55"/>
+      <c r="Z40" s="55"/>
     </row>
     <row r="41" ht="13.5" spans="1:26">
       <c r="A41" s="23" t="s">
@@ -5156,8 +5171,8 @@
       <c r="V41" s="8"/>
       <c r="W41" s="8"/>
       <c r="X41" s="8"/>
-      <c r="Y41" s="45"/>
-      <c r="Z41" s="45"/>
+      <c r="Y41" s="55"/>
+      <c r="Z41" s="55"/>
     </row>
     <row r="42" ht="13.5" spans="1:26">
       <c r="A42" s="13"/>
@@ -5210,8 +5225,8 @@
       <c r="V42" s="8"/>
       <c r="W42" s="8"/>
       <c r="X42" s="8"/>
-      <c r="Y42" s="45"/>
-      <c r="Z42" s="45"/>
+      <c r="Y42" s="55"/>
+      <c r="Z42" s="55"/>
     </row>
     <row r="43" ht="13.5" spans="1:26">
       <c r="A43" s="25"/>
@@ -5229,13 +5244,13 @@
       <c r="L43" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="M43" s="45" t="s">
+      <c r="M43" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="N43" s="43" t="s">
+      <c r="N43" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="O43" s="45" t="s">
+      <c r="O43" s="55" t="s">
         <v>142</v>
       </c>
       <c r="P43" s="67"/>
@@ -5284,16 +5299,16 @@
         <v>26</v>
       </c>
       <c r="K44" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CS2="","",_scrb1_day_twoshift!CS2)</f>
+        <f>IF(_scrb1_day_twoshift!CU2="","",_scrb1_day_twoshift!CU2)</f>
         <v/>
       </c>
       <c r="L44" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CT2="","",_scrb1_day_twoshift!CT2)</f>
-        <v/>
-      </c>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
+        <f>IF(_scrb1_day_twoshift!CV2="","",_scrb1_day_twoshift!CV2)</f>
+        <v/>
+      </c>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="55"/>
       <c r="P44" s="68"/>
       <c r="Q44" s="75"/>
       <c r="R44" s="75"/>
@@ -5320,16 +5335,16 @@
         <v>28</v>
       </c>
       <c r="K45" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CS3="","",_scrb1_day_twoshift!CS3)</f>
+        <f>IF(_scrb1_day_twoshift!CU3="","",_scrb1_day_twoshift!CU3)</f>
         <v/>
       </c>
       <c r="L45" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CT3="","",_scrb1_day_twoshift!CT3)</f>
-        <v/>
-      </c>
-      <c r="M45" s="45"/>
-      <c r="N45" s="45"/>
-      <c r="O45" s="45"/>
+        <f>IF(_scrb1_day_twoshift!CV3="","",_scrb1_day_twoshift!CV3)</f>
+        <v/>
+      </c>
+      <c r="M45" s="55"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="55"/>
       <c r="P45" s="68"/>
       <c r="Q45" s="75"/>
       <c r="R45" s="75"/>
@@ -5780,20 +5795,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CT1"/>
+  <dimension ref="A1:CV1"/>
   <sheetViews>
-    <sheetView topLeftCell="BU1" workbookViewId="0">
-      <selection activeCell="BX11" sqref="BX11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="45" width="35.625" customWidth="1"/>
     <col min="46" max="62" width="32.625" customWidth="1"/>
-    <col min="63" max="101" width="30.625" customWidth="1"/>
+    <col min="63" max="103" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98">
+    <row r="1" spans="1:100">
       <c r="A1" s="1" t="s">
         <v>162</v>
       </c>
@@ -6022,10 +6037,10 @@
       <c r="CD1" t="s">
         <v>237</v>
       </c>
+      <c r="CE1" t="s">
+        <v>238</v>
+      </c>
       <c r="CF1" t="s">
-        <v>238</v>
-      </c>
-      <c r="CG1" t="s">
         <v>239</v>
       </c>
       <c r="CH1" t="s">
@@ -6059,13 +6074,19 @@
         <v>249</v>
       </c>
       <c r="CR1" t="s">
+        <v>250</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CT1" t="s">
         <v>137</v>
       </c>
-      <c r="CS1" t="s">
-        <v>250</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>251</v>
+      <c r="CU1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -6087,7 +6108,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B1">
         <v>4</v>

--- a/excel/finished/wg4#烧结/4烧结生产报表.xlsx
+++ b/excel/finished/wg4#烧结/4烧结生产报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="262">
   <si>
     <t>四烧作业区生产日报</t>
   </si>
@@ -715,6 +715,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -756,6 +762,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -797,6 +809,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -838,6 +856,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -1419,6 +1443,21 @@
     <t>粒度</t>
   </si>
   <si>
+    <t>coke_FCd</t>
+  </si>
+  <si>
+    <t>coke_Ad</t>
+  </si>
+  <si>
+    <t>coke_Vdaf</t>
+  </si>
+  <si>
+    <t>coke_Mt</t>
+  </si>
+  <si>
+    <t>coke_Std</t>
+  </si>
+  <si>
     <t>YL_TFe</t>
   </si>
   <si>
@@ -1975,6 +2014,12 @@
   </si>
   <si>
     <t>ZP_ST4_L1R_SIN_2ndMixH2OAct</t>
+  </si>
+  <si>
+    <t>ZP_ST4_MESR_SIN_OreBldMt</t>
+  </si>
+  <si>
+    <t>ZP_ST4_MESR_SIN_OreBldS</t>
   </si>
   <si>
     <t>version</t>
@@ -1985,10 +2030,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
@@ -2019,49 +2064,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2072,14 +2078,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2095,16 +2093,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2125,6 +2155,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -2132,31 +2185,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2190,13 +2235,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2208,13 +2367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2232,79 +2385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2316,49 +2397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2573,21 +2618,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2615,19 +2645,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2647,16 +2681,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2664,9 +2707,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2676,10 +2721,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2688,133 +2733,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3362,7 +3407,7 @@
   <dimension ref="A1:AK51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4315,7 +4360,7 @@
         <v>86</v>
       </c>
       <c r="J22" s="43">
-        <f t="shared" ref="J22:O22" si="2">IF(SUM(J20:J21)="","",SUM(J20:J21))</f>
+        <f t="shared" ref="J22:R22" si="2">IF(SUM(J20:J21)="","",SUM(J20:J21))</f>
         <v>0</v>
       </c>
       <c r="K22" s="30">
@@ -4339,15 +4384,15 @@
         <v>0</v>
       </c>
       <c r="P22" s="30">
-        <f>IF(SUM(P20:P21)="","",SUM(P20:P21))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q22" s="30">
-        <f>IF(SUM(Q20:Q21)="","",SUM(Q20:Q21))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R22" s="30">
-        <f>IF(SUM(R20:R21)="","",SUM(R20:R21))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S22" s="55">
@@ -4780,19 +4825,19 @@
       <c r="J33" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="K33" s="53" t="s">
+      <c r="K33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="L33" s="53" t="s">
+      <c r="L33" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="M33" s="53" t="s">
+      <c r="M33" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="N33" s="53" t="s">
+      <c r="N33" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="O33" s="55" t="s">
+      <c r="O33" s="17" t="s">
         <v>113</v>
       </c>
       <c r="P33" s="45" t="s">
@@ -4824,19 +4869,19 @@
       <c r="J34" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="K34" s="55" t="s">
+      <c r="K34" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="L34" s="55" t="s">
+      <c r="L34" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="M34" s="55" t="s">
+      <c r="M34" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="N34" s="55" t="s">
+      <c r="N34" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="O34" s="55" t="s">
+      <c r="O34" s="17" t="s">
         <v>116</v>
       </c>
       <c r="P34" s="59"/>
@@ -4876,29 +4921,39 @@
       <c r="H35" s="22"/>
       <c r="I35" s="57"/>
       <c r="J35" s="12"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
+      <c r="K35" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="O35" s="17" t="s">
+        <v>123</v>
+      </c>
       <c r="P35" s="59"/>
       <c r="Q35" s="73"/>
       <c r="R35" s="8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="S35" s="8"/>
       <c r="T35" s="8"/>
       <c r="U35" s="8" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="V35" s="8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="W35" s="8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="X35" s="8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Y35" s="55"/>
       <c r="Z35" s="55"/>
@@ -4911,30 +4966,30 @@
         <v>2</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I36" s="57"/>
       <c r="J36" s="13"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
       <c r="P36" s="4" t="s">
         <v>97</v>
       </c>
@@ -4953,22 +5008,22 @@
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="24" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I37" s="57"/>
       <c r="J37" s="60"/>
@@ -4978,7 +5033,7 @@
       <c r="N37" s="60"/>
       <c r="O37" s="61"/>
       <c r="P37" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="8"/>
@@ -4993,7 +5048,7 @@
     </row>
     <row r="38" ht="13.5" spans="1:26">
       <c r="A38" s="23" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>26</v>
@@ -5030,7 +5085,7 @@
       <c r="N38" s="62"/>
       <c r="O38" s="63"/>
       <c r="P38" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="8"/>
@@ -5124,7 +5179,7 @@
     </row>
     <row r="41" ht="13.5" spans="1:26">
       <c r="A41" s="23" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>26</v>
@@ -5208,7 +5263,7 @@
         <v>2</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -5239,19 +5294,19 @@
       <c r="I43" s="66"/>
       <c r="J43" s="13"/>
       <c r="K43" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M43" s="55" t="s">
-        <v>140</v>
+        <v>144</v>
+      </c>
+      <c r="M43" s="17" t="s">
+        <v>145</v>
       </c>
       <c r="N43" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="O43" s="55" t="s">
-        <v>142</v>
+        <v>146</v>
+      </c>
+      <c r="O43" s="17" t="s">
+        <v>147</v>
       </c>
       <c r="P43" s="67"/>
       <c r="Q43" s="74"/>
@@ -5267,7 +5322,7 @@
     </row>
     <row r="44" ht="13.5" spans="1:26">
       <c r="A44" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="8" t="str">
@@ -5306,9 +5361,15 @@
         <f>IF(_scrb1_day_twoshift!CV2="","",_scrb1_day_twoshift!CV2)</f>
         <v/>
       </c>
-      <c r="M44" s="55"/>
+      <c r="M44" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!CW2="","",_scrb1_day_twoshift!CW2)</f>
+        <v/>
+      </c>
       <c r="N44" s="55"/>
-      <c r="O44" s="55"/>
+      <c r="O44" s="17" t="str">
+        <f>IF(_scrb1_day_twoshift!CX2="","",_scrb1_day_twoshift!CX2)</f>
+        <v/>
+      </c>
       <c r="P44" s="68"/>
       <c r="Q44" s="75"/>
       <c r="R44" s="75"/>
@@ -5342,9 +5403,15 @@
         <f>IF(_scrb1_day_twoshift!CV3="","",_scrb1_day_twoshift!CV3)</f>
         <v/>
       </c>
-      <c r="M45" s="55"/>
+      <c r="M45" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!CW3="","",_scrb1_day_twoshift!CW3)</f>
+        <v/>
+      </c>
       <c r="N45" s="55"/>
-      <c r="O45" s="55"/>
+      <c r="O45" s="17" t="str">
+        <f>IF(_scrb1_day_twoshift!CX3="","",_scrb1_day_twoshift!CX3)</f>
+        <v/>
+      </c>
       <c r="P45" s="68"/>
       <c r="Q45" s="75"/>
       <c r="R45" s="75"/>
@@ -5359,19 +5426,19 @@
     </row>
     <row r="46" ht="13.5" spans="1:20">
       <c r="A46" s="11" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -5411,44 +5478,44 @@
         <v>23</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q47" s="8" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="S47" s="76"/>
       <c r="T47" s="76"/>
     </row>
     <row r="48" ht="13.5" spans="1:20">
       <c r="A48" s="11" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C48" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!AC2="","",_scrb1_day_twoshift!AC2)</f>
@@ -5520,7 +5587,7 @@
     <row r="49" ht="13.5" spans="1:20">
       <c r="A49" s="13"/>
       <c r="B49" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C49" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!AC3="","",_scrb1_day_twoshift!AC3)</f>
@@ -5591,10 +5658,10 @@
     </row>
     <row r="50" ht="13.5" spans="1:20">
       <c r="A50" s="11" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C50" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!AT2="","",_scrb1_day_twoshift!AT2)</f>
@@ -5666,7 +5733,7 @@
     <row r="51" ht="13.5" spans="1:20">
       <c r="A51" s="13"/>
       <c r="B51" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C51" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!AT3="","",_scrb1_day_twoshift!AT3)</f>
@@ -5795,10 +5862,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CV1"/>
+  <dimension ref="A1:CX1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="CT1" workbookViewId="0">
+      <selection activeCell="CW9" sqref="CW9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5808,285 +5875,291 @@
     <col min="63" max="103" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100">
+    <row r="1" spans="1:102">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="J1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="N1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="O1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="R1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="S1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="T1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="U1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="V1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="W1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="X1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Y1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Z1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AA1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="BP1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="BQ1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="BR1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="BS1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="BT1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="BU1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="BV1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="BW1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="BX1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="BZ1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="CA1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="CB1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="CC1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="CD1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="CE1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CF1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="CH1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="CI1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="CJ1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="CK1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="CL1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="CM1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="CN1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="CO1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="CP1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CQ1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="CR1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="CS1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="CT1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="CU1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="CV1" t="s">
-        <v>253</v>
+        <v>258</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>259</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -6108,7 +6181,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B1">
         <v>4</v>

--- a/excel/finished/wg4#烧结/4烧结生产报表.xlsx
+++ b/excel/finished/wg4#烧结/4烧结生产报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="268">
   <si>
     <t>四烧作业区生产日报</t>
   </si>
@@ -2008,6 +2008,24 @@
   </si>
   <si>
     <t>ZP_ST4_L1R_SIN_6To7FuelUseP</t>
+  </si>
+  <si>
+    <t>ZP_L1R_SIN_1_2_3_4_5OreBldBunkLvl</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_8QuLimeBunkLvl</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_13_14_LimeBunkLvl</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_15_16_DoloBunkLvl</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_10_11_12_CoReFineBunkLvl</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_6_7_FuelBunkLvl</t>
   </si>
   <si>
     <t>ZP_ST4_L1R_SIN_1stMixH2OAct</t>
@@ -3407,7 +3425,7 @@
   <dimension ref="A1:AK51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4481,10 +4499,10 @@
         <v>95</v>
       </c>
       <c r="P24" s="50"/>
-      <c r="Q24" s="42" t="s">
+      <c r="Q24" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="R24" s="50"/>
+      <c r="R24" s="16"/>
       <c r="S24" s="71"/>
       <c r="T24" s="71"/>
     </row>
@@ -4514,10 +4532,10 @@
       <c r="P25" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="Q25" s="53" t="s">
+      <c r="Q25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="R25" s="53" t="s">
+      <c r="R25" s="14" t="s">
         <v>28</v>
       </c>
       <c r="S25" s="71"/>
@@ -4558,8 +4576,14 @@
       <c r="P26" s="55">
         <v>0.85</v>
       </c>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
+      <c r="Q26" s="17" t="str">
+        <f>IF(_scrb1_day_twoshift!CT2="","",_scrb1_day_twoshift!CT2)</f>
+        <v/>
+      </c>
+      <c r="R26" s="17" t="str">
+        <f>IF(_scrb1_day_twoshift!CT3="","",_scrb1_day_twoshift!CT3)</f>
+        <v/>
+      </c>
       <c r="S26" s="71"/>
       <c r="T26" s="71"/>
     </row>
@@ -4598,8 +4622,14 @@
       <c r="P27" s="55">
         <v>0.04</v>
       </c>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
+      <c r="Q27" s="17" t="str">
+        <f>IF(_scrb1_day_twoshift!CU2="","",_scrb1_day_twoshift!CU2)</f>
+        <v/>
+      </c>
+      <c r="R27" s="17" t="str">
+        <f>IF(_scrb1_day_twoshift!CU3="","",_scrb1_day_twoshift!CU3)</f>
+        <v/>
+      </c>
       <c r="S27" s="71"/>
       <c r="T27" s="71"/>
     </row>
@@ -4638,8 +4668,14 @@
       <c r="P28" s="55">
         <v>0.1</v>
       </c>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
+      <c r="Q28" s="17" t="str">
+        <f>IF(_scrb1_day_twoshift!CV2="","",_scrb1_day_twoshift!CV2)</f>
+        <v/>
+      </c>
+      <c r="R28" s="17" t="str">
+        <f>IF(_scrb1_day_twoshift!CV3="","",_scrb1_day_twoshift!CV3)</f>
+        <v/>
+      </c>
       <c r="S28" s="71"/>
       <c r="T28" s="71"/>
     </row>
@@ -4678,8 +4714,14 @@
       <c r="P29" s="55">
         <v>0.06</v>
       </c>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
+      <c r="Q29" s="17" t="str">
+        <f>IF(_scrb1_day_twoshift!CW2="","",_scrb1_day_twoshift!CW2)</f>
+        <v/>
+      </c>
+      <c r="R29" s="17" t="str">
+        <f>IF(_scrb1_day_twoshift!CW3="","",_scrb1_day_twoshift!CW3)</f>
+        <v/>
+      </c>
       <c r="S29" s="71"/>
       <c r="T29" s="71"/>
     </row>
@@ -4718,8 +4760,14 @@
       <c r="P30" s="55">
         <v>0.4</v>
       </c>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
+      <c r="Q30" s="17" t="str">
+        <f>IF(_scrb1_day_twoshift!CX2="","",_scrb1_day_twoshift!CX2)</f>
+        <v/>
+      </c>
+      <c r="R30" s="17" t="str">
+        <f>IF(_scrb1_day_twoshift!CX3="","",_scrb1_day_twoshift!CX3)</f>
+        <v/>
+      </c>
       <c r="S30" s="71"/>
       <c r="T30" s="71"/>
     </row>
@@ -4758,8 +4806,14 @@
       <c r="P31" s="55">
         <v>0.06</v>
       </c>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="55"/>
+      <c r="Q31" s="17" t="str">
+        <f>IF(_scrb1_day_twoshift!CY2="","",_scrb1_day_twoshift!CY2)</f>
+        <v/>
+      </c>
+      <c r="R31" s="17" t="str">
+        <f>IF(_scrb1_day_twoshift!CY3="","",_scrb1_day_twoshift!CY3)</f>
+        <v/>
+      </c>
       <c r="S31" s="71"/>
       <c r="T31" s="71"/>
     </row>
@@ -5354,20 +5408,20 @@
         <v>26</v>
       </c>
       <c r="K44" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CU2="","",_scrb1_day_twoshift!CU2)</f>
+        <f>IF(_scrb1_day_twoshift!DB2="","",_scrb1_day_twoshift!DB2)</f>
         <v/>
       </c>
       <c r="L44" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CV2="","",_scrb1_day_twoshift!CV2)</f>
+        <f>IF(_scrb1_day_twoshift!DC2="","",_scrb1_day_twoshift!DC2)</f>
         <v/>
       </c>
       <c r="M44" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CW2="","",_scrb1_day_twoshift!CW2)</f>
+        <f>IF(_scrb1_day_twoshift!DD2="","",_scrb1_day_twoshift!DD2)</f>
         <v/>
       </c>
       <c r="N44" s="55"/>
       <c r="O44" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!CX2="","",_scrb1_day_twoshift!CX2)</f>
+        <f>IF(_scrb1_day_twoshift!DE2="","",_scrb1_day_twoshift!DE2)</f>
         <v/>
       </c>
       <c r="P44" s="68"/>
@@ -5396,20 +5450,20 @@
         <v>28</v>
       </c>
       <c r="K45" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CU3="","",_scrb1_day_twoshift!CU3)</f>
+        <f>IF(_scrb1_day_twoshift!DB3="","",_scrb1_day_twoshift!DB3)</f>
         <v/>
       </c>
       <c r="L45" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CV3="","",_scrb1_day_twoshift!CV3)</f>
+        <f>IF(_scrb1_day_twoshift!DC3="","",_scrb1_day_twoshift!DC3)</f>
         <v/>
       </c>
       <c r="M45" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CW3="","",_scrb1_day_twoshift!CW3)</f>
+        <f>IF(_scrb1_day_twoshift!DD3="","",_scrb1_day_twoshift!DD3)</f>
         <v/>
       </c>
       <c r="N45" s="55"/>
       <c r="O45" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!CX3="","",_scrb1_day_twoshift!CX3)</f>
+        <f>IF(_scrb1_day_twoshift!DE3="","",_scrb1_day_twoshift!DE3)</f>
         <v/>
       </c>
       <c r="P45" s="68"/>
@@ -5862,20 +5916,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CX1"/>
+  <dimension ref="A1:DE1"/>
   <sheetViews>
-    <sheetView topLeftCell="CT1" workbookViewId="0">
-      <selection activeCell="CW9" sqref="CW9"/>
+    <sheetView topLeftCell="CS1" workbookViewId="0">
+      <selection activeCell="CT1" sqref="CT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="45" width="35.625" customWidth="1"/>
     <col min="46" max="62" width="32.625" customWidth="1"/>
-    <col min="63" max="103" width="30.625" customWidth="1"/>
+    <col min="63" max="110" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102">
+    <row r="1" spans="1:109">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
@@ -6147,19 +6201,37 @@
         <v>256</v>
       </c>
       <c r="CT1" t="s">
+        <v>257</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>258</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>259</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>261</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>262</v>
+      </c>
+      <c r="DA1" t="s">
         <v>142</v>
       </c>
-      <c r="CU1" t="s">
-        <v>257</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>258</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>259</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>260</v>
+      <c r="DB1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>264</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>265</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -6181,7 +6253,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B1">
         <v>4</v>

--- a/excel/finished/wg4#烧结/4烧结生产报表.xlsx
+++ b/excel/finished/wg4#烧结/4烧结生产报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="276">
   <si>
     <t>四烧作业区生产日报</t>
   </si>
@@ -161,22 +161,34 @@
   </si>
   <si>
     <r>
+      <t>台时能力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>  </t>
+    </r>
+    <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>台时能力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>  </t>
+      <t>吨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -185,17 +197,13 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>吨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
+      <t>台时</t>
+    </r>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -203,11 +211,39 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>台时</t>
-    </r>
-  </si>
-  <si>
-    <t>白</t>
+      <t>利用系数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>  t/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>h</t>
+    </r>
+  </si>
+  <si>
+    <t>平均值</t>
   </si>
   <si>
     <r>
@@ -217,20 +253,394 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>利用系数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>  t/m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
+      <t>综合合格率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>  %</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>综合一级品率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>  %</t>
+    </r>
+  </si>
+  <si>
+    <t>样号</t>
+  </si>
+  <si>
+    <t>TFe(%)</t>
+  </si>
+  <si>
+    <t>FeO(%)</t>
+  </si>
+  <si>
+    <t>CaO(%)</t>
+  </si>
+  <si>
+    <t>SiO2(%)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ro(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>MgO(%)</t>
+  </si>
+  <si>
+    <t>S(%)</t>
+  </si>
+  <si>
+    <t>Al2O3(%)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10mm(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转鼓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>耐磨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>筛分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <t>LC_TFe</t>
+  </si>
+  <si>
+    <t>LC_CaO</t>
+  </si>
+  <si>
+    <t>LC_SiO2</t>
+  </si>
+  <si>
+    <t>LC_R</t>
+  </si>
+  <si>
+    <t>LC_FeO</t>
+  </si>
+  <si>
+    <t>LC_MgO</t>
+  </si>
+  <si>
+    <t>LC_S</t>
+  </si>
+  <si>
+    <t>LC_Al2O3</t>
+  </si>
+  <si>
+    <t>LG_LF5</t>
+  </si>
+  <si>
+    <t>LG_LD5_10</t>
+  </si>
+  <si>
+    <t>LP_TI+6.3</t>
+  </si>
+  <si>
+    <t>LP_AI</t>
+  </si>
+  <si>
+    <t>LP_SF</t>
+  </si>
+  <si>
+    <t>RO±0.05  %</t>
+  </si>
+  <si>
+    <t>FeO±0.5%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作业率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>  %</t>
+    </r>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>停机时间</t>
+  </si>
+  <si>
+    <t>停机原因</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>停机记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>停机起时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>产蒸汽</t>
+  </si>
+  <si>
+    <t>S103A</t>
+  </si>
+  <si>
+    <t>S103B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>104</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冶返</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>铺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>103</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>堆</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
@@ -238,18 +648,9 @@
       </rPr>
       <t>2</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>h</t>
-    </r>
-  </si>
-  <si>
-    <t>平均值</t>
+  </si>
+  <si>
+    <t>堆料时间</t>
   </si>
   <si>
     <r>
@@ -259,19 +660,43 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>综合合格率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>  %</t>
-    </r>
-  </si>
-  <si>
+      <t>堆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <t>取料时间</t>
+  </si>
+  <si>
+    <t>堆场库存</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -279,42 +704,18 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>综合一级品率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>  %</t>
-    </r>
-  </si>
-  <si>
-    <t>样号</t>
-  </si>
-  <si>
-    <t>TFe(%)</t>
-  </si>
-  <si>
-    <t>FeO(%)</t>
-  </si>
-  <si>
-    <t>CaO(%)</t>
-  </si>
-  <si>
-    <t>SiO2(%)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ro(</t>
+      <t>区</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
     </r>
     <r>
       <rPr>
@@ -323,28 +724,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>倍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>MgO(%)</t>
-  </si>
-  <si>
-    <t>S(%)</t>
-  </si>
-  <si>
-    <t>Al2O3(%)</t>
-  </si>
-  <si>
+      <t>堆料时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -352,19 +742,28 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>小于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10mm(%)</t>
-    </r>
-  </si>
-  <si>
+      <t>夜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -372,19 +771,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>转鼓</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(%)</t>
-    </r>
-  </si>
-  <si>
+      <t>取料时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -392,19 +789,28 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>耐磨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(%)</t>
-    </r>
-  </si>
-  <si>
+      <t>夜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -412,64 +818,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>筛分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(%)</t>
-    </r>
-  </si>
-  <si>
-    <t>LC_TFe</t>
-  </si>
-  <si>
-    <t>LC_CaO</t>
-  </si>
-  <si>
-    <t>LC_SiO2</t>
-  </si>
-  <si>
-    <t>LC_R</t>
-  </si>
-  <si>
-    <t>LC_FeO</t>
-  </si>
-  <si>
-    <t>LC_MgO</t>
-  </si>
-  <si>
-    <t>LC_S</t>
-  </si>
-  <si>
-    <t>LC_Al2O3</t>
-  </si>
-  <si>
-    <t>LG_LF5</t>
-  </si>
-  <si>
-    <t>LG_LD5_10</t>
-  </si>
-  <si>
-    <t>LP_TI+6.3</t>
-  </si>
-  <si>
-    <t>LP_AI</t>
-  </si>
-  <si>
-    <t>LP_SF</t>
-  </si>
-  <si>
-    <t>RO±0.05  %</t>
-  </si>
-  <si>
-    <t>FeO±0.5%</t>
-  </si>
-  <si>
+      <t>堆料时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -477,29 +836,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>作业率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>  %</t>
-    </r>
-  </si>
-  <si>
-    <t>开始时间</t>
-  </si>
-  <si>
-    <t>结束时间</t>
-  </si>
-  <si>
-    <t>停机时间</t>
-  </si>
-  <si>
-    <t>停机原因</t>
+      <t>白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
   </si>
   <si>
     <r>
@@ -518,6 +865,88 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>取料时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>全天</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>停</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>停机记录</t>
     </r>
     <r>
@@ -536,6 +965,136 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>共停</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>停机记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>停机次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>停机记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>停机起时</t>
     </r>
     <r>
@@ -554,7 +1113,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>夜</t>
+      <t>白</t>
     </r>
     <r>
       <rPr>
@@ -567,15 +1126,48 @@
     </r>
   </si>
   <si>
-    <t>产蒸汽</t>
-  </si>
-  <si>
-    <t>S103A</t>
-  </si>
-  <si>
-    <t>S103B</t>
-  </si>
-  <si>
+    <t>配比</t>
+  </si>
+  <si>
+    <t>消耗</t>
+  </si>
+  <si>
+    <t>总耗</t>
+  </si>
+  <si>
+    <t>单耗</t>
+  </si>
+  <si>
+    <t>矿槽交班槽存</t>
+  </si>
+  <si>
+    <t>混匀粉</t>
+  </si>
+  <si>
+    <t>生石灰</t>
+  </si>
+  <si>
+    <t>石灰石</t>
+  </si>
+  <si>
+    <t>白云石</t>
+  </si>
+  <si>
+    <t>返矿</t>
+  </si>
+  <si>
+    <t>煤粉</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -583,19 +1175,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>返</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>104</t>
-    </r>
-  </si>
-  <si>
+      <t>停机记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -603,19 +1193,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>冶返</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-2</t>
-    </r>
-  </si>
-  <si>
+      <t>共停</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -623,19 +1211,28 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>铺</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>103</t>
-    </r>
-  </si>
-  <si>
+      <t>白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -643,22 +1240,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>堆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>堆料时间</t>
-  </si>
-  <si>
+      <t>停机记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -666,42 +1258,16 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>堆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <t>取料时间</t>
-  </si>
-  <si>
-    <t>堆场库存</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>B</t>
+      <t>停机次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
     </r>
     <r>
       <rPr>
@@ -710,8 +1276,20 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>区</t>
-    </r>
+      <t>白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>总计</t>
   </si>
   <si>
     <r>
@@ -730,7 +1308,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>堆料时间</t>
+      <t>停机记录</t>
     </r>
     <r>
       <rPr>
@@ -748,7 +1326,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>夜</t>
+      <t>共停</t>
     </r>
     <r>
       <rPr>
@@ -777,7 +1355,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>取料时间</t>
+      <t>停机记录</t>
     </r>
     <r>
       <rPr>
@@ -795,7 +1373,25 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>夜</t>
+      <t>停机次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>共停</t>
     </r>
     <r>
       <rPr>
@@ -808,14 +1404,86 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{</t>
+    <t>燃料工</t>
+  </si>
+  <si>
+    <t>碳</t>
+  </si>
+  <si>
+    <t>灰份</t>
+  </si>
+  <si>
+    <t>挥发份</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>原料物化性能</t>
+  </si>
+  <si>
+    <t>业分析</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>H2O(%)</t>
+  </si>
+  <si>
+    <t>粒度</t>
+  </si>
+  <si>
+    <t>coke_FCd</t>
+  </si>
+  <si>
+    <t>coke_Ad</t>
+  </si>
+  <si>
+    <t>coke_Vdaf</t>
+  </si>
+  <si>
+    <t>coke_Mt</t>
+  </si>
+  <si>
+    <t>coke_Std</t>
+  </si>
+  <si>
+    <t>YL_TFe</t>
+  </si>
+  <si>
+    <t>YL_CaO</t>
+  </si>
+  <si>
+    <t>YL_SiO2</t>
+  </si>
+  <si>
+    <t>YL_S</t>
+  </si>
+  <si>
+    <t>YL_MgO</t>
+  </si>
+  <si>
+    <t>YL_H2O</t>
+  </si>
+  <si>
+    <t>马达</t>
+  </si>
+  <si>
+    <t>风门</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1#</t>
     </r>
     <r>
       <rPr>
@@ -824,16 +1492,18 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>堆料时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
+      <t>瓦</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2#</t>
     </r>
     <r>
       <rPr>
@@ -842,27 +1512,18 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{</t>
+      <t>瓦</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3#</t>
     </r>
     <r>
       <rPr>
@@ -871,16 +1532,18 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>取料时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
+      <t>瓦</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4#</t>
     </r>
     <r>
       <rPr>
@@ -889,23 +1552,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>全天</t>
-  </si>
-  <si>
-    <t>合计</t>
+      <t>瓦</t>
+    </r>
+  </si>
+  <si>
+    <t>电流</t>
+  </si>
+  <si>
+    <t>开度</t>
+  </si>
+  <si>
+    <t>振动</t>
   </si>
   <si>
     <r>
@@ -915,16 +1572,27 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>共</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>    </t>
+      <t>生石灰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PL8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1#</t>
     </r>
     <r>
       <rPr>
@@ -933,19 +1601,10 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>停</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{</t>
-    </r>
+      <t>风机</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -953,16 +1612,27 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>停机记录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
+      <t>生石灰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PL9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2#</t>
     </r>
     <r>
       <rPr>
@@ -971,17 +1641,22 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>共停</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
+      <t>风机</t>
+    </r>
+  </si>
+  <si>
+    <t>混合料物理化学性能</t>
+  </si>
+  <si>
+    <t>一混水份</t>
+  </si>
+  <si>
+    <t>二混水份</t>
+  </si>
+  <si>
+    <t>H2O%</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -989,684 +1664,6 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>夜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>停机记录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>停机次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>夜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>停机记录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>停机起时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>配比</t>
-  </si>
-  <si>
-    <t>消耗</t>
-  </si>
-  <si>
-    <t>总耗</t>
-  </si>
-  <si>
-    <t>单耗</t>
-  </si>
-  <si>
-    <t>矿槽交班槽存</t>
-  </si>
-  <si>
-    <t>混匀粉</t>
-  </si>
-  <si>
-    <t>生石灰</t>
-  </si>
-  <si>
-    <t>石灰石</t>
-  </si>
-  <si>
-    <t>白云石</t>
-  </si>
-  <si>
-    <t>返矿</t>
-  </si>
-  <si>
-    <t>煤粉</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>停机记录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>共停</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>停机记录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>停机次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>总计</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>停机记录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>共停</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>停机记录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>停机次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>共停</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>燃料工</t>
-  </si>
-  <si>
-    <t>碳</t>
-  </si>
-  <si>
-    <t>灰份</t>
-  </si>
-  <si>
-    <t>挥发份</t>
-  </si>
-  <si>
-    <t>水</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>原料物化性能</t>
-  </si>
-  <si>
-    <t>业分析</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>H2O(%)</t>
-  </si>
-  <si>
-    <t>粒度</t>
-  </si>
-  <si>
-    <t>coke_FCd</t>
-  </si>
-  <si>
-    <t>coke_Ad</t>
-  </si>
-  <si>
-    <t>coke_Vdaf</t>
-  </si>
-  <si>
-    <t>coke_Mt</t>
-  </si>
-  <si>
-    <t>coke_Std</t>
-  </si>
-  <si>
-    <t>YL_TFe</t>
-  </si>
-  <si>
-    <t>YL_CaO</t>
-  </si>
-  <si>
-    <t>YL_SiO2</t>
-  </si>
-  <si>
-    <t>YL_S</t>
-  </si>
-  <si>
-    <t>YL_MgO</t>
-  </si>
-  <si>
-    <t>马达</t>
-  </si>
-  <si>
-    <t>风门</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>瓦</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>瓦</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>瓦</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>瓦</t>
-    </r>
-  </si>
-  <si>
-    <t>电流</t>
-  </si>
-  <si>
-    <t>开度</t>
-  </si>
-  <si>
-    <t>振动</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生石灰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PL8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>风机</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生石灰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PL9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>风机</t>
-    </r>
-  </si>
-  <si>
-    <t>混合料物理化学性能</t>
-  </si>
-  <si>
-    <t>一混水份</t>
-  </si>
-  <si>
-    <t>二混水份</t>
-  </si>
-  <si>
-    <t>H2O%</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>粒度</t>
     </r>
     <r>
@@ -1743,25 +1740,46 @@
     <t>ZP_ST4_MESR_SIN_SinterShtConfirmY</t>
   </si>
   <si>
+    <t>ZP_ST4_MESR_SIN_SinterDayConfirmY_1d</t>
+  </si>
+  <si>
     <t>ZP_ST4_L1R_SIN_ProductPerHour</t>
   </si>
   <si>
+    <t>ZP_ST4_L1R_SIN_ProductPerHour_1d</t>
+  </si>
+  <si>
     <t>ZP_ST4_MESR_SIN_SinterUF</t>
   </si>
   <si>
+    <t>ZP_ST4_MESR_SIN_SinterUF_1d</t>
+  </si>
+  <si>
     <t>ZP_ST4_L1R_SIN_QualifiedRate</t>
   </si>
   <si>
+    <t>ZP_ST4_L1R_SIN_QualifiedRate_1d</t>
+  </si>
+  <si>
     <t>ZP_ST4_L1R_SIN_Grade1Rate</t>
   </si>
   <si>
+    <t>ZP_ST4_L1R_SIN_Grade1Rate_1d</t>
+  </si>
+  <si>
     <t>ZP_ST4_L2C_SIN_RoRate</t>
   </si>
   <si>
+    <t>ZP_ST4_L2C_SIN_RoRate_1d</t>
+  </si>
+  <si>
     <t>ZP_ST4_L2C_SIN_FeORate</t>
   </si>
   <si>
     <t xml:space="preserve">ZP_ST4_L2R_SIN_ProductRatio </t>
+  </si>
+  <si>
+    <t>ZP_ST4_L2R_SIN_ProductRatio_1d</t>
   </si>
   <si>
     <t>ZP_ST4_L1R_SIN_AMainMaA</t>
@@ -2048,11 +2066,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2082,7 +2100,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2097,7 +2123,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2111,30 +2160,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2149,41 +2183,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2203,8 +2206,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2213,13 +2238,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2259,7 +2277,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2271,25 +2367,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2301,13 +2397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2319,55 +2409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2385,31 +2427,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2421,13 +2445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2640,7 +2658,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2660,11 +2678,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2684,26 +2708,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2725,6 +2734,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2739,10 +2757,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2751,133 +2769,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3481,7 +3499,7 @@
       <c r="W2" s="5"/>
       <c r="X2" s="6"/>
     </row>
-    <row r="3" ht="13.5" spans="1:24">
+    <row r="3" spans="1:24">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -3550,64 +3568,64 @@
         <v/>
       </c>
       <c r="D4" s="8" t="str">
-        <f>IF(SUM(B4:C4),SUM(B4:C4),"")</f>
+        <f>IF(_scrb1_day_twoshift!B3="","",_scrb1_day_twoshift!B3)</f>
         <v/>
       </c>
       <c r="I4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!BK2="","",_scrb1_day_twoshift!BK2)</f>
+        <f>IF(_scrb1_day_twoshift!BS2="","",_scrb1_day_twoshift!BS2)</f>
         <v/>
       </c>
       <c r="K4" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!BL2="","",_scrb1_day_twoshift!BL2)</f>
+        <f>IF(_scrb1_day_twoshift!BT2="","",_scrb1_day_twoshift!BT2)</f>
         <v/>
       </c>
       <c r="L4" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!BM2="","",_scrb1_day_twoshift!BM2)</f>
+        <f>IF(_scrb1_day_twoshift!BU2="","",_scrb1_day_twoshift!BU2)</f>
         <v/>
       </c>
       <c r="M4" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!BN2="","",_scrb1_day_twoshift!BN2)</f>
+        <f>IF(_scrb1_day_twoshift!BV2="","",_scrb1_day_twoshift!BV2)</f>
         <v/>
       </c>
       <c r="N4" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BP2="","",_scrb1_day_twoshift!BP2)</f>
+        <f>IF(_scrb1_day_twoshift!BX2="","",_scrb1_day_twoshift!BX2)</f>
         <v/>
       </c>
       <c r="O4" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BQ2="","",_scrb1_day_twoshift!BQ2)</f>
+        <f>IF(_scrb1_day_twoshift!BY2="","",_scrb1_day_twoshift!BY2)</f>
         <v/>
       </c>
       <c r="P4" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BR2="","",_scrb1_day_twoshift!BR2)</f>
+        <f>IF(_scrb1_day_twoshift!BZ2="","",_scrb1_day_twoshift!BZ2)</f>
         <v/>
       </c>
       <c r="Q4" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BS2="","",_scrb1_day_twoshift!BS2)</f>
+        <f>IF(_scrb1_day_twoshift!CA2="","",_scrb1_day_twoshift!CA2)</f>
         <v/>
       </c>
       <c r="R4" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BT2="","",_scrb1_day_twoshift!BT2)</f>
+        <f>IF(_scrb1_day_twoshift!CB2="","",_scrb1_day_twoshift!CB2)</f>
         <v/>
       </c>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BU2="","",_scrb1_day_twoshift!BU2)</f>
+        <f>IF(_scrb1_day_twoshift!CC2="","",_scrb1_day_twoshift!CC2)</f>
         <v/>
       </c>
       <c r="V4" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BV2="","",_scrb1_day_twoshift!BV2)</f>
+        <f>IF(_scrb1_day_twoshift!CD2="","",_scrb1_day_twoshift!CD2)</f>
         <v/>
       </c>
       <c r="W4" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BW2="","",_scrb1_day_twoshift!BW2)</f>
+        <f>IF(_scrb1_day_twoshift!CE2="","",_scrb1_day_twoshift!CE2)</f>
         <v/>
       </c>
       <c r="X4" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BX2="","",_scrb1_day_twoshift!BX2)</f>
+        <f>IF(_scrb1_day_twoshift!CF2="","",_scrb1_day_twoshift!CF2)</f>
         <v/>
       </c>
     </row>
@@ -3616,72 +3634,72 @@
         <v>27</v>
       </c>
       <c r="B5" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!B2="","",_scrb1_day_twoshift!B2)</f>
+        <f>IF(_scrb1_day_twoshift!C2="","",_scrb1_day_twoshift!C2)</f>
         <v/>
       </c>
       <c r="C5" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!B3="","",_scrb1_day_twoshift!B3)</f>
+        <f>IF(_scrb1_day_twoshift!C3="","",_scrb1_day_twoshift!C3)</f>
         <v/>
       </c>
       <c r="D5" s="8" t="str">
-        <f>IFERROR(AVERAGE(B5:C5),"")</f>
+        <f>IF(_scrb1_day_twoshift!D3="","",_scrb1_day_twoshift!D3)</f>
         <v/>
       </c>
       <c r="I5" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!BK3="","",_scrb1_day_twoshift!BK3)</f>
+        <f>IF(_scrb1_day_twoshift!BS3="","",_scrb1_day_twoshift!BS3)</f>
         <v/>
       </c>
       <c r="K5" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!BL3="","",_scrb1_day_twoshift!BL3)</f>
+        <f>IF(_scrb1_day_twoshift!BT3="","",_scrb1_day_twoshift!BT3)</f>
         <v/>
       </c>
       <c r="L5" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!BM3="","",_scrb1_day_twoshift!BM3)</f>
+        <f>IF(_scrb1_day_twoshift!BU3="","",_scrb1_day_twoshift!BU3)</f>
         <v/>
       </c>
       <c r="M5" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!BN3="","",_scrb1_day_twoshift!BN3)</f>
+        <f>IF(_scrb1_day_twoshift!BV3="","",_scrb1_day_twoshift!BV3)</f>
         <v/>
       </c>
       <c r="N5" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BP3="","",_scrb1_day_twoshift!BP3)</f>
+        <f>IF(_scrb1_day_twoshift!BX3="","",_scrb1_day_twoshift!BX3)</f>
         <v/>
       </c>
       <c r="O5" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BQ3="","",_scrb1_day_twoshift!BQ3)</f>
+        <f>IF(_scrb1_day_twoshift!BY3="","",_scrb1_day_twoshift!BY3)</f>
         <v/>
       </c>
       <c r="P5" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BR3="","",_scrb1_day_twoshift!BR3)</f>
+        <f>IF(_scrb1_day_twoshift!BZ3="","",_scrb1_day_twoshift!BZ3)</f>
         <v/>
       </c>
       <c r="Q5" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BS3="","",_scrb1_day_twoshift!BS3)</f>
+        <f>IF(_scrb1_day_twoshift!CA3="","",_scrb1_day_twoshift!CA3)</f>
         <v/>
       </c>
       <c r="R5" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BT3="","",_scrb1_day_twoshift!BT3)</f>
+        <f>IF(_scrb1_day_twoshift!CB3="","",_scrb1_day_twoshift!CB3)</f>
         <v/>
       </c>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BU3="","",_scrb1_day_twoshift!BU3)</f>
+        <f>IF(_scrb1_day_twoshift!CC3="","",_scrb1_day_twoshift!CC3)</f>
         <v/>
       </c>
       <c r="V5" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BV3="","",_scrb1_day_twoshift!BV3)</f>
+        <f>IF(_scrb1_day_twoshift!CD3="","",_scrb1_day_twoshift!CD3)</f>
         <v/>
       </c>
       <c r="W5" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BW3="","",_scrb1_day_twoshift!BW3)</f>
+        <f>IF(_scrb1_day_twoshift!CE3="","",_scrb1_day_twoshift!CE3)</f>
         <v/>
       </c>
       <c r="X5" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BX3="","",_scrb1_day_twoshift!BX3)</f>
+        <f>IF(_scrb1_day_twoshift!CF3="","",_scrb1_day_twoshift!CF3)</f>
         <v/>
       </c>
     </row>
@@ -3690,15 +3708,15 @@
         <v>29</v>
       </c>
       <c r="B6" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!C2="","",_scrb1_day_twoshift!C2)</f>
+        <f>IF(_scrb1_day_twoshift!E2="","",_scrb1_day_twoshift!E2)</f>
         <v/>
       </c>
       <c r="C6" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!C3="","",_scrb1_day_twoshift!C3)</f>
+        <f>IF(_scrb1_day_twoshift!E3="","",_scrb1_day_twoshift!E3)</f>
         <v/>
       </c>
       <c r="D6" s="8" t="str">
-        <f>IFERROR(AVERAGE(B6:C6),"")</f>
+        <f>IF(_scrb1_day_twoshift!F3="","",_scrb1_day_twoshift!F3)</f>
         <v/>
       </c>
       <c r="I6" s="7" t="s">
@@ -3764,15 +3782,15 @@
         <v>31</v>
       </c>
       <c r="B7" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!D2="","",_scrb1_day_twoshift!D2)</f>
+        <f>IF(_scrb1_day_twoshift!G2="","",_scrb1_day_twoshift!G2)</f>
         <v/>
       </c>
       <c r="C7" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!D3="","",_scrb1_day_twoshift!D3)</f>
+        <f>IF(_scrb1_day_twoshift!G3="","",_scrb1_day_twoshift!G3)</f>
         <v/>
       </c>
       <c r="D7" s="8" t="str">
-        <f>IFERROR(AVERAGE(B7:C7),"")</f>
+        <f>IF(_scrb1_day_twoshift!H3="","",_scrb1_day_twoshift!H3)</f>
         <v/>
       </c>
       <c r="I7" s="31"/>
@@ -3797,15 +3815,15 @@
         <v>32</v>
       </c>
       <c r="B8" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!E2="","",_scrb1_day_twoshift!E2)</f>
+        <f>IF(_scrb1_day_twoshift!I2="","",_scrb1_day_twoshift!I2)</f>
         <v/>
       </c>
       <c r="C8" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!E3="","",_scrb1_day_twoshift!E3)</f>
+        <f>IF(_scrb1_day_twoshift!I3="","",_scrb1_day_twoshift!I3)</f>
         <v/>
       </c>
       <c r="D8" s="8" t="str">
-        <f>IFERROR(AVERAGE(B8:C8),"")</f>
+        <f>IF(_scrb1_day_twoshift!J3="","",_scrb1_day_twoshift!J3)</f>
         <v/>
       </c>
       <c r="I8" s="7" t="s">
@@ -3906,12 +3924,12 @@
         <v>59</v>
       </c>
       <c r="B10" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!F2="","",_scrb1_day_twoshift!F2)</f>
+        <f>IF(_scrb1_day_twoshift!K2="","",_scrb1_day_twoshift!K2)</f>
         <v/>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="str">
-        <f>IFERROR(AVERAGE(B10:C10),"")</f>
+        <f>IF(_scrb1_day_twoshift!L3="","",_scrb1_day_twoshift!L3)</f>
         <v/>
       </c>
       <c r="I10" s="8"/>
@@ -3941,12 +3959,12 @@
         <v>60</v>
       </c>
       <c r="B11" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!G2="","",_scrb1_day_twoshift!G2)</f>
+        <f>IF(_scrb1_day_twoshift!M2="","",_scrb1_day_twoshift!M2)</f>
         <v/>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="str">
-        <f>IFERROR(AVERAGE(B11:C11),"")</f>
+        <f>IF(_scrb1_day_twoshift!N3="","",_scrb1_day_twoshift!N3)</f>
         <v/>
       </c>
       <c r="I11" s="8"/>
@@ -3976,15 +3994,15 @@
         <v>61</v>
       </c>
       <c r="B12" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!H2="","",_scrb1_day_twoshift!H2)</f>
+        <f>IF(_scrb1_day_twoshift!O2="","",_scrb1_day_twoshift!O2)</f>
         <v/>
       </c>
       <c r="C12" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!H3="","",_scrb1_day_twoshift!H3)</f>
+        <f>IF(_scrb1_day_twoshift!O3="","",_scrb1_day_twoshift!O3)</f>
         <v/>
       </c>
       <c r="D12" s="8" t="str">
-        <f>IFERROR(AVERAGE(B12:C12),"")</f>
+        <f>IF(_scrb1_day_twoshift!P3="","",_scrb1_day_twoshift!P3)</f>
         <v/>
       </c>
       <c r="I12" s="8"/>
@@ -4009,7 +4027,7 @@
       <c r="W12" s="36"/>
       <c r="X12" s="69"/>
     </row>
-    <row r="13" ht="13.5" spans="1:24">
+    <row r="13" spans="1:24">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -4283,34 +4301,34 @@
       </c>
       <c r="J20" s="43"/>
       <c r="K20" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!BZ2="","",_scrb1_day_twoshift!BZ2)</f>
+        <f>IF(_scrb1_day_twoshift!CH2="","",_scrb1_day_twoshift!CH2)</f>
         <v/>
       </c>
       <c r="L20" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CA2="","",_scrb1_day_twoshift!CA2)</f>
+        <f>IF(_scrb1_day_twoshift!CI2="","",_scrb1_day_twoshift!CI2)</f>
         <v/>
       </c>
       <c r="M20" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CB2="","",_scrb1_day_twoshift!CB2)</f>
+        <f>IF(_scrb1_day_twoshift!CJ2="","",_scrb1_day_twoshift!CJ2)</f>
         <v/>
       </c>
       <c r="N20" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CC2="","",_scrb1_day_twoshift!CC2)</f>
+        <f>IF(_scrb1_day_twoshift!CK2="","",_scrb1_day_twoshift!CK2)</f>
         <v/>
       </c>
       <c r="O20" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CD2="","",_scrb1_day_twoshift!CD2)</f>
+        <f>IF(_scrb1_day_twoshift!CL2="","",_scrb1_day_twoshift!CL2)</f>
         <v/>
       </c>
       <c r="P20" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CE2="","",_scrb1_day_twoshift!CE2)</f>
+        <f>IF(_scrb1_day_twoshift!CM2="","",_scrb1_day_twoshift!CM2)</f>
         <v/>
       </c>
       <c r="Q20" s="17" t="s">
         <v>82</v>
       </c>
       <c r="R20" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!CF2="","",_scrb1_day_twoshift!CF2)</f>
+        <f>IF(_scrb1_day_twoshift!CN2="","",_scrb1_day_twoshift!CN2)</f>
         <v/>
       </c>
       <c r="S20" s="55"/>
@@ -4331,34 +4349,34 @@
       </c>
       <c r="J21" s="43"/>
       <c r="K21" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!BZ3="","",_scrb1_day_twoshift!BZ3)</f>
+        <f>IF(_scrb1_day_twoshift!CH3="","",_scrb1_day_twoshift!CH3)</f>
         <v/>
       </c>
       <c r="L21" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CA3="","",_scrb1_day_twoshift!CA3)</f>
+        <f>IF(_scrb1_day_twoshift!CI3="","",_scrb1_day_twoshift!CI3)</f>
         <v/>
       </c>
       <c r="M21" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CB3="","",_scrb1_day_twoshift!CB3)</f>
+        <f>IF(_scrb1_day_twoshift!CJ3="","",_scrb1_day_twoshift!CJ3)</f>
         <v/>
       </c>
       <c r="N21" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CC3="","",_scrb1_day_twoshift!CC3)</f>
+        <f>IF(_scrb1_day_twoshift!CK3="","",_scrb1_day_twoshift!CK3)</f>
         <v/>
       </c>
       <c r="O21" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CD3="","",_scrb1_day_twoshift!CD3)</f>
+        <f>IF(_scrb1_day_twoshift!CL3="","",_scrb1_day_twoshift!CL3)</f>
         <v/>
       </c>
       <c r="P21" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CE3="","",_scrb1_day_twoshift!CE3)</f>
+        <f>IF(_scrb1_day_twoshift!CM3="","",_scrb1_day_twoshift!CM3)</f>
         <v/>
       </c>
       <c r="Q21" s="17" t="s">
         <v>84</v>
       </c>
       <c r="R21" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!CF3="","",_scrb1_day_twoshift!CF3)</f>
+        <f>IF(_scrb1_day_twoshift!CN3="","",_scrb1_day_twoshift!CN3)</f>
         <v/>
       </c>
       <c r="S21" s="55"/>
@@ -4551,19 +4569,19 @@
         <v>97</v>
       </c>
       <c r="J26" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CH2="","",_scrb1_day_twoshift!CH2)</f>
+        <f>IF(_scrb1_day_twoshift!CP2="","",_scrb1_day_twoshift!CP2)</f>
         <v/>
       </c>
       <c r="K26" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CH3="","",_scrb1_day_twoshift!CH3)</f>
+        <f>IF(_scrb1_day_twoshift!CP3="","",_scrb1_day_twoshift!CP3)</f>
         <v/>
       </c>
       <c r="L26" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CI2="","",_scrb1_day_twoshift!CI2)</f>
+        <f>IF(_scrb1_day_twoshift!CQ2="","",_scrb1_day_twoshift!CQ2)</f>
         <v/>
       </c>
       <c r="M26" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CI3="","",_scrb1_day_twoshift!CI3)</f>
+        <f>IF(_scrb1_day_twoshift!CQ3="","",_scrb1_day_twoshift!CQ3)</f>
         <v/>
       </c>
       <c r="N26" s="54">
@@ -4577,11 +4595,11 @@
         <v>0.85</v>
       </c>
       <c r="Q26" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!CT2="","",_scrb1_day_twoshift!CT2)</f>
+        <f>IF(_scrb1_day_twoshift!DB2="","",_scrb1_day_twoshift!DB2)</f>
         <v/>
       </c>
       <c r="R26" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!CT3="","",_scrb1_day_twoshift!CT3)</f>
+        <f>IF(_scrb1_day_twoshift!DB3="","",_scrb1_day_twoshift!DB3)</f>
         <v/>
       </c>
       <c r="S26" s="71"/>
@@ -4597,19 +4615,19 @@
         <v>98</v>
       </c>
       <c r="J27" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CJ2="","",_scrb1_day_twoshift!CJ2)</f>
+        <f>IF(_scrb1_day_twoshift!CR2="","",_scrb1_day_twoshift!CR2)</f>
         <v/>
       </c>
       <c r="K27" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CJ3="","",_scrb1_day_twoshift!CJ3)</f>
+        <f>IF(_scrb1_day_twoshift!CR3="","",_scrb1_day_twoshift!CR3)</f>
         <v/>
       </c>
       <c r="L27" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CK2="","",_scrb1_day_twoshift!CK2)</f>
+        <f>IF(_scrb1_day_twoshift!CS2="","",_scrb1_day_twoshift!CS2)</f>
         <v/>
       </c>
       <c r="M27" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CK3="","",_scrb1_day_twoshift!CK3)</f>
+        <f>IF(_scrb1_day_twoshift!CS3="","",_scrb1_day_twoshift!CS3)</f>
         <v/>
       </c>
       <c r="N27" s="54">
@@ -4623,11 +4641,11 @@
         <v>0.04</v>
       </c>
       <c r="Q27" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!CU2="","",_scrb1_day_twoshift!CU2)</f>
+        <f>IF(_scrb1_day_twoshift!DC2="","",_scrb1_day_twoshift!DC2)</f>
         <v/>
       </c>
       <c r="R27" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!CU3="","",_scrb1_day_twoshift!CU3)</f>
+        <f>IF(_scrb1_day_twoshift!DC3="","",_scrb1_day_twoshift!DC3)</f>
         <v/>
       </c>
       <c r="S27" s="71"/>
@@ -4643,19 +4661,19 @@
         <v>99</v>
       </c>
       <c r="J28" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CI4="","",_scrb1_day_twoshift!CI4)</f>
+        <f>IF(_scrb1_day_twoshift!CQ4="","",_scrb1_day_twoshift!CQ4)</f>
         <v/>
       </c>
       <c r="K28" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CL3="","",_scrb1_day_twoshift!CL3)</f>
+        <f>IF(_scrb1_day_twoshift!CT3="","",_scrb1_day_twoshift!CT3)</f>
         <v/>
       </c>
       <c r="L28" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CM2="","",_scrb1_day_twoshift!CM2)</f>
+        <f>IF(_scrb1_day_twoshift!CU2="","",_scrb1_day_twoshift!CU2)</f>
         <v/>
       </c>
       <c r="M28" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CM3="","",_scrb1_day_twoshift!CM3)</f>
+        <f>IF(_scrb1_day_twoshift!CU3="","",_scrb1_day_twoshift!CU3)</f>
         <v/>
       </c>
       <c r="N28" s="54">
@@ -4669,11 +4687,11 @@
         <v>0.1</v>
       </c>
       <c r="Q28" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!CV2="","",_scrb1_day_twoshift!CV2)</f>
+        <f>IF(_scrb1_day_twoshift!DD2="","",_scrb1_day_twoshift!DD2)</f>
         <v/>
       </c>
       <c r="R28" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!CV3="","",_scrb1_day_twoshift!CV3)</f>
+        <f>IF(_scrb1_day_twoshift!DD3="","",_scrb1_day_twoshift!DD3)</f>
         <v/>
       </c>
       <c r="S28" s="71"/>
@@ -4689,19 +4707,19 @@
         <v>100</v>
       </c>
       <c r="J29" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CN2="","",_scrb1_day_twoshift!CN2)</f>
+        <f>IF(_scrb1_day_twoshift!CV2="","",_scrb1_day_twoshift!CV2)</f>
         <v/>
       </c>
       <c r="K29" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CN3="","",_scrb1_day_twoshift!CN3)</f>
+        <f>IF(_scrb1_day_twoshift!CV3="","",_scrb1_day_twoshift!CV3)</f>
         <v/>
       </c>
       <c r="L29" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CO2="","",_scrb1_day_twoshift!CO2)</f>
+        <f>IF(_scrb1_day_twoshift!CW2="","",_scrb1_day_twoshift!CW2)</f>
         <v/>
       </c>
       <c r="M29" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CO3="","",_scrb1_day_twoshift!CO3)</f>
+        <f>IF(_scrb1_day_twoshift!CW3="","",_scrb1_day_twoshift!CW3)</f>
         <v/>
       </c>
       <c r="N29" s="54">
@@ -4715,11 +4733,11 @@
         <v>0.06</v>
       </c>
       <c r="Q29" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!CW2="","",_scrb1_day_twoshift!CW2)</f>
+        <f>IF(_scrb1_day_twoshift!DE2="","",_scrb1_day_twoshift!DE2)</f>
         <v/>
       </c>
       <c r="R29" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!CW3="","",_scrb1_day_twoshift!CW3)</f>
+        <f>IF(_scrb1_day_twoshift!DE3="","",_scrb1_day_twoshift!DE3)</f>
         <v/>
       </c>
       <c r="S29" s="71"/>
@@ -4735,19 +4753,19 @@
         <v>101</v>
       </c>
       <c r="J30" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CP2="","",_scrb1_day_twoshift!CP2)</f>
+        <f>IF(_scrb1_day_twoshift!CX2="","",_scrb1_day_twoshift!CX2)</f>
         <v/>
       </c>
       <c r="K30" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CP3="","",_scrb1_day_twoshift!CP3)</f>
+        <f>IF(_scrb1_day_twoshift!CX3="","",_scrb1_day_twoshift!CX3)</f>
         <v/>
       </c>
       <c r="L30" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CQ2="","",_scrb1_day_twoshift!CQ2)</f>
+        <f>IF(_scrb1_day_twoshift!CY2="","",_scrb1_day_twoshift!CY2)</f>
         <v/>
       </c>
       <c r="M30" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CQ3="","",_scrb1_day_twoshift!CQ3)</f>
+        <f>IF(_scrb1_day_twoshift!CY3="","",_scrb1_day_twoshift!CY3)</f>
         <v/>
       </c>
       <c r="N30" s="54">
@@ -4761,11 +4779,11 @@
         <v>0.4</v>
       </c>
       <c r="Q30" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!CX2="","",_scrb1_day_twoshift!CX2)</f>
+        <f>IF(_scrb1_day_twoshift!DF2="","",_scrb1_day_twoshift!DF2)</f>
         <v/>
       </c>
       <c r="R30" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!CX3="","",_scrb1_day_twoshift!CX3)</f>
+        <f>IF(_scrb1_day_twoshift!DF3="","",_scrb1_day_twoshift!DF3)</f>
         <v/>
       </c>
       <c r="S30" s="71"/>
@@ -4781,19 +4799,19 @@
         <v>102</v>
       </c>
       <c r="J31" s="56" t="str">
-        <f>IF(_scrb1_day_twoshift!CR2="","",_scrb1_day_twoshift!CR2)</f>
+        <f>IF(_scrb1_day_twoshift!CZ2="","",_scrb1_day_twoshift!CZ2)</f>
         <v/>
       </c>
       <c r="K31" s="56" t="str">
-        <f>IF(_scrb1_day_twoshift!CR3="","",_scrb1_day_twoshift!CR3)</f>
+        <f>IF(_scrb1_day_twoshift!CZ3="","",_scrb1_day_twoshift!CZ3)</f>
         <v/>
       </c>
       <c r="L31" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!CS2="","",_scrb1_day_twoshift!CS2)</f>
+        <f>IF(_scrb1_day_twoshift!DA2="","",_scrb1_day_twoshift!DA2)</f>
         <v/>
       </c>
       <c r="M31" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!CS3="","",_scrb1_day_twoshift!CS3)</f>
+        <f>IF(_scrb1_day_twoshift!DA3="","",_scrb1_day_twoshift!DA3)</f>
         <v/>
       </c>
       <c r="N31" s="17">
@@ -4807,11 +4825,11 @@
         <v>0.06</v>
       </c>
       <c r="Q31" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!CY2="","",_scrb1_day_twoshift!CY2)</f>
+        <f>IF(_scrb1_day_twoshift!DG2="","",_scrb1_day_twoshift!DG2)</f>
         <v/>
       </c>
       <c r="R31" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!CY3="","",_scrb1_day_twoshift!CY3)</f>
+        <f>IF(_scrb1_day_twoshift!DG3="","",_scrb1_day_twoshift!DG3)</f>
         <v/>
       </c>
       <c r="S31" s="71"/>
@@ -4957,7 +4975,7 @@
       <c r="X34" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Y34" s="55" t="s">
+      <c r="Y34" s="17" t="s">
         <v>117</v>
       </c>
       <c r="Z34" s="53" t="s">
@@ -5009,7 +5027,9 @@
       <c r="X35" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="Y35" s="55"/>
+      <c r="Y35" s="17" t="s">
+        <v>129</v>
+      </c>
       <c r="Z35" s="55"/>
     </row>
     <row r="36" ht="13.5" spans="1:26">
@@ -5020,22 +5040,22 @@
         <v>2</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I36" s="57"/>
       <c r="J36" s="13"/>
@@ -5055,29 +5075,29 @@
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
       <c r="X36" s="8"/>
-      <c r="Y36" s="55"/>
+      <c r="Y36" s="17"/>
       <c r="Z36" s="55"/>
     </row>
     <row r="37" ht="13.5" spans="1:26">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I37" s="57"/>
       <c r="J37" s="60"/>
@@ -5087,7 +5107,7 @@
       <c r="N37" s="60"/>
       <c r="O37" s="61"/>
       <c r="P37" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="8"/>
@@ -5097,38 +5117,38 @@
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
       <c r="X37" s="8"/>
-      <c r="Y37" s="55"/>
+      <c r="Y37" s="17"/>
       <c r="Z37" s="55"/>
     </row>
     <row r="38" ht="13.5" spans="1:26">
       <c r="A38" s="23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!J2="","",_scrb1_day_twoshift!J2)</f>
+        <f>IF(_scrb1_day_twoshift!R2="","",_scrb1_day_twoshift!R2)</f>
         <v/>
       </c>
       <c r="D38" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!M2="","",_scrb1_day_twoshift!M2)</f>
+        <f>IF(_scrb1_day_twoshift!U2="","",_scrb1_day_twoshift!U2)</f>
         <v/>
       </c>
       <c r="E38" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!P2="","",_scrb1_day_twoshift!P2)</f>
+        <f>IF(_scrb1_day_twoshift!X2="","",_scrb1_day_twoshift!X2)</f>
         <v/>
       </c>
       <c r="F38" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!S2="","",_scrb1_day_twoshift!S2)</f>
+        <f>IF(_scrb1_day_twoshift!AA2="","",_scrb1_day_twoshift!AA2)</f>
         <v/>
       </c>
       <c r="G38" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!V2="","",_scrb1_day_twoshift!V2)</f>
+        <f>IF(_scrb1_day_twoshift!AD2="","",_scrb1_day_twoshift!AD2)</f>
         <v/>
       </c>
       <c r="H38" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!Y2="","",_scrb1_day_twoshift!Y2)</f>
+        <f>IF(_scrb1_day_twoshift!AG2="","",_scrb1_day_twoshift!AG2)</f>
         <v/>
       </c>
       <c r="I38" s="57"/>
@@ -5139,7 +5159,7 @@
       <c r="N38" s="62"/>
       <c r="O38" s="63"/>
       <c r="P38" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="8"/>
@@ -5149,7 +5169,7 @@
       <c r="V38" s="8"/>
       <c r="W38" s="8"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="55"/>
+      <c r="Y38" s="17"/>
       <c r="Z38" s="55"/>
     </row>
     <row r="39" ht="13.5" spans="1:26">
@@ -5158,27 +5178,27 @@
         <v>28</v>
       </c>
       <c r="C39" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!J3="","",_scrb1_day_twoshift!J3)</f>
+        <f>IF(_scrb1_day_twoshift!R3="","",_scrb1_day_twoshift!R3)</f>
         <v/>
       </c>
       <c r="D39" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!M3="","",_scrb1_day_twoshift!M3)</f>
+        <f>IF(_scrb1_day_twoshift!U3="","",_scrb1_day_twoshift!U3)</f>
         <v/>
       </c>
       <c r="E39" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!P3="","",_scrb1_day_twoshift!P3)</f>
+        <f>IF(_scrb1_day_twoshift!X3="","",_scrb1_day_twoshift!X3)</f>
         <v/>
       </c>
       <c r="F39" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!S3="","",_scrb1_day_twoshift!S3)</f>
+        <f>IF(_scrb1_day_twoshift!AA3="","",_scrb1_day_twoshift!AA3)</f>
         <v/>
       </c>
       <c r="G39" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!V3="","",_scrb1_day_twoshift!V3)</f>
+        <f>IF(_scrb1_day_twoshift!AD3="","",_scrb1_day_twoshift!AD3)</f>
         <v/>
       </c>
       <c r="H39" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!Y3="","",_scrb1_day_twoshift!Y3)</f>
+        <f>IF(_scrb1_day_twoshift!AG3="","",_scrb1_day_twoshift!AG3)</f>
         <v/>
       </c>
       <c r="I39" s="57"/>
@@ -5199,7 +5219,7 @@
       <c r="V39" s="8"/>
       <c r="W39" s="8"/>
       <c r="X39" s="8"/>
-      <c r="Y39" s="55"/>
+      <c r="Y39" s="17"/>
       <c r="Z39" s="55"/>
     </row>
     <row r="40" ht="13.5" spans="1:26">
@@ -5228,38 +5248,38 @@
       <c r="V40" s="8"/>
       <c r="W40" s="8"/>
       <c r="X40" s="8"/>
-      <c r="Y40" s="55"/>
+      <c r="Y40" s="17"/>
       <c r="Z40" s="55"/>
     </row>
     <row r="41" ht="13.5" spans="1:26">
       <c r="A41" s="23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!K2="","",_scrb1_day_twoshift!K2)</f>
+        <f>IF(_scrb1_day_twoshift!S2="","",_scrb1_day_twoshift!S2)</f>
         <v/>
       </c>
       <c r="D41" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!N2="","",_scrb1_day_twoshift!N2)</f>
+        <f>IF(_scrb1_day_twoshift!V2="","",_scrb1_day_twoshift!V2)</f>
         <v/>
       </c>
       <c r="E41" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!Q2="","",_scrb1_day_twoshift!Q2)</f>
+        <f>IF(_scrb1_day_twoshift!Y2="","",_scrb1_day_twoshift!Y2)</f>
         <v/>
       </c>
       <c r="F41" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!T2="","",_scrb1_day_twoshift!T2)</f>
+        <f>IF(_scrb1_day_twoshift!AB2="","",_scrb1_day_twoshift!AB2)</f>
         <v/>
       </c>
       <c r="G41" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!W2="","",_scrb1_day_twoshift!W2)</f>
+        <f>IF(_scrb1_day_twoshift!AE2="","",_scrb1_day_twoshift!AE2)</f>
         <v/>
       </c>
       <c r="H41" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!Z2="","",_scrb1_day_twoshift!Z2)</f>
+        <f>IF(_scrb1_day_twoshift!AH2="","",_scrb1_day_twoshift!AH2)</f>
         <v/>
       </c>
       <c r="I41" s="57"/>
@@ -5280,7 +5300,7 @@
       <c r="V41" s="8"/>
       <c r="W41" s="8"/>
       <c r="X41" s="8"/>
-      <c r="Y41" s="55"/>
+      <c r="Y41" s="17"/>
       <c r="Z41" s="55"/>
     </row>
     <row r="42" ht="13.5" spans="1:26">
@@ -5289,27 +5309,27 @@
         <v>28</v>
       </c>
       <c r="C42" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!K3="","",_scrb1_day_twoshift!K3)</f>
+        <f>IF(_scrb1_day_twoshift!S3="","",_scrb1_day_twoshift!S3)</f>
         <v/>
       </c>
       <c r="D42" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!N3="","",_scrb1_day_twoshift!N3)</f>
+        <f>IF(_scrb1_day_twoshift!V3="","",_scrb1_day_twoshift!V3)</f>
         <v/>
       </c>
       <c r="E42" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!Q3="","",_scrb1_day_twoshift!Q3)</f>
+        <f>IF(_scrb1_day_twoshift!Y3="","",_scrb1_day_twoshift!Y3)</f>
         <v/>
       </c>
       <c r="F42" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!T3="","",_scrb1_day_twoshift!T3)</f>
+        <f>IF(_scrb1_day_twoshift!AB3="","",_scrb1_day_twoshift!AB3)</f>
         <v/>
       </c>
       <c r="G42" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!W3="","",_scrb1_day_twoshift!W3)</f>
+        <f>IF(_scrb1_day_twoshift!AE3="","",_scrb1_day_twoshift!AE3)</f>
         <v/>
       </c>
       <c r="H42" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!Z3="","",_scrb1_day_twoshift!Z3)</f>
+        <f>IF(_scrb1_day_twoshift!AH3="","",_scrb1_day_twoshift!AH3)</f>
         <v/>
       </c>
       <c r="I42" s="66"/>
@@ -5317,7 +5337,7 @@
         <v>2</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -5334,7 +5354,7 @@
       <c r="V42" s="8"/>
       <c r="W42" s="8"/>
       <c r="X42" s="8"/>
-      <c r="Y42" s="55"/>
+      <c r="Y42" s="17"/>
       <c r="Z42" s="55"/>
     </row>
     <row r="43" ht="13.5" spans="1:26">
@@ -5348,19 +5368,19 @@
       <c r="I43" s="66"/>
       <c r="J43" s="13"/>
       <c r="K43" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M43" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N43" s="53" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P43" s="67"/>
       <c r="Q43" s="74"/>
@@ -5376,31 +5396,31 @@
     </row>
     <row r="44" ht="13.5" spans="1:26">
       <c r="A44" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!L2="","",_scrb1_day_twoshift!L2)</f>
+        <f>IF(_scrb1_day_twoshift!T2="","",_scrb1_day_twoshift!T2)</f>
         <v/>
       </c>
       <c r="D44" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!O2="","",_scrb1_day_twoshift!O2)</f>
+        <f>IF(_scrb1_day_twoshift!W2="","",_scrb1_day_twoshift!W2)</f>
         <v/>
       </c>
       <c r="E44" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!R2="","",_scrb1_day_twoshift!R2)</f>
+        <f>IF(_scrb1_day_twoshift!Z2="","",_scrb1_day_twoshift!Z2)</f>
         <v/>
       </c>
       <c r="F44" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!U2="","",_scrb1_day_twoshift!U2)</f>
+        <f>IF(_scrb1_day_twoshift!AC2="","",_scrb1_day_twoshift!AC2)</f>
         <v/>
       </c>
       <c r="G44" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!X2="","",_scrb1_day_twoshift!X2)</f>
+        <f>IF(_scrb1_day_twoshift!AF2="","",_scrb1_day_twoshift!AF2)</f>
         <v/>
       </c>
       <c r="H44" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AA2="","",_scrb1_day_twoshift!AA2)</f>
+        <f>IF(_scrb1_day_twoshift!AI2="","",_scrb1_day_twoshift!AI2)</f>
         <v/>
       </c>
       <c r="I44" s="66"/>
@@ -5408,20 +5428,20 @@
         <v>26</v>
       </c>
       <c r="K44" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!DB2="","",_scrb1_day_twoshift!DB2)</f>
+        <f>IF(_scrb1_day_twoshift!DJ2="","",_scrb1_day_twoshift!DJ2)</f>
         <v/>
       </c>
       <c r="L44" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!DC2="","",_scrb1_day_twoshift!DC2)</f>
+        <f>IF(_scrb1_day_twoshift!DK2="","",_scrb1_day_twoshift!DK2)</f>
         <v/>
       </c>
       <c r="M44" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!DD2="","",_scrb1_day_twoshift!DD2)</f>
+        <f>IF(_scrb1_day_twoshift!DL2="","",_scrb1_day_twoshift!DL2)</f>
         <v/>
       </c>
       <c r="N44" s="55"/>
       <c r="O44" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!DE2="","",_scrb1_day_twoshift!DE2)</f>
+        <f>IF(_scrb1_day_twoshift!DM2="","",_scrb1_day_twoshift!DM2)</f>
         <v/>
       </c>
       <c r="P44" s="68"/>
@@ -5450,20 +5470,20 @@
         <v>28</v>
       </c>
       <c r="K45" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!DB3="","",_scrb1_day_twoshift!DB3)</f>
+        <f>IF(_scrb1_day_twoshift!DJ3="","",_scrb1_day_twoshift!DJ3)</f>
         <v/>
       </c>
       <c r="L45" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!DC3="","",_scrb1_day_twoshift!DC3)</f>
+        <f>IF(_scrb1_day_twoshift!DK3="","",_scrb1_day_twoshift!DK3)</f>
         <v/>
       </c>
       <c r="M45" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!DD3="","",_scrb1_day_twoshift!DD3)</f>
+        <f>IF(_scrb1_day_twoshift!DL3="","",_scrb1_day_twoshift!DL3)</f>
         <v/>
       </c>
       <c r="N45" s="55"/>
       <c r="O45" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!DE3="","",_scrb1_day_twoshift!DE3)</f>
+        <f>IF(_scrb1_day_twoshift!DM3="","",_scrb1_day_twoshift!DM3)</f>
         <v/>
       </c>
       <c r="P45" s="68"/>
@@ -5480,19 +5500,19 @@
     </row>
     <row r="46" ht="13.5" spans="1:20">
       <c r="A46" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -5532,107 +5552,107 @@
         <v>23</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q47" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S47" s="76"/>
       <c r="T47" s="76"/>
     </row>
     <row r="48" ht="13.5" spans="1:20">
       <c r="A48" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AC2="","",_scrb1_day_twoshift!AC2)</f>
+        <f>IF(_scrb1_day_twoshift!AK2="","",_scrb1_day_twoshift!AK2)</f>
         <v/>
       </c>
       <c r="D48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AD2="","",_scrb1_day_twoshift!AD2)</f>
+        <f>IF(_scrb1_day_twoshift!AL2="","",_scrb1_day_twoshift!AL2)</f>
         <v/>
       </c>
       <c r="E48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AE2="","",_scrb1_day_twoshift!AE2)</f>
+        <f>IF(_scrb1_day_twoshift!AM2="","",_scrb1_day_twoshift!AM2)</f>
         <v/>
       </c>
       <c r="F48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AF2="","",_scrb1_day_twoshift!AF2)</f>
+        <f>IF(_scrb1_day_twoshift!AN2="","",_scrb1_day_twoshift!AN2)</f>
         <v/>
       </c>
       <c r="G48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AG2="","",_scrb1_day_twoshift!AG2)</f>
+        <f>IF(_scrb1_day_twoshift!AO2="","",_scrb1_day_twoshift!AO2)</f>
         <v/>
       </c>
       <c r="H48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AH2="","",_scrb1_day_twoshift!AH2)</f>
+        <f>IF(_scrb1_day_twoshift!AP2="","",_scrb1_day_twoshift!AP2)</f>
         <v/>
       </c>
       <c r="I48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AI2="","",_scrb1_day_twoshift!AI2)</f>
+        <f>IF(_scrb1_day_twoshift!AQ2="","",_scrb1_day_twoshift!AQ2)</f>
         <v/>
       </c>
       <c r="J48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AJ2="","",_scrb1_day_twoshift!AJ2)</f>
+        <f>IF(_scrb1_day_twoshift!AR2="","",_scrb1_day_twoshift!AR2)</f>
         <v/>
       </c>
       <c r="K48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AK2="","",_scrb1_day_twoshift!AK2)</f>
+        <f>IF(_scrb1_day_twoshift!AS2="","",_scrb1_day_twoshift!AS2)</f>
         <v/>
       </c>
       <c r="L48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AL2="","",_scrb1_day_twoshift!AL2)</f>
+        <f>IF(_scrb1_day_twoshift!AT2="","",_scrb1_day_twoshift!AT2)</f>
         <v/>
       </c>
       <c r="M48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AM2="","",_scrb1_day_twoshift!AM2)</f>
+        <f>IF(_scrb1_day_twoshift!AU2="","",_scrb1_day_twoshift!AU2)</f>
         <v/>
       </c>
       <c r="N48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AN2="","",_scrb1_day_twoshift!AN2)</f>
+        <f>IF(_scrb1_day_twoshift!AV2="","",_scrb1_day_twoshift!AV2)</f>
         <v/>
       </c>
       <c r="O48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AO2="","",_scrb1_day_twoshift!AO2)</f>
+        <f>IF(_scrb1_day_twoshift!AW2="","",_scrb1_day_twoshift!AW2)</f>
         <v/>
       </c>
       <c r="P48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AP2="","",_scrb1_day_twoshift!AP2)</f>
+        <f>IF(_scrb1_day_twoshift!AX2="","",_scrb1_day_twoshift!AX2)</f>
         <v/>
       </c>
       <c r="Q48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AQ2="","",_scrb1_day_twoshift!AQ2)</f>
+        <f>IF(_scrb1_day_twoshift!AY2="","",_scrb1_day_twoshift!AY2)</f>
         <v/>
       </c>
       <c r="R48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AR2="","",_scrb1_day_twoshift!AR2)</f>
+        <f>IF(_scrb1_day_twoshift!AZ2="","",_scrb1_day_twoshift!AZ2)</f>
         <v/>
       </c>
       <c r="S48" s="76"/>
@@ -5641,70 +5661,70 @@
     <row r="49" ht="13.5" spans="1:20">
       <c r="A49" s="13"/>
       <c r="B49" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AC3="","",_scrb1_day_twoshift!AC3)</f>
+        <f>IF(_scrb1_day_twoshift!AK3="","",_scrb1_day_twoshift!AK3)</f>
         <v/>
       </c>
       <c r="D49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AD3="","",_scrb1_day_twoshift!AD3)</f>
+        <f>IF(_scrb1_day_twoshift!AL3="","",_scrb1_day_twoshift!AL3)</f>
         <v/>
       </c>
       <c r="E49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AE3="","",_scrb1_day_twoshift!AE3)</f>
+        <f>IF(_scrb1_day_twoshift!AM3="","",_scrb1_day_twoshift!AM3)</f>
         <v/>
       </c>
       <c r="F49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AF3="","",_scrb1_day_twoshift!AF3)</f>
+        <f>IF(_scrb1_day_twoshift!AN3="","",_scrb1_day_twoshift!AN3)</f>
         <v/>
       </c>
       <c r="G49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AG3="","",_scrb1_day_twoshift!AG3)</f>
+        <f>IF(_scrb1_day_twoshift!AO3="","",_scrb1_day_twoshift!AO3)</f>
         <v/>
       </c>
       <c r="H49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AH3="","",_scrb1_day_twoshift!AH3)</f>
+        <f>IF(_scrb1_day_twoshift!AP3="","",_scrb1_day_twoshift!AP3)</f>
         <v/>
       </c>
       <c r="I49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AI3="","",_scrb1_day_twoshift!AI3)</f>
+        <f>IF(_scrb1_day_twoshift!AQ3="","",_scrb1_day_twoshift!AQ3)</f>
         <v/>
       </c>
       <c r="J49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AJ3="","",_scrb1_day_twoshift!AJ3)</f>
+        <f>IF(_scrb1_day_twoshift!AR3="","",_scrb1_day_twoshift!AR3)</f>
         <v/>
       </c>
       <c r="K49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AK3="","",_scrb1_day_twoshift!AK3)</f>
+        <f>IF(_scrb1_day_twoshift!AS3="","",_scrb1_day_twoshift!AS3)</f>
         <v/>
       </c>
       <c r="L49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AL3="","",_scrb1_day_twoshift!AL3)</f>
+        <f>IF(_scrb1_day_twoshift!AT3="","",_scrb1_day_twoshift!AT3)</f>
         <v/>
       </c>
       <c r="M49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AM3="","",_scrb1_day_twoshift!AM3)</f>
+        <f>IF(_scrb1_day_twoshift!AU3="","",_scrb1_day_twoshift!AU3)</f>
         <v/>
       </c>
       <c r="N49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AN3="","",_scrb1_day_twoshift!AN3)</f>
+        <f>IF(_scrb1_day_twoshift!AV3="","",_scrb1_day_twoshift!AV3)</f>
         <v/>
       </c>
       <c r="O49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AO3="","",_scrb1_day_twoshift!AO3)</f>
+        <f>IF(_scrb1_day_twoshift!AW3="","",_scrb1_day_twoshift!AW3)</f>
         <v/>
       </c>
       <c r="P49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AP3="","",_scrb1_day_twoshift!AP3)</f>
+        <f>IF(_scrb1_day_twoshift!AX3="","",_scrb1_day_twoshift!AX3)</f>
         <v/>
       </c>
       <c r="Q49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AQ3="","",_scrb1_day_twoshift!AQ3)</f>
+        <f>IF(_scrb1_day_twoshift!AY3="","",_scrb1_day_twoshift!AY3)</f>
         <v/>
       </c>
       <c r="R49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AR3="","",_scrb1_day_twoshift!AR3)</f>
+        <f>IF(_scrb1_day_twoshift!AZ3="","",_scrb1_day_twoshift!AZ3)</f>
         <v/>
       </c>
       <c r="S49" s="76"/>
@@ -5712,73 +5732,73 @@
     </row>
     <row r="50" ht="13.5" spans="1:20">
       <c r="A50" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AT2="","",_scrb1_day_twoshift!AT2)</f>
+        <f>IF(_scrb1_day_twoshift!BB2="","",_scrb1_day_twoshift!BB2)</f>
         <v/>
       </c>
       <c r="D50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AU2="","",_scrb1_day_twoshift!AU2)</f>
+        <f>IF(_scrb1_day_twoshift!BC2="","",_scrb1_day_twoshift!BC2)</f>
         <v/>
       </c>
       <c r="E50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AV2="","",_scrb1_day_twoshift!AV2)</f>
+        <f>IF(_scrb1_day_twoshift!BD2="","",_scrb1_day_twoshift!BD2)</f>
         <v/>
       </c>
       <c r="F50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AW2="","",_scrb1_day_twoshift!AW2)</f>
+        <f>IF(_scrb1_day_twoshift!BE2="","",_scrb1_day_twoshift!BE2)</f>
         <v/>
       </c>
       <c r="G50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AX2="","",_scrb1_day_twoshift!AX2)</f>
+        <f>IF(_scrb1_day_twoshift!BF2="","",_scrb1_day_twoshift!BF2)</f>
         <v/>
       </c>
       <c r="H50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AY2="","",_scrb1_day_twoshift!AY2)</f>
+        <f>IF(_scrb1_day_twoshift!BG2="","",_scrb1_day_twoshift!BG2)</f>
         <v/>
       </c>
       <c r="I50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AZ2="","",_scrb1_day_twoshift!AZ2)</f>
+        <f>IF(_scrb1_day_twoshift!BH2="","",_scrb1_day_twoshift!BH2)</f>
         <v/>
       </c>
       <c r="J50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BA2="","",_scrb1_day_twoshift!BA2)</f>
+        <f>IF(_scrb1_day_twoshift!BI2="","",_scrb1_day_twoshift!BI2)</f>
         <v/>
       </c>
       <c r="K50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BB2="","",_scrb1_day_twoshift!BB2)</f>
+        <f>IF(_scrb1_day_twoshift!BJ2="","",_scrb1_day_twoshift!BJ2)</f>
         <v/>
       </c>
       <c r="L50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BC2="","",_scrb1_day_twoshift!BC2)</f>
+        <f>IF(_scrb1_day_twoshift!BK2="","",_scrb1_day_twoshift!BK2)</f>
         <v/>
       </c>
       <c r="M50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BD2="","",_scrb1_day_twoshift!BD2)</f>
+        <f>IF(_scrb1_day_twoshift!BL2="","",_scrb1_day_twoshift!BL2)</f>
         <v/>
       </c>
       <c r="N50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BE2="","",_scrb1_day_twoshift!BE2)</f>
+        <f>IF(_scrb1_day_twoshift!BM2="","",_scrb1_day_twoshift!BM2)</f>
         <v/>
       </c>
       <c r="O50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BF2="","",_scrb1_day_twoshift!BF2)</f>
+        <f>IF(_scrb1_day_twoshift!BN2="","",_scrb1_day_twoshift!BN2)</f>
         <v/>
       </c>
       <c r="P50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BG2="","",_scrb1_day_twoshift!BG2)</f>
+        <f>IF(_scrb1_day_twoshift!BO2="","",_scrb1_day_twoshift!BO2)</f>
         <v/>
       </c>
       <c r="Q50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BH2="","",_scrb1_day_twoshift!BH2)</f>
+        <f>IF(_scrb1_day_twoshift!BP2="","",_scrb1_day_twoshift!BP2)</f>
         <v/>
       </c>
       <c r="R50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BI2="","",_scrb1_day_twoshift!BI2)</f>
+        <f>IF(_scrb1_day_twoshift!BQ2="","",_scrb1_day_twoshift!BQ2)</f>
         <v/>
       </c>
       <c r="S50" s="76"/>
@@ -5787,70 +5807,70 @@
     <row r="51" ht="13.5" spans="1:20">
       <c r="A51" s="13"/>
       <c r="B51" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C51" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AT3="","",_scrb1_day_twoshift!AT3)</f>
+        <f>IF(_scrb1_day_twoshift!BB3="","",_scrb1_day_twoshift!BB3)</f>
         <v/>
       </c>
       <c r="D51" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AU3="","",_scrb1_day_twoshift!AU3)</f>
+        <f>IF(_scrb1_day_twoshift!BC3="","",_scrb1_day_twoshift!BC3)</f>
         <v/>
       </c>
       <c r="E51" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AV3="","",_scrb1_day_twoshift!AV3)</f>
+        <f>IF(_scrb1_day_twoshift!BD3="","",_scrb1_day_twoshift!BD3)</f>
         <v/>
       </c>
       <c r="F51" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AW3="","",_scrb1_day_twoshift!AW3)</f>
+        <f>IF(_scrb1_day_twoshift!BE3="","",_scrb1_day_twoshift!BE3)</f>
         <v/>
       </c>
       <c r="G51" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AX3="","",_scrb1_day_twoshift!AX3)</f>
+        <f>IF(_scrb1_day_twoshift!BF3="","",_scrb1_day_twoshift!BF3)</f>
         <v/>
       </c>
       <c r="H51" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AY3="","",_scrb1_day_twoshift!AY3)</f>
+        <f>IF(_scrb1_day_twoshift!BG3="","",_scrb1_day_twoshift!BG3)</f>
         <v/>
       </c>
       <c r="I51" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AZ3="","",_scrb1_day_twoshift!AZ3)</f>
+        <f>IF(_scrb1_day_twoshift!BH3="","",_scrb1_day_twoshift!BH3)</f>
         <v/>
       </c>
       <c r="J51" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BA3="","",_scrb1_day_twoshift!BA3)</f>
+        <f>IF(_scrb1_day_twoshift!BI3="","",_scrb1_day_twoshift!BI3)</f>
         <v/>
       </c>
       <c r="K51" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BB3="","",_scrb1_day_twoshift!BB3)</f>
+        <f>IF(_scrb1_day_twoshift!BJ3="","",_scrb1_day_twoshift!BJ3)</f>
         <v/>
       </c>
       <c r="L51" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BC3="","",_scrb1_day_twoshift!BC3)</f>
+        <f>IF(_scrb1_day_twoshift!BK3="","",_scrb1_day_twoshift!BK3)</f>
         <v/>
       </c>
       <c r="M51" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BD3="","",_scrb1_day_twoshift!BD3)</f>
+        <f>IF(_scrb1_day_twoshift!BL3="","",_scrb1_day_twoshift!BL3)</f>
         <v/>
       </c>
       <c r="N51" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BE3="","",_scrb1_day_twoshift!BE3)</f>
+        <f>IF(_scrb1_day_twoshift!BM3="","",_scrb1_day_twoshift!BM3)</f>
         <v/>
       </c>
       <c r="O51" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BF3="","",_scrb1_day_twoshift!BF3)</f>
+        <f>IF(_scrb1_day_twoshift!BN3="","",_scrb1_day_twoshift!BN3)</f>
         <v/>
       </c>
       <c r="P51" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BG3="","",_scrb1_day_twoshift!BG3)</f>
+        <f>IF(_scrb1_day_twoshift!BO3="","",_scrb1_day_twoshift!BO3)</f>
         <v/>
       </c>
       <c r="Q51" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BH3="","",_scrb1_day_twoshift!BH3)</f>
+        <f>IF(_scrb1_day_twoshift!BP3="","",_scrb1_day_twoshift!BP3)</f>
         <v/>
       </c>
       <c r="R51" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BI3="","",_scrb1_day_twoshift!BI3)</f>
+        <f>IF(_scrb1_day_twoshift!BQ3="","",_scrb1_day_twoshift!BQ3)</f>
         <v/>
       </c>
       <c r="S51" s="76"/>
@@ -5916,66 +5936,66 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:DE1"/>
+  <dimension ref="A1:DM1"/>
   <sheetViews>
-    <sheetView topLeftCell="CS1" workbookViewId="0">
-      <selection activeCell="CT1" sqref="CT1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="45" width="35.625" customWidth="1"/>
-    <col min="46" max="62" width="32.625" customWidth="1"/>
-    <col min="63" max="110" width="30.625" customWidth="1"/>
+    <col min="1" max="53" width="35.625" customWidth="1"/>
+    <col min="54" max="70" width="32.625" customWidth="1"/>
+    <col min="71" max="118" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109">
+    <row r="1" spans="1:117">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J1" t="s">
         <v>175</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="L1" t="s">
+      <c r="J1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M1" t="s">
+      <c r="K1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="N1" t="s">
+      <c r="L1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="O1" t="s">
+      <c r="M1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="P1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="P1" s="1" t="s">
         <v>182</v>
       </c>
       <c r="R1" t="s">
@@ -6008,28 +6028,28 @@
       <c r="AA1" t="s">
         <v>192</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AB1" t="s">
         <v>193</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AC1" t="s">
         <v>194</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AD1" t="s">
         <v>195</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AE1" t="s">
         <v>196</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AF1" t="s">
         <v>197</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AG1" t="s">
         <v>198</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AH1" t="s">
         <v>199</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AI1" t="s">
         <v>200</v>
       </c>
       <c r="AK1" s="1" t="s">
@@ -6056,28 +6076,28 @@
       <c r="AR1" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="AS1" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="AT1" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BA1" s="1" t="s">
         <v>216</v>
       </c>
       <c r="BB1" s="1" t="s">
@@ -6104,88 +6124,88 @@
       <c r="BI1" s="1" t="s">
         <v>224</v>
       </c>
+      <c r="BJ1" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="BK1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BP1" t="s">
         <v>229</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>236</v>
       </c>
       <c r="BX1" t="s">
         <v>237</v>
       </c>
+      <c r="BY1" t="s">
+        <v>238</v>
+      </c>
       <c r="BZ1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="CA1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CB1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CC1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CD1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="CE1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="CF1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="CH1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="CI1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CJ1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CK1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="CL1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CM1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CN1" t="s">
-        <v>251</v>
-      </c>
-      <c r="CO1" t="s">
         <v>252</v>
       </c>
       <c r="CP1" t="s">
@@ -6218,20 +6238,44 @@
       <c r="CY1" t="s">
         <v>262</v>
       </c>
+      <c r="CZ1" t="s">
+        <v>263</v>
+      </c>
       <c r="DA1" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="DB1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="DC1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="DD1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="DE1" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>270</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>143</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>271</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>272</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>273</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -6253,7 +6297,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B1">
         <v>4</v>

--- a/excel/finished/wg4#烧结/4烧结生产报表.xlsx
+++ b/excel/finished/wg4#烧结/4烧结生产报表.xlsx
@@ -161,6 +161,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>台时能力</t>
     </r>
     <r>
@@ -2066,11 +2072,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2099,38 +2105,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2146,7 +2130,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2160,23 +2159,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2190,9 +2195,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2206,40 +2241,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2277,19 +2283,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2301,19 +2301,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2325,31 +2355,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2361,61 +2379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2433,7 +2397,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2445,7 +2451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2654,15 +2660,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2674,21 +2671,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2708,11 +2690,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2734,6 +2722,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2743,11 +2751,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2757,10 +2763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2769,19 +2775,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2790,112 +2796,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3499,7 +3505,7 @@
       <c r="W2" s="5"/>
       <c r="X2" s="6"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" ht="13.5" spans="1:24">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -3927,7 +3933,10 @@
         <f>IF(_scrb1_day_twoshift!K2="","",_scrb1_day_twoshift!K2)</f>
         <v/>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!K3="","",_scrb1_day_twoshift!K3)</f>
+        <v/>
+      </c>
       <c r="D10" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!L3="","",_scrb1_day_twoshift!L3)</f>
         <v/>
@@ -3962,7 +3971,10 @@
         <f>IF(_scrb1_day_twoshift!M2="","",_scrb1_day_twoshift!M2)</f>
         <v/>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!M3="","",_scrb1_day_twoshift!M3)</f>
+        <v/>
+      </c>
       <c r="D11" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!N3="","",_scrb1_day_twoshift!N3)</f>
         <v/>
@@ -4027,7 +4039,7 @@
       <c r="W12" s="36"/>
       <c r="X12" s="69"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" ht="13.5" spans="1:24">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>

--- a/excel/finished/wg4#烧结/4烧结生产报表.xlsx
+++ b/excel/finished/wg4#烧结/4烧结生产报表.xlsx
@@ -2071,12 +2071,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2105,39 +2106,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2145,28 +2137,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2181,9 +2152,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2195,9 +2166,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2205,7 +2198,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2219,6 +2212,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2234,18 +2235,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2277,7 +2278,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2289,91 +2410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2385,31 +2428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2421,37 +2446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2661,6 +2662,59 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2671,36 +2725,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2720,40 +2744,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2763,149 +2764,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3043,10 +3044,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3055,50 +3062,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -3955,13 +3965,13 @@
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
       <c r="T10" s="36"/>
-      <c r="U10" s="69" t="str">
+      <c r="U10" s="72" t="str">
         <f>IF(SUM(S10:T10)=0,"",SUM(S10:T10))</f>
         <v/>
       </c>
       <c r="V10" s="36"/>
       <c r="W10" s="36"/>
-      <c r="X10" s="69"/>
+      <c r="X10" s="72"/>
     </row>
     <row r="11" ht="13.5" spans="1:24">
       <c r="A11" s="8" t="s">
@@ -3993,13 +4003,13 @@
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
       <c r="T11" s="36"/>
-      <c r="U11" s="69" t="str">
+      <c r="U11" s="72" t="str">
         <f>IF(SUM(S11:T11)=0,"",SUM(S11:T11))</f>
         <v/>
       </c>
       <c r="V11" s="36"/>
       <c r="W11" s="36"/>
-      <c r="X11" s="69"/>
+      <c r="X11" s="72"/>
     </row>
     <row r="12" ht="13.5" spans="1:24">
       <c r="A12" s="7" t="s">
@@ -4031,13 +4041,13 @@
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
       <c r="T12" s="36"/>
-      <c r="U12" s="69" t="str">
+      <c r="U12" s="72" t="str">
         <f>IF(SUM(S12:T12)=0,"",SUM(S12:T12))</f>
         <v/>
       </c>
       <c r="V12" s="36"/>
       <c r="W12" s="36"/>
-      <c r="X12" s="69"/>
+      <c r="X12" s="72"/>
     </row>
     <row r="13" ht="13.5" spans="1:24">
       <c r="A13" s="9"/>
@@ -4062,13 +4072,13 @@
       <c r="R13" s="36"/>
       <c r="S13" s="36"/>
       <c r="T13" s="36"/>
-      <c r="U13" s="69" t="str">
+      <c r="U13" s="72" t="str">
         <f>IF(SUM(S13:T13)=0,"",SUM(S13:T13))</f>
         <v/>
       </c>
       <c r="V13" s="36"/>
       <c r="W13" s="36"/>
-      <c r="X13" s="69"/>
+      <c r="X13" s="72"/>
     </row>
     <row r="14" ht="13.5" spans="1:24">
       <c r="A14" s="7" t="s">
@@ -4098,10 +4108,10 @@
       <c r="R14" s="39"/>
       <c r="S14" s="39"/>
       <c r="T14" s="39"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="39"/>
       <c r="W14" s="39"/>
-      <c r="X14" s="70"/>
+      <c r="X14" s="73"/>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:24">
       <c r="A15" s="11" t="s">
@@ -4125,10 +4135,10 @@
       <c r="R15" s="36"/>
       <c r="S15" s="36"/>
       <c r="T15" s="36"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="36"/>
       <c r="W15" s="36"/>
-      <c r="X15" s="69"/>
+      <c r="X15" s="72"/>
     </row>
     <row r="16" ht="28" customHeight="1" spans="1:24">
       <c r="A16" s="12"/>
@@ -4174,7 +4184,7 @@
       </c>
       <c r="S16" s="36"/>
       <c r="T16" s="36"/>
-      <c r="U16" s="69" t="str">
+      <c r="U16" s="72" t="str">
         <f>IFERROR(AVERAGE(U10:U13),"")</f>
         <v/>
       </c>
@@ -4186,7 +4196,7 @@
         <f>IFERROR(AVERAGE(W10:W13),"")</f>
         <v/>
       </c>
-      <c r="X16" s="69" t="str">
+      <c r="X16" s="72" t="str">
         <f>IFERROR(AVERAGE(X10:X13),"")</f>
         <v/>
       </c>
@@ -4250,12 +4260,12 @@
       <c r="R18" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
       <c r="U18" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="V18" s="53" t="s">
+      <c r="V18" s="68" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4293,12 +4303,12 @@
       <c r="R19" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
       <c r="U19" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="V19" s="55" t="s">
+      <c r="V19" s="70" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4343,12 +4353,12 @@
         <f>IF(_scrb1_day_twoshift!CN2="","",_scrb1_day_twoshift!CN2)</f>
         <v/>
       </c>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
       <c r="U20" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="V20" s="55"/>
+      <c r="V20" s="70"/>
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:22">
       <c r="A21" s="12"/>
@@ -4391,12 +4401,12 @@
         <f>IF(_scrb1_day_twoshift!CN3="","",_scrb1_day_twoshift!CN3)</f>
         <v/>
       </c>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
       <c r="U21" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="V21" s="55"/>
+      <c r="V21" s="70"/>
     </row>
     <row r="22" ht="26" customHeight="1" spans="1:22">
       <c r="A22" s="13"/>
@@ -4443,11 +4453,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S22" s="55">
+      <c r="S22" s="70">
         <f>SUM(S20:S21)</f>
         <v>0</v>
       </c>
-      <c r="T22" s="55">
+      <c r="T22" s="70">
         <f>SUM(T20:T21)</f>
         <v>0</v>
       </c>
@@ -4455,7 +4465,7 @@
         <f>SUM(U20:U21)</f>
         <v>0</v>
       </c>
-      <c r="V22" s="55"/>
+      <c r="V22" s="70"/>
     </row>
     <row r="23" ht="26.25" spans="1:37">
       <c r="A23" s="14" t="s">
@@ -4521,20 +4531,20 @@
       <c r="L24" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="M24" s="6"/>
-      <c r="N24" s="49" t="s">
+      <c r="M24" s="49"/>
+      <c r="N24" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="O24" s="42" t="s">
+      <c r="O24" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="P24" s="50"/>
+      <c r="P24" s="52"/>
       <c r="Q24" s="15" t="s">
         <v>96</v>
       </c>
       <c r="R24" s="16"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="74"/>
     </row>
     <row r="25" ht="28" customHeight="1" spans="1:20">
       <c r="A25" s="19"/>
@@ -4543,10 +4553,10 @@
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="51" t="s">
+      <c r="J25" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="51" t="s">
+      <c r="K25" s="53" t="s">
         <v>28</v>
       </c>
       <c r="L25" s="7" t="s">
@@ -4555,11 +4565,11 @@
       <c r="M25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="53" t="s">
+      <c r="N25" s="54"/>
+      <c r="O25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="53" t="s">
+      <c r="P25" s="14" t="s">
         <v>28</v>
       </c>
       <c r="Q25" s="14" t="s">
@@ -4568,8 +4578,8 @@
       <c r="R25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="74"/>
     </row>
     <row r="26" ht="21" customHeight="1" spans="1:20">
       <c r="A26" s="19"/>
@@ -4596,15 +4606,17 @@
         <f>IF(_scrb1_day_twoshift!CQ3="","",_scrb1_day_twoshift!CQ3)</f>
         <v/>
       </c>
-      <c r="N26" s="54">
+      <c r="N26" s="55">
         <f t="shared" ref="N26:N31" si="3">SUM(J26:M26)</f>
         <v>0</v>
       </c>
-      <c r="O26" s="55">
-        <v>0.91</v>
-      </c>
-      <c r="P26" s="55">
-        <v>0.85</v>
+      <c r="O26" s="56" t="str">
+        <f>IFERROR(B4/12*L26,"")</f>
+        <v/>
+      </c>
+      <c r="P26" s="56" t="str">
+        <f>IFERROR(C4/12*M26,"")</f>
+        <v/>
       </c>
       <c r="Q26" s="17" t="str">
         <f>IF(_scrb1_day_twoshift!DB2="","",_scrb1_day_twoshift!DB2)</f>
@@ -4614,8 +4626,8 @@
         <f>IF(_scrb1_day_twoshift!DB3="","",_scrb1_day_twoshift!DB3)</f>
         <v/>
       </c>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
     </row>
     <row r="27" ht="21" customHeight="1" spans="1:20">
       <c r="A27" s="19"/>
@@ -4642,15 +4654,17 @@
         <f>IF(_scrb1_day_twoshift!CS3="","",_scrb1_day_twoshift!CS3)</f>
         <v/>
       </c>
-      <c r="N27" s="54">
+      <c r="N27" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O27" s="55">
-        <v>0.05</v>
-      </c>
-      <c r="P27" s="55">
-        <v>0.04</v>
+      <c r="O27" s="56" t="str">
+        <f>IFERROR(B4/12*L27,"")</f>
+        <v/>
+      </c>
+      <c r="P27" s="56" t="str">
+        <f>IFERROR(C4/12*M27,"")</f>
+        <v/>
       </c>
       <c r="Q27" s="17" t="str">
         <f>IF(_scrb1_day_twoshift!DC2="","",_scrb1_day_twoshift!DC2)</f>
@@ -4660,8 +4674,8 @@
         <f>IF(_scrb1_day_twoshift!DC3="","",_scrb1_day_twoshift!DC3)</f>
         <v/>
       </c>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="74"/>
     </row>
     <row r="28" ht="24" customHeight="1" spans="1:20">
       <c r="A28" s="19"/>
@@ -4673,7 +4687,7 @@
         <v>99</v>
       </c>
       <c r="J28" s="30" t="str">
-        <f>IF(_scrb1_day_twoshift!CQ4="","",_scrb1_day_twoshift!CQ4)</f>
+        <f>IF(_scrb1_day_twoshift!CT2="","",_scrb1_day_twoshift!CT2)</f>
         <v/>
       </c>
       <c r="K28" s="30" t="str">
@@ -4688,15 +4702,17 @@
         <f>IF(_scrb1_day_twoshift!CU3="","",_scrb1_day_twoshift!CU3)</f>
         <v/>
       </c>
-      <c r="N28" s="54">
+      <c r="N28" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O28" s="55">
-        <v>0.1</v>
-      </c>
-      <c r="P28" s="55">
-        <v>0.1</v>
+      <c r="O28" s="56" t="str">
+        <f>IFERROR(B4/12*L28,"")</f>
+        <v/>
+      </c>
+      <c r="P28" s="56" t="str">
+        <f>IFERROR(C4/12*M28,"")</f>
+        <v/>
       </c>
       <c r="Q28" s="17" t="str">
         <f>IF(_scrb1_day_twoshift!DD2="","",_scrb1_day_twoshift!DD2)</f>
@@ -4706,8 +4722,8 @@
         <f>IF(_scrb1_day_twoshift!DD3="","",_scrb1_day_twoshift!DD3)</f>
         <v/>
       </c>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="74"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:20">
       <c r="A29" s="19"/>
@@ -4734,15 +4750,17 @@
         <f>IF(_scrb1_day_twoshift!CW3="","",_scrb1_day_twoshift!CW3)</f>
         <v/>
       </c>
-      <c r="N29" s="54">
+      <c r="N29" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O29" s="55">
-        <v>0.06</v>
-      </c>
-      <c r="P29" s="55">
-        <v>0.06</v>
+      <c r="O29" s="56" t="str">
+        <f>IFERROR(B4/12*L29,"")</f>
+        <v/>
+      </c>
+      <c r="P29" s="56" t="str">
+        <f>IFERROR(C4/12*M29,"")</f>
+        <v/>
       </c>
       <c r="Q29" s="17" t="str">
         <f>IF(_scrb1_day_twoshift!DE2="","",_scrb1_day_twoshift!DE2)</f>
@@ -4752,8 +4770,8 @@
         <f>IF(_scrb1_day_twoshift!DE3="","",_scrb1_day_twoshift!DE3)</f>
         <v/>
       </c>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="74"/>
     </row>
     <row r="30" ht="26" customHeight="1" spans="1:20">
       <c r="A30" s="19"/>
@@ -4780,15 +4798,17 @@
         <f>IF(_scrb1_day_twoshift!CY3="","",_scrb1_day_twoshift!CY3)</f>
         <v/>
       </c>
-      <c r="N30" s="54">
+      <c r="N30" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O30" s="55">
-        <v>0.43</v>
-      </c>
-      <c r="P30" s="55">
-        <v>0.4</v>
+      <c r="O30" s="56" t="str">
+        <f>IFERROR(B4/12*L30,"")</f>
+        <v/>
+      </c>
+      <c r="P30" s="56" t="str">
+        <f>IFERROR(C4/12*M30,"")</f>
+        <v/>
       </c>
       <c r="Q30" s="17" t="str">
         <f>IF(_scrb1_day_twoshift!DF2="","",_scrb1_day_twoshift!DF2)</f>
@@ -4798,8 +4818,8 @@
         <f>IF(_scrb1_day_twoshift!DF3="","",_scrb1_day_twoshift!DF3)</f>
         <v/>
       </c>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
+      <c r="S30" s="74"/>
+      <c r="T30" s="74"/>
     </row>
     <row r="31" ht="26" customHeight="1" spans="1:20">
       <c r="A31" s="20"/>
@@ -4810,11 +4830,11 @@
       <c r="I31" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="J31" s="56" t="str">
+      <c r="J31" s="57" t="str">
         <f>IF(_scrb1_day_twoshift!CZ2="","",_scrb1_day_twoshift!CZ2)</f>
         <v/>
       </c>
-      <c r="K31" s="56" t="str">
+      <c r="K31" s="57" t="str">
         <f>IF(_scrb1_day_twoshift!CZ3="","",_scrb1_day_twoshift!CZ3)</f>
         <v/>
       </c>
@@ -4830,11 +4850,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O31" s="55">
-        <v>0.06</v>
-      </c>
-      <c r="P31" s="55">
-        <v>0.06</v>
+      <c r="O31" s="56" t="str">
+        <f>IFERROR(B4/12*L31,"")</f>
+        <v/>
+      </c>
+      <c r="P31" s="56" t="str">
+        <f>IFERROR(C4/12*M31,"")</f>
+        <v/>
       </c>
       <c r="Q31" s="17" t="str">
         <f>IF(_scrb1_day_twoshift!DG2="","",_scrb1_day_twoshift!DG2)</f>
@@ -4844,8 +4866,8 @@
         <f>IF(_scrb1_day_twoshift!DG3="","",_scrb1_day_twoshift!DG3)</f>
         <v/>
       </c>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
+      <c r="S31" s="74"/>
+      <c r="T31" s="74"/>
     </row>
     <row r="32" ht="29" customHeight="1" spans="1:37">
       <c r="A32" s="14" t="s">
@@ -4905,7 +4927,7 @@
       <c r="E33" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="I33" s="57"/>
+      <c r="I33" s="58"/>
       <c r="J33" s="11" t="s">
         <v>108</v>
       </c>
@@ -4927,7 +4949,7 @@
       <c r="P33" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="Q33" s="72"/>
+      <c r="Q33" s="75"/>
       <c r="R33" s="4" t="s">
         <v>114</v>
       </c>
@@ -4949,8 +4971,8 @@
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="58" t="s">
+      <c r="I34" s="58"/>
+      <c r="J34" s="59" t="s">
         <v>115</v>
       </c>
       <c r="K34" s="17" t="s">
@@ -4968,8 +4990,8 @@
       <c r="O34" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="73"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="76"/>
       <c r="R34" s="8" t="s">
         <v>34</v>
       </c>
@@ -4990,7 +5012,7 @@
       <c r="Y34" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="Z34" s="53" t="s">
+      <c r="Z34" s="68" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5003,7 +5025,7 @@
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
-      <c r="I35" s="57"/>
+      <c r="I35" s="58"/>
       <c r="J35" s="12"/>
       <c r="K35" s="17" t="s">
         <v>119</v>
@@ -5020,8 +5042,8 @@
       <c r="O35" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="73"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="76"/>
       <c r="R35" s="8" t="s">
         <v>124</v>
       </c>
@@ -5042,7 +5064,7 @@
       <c r="Y35" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="Z35" s="55"/>
+      <c r="Z35" s="70"/>
     </row>
     <row r="36" ht="13.5" spans="1:26">
       <c r="A36" s="11" t="s">
@@ -5069,7 +5091,7 @@
       <c r="H36" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="I36" s="57"/>
+      <c r="I36" s="58"/>
       <c r="J36" s="13"/>
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
@@ -5088,7 +5110,7 @@
       <c r="W36" s="8"/>
       <c r="X36" s="8"/>
       <c r="Y36" s="17"/>
-      <c r="Z36" s="55"/>
+      <c r="Z36" s="70"/>
     </row>
     <row r="37" ht="13.5" spans="1:26">
       <c r="A37" s="13"/>
@@ -5111,13 +5133,13 @@
       <c r="H37" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="I37" s="57"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="61"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="62"/>
       <c r="P37" s="4" t="s">
         <v>139</v>
       </c>
@@ -5130,7 +5152,7 @@
       <c r="W37" s="8"/>
       <c r="X37" s="8"/>
       <c r="Y37" s="17"/>
-      <c r="Z37" s="55"/>
+      <c r="Z37" s="70"/>
     </row>
     <row r="38" ht="13.5" spans="1:26">
       <c r="A38" s="23" t="s">
@@ -5163,13 +5185,13 @@
         <f>IF(_scrb1_day_twoshift!AG2="","",_scrb1_day_twoshift!AG2)</f>
         <v/>
       </c>
-      <c r="I38" s="57"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="63"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="64"/>
       <c r="P38" s="4" t="s">
         <v>141</v>
       </c>
@@ -5182,7 +5204,7 @@
       <c r="W38" s="8"/>
       <c r="X38" s="8"/>
       <c r="Y38" s="17"/>
-      <c r="Z38" s="55"/>
+      <c r="Z38" s="70"/>
     </row>
     <row r="39" ht="13.5" spans="1:26">
       <c r="A39" s="13"/>
@@ -5213,13 +5235,13 @@
         <f>IF(_scrb1_day_twoshift!AG3="","",_scrb1_day_twoshift!AG3)</f>
         <v/>
       </c>
-      <c r="I39" s="57"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="63"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="64"/>
       <c r="P39" s="4" t="s">
         <v>99</v>
       </c>
@@ -5232,7 +5254,7 @@
       <c r="W39" s="8"/>
       <c r="X39" s="8"/>
       <c r="Y39" s="17"/>
-      <c r="Z39" s="55"/>
+      <c r="Z39" s="70"/>
     </row>
     <row r="40" ht="13.5" spans="1:26">
       <c r="A40" s="25"/>
@@ -5242,13 +5264,13 @@
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
       <c r="H40" s="27"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="63"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="64"/>
       <c r="P40" s="4" t="s">
         <v>100</v>
       </c>
@@ -5261,7 +5283,7 @@
       <c r="W40" s="8"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="17"/>
-      <c r="Z40" s="55"/>
+      <c r="Z40" s="70"/>
     </row>
     <row r="41" ht="13.5" spans="1:26">
       <c r="A41" s="23" t="s">
@@ -5294,13 +5316,13 @@
         <f>IF(_scrb1_day_twoshift!AH2="","",_scrb1_day_twoshift!AH2)</f>
         <v/>
       </c>
-      <c r="I41" s="57"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="65"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="66"/>
       <c r="P41" s="4" t="s">
         <v>101</v>
       </c>
@@ -5313,7 +5335,7 @@
       <c r="W41" s="8"/>
       <c r="X41" s="8"/>
       <c r="Y41" s="17"/>
-      <c r="Z41" s="55"/>
+      <c r="Z41" s="70"/>
     </row>
     <row r="42" ht="13.5" spans="1:26">
       <c r="A42" s="13"/>
@@ -5344,7 +5366,7 @@
         <f>IF(_scrb1_day_twoshift!AH3="","",_scrb1_day_twoshift!AH3)</f>
         <v/>
       </c>
-      <c r="I42" s="66"/>
+      <c r="I42" s="67"/>
       <c r="J42" s="11" t="s">
         <v>2</v>
       </c>
@@ -5367,7 +5389,7 @@
       <c r="W42" s="8"/>
       <c r="X42" s="8"/>
       <c r="Y42" s="17"/>
-      <c r="Z42" s="55"/>
+      <c r="Z42" s="70"/>
     </row>
     <row r="43" ht="13.5" spans="1:26">
       <c r="A43" s="25"/>
@@ -5377,7 +5399,7 @@
       <c r="F43" s="26"/>
       <c r="G43" s="26"/>
       <c r="H43" s="27"/>
-      <c r="I43" s="66"/>
+      <c r="I43" s="67"/>
       <c r="J43" s="13"/>
       <c r="K43" s="7" t="s">
         <v>144</v>
@@ -5388,23 +5410,23 @@
       <c r="M43" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="N43" s="53" t="s">
+      <c r="N43" s="68" t="s">
         <v>147</v>
       </c>
       <c r="O43" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="P43" s="67"/>
-      <c r="Q43" s="74"/>
-      <c r="R43" s="74"/>
-      <c r="S43" s="74"/>
-      <c r="T43" s="74"/>
-      <c r="U43" s="74"/>
-      <c r="V43" s="74"/>
-      <c r="W43" s="74"/>
-      <c r="X43" s="74"/>
-      <c r="Y43" s="74"/>
-      <c r="Z43" s="74"/>
+      <c r="P43" s="69"/>
+      <c r="Q43" s="77"/>
+      <c r="R43" s="77"/>
+      <c r="S43" s="77"/>
+      <c r="T43" s="77"/>
+      <c r="U43" s="77"/>
+      <c r="V43" s="77"/>
+      <c r="W43" s="77"/>
+      <c r="X43" s="77"/>
+      <c r="Y43" s="77"/>
+      <c r="Z43" s="77"/>
     </row>
     <row r="44" ht="13.5" spans="1:26">
       <c r="A44" s="4" t="s">
@@ -5435,7 +5457,7 @@
         <f>IF(_scrb1_day_twoshift!AI2="","",_scrb1_day_twoshift!AI2)</f>
         <v/>
       </c>
-      <c r="I44" s="66"/>
+      <c r="I44" s="67"/>
       <c r="J44" s="7" t="s">
         <v>26</v>
       </c>
@@ -5451,22 +5473,22 @@
         <f>IF(_scrb1_day_twoshift!DL2="","",_scrb1_day_twoshift!DL2)</f>
         <v/>
       </c>
-      <c r="N44" s="55"/>
+      <c r="N44" s="70"/>
       <c r="O44" s="17" t="str">
         <f>IF(_scrb1_day_twoshift!DM2="","",_scrb1_day_twoshift!DM2)</f>
         <v/>
       </c>
-      <c r="P44" s="68"/>
-      <c r="Q44" s="75"/>
-      <c r="R44" s="75"/>
-      <c r="S44" s="75"/>
-      <c r="T44" s="75"/>
-      <c r="U44" s="75"/>
-      <c r="V44" s="75"/>
-      <c r="W44" s="75"/>
-      <c r="X44" s="75"/>
-      <c r="Y44" s="75"/>
-      <c r="Z44" s="75"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="78"/>
+      <c r="R44" s="78"/>
+      <c r="S44" s="78"/>
+      <c r="T44" s="78"/>
+      <c r="U44" s="78"/>
+      <c r="V44" s="78"/>
+      <c r="W44" s="78"/>
+      <c r="X44" s="78"/>
+      <c r="Y44" s="78"/>
+      <c r="Z44" s="78"/>
     </row>
     <row r="45" ht="13.5" spans="1:26">
       <c r="A45" s="28"/>
@@ -5477,7 +5499,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
-      <c r="I45" s="66"/>
+      <c r="I45" s="67"/>
       <c r="J45" s="7" t="s">
         <v>28</v>
       </c>
@@ -5493,22 +5515,22 @@
         <f>IF(_scrb1_day_twoshift!DL3="","",_scrb1_day_twoshift!DL3)</f>
         <v/>
       </c>
-      <c r="N45" s="55"/>
+      <c r="N45" s="70"/>
       <c r="O45" s="17" t="str">
         <f>IF(_scrb1_day_twoshift!DM3="","",_scrb1_day_twoshift!DM3)</f>
         <v/>
       </c>
-      <c r="P45" s="68"/>
-      <c r="Q45" s="75"/>
-      <c r="R45" s="75"/>
-      <c r="S45" s="75"/>
-      <c r="T45" s="75"/>
-      <c r="U45" s="75"/>
-      <c r="V45" s="75"/>
-      <c r="W45" s="75"/>
-      <c r="X45" s="75"/>
-      <c r="Y45" s="75"/>
-      <c r="Z45" s="75"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="78"/>
+      <c r="R45" s="78"/>
+      <c r="S45" s="78"/>
+      <c r="T45" s="78"/>
+      <c r="U45" s="78"/>
+      <c r="V45" s="78"/>
+      <c r="W45" s="78"/>
+      <c r="X45" s="78"/>
+      <c r="Y45" s="78"/>
+      <c r="Z45" s="78"/>
     </row>
     <row r="46" ht="13.5" spans="1:20">
       <c r="A46" s="11" t="s">
@@ -5539,8 +5561,8 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="6"/>
-      <c r="S46" s="76"/>
-      <c r="T46" s="76"/>
+      <c r="S46" s="79"/>
+      <c r="T46" s="79"/>
     </row>
     <row r="47" ht="13.5" spans="1:20">
       <c r="A47" s="13"/>
@@ -5593,8 +5615,8 @@
       <c r="R47" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="S47" s="76"/>
-      <c r="T47" s="76"/>
+      <c r="S47" s="79"/>
+      <c r="T47" s="79"/>
     </row>
     <row r="48" ht="13.5" spans="1:20">
       <c r="A48" s="11" t="s">
@@ -5667,8 +5689,8 @@
         <f>IF(_scrb1_day_twoshift!AZ2="","",_scrb1_day_twoshift!AZ2)</f>
         <v/>
       </c>
-      <c r="S48" s="76"/>
-      <c r="T48" s="76"/>
+      <c r="S48" s="79"/>
+      <c r="T48" s="79"/>
     </row>
     <row r="49" ht="13.5" spans="1:20">
       <c r="A49" s="13"/>
@@ -5739,8 +5761,8 @@
         <f>IF(_scrb1_day_twoshift!AZ3="","",_scrb1_day_twoshift!AZ3)</f>
         <v/>
       </c>
-      <c r="S49" s="76"/>
-      <c r="T49" s="76"/>
+      <c r="S49" s="79"/>
+      <c r="T49" s="79"/>
     </row>
     <row r="50" ht="13.5" spans="1:20">
       <c r="A50" s="11" t="s">
@@ -5813,8 +5835,8 @@
         <f>IF(_scrb1_day_twoshift!BQ2="","",_scrb1_day_twoshift!BQ2)</f>
         <v/>
       </c>
-      <c r="S50" s="76"/>
-      <c r="T50" s="76"/>
+      <c r="S50" s="79"/>
+      <c r="T50" s="79"/>
     </row>
     <row r="51" ht="13.5" spans="1:20">
       <c r="A51" s="13"/>
@@ -5885,17 +5907,19 @@
         <f>IF(_scrb1_day_twoshift!BQ3="","",_scrb1_day_twoshift!BQ3)</f>
         <v/>
       </c>
-      <c r="S51" s="76"/>
-      <c r="T51" s="76"/>
+      <c r="S51" s="79"/>
+      <c r="T51" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="50">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="N2:X2"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="I23:AK23"/>
     <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="O24:P24"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="I32:AK32"/>
@@ -5950,7 +5974,7 @@
   <sheetPr/>
   <dimension ref="A1:DM1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="CO1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>

--- a/excel/finished/wg4#烧结/4烧结生产报表.xlsx
+++ b/excel/finished/wg4#烧结/4烧结生产报表.xlsx
@@ -2906,7 +2906,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2954,6 +2954,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3456,7 +3459,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AK51"/>
+  <dimension ref="A1:AK53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -3489,10 +3492,10 @@
       <c r="I2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="30" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="7" t="s">
@@ -3529,10 +3532,10 @@
         <v>11</v>
       </c>
       <c r="I3" s="13"/>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="31" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="8" t="s">
@@ -3590,19 +3593,19 @@
       <c r="I4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="30" t="str">
+      <c r="J4" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!BS2="","",_scrb1_day_twoshift!BS2)</f>
         <v/>
       </c>
-      <c r="K4" s="30" t="str">
+      <c r="K4" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!BT2="","",_scrb1_day_twoshift!BT2)</f>
         <v/>
       </c>
-      <c r="L4" s="30" t="str">
+      <c r="L4" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!BU2="","",_scrb1_day_twoshift!BU2)</f>
         <v/>
       </c>
-      <c r="M4" s="30" t="str">
+      <c r="M4" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!BV2="","",_scrb1_day_twoshift!BV2)</f>
         <v/>
       </c>
@@ -3664,19 +3667,19 @@
       <c r="I5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="30" t="str">
+      <c r="J5" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!BS3="","",_scrb1_day_twoshift!BS3)</f>
         <v/>
       </c>
-      <c r="K5" s="30" t="str">
+      <c r="K5" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!BT3="","",_scrb1_day_twoshift!BT3)</f>
         <v/>
       </c>
-      <c r="L5" s="30" t="str">
+      <c r="L5" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!BU3="","",_scrb1_day_twoshift!BU3)</f>
         <v/>
       </c>
-      <c r="M5" s="30" t="str">
+      <c r="M5" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!BV3="","",_scrb1_day_twoshift!BV3)</f>
         <v/>
       </c>
@@ -3738,44 +3741,44 @@
       <c r="I6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="30" t="str">
+      <c r="J6" s="31" t="str">
         <f t="shared" ref="J6:V6" si="0">IFERROR(AVERAGE(J4:J5),"")</f>
         <v/>
       </c>
-      <c r="K6" s="30" t="str">
+      <c r="K6" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L6" s="30" t="str">
+      <c r="L6" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M6" s="30" t="str">
+      <c r="M6" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N6" s="30" t="str">
+      <c r="N6" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O6" s="30" t="str">
+      <c r="O6" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P6" s="30" t="str">
+      <c r="P6" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q6" s="30" t="str">
+      <c r="Q6" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R6" s="30" t="str">
+      <c r="R6" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
       <c r="U6" s="8" t="str">
         <f>IFERROR(AVERAGE(U4:U5),"")</f>
         <v/>
@@ -3809,22 +3812,22 @@
         <f>IF(_scrb1_day_twoshift!H3="","",_scrb1_day_twoshift!H3)</f>
         <v/>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
     </row>
     <row r="8" ht="25.5" spans="1:24">
       <c r="A8" s="7" t="s">
@@ -3845,10 +3848,10 @@
       <c r="I8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="33" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="8" t="s">
@@ -3893,35 +3896,35 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="33" t="s">
+      <c r="J9" s="27"/>
+      <c r="K9" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="33" t="s">
+      <c r="L9" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="M9" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="N9" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="O9" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="34" t="s">
+      <c r="P9" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="Q9" s="34" t="s">
+      <c r="Q9" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="R9" s="34" t="s">
+      <c r="R9" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="S9" s="34" t="s">
+      <c r="S9" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="T9" s="34" t="s">
+      <c r="T9" s="35" t="s">
         <v>55</v>
       </c>
       <c r="U9" s="17"/>
@@ -3952,26 +3955,26 @@
         <v/>
       </c>
       <c r="I10" s="8"/>
-      <c r="J10" s="30">
+      <c r="J10" s="31">
         <v>2</v>
       </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="72" t="str">
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="73" t="str">
         <f>IF(SUM(S10:T10)=0,"",SUM(S10:T10))</f>
         <v/>
       </c>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="72"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="73"/>
     </row>
     <row r="11" ht="13.5" spans="1:24">
       <c r="A11" s="8" t="s">
@@ -3990,26 +3993,26 @@
         <v/>
       </c>
       <c r="I11" s="8"/>
-      <c r="J11" s="30">
+      <c r="J11" s="31">
         <v>5</v>
       </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="72" t="str">
+      <c r="K11" s="36"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="73" t="str">
         <f>IF(SUM(S11:T11)=0,"",SUM(S11:T11))</f>
         <v/>
       </c>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="72"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="73"/>
     </row>
     <row r="12" ht="13.5" spans="1:24">
       <c r="A12" s="7" t="s">
@@ -4028,26 +4031,26 @@
         <v/>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="30">
+      <c r="J12" s="31">
         <v>8</v>
       </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="72" t="str">
+      <c r="K12" s="36"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="73" t="str">
         <f>IF(SUM(S12:T12)=0,"",SUM(S12:T12))</f>
         <v/>
       </c>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="72"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="73"/>
     </row>
     <row r="13" ht="13.5" spans="1:24">
       <c r="A13" s="9"/>
@@ -4059,26 +4062,26 @@
       <c r="G13" s="9"/>
       <c r="H13" s="10"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="30">
+      <c r="J13" s="31">
         <v>11</v>
       </c>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="72" t="str">
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="73" t="str">
         <f>IF(SUM(S13:T13)=0,"",SUM(S13:T13))</f>
         <v/>
       </c>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="72"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="73"/>
     </row>
     <row r="14" ht="13.5" spans="1:24">
       <c r="A14" s="7" t="s">
@@ -4097,21 +4100,21 @@
         <v>65</v>
       </c>
       <c r="I14" s="8"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="73"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="74"/>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:24">
       <c r="A15" s="11" t="s">
@@ -4124,21 +4127,21 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="72"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="73"/>
     </row>
     <row r="16" ht="28" customHeight="1" spans="1:24">
       <c r="A16" s="12"/>
@@ -4149,54 +4152,54 @@
       <c r="I16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="35" t="str">
+      <c r="J16" s="31"/>
+      <c r="K16" s="36" t="str">
         <f>IFERROR(AVERAGE(K10:K13),"")</f>
         <v/>
       </c>
-      <c r="L16" s="36" t="str">
+      <c r="L16" s="37" t="str">
         <f t="shared" ref="L16:V16" si="1">IFERROR(AVERAGE(L10:L13),"")</f>
         <v/>
       </c>
-      <c r="M16" s="36" t="str">
+      <c r="M16" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N16" s="36" t="str">
+      <c r="N16" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O16" s="36" t="str">
+      <c r="O16" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P16" s="36" t="str">
+      <c r="P16" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q16" s="36" t="str">
+      <c r="Q16" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R16" s="36" t="str">
+      <c r="R16" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="72" t="str">
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="73" t="str">
         <f>IFERROR(AVERAGE(U10:U13),"")</f>
         <v/>
       </c>
-      <c r="V16" s="36" t="str">
+      <c r="V16" s="37" t="str">
         <f>IFERROR(AVERAGE(V10:V13),"")</f>
         <v/>
       </c>
-      <c r="W16" s="36" t="str">
+      <c r="W16" s="37" t="str">
         <f>IFERROR(AVERAGE(W10:W13),"")</f>
         <v/>
       </c>
-      <c r="X16" s="72" t="str">
+      <c r="X16" s="73" t="str">
         <f>IFERROR(AVERAGE(X10:X13),"")</f>
         <v/>
       </c>
@@ -4207,22 +4210,22 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:22">
       <c r="A18" s="12"/>
@@ -4233,10 +4236,10 @@
       <c r="I18" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="42" t="s">
+      <c r="J18" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="30" t="s">
+      <c r="K18" s="31" t="s">
         <v>68</v>
       </c>
       <c r="L18" s="8" t="s">
@@ -4260,12 +4263,12 @@
       <c r="R18" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
       <c r="U18" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="V18" s="68" t="s">
+      <c r="V18" s="69" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4276,10 +4279,10 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="43" t="s">
+      <c r="J19" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="K19" s="30" t="s">
+      <c r="K19" s="31" t="s">
         <v>79</v>
       </c>
       <c r="L19" s="8" t="s">
@@ -4303,12 +4306,12 @@
       <c r="R19" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
       <c r="U19" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="V19" s="70" t="s">
+      <c r="V19" s="71" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4321,28 +4324,28 @@
       <c r="I20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="43"/>
-      <c r="K20" s="30" t="str">
+      <c r="J20" s="44"/>
+      <c r="K20" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!CH2="","",_scrb1_day_twoshift!CH2)</f>
         <v/>
       </c>
-      <c r="L20" s="30" t="str">
+      <c r="L20" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!CI2="","",_scrb1_day_twoshift!CI2)</f>
         <v/>
       </c>
-      <c r="M20" s="30" t="str">
+      <c r="M20" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!CJ2="","",_scrb1_day_twoshift!CJ2)</f>
         <v/>
       </c>
-      <c r="N20" s="30" t="str">
+      <c r="N20" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!CK2="","",_scrb1_day_twoshift!CK2)</f>
         <v/>
       </c>
-      <c r="O20" s="30" t="str">
+      <c r="O20" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!CL2="","",_scrb1_day_twoshift!CL2)</f>
         <v/>
       </c>
-      <c r="P20" s="30" t="str">
+      <c r="P20" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!CM2="","",_scrb1_day_twoshift!CM2)</f>
         <v/>
       </c>
@@ -4353,12 +4356,12 @@
         <f>IF(_scrb1_day_twoshift!CN2="","",_scrb1_day_twoshift!CN2)</f>
         <v/>
       </c>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
       <c r="U20" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="V20" s="70"/>
+      <c r="V20" s="71"/>
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:22">
       <c r="A21" s="12"/>
@@ -4369,28 +4372,28 @@
       <c r="I21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="43"/>
-      <c r="K21" s="30" t="str">
+      <c r="J21" s="44"/>
+      <c r="K21" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!CH3="","",_scrb1_day_twoshift!CH3)</f>
         <v/>
       </c>
-      <c r="L21" s="30" t="str">
+      <c r="L21" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!CI3="","",_scrb1_day_twoshift!CI3)</f>
         <v/>
       </c>
-      <c r="M21" s="30" t="str">
+      <c r="M21" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!CJ3="","",_scrb1_day_twoshift!CJ3)</f>
         <v/>
       </c>
-      <c r="N21" s="30" t="str">
+      <c r="N21" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!CK3="","",_scrb1_day_twoshift!CK3)</f>
         <v/>
       </c>
-      <c r="O21" s="30" t="str">
+      <c r="O21" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!CL3="","",_scrb1_day_twoshift!CL3)</f>
         <v/>
       </c>
-      <c r="P21" s="30" t="str">
+      <c r="P21" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!CM3="","",_scrb1_day_twoshift!CM3)</f>
         <v/>
       </c>
@@ -4401,12 +4404,12 @@
         <f>IF(_scrb1_day_twoshift!CN3="","",_scrb1_day_twoshift!CN3)</f>
         <v/>
       </c>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
       <c r="U21" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="V21" s="70"/>
+      <c r="V21" s="71"/>
     </row>
     <row r="22" ht="26" customHeight="1" spans="1:22">
       <c r="A22" s="13"/>
@@ -4417,47 +4420,47 @@
       <c r="I22" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J22" s="43">
+      <c r="J22" s="44">
         <f t="shared" ref="J22:R22" si="2">IF(SUM(J20:J21)="","",SUM(J20:J21))</f>
         <v>0</v>
       </c>
-      <c r="K22" s="30">
+      <c r="K22" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L22" s="30">
+      <c r="L22" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M22" s="30">
+      <c r="M22" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N22" s="30">
+      <c r="N22" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O22" s="30">
+      <c r="O22" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P22" s="30">
+      <c r="P22" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="30">
+      <c r="Q22" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R22" s="30">
+      <c r="R22" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S22" s="70">
+      <c r="S22" s="71">
         <f>SUM(S20:S21)</f>
         <v>0</v>
       </c>
-      <c r="T22" s="70">
+      <c r="T22" s="71">
         <f>SUM(T20:T21)</f>
         <v>0</v>
       </c>
@@ -4465,7 +4468,7 @@
         <f>SUM(U20:U21)</f>
         <v>0</v>
       </c>
-      <c r="V22" s="70"/>
+      <c r="V22" s="71"/>
     </row>
     <row r="23" ht="26.25" spans="1:37">
       <c r="A23" s="14" t="s">
@@ -4481,35 +4484,35 @@
       <c r="E23" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
-      <c r="AH23" s="44"/>
-      <c r="AI23" s="44"/>
-      <c r="AJ23" s="44"/>
-      <c r="AK23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="45"/>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="45"/>
+      <c r="AF23" s="45"/>
+      <c r="AG23" s="45"/>
+      <c r="AH23" s="45"/>
+      <c r="AI23" s="45"/>
+      <c r="AJ23" s="45"/>
+      <c r="AK23" s="45"/>
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:20">
       <c r="A24" s="18" t="s">
@@ -4521,30 +4524,30 @@
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
-      <c r="I24" s="45" t="s">
+      <c r="I24" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="46" t="s">
+      <c r="J24" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="K24" s="47"/>
-      <c r="L24" s="48" t="s">
+      <c r="K24" s="48"/>
+      <c r="L24" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="M24" s="49"/>
-      <c r="N24" s="50" t="s">
+      <c r="M24" s="50"/>
+      <c r="N24" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="O24" s="51" t="s">
+      <c r="O24" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="P24" s="52"/>
+      <c r="P24" s="53"/>
       <c r="Q24" s="15" t="s">
         <v>96</v>
       </c>
       <c r="R24" s="16"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="74"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
     </row>
     <row r="25" ht="28" customHeight="1" spans="1:20">
       <c r="A25" s="19"/>
@@ -4553,10 +4556,10 @@
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="53" t="s">
+      <c r="J25" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="53" t="s">
+      <c r="K25" s="54" t="s">
         <v>28</v>
       </c>
       <c r="L25" s="7" t="s">
@@ -4565,7 +4568,7 @@
       <c r="M25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N25" s="54"/>
+      <c r="N25" s="55"/>
       <c r="O25" s="14" t="s">
         <v>26</v>
       </c>
@@ -4578,8 +4581,8 @@
       <c r="R25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="S25" s="74"/>
-      <c r="T25" s="74"/>
+      <c r="S25" s="75"/>
+      <c r="T25" s="75"/>
     </row>
     <row r="26" ht="21" customHeight="1" spans="1:20">
       <c r="A26" s="19"/>
@@ -4590,11 +4593,11 @@
       <c r="I26" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="J26" s="30" t="str">
+      <c r="J26" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!CP2="","",_scrb1_day_twoshift!CP2)</f>
         <v/>
       </c>
-      <c r="K26" s="30" t="str">
+      <c r="K26" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!CP3="","",_scrb1_day_twoshift!CP3)</f>
         <v/>
       </c>
@@ -4606,15 +4609,15 @@
         <f>IF(_scrb1_day_twoshift!CQ3="","",_scrb1_day_twoshift!CQ3)</f>
         <v/>
       </c>
-      <c r="N26" s="55">
-        <f t="shared" ref="N26:N31" si="3">SUM(J26:M26)</f>
+      <c r="N26" s="56">
+        <f>SUM(J26:M26)</f>
         <v>0</v>
       </c>
-      <c r="O26" s="56" t="str">
+      <c r="O26" s="57" t="str">
         <f>IFERROR(B4/12*L26,"")</f>
         <v/>
       </c>
-      <c r="P26" s="56" t="str">
+      <c r="P26" s="57" t="str">
         <f>IFERROR(C4/12*M26,"")</f>
         <v/>
       </c>
@@ -4626,8 +4629,8 @@
         <f>IF(_scrb1_day_twoshift!DB3="","",_scrb1_day_twoshift!DB3)</f>
         <v/>
       </c>
-      <c r="S26" s="74"/>
-      <c r="T26" s="74"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
     </row>
     <row r="27" ht="21" customHeight="1" spans="1:20">
       <c r="A27" s="19"/>
@@ -4638,11 +4641,11 @@
       <c r="I27" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="J27" s="30" t="str">
+      <c r="J27" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!CR2="","",_scrb1_day_twoshift!CR2)</f>
         <v/>
       </c>
-      <c r="K27" s="30" t="str">
+      <c r="K27" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!CR3="","",_scrb1_day_twoshift!CR3)</f>
         <v/>
       </c>
@@ -4654,15 +4657,15 @@
         <f>IF(_scrb1_day_twoshift!CS3="","",_scrb1_day_twoshift!CS3)</f>
         <v/>
       </c>
-      <c r="N27" s="55">
-        <f t="shared" si="3"/>
+      <c r="N27" s="56">
+        <f>SUM(J27:M27)</f>
         <v>0</v>
       </c>
-      <c r="O27" s="56" t="str">
+      <c r="O27" s="57" t="str">
         <f>IFERROR(B4/12*L27,"")</f>
         <v/>
       </c>
-      <c r="P27" s="56" t="str">
+      <c r="P27" s="57" t="str">
         <f>IFERROR(C4/12*M27,"")</f>
         <v/>
       </c>
@@ -4674,8 +4677,8 @@
         <f>IF(_scrb1_day_twoshift!DC3="","",_scrb1_day_twoshift!DC3)</f>
         <v/>
       </c>
-      <c r="S27" s="74"/>
-      <c r="T27" s="74"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
     </row>
     <row r="28" ht="24" customHeight="1" spans="1:20">
       <c r="A28" s="19"/>
@@ -4686,11 +4689,11 @@
       <c r="I28" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="J28" s="30" t="str">
+      <c r="J28" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!CT2="","",_scrb1_day_twoshift!CT2)</f>
         <v/>
       </c>
-      <c r="K28" s="30" t="str">
+      <c r="K28" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!CT3="","",_scrb1_day_twoshift!CT3)</f>
         <v/>
       </c>
@@ -4702,15 +4705,15 @@
         <f>IF(_scrb1_day_twoshift!CU3="","",_scrb1_day_twoshift!CU3)</f>
         <v/>
       </c>
-      <c r="N28" s="55">
-        <f t="shared" si="3"/>
+      <c r="N28" s="56">
+        <f>SUM(J28:M28)</f>
         <v>0</v>
       </c>
-      <c r="O28" s="56" t="str">
+      <c r="O28" s="57" t="str">
         <f>IFERROR(B4/12*L28,"")</f>
         <v/>
       </c>
-      <c r="P28" s="56" t="str">
+      <c r="P28" s="57" t="str">
         <f>IFERROR(C4/12*M28,"")</f>
         <v/>
       </c>
@@ -4722,8 +4725,8 @@
         <f>IF(_scrb1_day_twoshift!DD3="","",_scrb1_day_twoshift!DD3)</f>
         <v/>
       </c>
-      <c r="S28" s="74"/>
-      <c r="T28" s="74"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="75"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:20">
       <c r="A29" s="19"/>
@@ -4734,11 +4737,11 @@
       <c r="I29" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="J29" s="30" t="str">
+      <c r="J29" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!CV2="","",_scrb1_day_twoshift!CV2)</f>
         <v/>
       </c>
-      <c r="K29" s="30" t="str">
+      <c r="K29" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!CV3="","",_scrb1_day_twoshift!CV3)</f>
         <v/>
       </c>
@@ -4750,15 +4753,15 @@
         <f>IF(_scrb1_day_twoshift!CW3="","",_scrb1_day_twoshift!CW3)</f>
         <v/>
       </c>
-      <c r="N29" s="55">
-        <f t="shared" si="3"/>
+      <c r="N29" s="56">
+        <f>SUM(J29:M29)</f>
         <v>0</v>
       </c>
-      <c r="O29" s="56" t="str">
+      <c r="O29" s="57" t="str">
         <f>IFERROR(B4/12*L29,"")</f>
         <v/>
       </c>
-      <c r="P29" s="56" t="str">
+      <c r="P29" s="57" t="str">
         <f>IFERROR(C4/12*M29,"")</f>
         <v/>
       </c>
@@ -4770,8 +4773,8 @@
         <f>IF(_scrb1_day_twoshift!DE3="","",_scrb1_day_twoshift!DE3)</f>
         <v/>
       </c>
-      <c r="S29" s="74"/>
-      <c r="T29" s="74"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
     </row>
     <row r="30" ht="26" customHeight="1" spans="1:20">
       <c r="A30" s="19"/>
@@ -4782,11 +4785,11 @@
       <c r="I30" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="J30" s="30" t="str">
+      <c r="J30" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!CX2="","",_scrb1_day_twoshift!CX2)</f>
         <v/>
       </c>
-      <c r="K30" s="30" t="str">
+      <c r="K30" s="31" t="str">
         <f>IF(_scrb1_day_twoshift!CX3="","",_scrb1_day_twoshift!CX3)</f>
         <v/>
       </c>
@@ -4798,15 +4801,15 @@
         <f>IF(_scrb1_day_twoshift!CY3="","",_scrb1_day_twoshift!CY3)</f>
         <v/>
       </c>
-      <c r="N30" s="55">
-        <f t="shared" si="3"/>
+      <c r="N30" s="56">
+        <f>SUM(J30:M30)</f>
         <v>0</v>
       </c>
-      <c r="O30" s="56" t="str">
+      <c r="O30" s="57" t="str">
         <f>IFERROR(B4/12*L30,"")</f>
         <v/>
       </c>
-      <c r="P30" s="56" t="str">
+      <c r="P30" s="57" t="str">
         <f>IFERROR(C4/12*M30,"")</f>
         <v/>
       </c>
@@ -4818,8 +4821,8 @@
         <f>IF(_scrb1_day_twoshift!DF3="","",_scrb1_day_twoshift!DF3)</f>
         <v/>
       </c>
-      <c r="S30" s="74"/>
-      <c r="T30" s="74"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="75"/>
     </row>
     <row r="31" ht="26" customHeight="1" spans="1:20">
       <c r="A31" s="20"/>
@@ -4830,11 +4833,11 @@
       <c r="I31" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="J31" s="57" t="str">
+      <c r="J31" s="58" t="str">
         <f>IF(_scrb1_day_twoshift!CZ2="","",_scrb1_day_twoshift!CZ2)</f>
         <v/>
       </c>
-      <c r="K31" s="57" t="str">
+      <c r="K31" s="58" t="str">
         <f>IF(_scrb1_day_twoshift!CZ3="","",_scrb1_day_twoshift!CZ3)</f>
         <v/>
       </c>
@@ -4847,14 +4850,14 @@
         <v/>
       </c>
       <c r="N31" s="17">
-        <f t="shared" si="3"/>
+        <f>SUM(J31:M31)</f>
         <v>0</v>
       </c>
-      <c r="O31" s="56" t="str">
+      <c r="O31" s="57" t="str">
         <f>IFERROR(B4/12*L31,"")</f>
         <v/>
       </c>
-      <c r="P31" s="56" t="str">
+      <c r="P31" s="57" t="str">
         <f>IFERROR(C4/12*M31,"")</f>
         <v/>
       </c>
@@ -4866,334 +4869,225 @@
         <f>IF(_scrb1_day_twoshift!DG3="","",_scrb1_day_twoshift!DG3)</f>
         <v/>
       </c>
-      <c r="S31" s="74"/>
-      <c r="T31" s="74"/>
+      <c r="S31" s="75"/>
+      <c r="T31" s="75"/>
     </row>
-    <row r="32" ht="29" customHeight="1" spans="1:37">
-      <c r="A32" s="14" t="s">
+    <row r="32" ht="26" customHeight="1" spans="1:5">
+      <c r="A32" s="20"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" ht="26" customHeight="1" spans="1:5">
+      <c r="A33" s="21"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" ht="29" customHeight="1" spans="1:5">
+      <c r="A34" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B34" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17" t="s">
+      <c r="C34" s="16"/>
+      <c r="D34" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E34" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="44"/>
-      <c r="AA32" s="44"/>
-      <c r="AB32" s="44"/>
-      <c r="AC32" s="44"/>
-      <c r="AD32" s="44"/>
-      <c r="AE32" s="44"/>
-      <c r="AF32" s="44"/>
-      <c r="AG32" s="44"/>
-      <c r="AH32" s="44"/>
-      <c r="AI32" s="44"/>
-      <c r="AJ32" s="44"/>
-      <c r="AK32" s="44"/>
     </row>
-    <row r="33" ht="30" customHeight="1" spans="1:26">
-      <c r="A33" s="14" t="s">
+    <row r="35" ht="30" customHeight="1" spans="1:26">
+      <c r="A35" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B35" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17" t="s">
+      <c r="C35" s="16"/>
+      <c r="D35" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E35" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="I33" s="58"/>
-      <c r="J33" s="11" t="s">
+      <c r="I35" s="59"/>
+      <c r="J35" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="K35" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="L33" s="14" t="s">
+      <c r="L35" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="M33" s="14" t="s">
+      <c r="M35" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="N33" s="14" t="s">
+      <c r="N35" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="O33" s="17" t="s">
+      <c r="O35" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="P33" s="45" t="s">
+      <c r="P35" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="Q33" s="75"/>
-      <c r="R33" s="4" t="s">
+      <c r="Q35" s="76"/>
+      <c r="R35" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="6"/>
-    </row>
-    <row r="34" ht="13.5" spans="1:26">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="K34" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="L34" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="M34" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="N34" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="O34" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="76"/>
-      <c r="R34" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="V34" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="W34" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="X34" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y34" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z34" s="68" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" ht="13.5" spans="1:26">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="L35" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="N35" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="O35" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="76"/>
-      <c r="R35" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="V35" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="W35" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="X35" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y35" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z35" s="70"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="6"/>
     </row>
     <row r="36" ht="13.5" spans="1:26">
-      <c r="A36" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="H36" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="I36" s="58"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="8"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="M36" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="N36" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="O36" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="77"/>
+      <c r="R36" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="70"/>
+      <c r="U36" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y36" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z36" s="69" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="37" ht="13.5" spans="1:26">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="I37" s="58"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="8"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="M37" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="N37" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="O37" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="77"/>
+      <c r="R37" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="S37" s="8"/>
       <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="70"/>
+      <c r="U37" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="V37" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="W37" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="X37" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y37" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z37" s="71"/>
     </row>
     <row r="38" ht="13.5" spans="1:26">
-      <c r="A38" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!R2="","",_scrb1_day_twoshift!R2)</f>
-        <v/>
-      </c>
-      <c r="D38" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!U2="","",_scrb1_day_twoshift!U2)</f>
-        <v/>
-      </c>
-      <c r="E38" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!X2="","",_scrb1_day_twoshift!X2)</f>
-        <v/>
-      </c>
-      <c r="F38" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AA2="","",_scrb1_day_twoshift!AA2)</f>
-        <v/>
-      </c>
-      <c r="G38" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AD2="","",_scrb1_day_twoshift!AD2)</f>
-        <v/>
-      </c>
-      <c r="H38" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AG2="","",_scrb1_day_twoshift!AG2)</f>
-        <v/>
-      </c>
-      <c r="I38" s="58"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="63"/>
-      <c r="M38" s="63"/>
-      <c r="N38" s="63"/>
-      <c r="O38" s="64"/>
+      <c r="A38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="I38" s="59"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
       <c r="P38" s="4" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="8"/>
@@ -5204,46 +5098,38 @@
       <c r="W38" s="8"/>
       <c r="X38" s="8"/>
       <c r="Y38" s="17"/>
-      <c r="Z38" s="70"/>
+      <c r="Z38" s="71"/>
     </row>
     <row r="39" ht="13.5" spans="1:26">
       <c r="A39" s="13"/>
-      <c r="B39" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!R3="","",_scrb1_day_twoshift!R3)</f>
-        <v/>
-      </c>
-      <c r="D39" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!U3="","",_scrb1_day_twoshift!U3)</f>
-        <v/>
-      </c>
-      <c r="E39" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!X3="","",_scrb1_day_twoshift!X3)</f>
-        <v/>
-      </c>
-      <c r="F39" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AA3="","",_scrb1_day_twoshift!AA3)</f>
-        <v/>
-      </c>
-      <c r="G39" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AD3="","",_scrb1_day_twoshift!AD3)</f>
-        <v/>
-      </c>
-      <c r="H39" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AG3="","",_scrb1_day_twoshift!AG3)</f>
-        <v/>
-      </c>
-      <c r="I39" s="58"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="64"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" s="59"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="63"/>
       <c r="P39" s="4" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="8"/>
@@ -5254,25 +5140,48 @@
       <c r="W39" s="8"/>
       <c r="X39" s="8"/>
       <c r="Y39" s="17"/>
-      <c r="Z39" s="70"/>
+      <c r="Z39" s="71"/>
     </row>
     <row r="40" ht="13.5" spans="1:26">
-      <c r="A40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="63"/>
-      <c r="M40" s="63"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="64"/>
+      <c r="A40" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!R2="","",_scrb1_day_twoshift!R2)</f>
+        <v/>
+      </c>
+      <c r="D40" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!U2="","",_scrb1_day_twoshift!U2)</f>
+        <v/>
+      </c>
+      <c r="E40" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!X2="","",_scrb1_day_twoshift!X2)</f>
+        <v/>
+      </c>
+      <c r="F40" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AA2="","",_scrb1_day_twoshift!AA2)</f>
+        <v/>
+      </c>
+      <c r="G40" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AD2="","",_scrb1_day_twoshift!AD2)</f>
+        <v/>
+      </c>
+      <c r="H40" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AG2="","",_scrb1_day_twoshift!AG2)</f>
+        <v/>
+      </c>
+      <c r="I40" s="59"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="65"/>
       <c r="P40" s="4" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="Q40" s="6"/>
       <c r="R40" s="8"/>
@@ -5283,48 +5192,46 @@
       <c r="W40" s="8"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="17"/>
-      <c r="Z40" s="70"/>
+      <c r="Z40" s="71"/>
     </row>
     <row r="41" ht="13.5" spans="1:26">
-      <c r="A41" s="23" t="s">
-        <v>142</v>
-      </c>
+      <c r="A41" s="13"/>
       <c r="B41" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C41" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!S2="","",_scrb1_day_twoshift!S2)</f>
+        <f>IF(_scrb1_day_twoshift!R3="","",_scrb1_day_twoshift!R3)</f>
         <v/>
       </c>
       <c r="D41" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!V2="","",_scrb1_day_twoshift!V2)</f>
+        <f>IF(_scrb1_day_twoshift!U3="","",_scrb1_day_twoshift!U3)</f>
         <v/>
       </c>
       <c r="E41" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!Y2="","",_scrb1_day_twoshift!Y2)</f>
+        <f>IF(_scrb1_day_twoshift!X3="","",_scrb1_day_twoshift!X3)</f>
         <v/>
       </c>
       <c r="F41" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AB2="","",_scrb1_day_twoshift!AB2)</f>
+        <f>IF(_scrb1_day_twoshift!AA3="","",_scrb1_day_twoshift!AA3)</f>
         <v/>
       </c>
       <c r="G41" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AE2="","",_scrb1_day_twoshift!AE2)</f>
+        <f>IF(_scrb1_day_twoshift!AD3="","",_scrb1_day_twoshift!AD3)</f>
         <v/>
       </c>
       <c r="H41" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AH2="","",_scrb1_day_twoshift!AH2)</f>
-        <v/>
-      </c>
-      <c r="I41" s="58"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="65"/>
-      <c r="O41" s="66"/>
+        <f>IF(_scrb1_day_twoshift!AG3="","",_scrb1_day_twoshift!AG3)</f>
+        <v/>
+      </c>
+      <c r="I41" s="59"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="65"/>
       <c r="P41" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q41" s="6"/>
       <c r="R41" s="8"/>
@@ -5335,50 +5242,25 @@
       <c r="W41" s="8"/>
       <c r="X41" s="8"/>
       <c r="Y41" s="17"/>
-      <c r="Z41" s="70"/>
+      <c r="Z41" s="71"/>
     </row>
     <row r="42" ht="13.5" spans="1:26">
-      <c r="A42" s="13"/>
-      <c r="B42" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!S3="","",_scrb1_day_twoshift!S3)</f>
-        <v/>
-      </c>
-      <c r="D42" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!V3="","",_scrb1_day_twoshift!V3)</f>
-        <v/>
-      </c>
-      <c r="E42" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!Y3="","",_scrb1_day_twoshift!Y3)</f>
-        <v/>
-      </c>
-      <c r="F42" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AB3="","",_scrb1_day_twoshift!AB3)</f>
-        <v/>
-      </c>
-      <c r="G42" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AE3="","",_scrb1_day_twoshift!AE3)</f>
-        <v/>
-      </c>
-      <c r="H42" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AH3="","",_scrb1_day_twoshift!AH3)</f>
-        <v/>
-      </c>
-      <c r="I42" s="67"/>
-      <c r="J42" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="6"/>
+      <c r="A42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="65"/>
       <c r="P42" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="8"/>
@@ -5389,138 +5271,140 @@
       <c r="W42" s="8"/>
       <c r="X42" s="8"/>
       <c r="Y42" s="17"/>
-      <c r="Z42" s="70"/>
+      <c r="Z42" s="71"/>
     </row>
     <row r="43" ht="13.5" spans="1:26">
-      <c r="A43" s="25"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M43" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="N43" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="O43" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="P43" s="69"/>
-      <c r="Q43" s="77"/>
-      <c r="R43" s="77"/>
-      <c r="S43" s="77"/>
-      <c r="T43" s="77"/>
-      <c r="U43" s="77"/>
-      <c r="V43" s="77"/>
-      <c r="W43" s="77"/>
-      <c r="X43" s="77"/>
-      <c r="Y43" s="77"/>
-      <c r="Z43" s="77"/>
+      <c r="A43" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!S2="","",_scrb1_day_twoshift!S2)</f>
+        <v/>
+      </c>
+      <c r="D43" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!V2="","",_scrb1_day_twoshift!V2)</f>
+        <v/>
+      </c>
+      <c r="E43" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!Y2="","",_scrb1_day_twoshift!Y2)</f>
+        <v/>
+      </c>
+      <c r="F43" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AB2="","",_scrb1_day_twoshift!AB2)</f>
+        <v/>
+      </c>
+      <c r="G43" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AE2="","",_scrb1_day_twoshift!AE2)</f>
+        <v/>
+      </c>
+      <c r="H43" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AH2="","",_scrb1_day_twoshift!AH2)</f>
+        <v/>
+      </c>
+      <c r="I43" s="59"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="66"/>
+      <c r="O43" s="67"/>
+      <c r="P43" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="71"/>
     </row>
     <row r="44" ht="13.5" spans="1:26">
-      <c r="A44" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44" s="6"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C44" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!T2="","",_scrb1_day_twoshift!T2)</f>
+        <f>IF(_scrb1_day_twoshift!S3="","",_scrb1_day_twoshift!S3)</f>
         <v/>
       </c>
       <c r="D44" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!W2="","",_scrb1_day_twoshift!W2)</f>
+        <f>IF(_scrb1_day_twoshift!V3="","",_scrb1_day_twoshift!V3)</f>
         <v/>
       </c>
       <c r="E44" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!Z2="","",_scrb1_day_twoshift!Z2)</f>
+        <f>IF(_scrb1_day_twoshift!Y3="","",_scrb1_day_twoshift!Y3)</f>
         <v/>
       </c>
       <c r="F44" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AC2="","",_scrb1_day_twoshift!AC2)</f>
+        <f>IF(_scrb1_day_twoshift!AB3="","",_scrb1_day_twoshift!AB3)</f>
         <v/>
       </c>
       <c r="G44" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AF2="","",_scrb1_day_twoshift!AF2)</f>
+        <f>IF(_scrb1_day_twoshift!AE3="","",_scrb1_day_twoshift!AE3)</f>
         <v/>
       </c>
       <c r="H44" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AI2="","",_scrb1_day_twoshift!AI2)</f>
-        <v/>
-      </c>
-      <c r="I44" s="67"/>
-      <c r="J44" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K44" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!DJ2="","",_scrb1_day_twoshift!DJ2)</f>
-        <v/>
-      </c>
-      <c r="L44" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!DK2="","",_scrb1_day_twoshift!DK2)</f>
-        <v/>
-      </c>
-      <c r="M44" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!DL2="","",_scrb1_day_twoshift!DL2)</f>
-        <v/>
-      </c>
-      <c r="N44" s="70"/>
-      <c r="O44" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!DM2="","",_scrb1_day_twoshift!DM2)</f>
-        <v/>
-      </c>
-      <c r="P44" s="71"/>
-      <c r="Q44" s="78"/>
-      <c r="R44" s="78"/>
-      <c r="S44" s="78"/>
-      <c r="T44" s="78"/>
-      <c r="U44" s="78"/>
-      <c r="V44" s="78"/>
-      <c r="W44" s="78"/>
-      <c r="X44" s="78"/>
-      <c r="Y44" s="78"/>
-      <c r="Z44" s="78"/>
+        <f>IF(_scrb1_day_twoshift!AH3="","",_scrb1_day_twoshift!AH3)</f>
+        <v/>
+      </c>
+      <c r="I44" s="68"/>
+      <c r="J44" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="71"/>
     </row>
     <row r="45" ht="13.5" spans="1:26">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
+      <c r="A45" s="26"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
       <c r="H45" s="28"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K45" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!DJ3="","",_scrb1_day_twoshift!DJ3)</f>
-        <v/>
-      </c>
-      <c r="L45" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!DK3="","",_scrb1_day_twoshift!DK3)</f>
-        <v/>
-      </c>
-      <c r="M45" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!DL3="","",_scrb1_day_twoshift!DL3)</f>
-        <v/>
-      </c>
-      <c r="N45" s="70"/>
-      <c r="O45" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!DM3="","",_scrb1_day_twoshift!DM3)</f>
-        <v/>
-      </c>
-      <c r="P45" s="71"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M45" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="N45" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="O45" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="P45" s="70"/>
       <c r="Q45" s="78"/>
       <c r="R45" s="78"/>
       <c r="S45" s="78"/>
@@ -5532,311 +5416,269 @@
       <c r="Y45" s="78"/>
       <c r="Z45" s="78"/>
     </row>
-    <row r="46" ht="13.5" spans="1:20">
-      <c r="A46" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="6"/>
+    <row r="46" ht="13.5" spans="1:26">
+      <c r="A46" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!T2="","",_scrb1_day_twoshift!T2)</f>
+        <v/>
+      </c>
+      <c r="D46" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!W2="","",_scrb1_day_twoshift!W2)</f>
+        <v/>
+      </c>
+      <c r="E46" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!Z2="","",_scrb1_day_twoshift!Z2)</f>
+        <v/>
+      </c>
+      <c r="F46" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AC2="","",_scrb1_day_twoshift!AC2)</f>
+        <v/>
+      </c>
+      <c r="G46" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AF2="","",_scrb1_day_twoshift!AF2)</f>
+        <v/>
+      </c>
+      <c r="H46" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AI2="","",_scrb1_day_twoshift!AI2)</f>
+        <v/>
+      </c>
+      <c r="I46" s="68"/>
+      <c r="J46" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!DJ2="","",_scrb1_day_twoshift!DJ2)</f>
+        <v/>
+      </c>
+      <c r="L46" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!DK2="","",_scrb1_day_twoshift!DK2)</f>
+        <v/>
+      </c>
+      <c r="M46" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!DL2="","",_scrb1_day_twoshift!DL2)</f>
+        <v/>
+      </c>
+      <c r="N46" s="71"/>
+      <c r="O46" s="17" t="str">
+        <f>IF(_scrb1_day_twoshift!DM2="","",_scrb1_day_twoshift!DM2)</f>
+        <v/>
+      </c>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="79"/>
+      <c r="R46" s="79"/>
       <c r="S46" s="79"/>
       <c r="T46" s="79"/>
+      <c r="U46" s="79"/>
+      <c r="V46" s="79"/>
+      <c r="W46" s="79"/>
+      <c r="X46" s="79"/>
+      <c r="Y46" s="79"/>
+      <c r="Z46" s="79"/>
     </row>
-    <row r="47" ht="13.5" spans="1:20">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="M47" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="N47" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="O47" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="P47" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q47" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="R47" s="8" t="s">
-        <v>163</v>
-      </c>
+    <row r="47" ht="13.5" spans="1:26">
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!DJ3="","",_scrb1_day_twoshift!DJ3)</f>
+        <v/>
+      </c>
+      <c r="L47" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!DK3="","",_scrb1_day_twoshift!DK3)</f>
+        <v/>
+      </c>
+      <c r="M47" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!DL3="","",_scrb1_day_twoshift!DL3)</f>
+        <v/>
+      </c>
+      <c r="N47" s="71"/>
+      <c r="O47" s="17" t="str">
+        <f>IF(_scrb1_day_twoshift!DM3="","",_scrb1_day_twoshift!DM3)</f>
+        <v/>
+      </c>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="79"/>
+      <c r="R47" s="79"/>
       <c r="S47" s="79"/>
       <c r="T47" s="79"/>
+      <c r="U47" s="79"/>
+      <c r="V47" s="79"/>
+      <c r="W47" s="79"/>
+      <c r="X47" s="79"/>
+      <c r="Y47" s="79"/>
+      <c r="Z47" s="79"/>
     </row>
     <row r="48" ht="13.5" spans="1:20">
       <c r="A48" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AK2="","",_scrb1_day_twoshift!AK2)</f>
-        <v/>
-      </c>
-      <c r="D48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AL2="","",_scrb1_day_twoshift!AL2)</f>
-        <v/>
-      </c>
-      <c r="E48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AM2="","",_scrb1_day_twoshift!AM2)</f>
-        <v/>
-      </c>
-      <c r="F48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AN2="","",_scrb1_day_twoshift!AN2)</f>
-        <v/>
-      </c>
-      <c r="G48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AO2="","",_scrb1_day_twoshift!AO2)</f>
-        <v/>
-      </c>
-      <c r="H48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AP2="","",_scrb1_day_twoshift!AP2)</f>
-        <v/>
-      </c>
-      <c r="I48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AQ2="","",_scrb1_day_twoshift!AQ2)</f>
-        <v/>
-      </c>
-      <c r="J48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AR2="","",_scrb1_day_twoshift!AR2)</f>
-        <v/>
-      </c>
-      <c r="K48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AS2="","",_scrb1_day_twoshift!AS2)</f>
-        <v/>
-      </c>
-      <c r="L48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AT2="","",_scrb1_day_twoshift!AT2)</f>
-        <v/>
-      </c>
-      <c r="M48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AU2="","",_scrb1_day_twoshift!AU2)</f>
-        <v/>
-      </c>
-      <c r="N48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AV2="","",_scrb1_day_twoshift!AV2)</f>
-        <v/>
-      </c>
-      <c r="O48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AW2="","",_scrb1_day_twoshift!AW2)</f>
-        <v/>
-      </c>
-      <c r="P48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AX2="","",_scrb1_day_twoshift!AX2)</f>
-        <v/>
-      </c>
-      <c r="Q48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AY2="","",_scrb1_day_twoshift!AY2)</f>
-        <v/>
-      </c>
-      <c r="R48" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AZ2="","",_scrb1_day_twoshift!AZ2)</f>
-        <v/>
-      </c>
-      <c r="S48" s="79"/>
-      <c r="T48" s="79"/>
+        <v>150</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="80"/>
+      <c r="T48" s="80"/>
     </row>
     <row r="49" ht="13.5" spans="1:20">
       <c r="A49" s="13"/>
-      <c r="B49" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AK3="","",_scrb1_day_twoshift!AK3)</f>
-        <v/>
-      </c>
-      <c r="D49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AL3="","",_scrb1_day_twoshift!AL3)</f>
-        <v/>
-      </c>
-      <c r="E49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AM3="","",_scrb1_day_twoshift!AM3)</f>
-        <v/>
-      </c>
-      <c r="F49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AN3="","",_scrb1_day_twoshift!AN3)</f>
-        <v/>
-      </c>
-      <c r="G49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AO3="","",_scrb1_day_twoshift!AO3)</f>
-        <v/>
-      </c>
-      <c r="H49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AP3="","",_scrb1_day_twoshift!AP3)</f>
-        <v/>
-      </c>
-      <c r="I49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AQ3="","",_scrb1_day_twoshift!AQ3)</f>
-        <v/>
-      </c>
-      <c r="J49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AR3="","",_scrb1_day_twoshift!AR3)</f>
-        <v/>
-      </c>
-      <c r="K49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AS3="","",_scrb1_day_twoshift!AS3)</f>
-        <v/>
-      </c>
-      <c r="L49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AT3="","",_scrb1_day_twoshift!AT3)</f>
-        <v/>
-      </c>
-      <c r="M49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AU3="","",_scrb1_day_twoshift!AU3)</f>
-        <v/>
-      </c>
-      <c r="N49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AV3="","",_scrb1_day_twoshift!AV3)</f>
-        <v/>
-      </c>
-      <c r="O49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AW3="","",_scrb1_day_twoshift!AW3)</f>
-        <v/>
-      </c>
-      <c r="P49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AX3="","",_scrb1_day_twoshift!AX3)</f>
-        <v/>
-      </c>
-      <c r="Q49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AY3="","",_scrb1_day_twoshift!AY3)</f>
-        <v/>
-      </c>
-      <c r="R49" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!AZ3="","",_scrb1_day_twoshift!AZ3)</f>
-        <v/>
-      </c>
-      <c r="S49" s="79"/>
-      <c r="T49" s="79"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="P49" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q49" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="R49" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="S49" s="80"/>
+      <c r="T49" s="80"/>
     </row>
     <row r="50" ht="13.5" spans="1:20">
       <c r="A50" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>165</v>
       </c>
       <c r="C50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BB2="","",_scrb1_day_twoshift!BB2)</f>
+        <f>IF(_scrb1_day_twoshift!AK2="","",_scrb1_day_twoshift!AK2)</f>
         <v/>
       </c>
       <c r="D50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BC2="","",_scrb1_day_twoshift!BC2)</f>
+        <f>IF(_scrb1_day_twoshift!AL2="","",_scrb1_day_twoshift!AL2)</f>
         <v/>
       </c>
       <c r="E50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BD2="","",_scrb1_day_twoshift!BD2)</f>
+        <f>IF(_scrb1_day_twoshift!AM2="","",_scrb1_day_twoshift!AM2)</f>
         <v/>
       </c>
       <c r="F50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BE2="","",_scrb1_day_twoshift!BE2)</f>
+        <f>IF(_scrb1_day_twoshift!AN2="","",_scrb1_day_twoshift!AN2)</f>
         <v/>
       </c>
       <c r="G50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BF2="","",_scrb1_day_twoshift!BF2)</f>
+        <f>IF(_scrb1_day_twoshift!AO2="","",_scrb1_day_twoshift!AO2)</f>
         <v/>
       </c>
       <c r="H50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BG2="","",_scrb1_day_twoshift!BG2)</f>
+        <f>IF(_scrb1_day_twoshift!AP2="","",_scrb1_day_twoshift!AP2)</f>
         <v/>
       </c>
       <c r="I50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BH2="","",_scrb1_day_twoshift!BH2)</f>
+        <f>IF(_scrb1_day_twoshift!AQ2="","",_scrb1_day_twoshift!AQ2)</f>
         <v/>
       </c>
       <c r="J50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BI2="","",_scrb1_day_twoshift!BI2)</f>
+        <f>IF(_scrb1_day_twoshift!AR2="","",_scrb1_day_twoshift!AR2)</f>
         <v/>
       </c>
       <c r="K50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BJ2="","",_scrb1_day_twoshift!BJ2)</f>
+        <f>IF(_scrb1_day_twoshift!AS2="","",_scrb1_day_twoshift!AS2)</f>
         <v/>
       </c>
       <c r="L50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BK2="","",_scrb1_day_twoshift!BK2)</f>
+        <f>IF(_scrb1_day_twoshift!AT2="","",_scrb1_day_twoshift!AT2)</f>
         <v/>
       </c>
       <c r="M50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BL2="","",_scrb1_day_twoshift!BL2)</f>
+        <f>IF(_scrb1_day_twoshift!AU2="","",_scrb1_day_twoshift!AU2)</f>
         <v/>
       </c>
       <c r="N50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BM2="","",_scrb1_day_twoshift!BM2)</f>
+        <f>IF(_scrb1_day_twoshift!AV2="","",_scrb1_day_twoshift!AV2)</f>
         <v/>
       </c>
       <c r="O50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BN2="","",_scrb1_day_twoshift!BN2)</f>
+        <f>IF(_scrb1_day_twoshift!AW2="","",_scrb1_day_twoshift!AW2)</f>
         <v/>
       </c>
       <c r="P50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BO2="","",_scrb1_day_twoshift!BO2)</f>
+        <f>IF(_scrb1_day_twoshift!AX2="","",_scrb1_day_twoshift!AX2)</f>
         <v/>
       </c>
       <c r="Q50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BP2="","",_scrb1_day_twoshift!BP2)</f>
+        <f>IF(_scrb1_day_twoshift!AY2="","",_scrb1_day_twoshift!AY2)</f>
         <v/>
       </c>
       <c r="R50" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!BQ2="","",_scrb1_day_twoshift!BQ2)</f>
-        <v/>
-      </c>
-      <c r="S50" s="79"/>
-      <c r="T50" s="79"/>
+        <f>IF(_scrb1_day_twoshift!AZ2="","",_scrb1_day_twoshift!AZ2)</f>
+        <v/>
+      </c>
+      <c r="S50" s="80"/>
+      <c r="T50" s="80"/>
     </row>
     <row r="51" ht="13.5" spans="1:20">
       <c r="A51" s="13"/>
@@ -5844,74 +5686,220 @@
         <v>166</v>
       </c>
       <c r="C51" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AK3="","",_scrb1_day_twoshift!AK3)</f>
+        <v/>
+      </c>
+      <c r="D51" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AL3="","",_scrb1_day_twoshift!AL3)</f>
+        <v/>
+      </c>
+      <c r="E51" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AM3="","",_scrb1_day_twoshift!AM3)</f>
+        <v/>
+      </c>
+      <c r="F51" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AN3="","",_scrb1_day_twoshift!AN3)</f>
+        <v/>
+      </c>
+      <c r="G51" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AO3="","",_scrb1_day_twoshift!AO3)</f>
+        <v/>
+      </c>
+      <c r="H51" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AP3="","",_scrb1_day_twoshift!AP3)</f>
+        <v/>
+      </c>
+      <c r="I51" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AQ3="","",_scrb1_day_twoshift!AQ3)</f>
+        <v/>
+      </c>
+      <c r="J51" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AR3="","",_scrb1_day_twoshift!AR3)</f>
+        <v/>
+      </c>
+      <c r="K51" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AS3="","",_scrb1_day_twoshift!AS3)</f>
+        <v/>
+      </c>
+      <c r="L51" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AT3="","",_scrb1_day_twoshift!AT3)</f>
+        <v/>
+      </c>
+      <c r="M51" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AU3="","",_scrb1_day_twoshift!AU3)</f>
+        <v/>
+      </c>
+      <c r="N51" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AV3="","",_scrb1_day_twoshift!AV3)</f>
+        <v/>
+      </c>
+      <c r="O51" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AW3="","",_scrb1_day_twoshift!AW3)</f>
+        <v/>
+      </c>
+      <c r="P51" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AX3="","",_scrb1_day_twoshift!AX3)</f>
+        <v/>
+      </c>
+      <c r="Q51" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AY3="","",_scrb1_day_twoshift!AY3)</f>
+        <v/>
+      </c>
+      <c r="R51" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!AZ3="","",_scrb1_day_twoshift!AZ3)</f>
+        <v/>
+      </c>
+      <c r="S51" s="80"/>
+      <c r="T51" s="80"/>
+    </row>
+    <row r="52" ht="13.5" spans="1:20">
+      <c r="A52" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!BB2="","",_scrb1_day_twoshift!BB2)</f>
+        <v/>
+      </c>
+      <c r="D52" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!BC2="","",_scrb1_day_twoshift!BC2)</f>
+        <v/>
+      </c>
+      <c r="E52" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!BD2="","",_scrb1_day_twoshift!BD2)</f>
+        <v/>
+      </c>
+      <c r="F52" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!BE2="","",_scrb1_day_twoshift!BE2)</f>
+        <v/>
+      </c>
+      <c r="G52" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!BF2="","",_scrb1_day_twoshift!BF2)</f>
+        <v/>
+      </c>
+      <c r="H52" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!BG2="","",_scrb1_day_twoshift!BG2)</f>
+        <v/>
+      </c>
+      <c r="I52" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!BH2="","",_scrb1_day_twoshift!BH2)</f>
+        <v/>
+      </c>
+      <c r="J52" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!BI2="","",_scrb1_day_twoshift!BI2)</f>
+        <v/>
+      </c>
+      <c r="K52" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!BJ2="","",_scrb1_day_twoshift!BJ2)</f>
+        <v/>
+      </c>
+      <c r="L52" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!BK2="","",_scrb1_day_twoshift!BK2)</f>
+        <v/>
+      </c>
+      <c r="M52" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!BL2="","",_scrb1_day_twoshift!BL2)</f>
+        <v/>
+      </c>
+      <c r="N52" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!BM2="","",_scrb1_day_twoshift!BM2)</f>
+        <v/>
+      </c>
+      <c r="O52" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!BN2="","",_scrb1_day_twoshift!BN2)</f>
+        <v/>
+      </c>
+      <c r="P52" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!BO2="","",_scrb1_day_twoshift!BO2)</f>
+        <v/>
+      </c>
+      <c r="Q52" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!BP2="","",_scrb1_day_twoshift!BP2)</f>
+        <v/>
+      </c>
+      <c r="R52" s="8" t="str">
+        <f>IF(_scrb1_day_twoshift!BQ2="","",_scrb1_day_twoshift!BQ2)</f>
+        <v/>
+      </c>
+      <c r="S52" s="80"/>
+      <c r="T52" s="80"/>
+    </row>
+    <row r="53" ht="13.5" spans="1:20">
+      <c r="A53" s="13"/>
+      <c r="B53" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!BB3="","",_scrb1_day_twoshift!BB3)</f>
         <v/>
       </c>
-      <c r="D51" s="8" t="str">
+      <c r="D53" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!BC3="","",_scrb1_day_twoshift!BC3)</f>
         <v/>
       </c>
-      <c r="E51" s="8" t="str">
+      <c r="E53" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!BD3="","",_scrb1_day_twoshift!BD3)</f>
         <v/>
       </c>
-      <c r="F51" s="8" t="str">
+      <c r="F53" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!BE3="","",_scrb1_day_twoshift!BE3)</f>
         <v/>
       </c>
-      <c r="G51" s="8" t="str">
+      <c r="G53" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!BF3="","",_scrb1_day_twoshift!BF3)</f>
         <v/>
       </c>
-      <c r="H51" s="8" t="str">
+      <c r="H53" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!BG3="","",_scrb1_day_twoshift!BG3)</f>
         <v/>
       </c>
-      <c r="I51" s="8" t="str">
+      <c r="I53" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!BH3="","",_scrb1_day_twoshift!BH3)</f>
         <v/>
       </c>
-      <c r="J51" s="8" t="str">
+      <c r="J53" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!BI3="","",_scrb1_day_twoshift!BI3)</f>
         <v/>
       </c>
-      <c r="K51" s="8" t="str">
+      <c r="K53" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!BJ3="","",_scrb1_day_twoshift!BJ3)</f>
         <v/>
       </c>
-      <c r="L51" s="8" t="str">
+      <c r="L53" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!BK3="","",_scrb1_day_twoshift!BK3)</f>
         <v/>
       </c>
-      <c r="M51" s="8" t="str">
+      <c r="M53" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!BL3="","",_scrb1_day_twoshift!BL3)</f>
         <v/>
       </c>
-      <c r="N51" s="8" t="str">
+      <c r="N53" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!BM3="","",_scrb1_day_twoshift!BM3)</f>
         <v/>
       </c>
-      <c r="O51" s="8" t="str">
+      <c r="O53" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!BN3="","",_scrb1_day_twoshift!BN3)</f>
         <v/>
       </c>
-      <c r="P51" s="8" t="str">
+      <c r="P53" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!BO3="","",_scrb1_day_twoshift!BO3)</f>
         <v/>
       </c>
-      <c r="Q51" s="8" t="str">
+      <c r="Q53" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!BP3="","",_scrb1_day_twoshift!BP3)</f>
         <v/>
       </c>
-      <c r="R51" s="8" t="str">
+      <c r="R53" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!BQ3="","",_scrb1_day_twoshift!BQ3)</f>
         <v/>
       </c>
-      <c r="S51" s="79"/>
-      <c r="T51" s="79"/>
+      <c r="S53" s="80"/>
+      <c r="T53" s="80"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="49">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="N2:X2"/>
     <mergeCell ref="A13:H13"/>
@@ -5921,15 +5909,10 @@
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="I32:AK32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="R33:Z33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="R35:Z35"/>
+    <mergeCell ref="A36:H36"/>
     <mergeCell ref="P38:Q38"/>
     <mergeCell ref="J39:O39"/>
     <mergeCell ref="P39:Q39"/>
@@ -5937,31 +5920,35 @@
     <mergeCell ref="P40:Q40"/>
     <mergeCell ref="J41:O41"/>
     <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="J42:O42"/>
     <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P43:Z43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="P44:Z44"/>
-    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="J43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="P44:Q44"/>
     <mergeCell ref="P45:Z45"/>
-    <mergeCell ref="E46:R46"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="P46:Z46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="P47:Z47"/>
+    <mergeCell ref="E48:R48"/>
     <mergeCell ref="A15:A22"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A24:A33"/>
     <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A43:A44"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B48:B49"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I33:I41"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="P33:Q34"/>
+    <mergeCell ref="I35:I43"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="P35:Q36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excel/finished/wg4#烧结/4烧结生产报表.xlsx
+++ b/excel/finished/wg4#烧结/4烧结生产报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9840"/>
+    <workbookView windowWidth="21600" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="生产日报" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="287">
   <si>
     <t>四烧作业区生产日报</t>
   </si>
@@ -714,6 +714,9 @@
     </r>
   </si>
   <si>
+    <t>{pushMat2ForShiftN}</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -761,6 +764,9 @@
     </r>
   </si>
   <si>
+    <t>{pullMat6ForShiftN}</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -808,6 +814,12 @@
     </r>
   </si>
   <si>
+    <t>{yardInventoryBForShiftN}</t>
+  </si>
+  <si>
+    <t>{pushMat2ForShiftD}</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -855,6 +867,9 @@
     </r>
   </si>
   <si>
+    <t>{pullMat6ForShiftD}</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -902,9 +917,21 @@
     </r>
   </si>
   <si>
+    <t>{yardInventoryBForShiftD}</t>
+  </si>
+  <si>
     <t>全天</t>
   </si>
   <si>
+    <t>{pushMat2ForD}</t>
+  </si>
+  <si>
+    <t>{pullMat6ForD}</t>
+  </si>
+  <si>
+    <t>{yardInventoryBForD}</t>
+  </si>
+  <si>
     <t>合计</t>
   </si>
   <si>
@@ -1992,10 +2019,16 @@
     <t>ZP_ST4_L1R_SIN_Bed103BedMatInsFl</t>
   </si>
   <si>
-    <t>ZP_ST4_L1R_SIN_Stk2InstanFl</t>
-  </si>
-  <si>
-    <t>ZP_ST4_L1R_SIN_Stk6InstanFl</t>
+    <t>ZP_ST4_L1R_SIN_Stk2AccFl_12h</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_Stk2AccFl_1d</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_Stk6AccFl_12h</t>
+  </si>
+  <si>
+    <t>ZP_ST4_L1R_SIN_Stk6AccFl_1d</t>
   </si>
   <si>
     <t>ZP_ST4_L1R_SIN_1To5OreBldSetP</t>
@@ -2071,13 +2104,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2906,7 +2938,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3068,7 +3100,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3115,9 +3147,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3462,7 +3491,7 @@
   <dimension ref="A1:AK53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3968,13 +3997,13 @@
       <c r="R10" s="37"/>
       <c r="S10" s="37"/>
       <c r="T10" s="37"/>
-      <c r="U10" s="73" t="str">
+      <c r="U10" s="57" t="str">
         <f>IF(SUM(S10:T10)=0,"",SUM(S10:T10))</f>
         <v/>
       </c>
       <c r="V10" s="37"/>
       <c r="W10" s="37"/>
-      <c r="X10" s="73"/>
+      <c r="X10" s="57"/>
     </row>
     <row r="11" ht="13.5" spans="1:24">
       <c r="A11" s="8" t="s">
@@ -4006,13 +4035,13 @@
       <c r="R11" s="37"/>
       <c r="S11" s="37"/>
       <c r="T11" s="37"/>
-      <c r="U11" s="73" t="str">
+      <c r="U11" s="57" t="str">
         <f>IF(SUM(S11:T11)=0,"",SUM(S11:T11))</f>
         <v/>
       </c>
       <c r="V11" s="37"/>
       <c r="W11" s="37"/>
-      <c r="X11" s="73"/>
+      <c r="X11" s="57"/>
     </row>
     <row r="12" ht="13.5" spans="1:24">
       <c r="A12" s="7" t="s">
@@ -4044,13 +4073,13 @@
       <c r="R12" s="37"/>
       <c r="S12" s="37"/>
       <c r="T12" s="37"/>
-      <c r="U12" s="73" t="str">
+      <c r="U12" s="57" t="str">
         <f>IF(SUM(S12:T12)=0,"",SUM(S12:T12))</f>
         <v/>
       </c>
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
-      <c r="X12" s="73"/>
+      <c r="X12" s="57"/>
     </row>
     <row r="13" ht="13.5" spans="1:24">
       <c r="A13" s="9"/>
@@ -4075,13 +4104,13 @@
       <c r="R13" s="37"/>
       <c r="S13" s="37"/>
       <c r="T13" s="37"/>
-      <c r="U13" s="73" t="str">
+      <c r="U13" s="57" t="str">
         <f>IF(SUM(S13:T13)=0,"",SUM(S13:T13))</f>
         <v/>
       </c>
       <c r="V13" s="37"/>
       <c r="W13" s="37"/>
-      <c r="X13" s="73"/>
+      <c r="X13" s="57"/>
     </row>
     <row r="14" ht="13.5" spans="1:24">
       <c r="A14" s="7" t="s">
@@ -4111,10 +4140,10 @@
       <c r="R14" s="40"/>
       <c r="S14" s="40"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="40"/>
       <c r="W14" s="40"/>
-      <c r="X14" s="74"/>
+      <c r="X14" s="73"/>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:24">
       <c r="A15" s="11" t="s">
@@ -4138,10 +4167,10 @@
       <c r="R15" s="37"/>
       <c r="S15" s="37"/>
       <c r="T15" s="37"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="57"/>
       <c r="V15" s="37"/>
       <c r="W15" s="37"/>
-      <c r="X15" s="73"/>
+      <c r="X15" s="57"/>
     </row>
     <row r="16" ht="28" customHeight="1" spans="1:24">
       <c r="A16" s="12"/>
@@ -4187,7 +4216,7 @@
       </c>
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
-      <c r="U16" s="73" t="str">
+      <c r="U16" s="57" t="str">
         <f>IFERROR(AVERAGE(U10:U13),"")</f>
         <v/>
       </c>
@@ -4199,7 +4228,7 @@
         <f>IFERROR(AVERAGE(W10:W13),"")</f>
         <v/>
       </c>
-      <c r="X16" s="73" t="str">
+      <c r="X16" s="57" t="str">
         <f>IFERROR(AVERAGE(X10:X13),"")</f>
         <v/>
       </c>
@@ -4268,7 +4297,7 @@
       <c r="U18" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="V18" s="69" t="s">
+      <c r="V18" s="14" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4311,7 +4340,7 @@
       <c r="U19" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="V19" s="71" t="s">
+      <c r="V19" s="17" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4345,23 +4374,23 @@
         <f>IF(_scrb1_day_twoshift!CL2="","",_scrb1_day_twoshift!CL2)</f>
         <v/>
       </c>
-      <c r="P20" s="31" t="str">
-        <f>IF(_scrb1_day_twoshift!CM2="","",_scrb1_day_twoshift!CM2)</f>
-        <v/>
+      <c r="P20" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="R20" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!CN2="","",_scrb1_day_twoshift!CN2)</f>
-        <v/>
+        <v>83</v>
+      </c>
+      <c r="R20" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="S20" s="71"/>
       <c r="T20" s="71"/>
       <c r="U20" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="V20" s="71"/>
+        <v>85</v>
+      </c>
+      <c r="V20" s="17" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:22">
       <c r="A21" s="12"/>
@@ -4393,23 +4422,23 @@
         <f>IF(_scrb1_day_twoshift!CL3="","",_scrb1_day_twoshift!CL3)</f>
         <v/>
       </c>
-      <c r="P21" s="31" t="str">
-        <f>IF(_scrb1_day_twoshift!CM3="","",_scrb1_day_twoshift!CM3)</f>
-        <v/>
+      <c r="P21" s="31" t="s">
+        <v>87</v>
       </c>
       <c r="Q21" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="R21" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!CN3="","",_scrb1_day_twoshift!CN3)</f>
-        <v/>
+        <v>88</v>
+      </c>
+      <c r="R21" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="S21" s="71"/>
       <c r="T21" s="71"/>
       <c r="U21" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="V21" s="71"/>
+        <v>90</v>
+      </c>
+      <c r="V21" s="17" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="22" ht="26" customHeight="1" spans="1:22">
       <c r="A22" s="13"/>
@@ -4418,7 +4447,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="I22" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J22" s="44">
         <f t="shared" ref="J22:R22" si="2">IF(SUM(J20:J21)="","",SUM(J20:J21))</f>
@@ -4444,17 +4473,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P22" s="31">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="P22" s="31" t="s">
+        <v>93</v>
       </c>
       <c r="Q22" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R22" s="31">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="R22" s="31" t="s">
+        <v>94</v>
       </c>
       <c r="S22" s="71">
         <f>SUM(S20:S21)</f>
@@ -4468,21 +4495,23 @@
         <f>SUM(U20:U21)</f>
         <v>0</v>
       </c>
-      <c r="V22" s="71"/>
+      <c r="V22" s="17" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="23" ht="26.25" spans="1:37">
       <c r="A23" s="14" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I23" s="45"/>
       <c r="J23" s="45"/>
@@ -4519,7 +4548,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -4528,26 +4557,26 @@
         <v>8</v>
       </c>
       <c r="J24" s="47" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="K24" s="48"/>
       <c r="L24" s="49" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="M24" s="50"/>
       <c r="N24" s="51" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="O24" s="52" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="P24" s="53"/>
       <c r="Q24" s="15" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="R24" s="16"/>
-      <c r="S24" s="75"/>
-      <c r="T24" s="75"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="74"/>
     </row>
     <row r="25" ht="28" customHeight="1" spans="1:20">
       <c r="A25" s="19"/>
@@ -4581,8 +4610,8 @@
       <c r="R25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="S25" s="75"/>
-      <c r="T25" s="75"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="74"/>
     </row>
     <row r="26" ht="21" customHeight="1" spans="1:20">
       <c r="A26" s="19"/>
@@ -4591,22 +4620,22 @@
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="I26" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J26" s="31" t="str">
-        <f>IF(_scrb1_day_twoshift!CP2="","",_scrb1_day_twoshift!CP2)</f>
+        <f>IF(_scrb1_day_twoshift!CR2="","",_scrb1_day_twoshift!CR2)</f>
         <v/>
       </c>
       <c r="K26" s="31" t="str">
-        <f>IF(_scrb1_day_twoshift!CP3="","",_scrb1_day_twoshift!CP3)</f>
+        <f>IF(_scrb1_day_twoshift!CR3="","",_scrb1_day_twoshift!CR3)</f>
         <v/>
       </c>
       <c r="L26" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CQ2="","",_scrb1_day_twoshift!CQ2)</f>
+        <f>IF(_scrb1_day_twoshift!CS2="","",_scrb1_day_twoshift!CS2)</f>
         <v/>
       </c>
       <c r="M26" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CQ3="","",_scrb1_day_twoshift!CQ3)</f>
+        <f>IF(_scrb1_day_twoshift!CS3="","",_scrb1_day_twoshift!CS3)</f>
         <v/>
       </c>
       <c r="N26" s="56">
@@ -4614,23 +4643,23 @@
         <v>0</v>
       </c>
       <c r="O26" s="57" t="str">
-        <f>IFERROR(B4/12*L26,"")</f>
+        <f>IFERROR(L26/B4,"")</f>
         <v/>
       </c>
       <c r="P26" s="57" t="str">
-        <f>IFERROR(C4/12*M26,"")</f>
+        <f>IFERROR(M26/C4,"")</f>
         <v/>
       </c>
       <c r="Q26" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!DB2="","",_scrb1_day_twoshift!DB2)</f>
+        <f>IF(_scrb1_day_twoshift!DD2="","",_scrb1_day_twoshift!DD2)</f>
         <v/>
       </c>
       <c r="R26" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!DB3="","",_scrb1_day_twoshift!DB3)</f>
-        <v/>
-      </c>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75"/>
+        <f>IF(_scrb1_day_twoshift!DD3="","",_scrb1_day_twoshift!DD3)</f>
+        <v/>
+      </c>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
     </row>
     <row r="27" ht="21" customHeight="1" spans="1:20">
       <c r="A27" s="19"/>
@@ -4639,22 +4668,22 @@
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="I27" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J27" s="31" t="str">
-        <f>IF(_scrb1_day_twoshift!CR2="","",_scrb1_day_twoshift!CR2)</f>
+        <f>IF(_scrb1_day_twoshift!CT2="","",_scrb1_day_twoshift!CT2)</f>
         <v/>
       </c>
       <c r="K27" s="31" t="str">
-        <f>IF(_scrb1_day_twoshift!CR3="","",_scrb1_day_twoshift!CR3)</f>
+        <f>IF(_scrb1_day_twoshift!CT3="","",_scrb1_day_twoshift!CT3)</f>
         <v/>
       </c>
       <c r="L27" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CS2="","",_scrb1_day_twoshift!CS2)</f>
+        <f>IF(_scrb1_day_twoshift!CU2="","",_scrb1_day_twoshift!CU2)</f>
         <v/>
       </c>
       <c r="M27" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CS3="","",_scrb1_day_twoshift!CS3)</f>
+        <f>IF(_scrb1_day_twoshift!CU3="","",_scrb1_day_twoshift!CU3)</f>
         <v/>
       </c>
       <c r="N27" s="56">
@@ -4662,23 +4691,23 @@
         <v>0</v>
       </c>
       <c r="O27" s="57" t="str">
-        <f>IFERROR(B4/12*L27,"")</f>
+        <f>IFERROR(L27/B4,"")</f>
         <v/>
       </c>
       <c r="P27" s="57" t="str">
-        <f>IFERROR(C4/12*M27,"")</f>
+        <f>IFERROR(M27/C5,"")</f>
         <v/>
       </c>
       <c r="Q27" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!DC2="","",_scrb1_day_twoshift!DC2)</f>
+        <f>IF(_scrb1_day_twoshift!DE2="","",_scrb1_day_twoshift!DE2)</f>
         <v/>
       </c>
       <c r="R27" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!DC3="","",_scrb1_day_twoshift!DC3)</f>
-        <v/>
-      </c>
-      <c r="S27" s="75"/>
-      <c r="T27" s="75"/>
+        <f>IF(_scrb1_day_twoshift!DE3="","",_scrb1_day_twoshift!DE3)</f>
+        <v/>
+      </c>
+      <c r="S27" s="74"/>
+      <c r="T27" s="74"/>
     </row>
     <row r="28" ht="24" customHeight="1" spans="1:20">
       <c r="A28" s="19"/>
@@ -4687,22 +4716,22 @@
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="I28" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J28" s="31" t="str">
-        <f>IF(_scrb1_day_twoshift!CT2="","",_scrb1_day_twoshift!CT2)</f>
+        <f>IF(_scrb1_day_twoshift!CV2="","",_scrb1_day_twoshift!CV2)</f>
         <v/>
       </c>
       <c r="K28" s="31" t="str">
-        <f>IF(_scrb1_day_twoshift!CT3="","",_scrb1_day_twoshift!CT3)</f>
+        <f>IF(_scrb1_day_twoshift!CV3="","",_scrb1_day_twoshift!CV3)</f>
         <v/>
       </c>
       <c r="L28" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CU2="","",_scrb1_day_twoshift!CU2)</f>
+        <f>IF(_scrb1_day_twoshift!CW2="","",_scrb1_day_twoshift!CW2)</f>
         <v/>
       </c>
       <c r="M28" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CU3="","",_scrb1_day_twoshift!CU3)</f>
+        <f>IF(_scrb1_day_twoshift!CW3="","",_scrb1_day_twoshift!CW3)</f>
         <v/>
       </c>
       <c r="N28" s="56">
@@ -4710,23 +4739,23 @@
         <v>0</v>
       </c>
       <c r="O28" s="57" t="str">
-        <f>IFERROR(B4/12*L28,"")</f>
+        <f>IFERROR(L28/B4,"")</f>
         <v/>
       </c>
       <c r="P28" s="57" t="str">
-        <f>IFERROR(C4/12*M28,"")</f>
+        <f>IFERROR(M28/C4,"")</f>
         <v/>
       </c>
       <c r="Q28" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!DD2="","",_scrb1_day_twoshift!DD2)</f>
+        <f>IF(_scrb1_day_twoshift!DF2="","",_scrb1_day_twoshift!DF2)</f>
         <v/>
       </c>
       <c r="R28" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!DD3="","",_scrb1_day_twoshift!DD3)</f>
-        <v/>
-      </c>
-      <c r="S28" s="75"/>
-      <c r="T28" s="75"/>
+        <f>IF(_scrb1_day_twoshift!DF3="","",_scrb1_day_twoshift!DF3)</f>
+        <v/>
+      </c>
+      <c r="S28" s="74"/>
+      <c r="T28" s="74"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:20">
       <c r="A29" s="19"/>
@@ -4735,22 +4764,22 @@
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="I29" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J29" s="31" t="str">
-        <f>IF(_scrb1_day_twoshift!CV2="","",_scrb1_day_twoshift!CV2)</f>
+        <f>IF(_scrb1_day_twoshift!CX2="","",_scrb1_day_twoshift!CX2)</f>
         <v/>
       </c>
       <c r="K29" s="31" t="str">
-        <f>IF(_scrb1_day_twoshift!CV3="","",_scrb1_day_twoshift!CV3)</f>
+        <f>IF(_scrb1_day_twoshift!CX3="","",_scrb1_day_twoshift!CX3)</f>
         <v/>
       </c>
       <c r="L29" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CW2="","",_scrb1_day_twoshift!CW2)</f>
+        <f>IF(_scrb1_day_twoshift!CY2="","",_scrb1_day_twoshift!CY2)</f>
         <v/>
       </c>
       <c r="M29" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CW3="","",_scrb1_day_twoshift!CW3)</f>
+        <f>IF(_scrb1_day_twoshift!CY3="","",_scrb1_day_twoshift!CY3)</f>
         <v/>
       </c>
       <c r="N29" s="56">
@@ -4758,23 +4787,23 @@
         <v>0</v>
       </c>
       <c r="O29" s="57" t="str">
-        <f>IFERROR(B4/12*L29,"")</f>
+        <f>IFERROR(L29/B4,"")</f>
         <v/>
       </c>
       <c r="P29" s="57" t="str">
-        <f>IFERROR(C4/12*M29,"")</f>
+        <f>IFERROR(M29/C4,"")</f>
         <v/>
       </c>
       <c r="Q29" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!DE2="","",_scrb1_day_twoshift!DE2)</f>
+        <f>IF(_scrb1_day_twoshift!DG2="","",_scrb1_day_twoshift!DG2)</f>
         <v/>
       </c>
       <c r="R29" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!DE3="","",_scrb1_day_twoshift!DE3)</f>
-        <v/>
-      </c>
-      <c r="S29" s="75"/>
-      <c r="T29" s="75"/>
+        <f>IF(_scrb1_day_twoshift!DG3="","",_scrb1_day_twoshift!DG3)</f>
+        <v/>
+      </c>
+      <c r="S29" s="74"/>
+      <c r="T29" s="74"/>
     </row>
     <row r="30" ht="26" customHeight="1" spans="1:20">
       <c r="A30" s="19"/>
@@ -4783,22 +4812,22 @@
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="I30" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J30" s="31" t="str">
-        <f>IF(_scrb1_day_twoshift!CX2="","",_scrb1_day_twoshift!CX2)</f>
+        <f>IF(_scrb1_day_twoshift!CZ2="","",_scrb1_day_twoshift!CZ2)</f>
         <v/>
       </c>
       <c r="K30" s="31" t="str">
-        <f>IF(_scrb1_day_twoshift!CX3="","",_scrb1_day_twoshift!CX3)</f>
+        <f>IF(_scrb1_day_twoshift!CZ3="","",_scrb1_day_twoshift!CZ3)</f>
         <v/>
       </c>
       <c r="L30" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CY2="","",_scrb1_day_twoshift!CY2)</f>
+        <f>IF(_scrb1_day_twoshift!DA2="","",_scrb1_day_twoshift!DA2)</f>
         <v/>
       </c>
       <c r="M30" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!CY3="","",_scrb1_day_twoshift!CY3)</f>
+        <f>IF(_scrb1_day_twoshift!DA3="","",_scrb1_day_twoshift!DA3)</f>
         <v/>
       </c>
       <c r="N30" s="56">
@@ -4806,23 +4835,23 @@
         <v>0</v>
       </c>
       <c r="O30" s="57" t="str">
-        <f>IFERROR(B4/12*L30,"")</f>
+        <f>IFERROR(L30/B4,"")</f>
         <v/>
       </c>
       <c r="P30" s="57" t="str">
-        <f>IFERROR(C4/12*M30,"")</f>
+        <f>IFERROR(M30/C4,"")</f>
         <v/>
       </c>
       <c r="Q30" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!DF2="","",_scrb1_day_twoshift!DF2)</f>
+        <f>IF(_scrb1_day_twoshift!DH2="","",_scrb1_day_twoshift!DH2)</f>
         <v/>
       </c>
       <c r="R30" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!DF3="","",_scrb1_day_twoshift!DF3)</f>
-        <v/>
-      </c>
-      <c r="S30" s="75"/>
-      <c r="T30" s="75"/>
+        <f>IF(_scrb1_day_twoshift!DH3="","",_scrb1_day_twoshift!DH3)</f>
+        <v/>
+      </c>
+      <c r="S30" s="74"/>
+      <c r="T30" s="74"/>
     </row>
     <row r="31" ht="26" customHeight="1" spans="1:20">
       <c r="A31" s="20"/>
@@ -4831,22 +4860,22 @@
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="I31" s="14" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J31" s="58" t="str">
-        <f>IF(_scrb1_day_twoshift!CZ2="","",_scrb1_day_twoshift!CZ2)</f>
+        <f>IF(_scrb1_day_twoshift!DB2="","",_scrb1_day_twoshift!DB2)</f>
         <v/>
       </c>
       <c r="K31" s="58" t="str">
-        <f>IF(_scrb1_day_twoshift!CZ3="","",_scrb1_day_twoshift!CZ3)</f>
+        <f>IF(_scrb1_day_twoshift!DB3="","",_scrb1_day_twoshift!DB3)</f>
         <v/>
       </c>
       <c r="L31" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!DA2="","",_scrb1_day_twoshift!DA2)</f>
+        <f>IF(_scrb1_day_twoshift!DC2="","",_scrb1_day_twoshift!DC2)</f>
         <v/>
       </c>
       <c r="M31" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!DA3="","",_scrb1_day_twoshift!DA3)</f>
+        <f>IF(_scrb1_day_twoshift!DC3="","",_scrb1_day_twoshift!DC3)</f>
         <v/>
       </c>
       <c r="N31" s="17">
@@ -4854,23 +4883,23 @@
         <v>0</v>
       </c>
       <c r="O31" s="57" t="str">
-        <f>IFERROR(B4/12*L31,"")</f>
+        <f>IFERROR(L31/B4,"")</f>
         <v/>
       </c>
       <c r="P31" s="57" t="str">
-        <f>IFERROR(C4/12*M31,"")</f>
+        <f>IFERROR(M31/C4,"")</f>
         <v/>
       </c>
       <c r="Q31" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!DG2="","",_scrb1_day_twoshift!DG2)</f>
+        <f>IF(_scrb1_day_twoshift!DI2="","",_scrb1_day_twoshift!DI2)</f>
         <v/>
       </c>
       <c r="R31" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!DG3="","",_scrb1_day_twoshift!DG3)</f>
-        <v/>
-      </c>
-      <c r="S31" s="75"/>
-      <c r="T31" s="75"/>
+        <f>IF(_scrb1_day_twoshift!DI3="","",_scrb1_day_twoshift!DI3)</f>
+        <v/>
+      </c>
+      <c r="S31" s="74"/>
+      <c r="T31" s="74"/>
     </row>
     <row r="32" ht="26" customHeight="1" spans="1:5">
       <c r="A32" s="20"/>
@@ -4888,58 +4917,58 @@
     </row>
     <row r="34" ht="29" customHeight="1" spans="1:5">
       <c r="A34" s="14" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="17" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" ht="30" customHeight="1" spans="1:26">
       <c r="A35" s="14" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="17" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I35" s="59"/>
       <c r="J35" s="11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="N35" s="14" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="P35" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="Q35" s="76"/>
+      <c r="Q35" s="75"/>
       <c r="R35" s="4" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
@@ -4961,25 +4990,25 @@
       <c r="H36" s="22"/>
       <c r="I36" s="59"/>
       <c r="J36" s="60" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L36" s="17" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M36" s="17" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="N36" s="17" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P36" s="61"/>
-      <c r="Q36" s="77"/>
+      <c r="Q36" s="76"/>
       <c r="R36" s="8" t="s">
         <v>34</v>
       </c>
@@ -4998,10 +5027,10 @@
         <v>39</v>
       </c>
       <c r="Y36" s="17" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Z36" s="69" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" ht="13.5" spans="1:26">
@@ -5016,41 +5045,41 @@
       <c r="I37" s="59"/>
       <c r="J37" s="12"/>
       <c r="K37" s="17" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L37" s="17" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P37" s="61"/>
-      <c r="Q37" s="77"/>
+      <c r="Q37" s="76"/>
       <c r="R37" s="8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S37" s="8"/>
       <c r="T37" s="8"/>
       <c r="U37" s="8" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="V37" s="8" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="W37" s="8" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="X37" s="8" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Y37" s="17" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="Z37" s="71"/>
     </row>
@@ -5062,22 +5091,22 @@
         <v>2</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I38" s="59"/>
       <c r="J38" s="13"/>
@@ -5087,7 +5116,7 @@
       <c r="N38" s="17"/>
       <c r="O38" s="17"/>
       <c r="P38" s="4" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="8"/>
@@ -5104,22 +5133,22 @@
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="25" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I39" s="59"/>
       <c r="J39" s="62"/>
@@ -5129,7 +5158,7 @@
       <c r="N39" s="62"/>
       <c r="O39" s="63"/>
       <c r="P39" s="4" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="8"/>
@@ -5144,7 +5173,7 @@
     </row>
     <row r="40" ht="13.5" spans="1:26">
       <c r="A40" s="24" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>26</v>
@@ -5181,7 +5210,7 @@
       <c r="N40" s="64"/>
       <c r="O40" s="65"/>
       <c r="P40" s="4" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="Q40" s="6"/>
       <c r="R40" s="8"/>
@@ -5231,7 +5260,7 @@
       <c r="N41" s="64"/>
       <c r="O41" s="65"/>
       <c r="P41" s="4" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="Q41" s="6"/>
       <c r="R41" s="8"/>
@@ -5260,7 +5289,7 @@
       <c r="N42" s="64"/>
       <c r="O42" s="65"/>
       <c r="P42" s="4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="8"/>
@@ -5275,7 +5304,7 @@
     </row>
     <row r="43" ht="13.5" spans="1:26">
       <c r="A43" s="24" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>26</v>
@@ -5312,7 +5341,7 @@
       <c r="N43" s="66"/>
       <c r="O43" s="67"/>
       <c r="P43" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="8"/>
@@ -5359,14 +5388,14 @@
         <v>2</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="6"/>
       <c r="P44" s="4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="Q44" s="6"/>
       <c r="R44" s="8"/>
@@ -5390,35 +5419,35 @@
       <c r="I45" s="68"/>
       <c r="J45" s="13"/>
       <c r="K45" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="M45" s="17" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="N45" s="69" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="O45" s="17" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="P45" s="70"/>
-      <c r="Q45" s="78"/>
-      <c r="R45" s="78"/>
-      <c r="S45" s="78"/>
-      <c r="T45" s="78"/>
-      <c r="U45" s="78"/>
-      <c r="V45" s="78"/>
-      <c r="W45" s="78"/>
-      <c r="X45" s="78"/>
-      <c r="Y45" s="78"/>
-      <c r="Z45" s="78"/>
+      <c r="Q45" s="77"/>
+      <c r="R45" s="77"/>
+      <c r="S45" s="77"/>
+      <c r="T45" s="77"/>
+      <c r="U45" s="77"/>
+      <c r="V45" s="77"/>
+      <c r="W45" s="77"/>
+      <c r="X45" s="77"/>
+      <c r="Y45" s="77"/>
+      <c r="Z45" s="77"/>
     </row>
     <row r="46" ht="13.5" spans="1:26">
       <c r="A46" s="4" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="8" t="str">
@@ -5450,33 +5479,33 @@
         <v>26</v>
       </c>
       <c r="K46" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!DJ2="","",_scrb1_day_twoshift!DJ2)</f>
+        <f>IF(_scrb1_day_twoshift!DL2="","",_scrb1_day_twoshift!DL2)</f>
         <v/>
       </c>
       <c r="L46" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!DK2="","",_scrb1_day_twoshift!DK2)</f>
+        <f>IF(_scrb1_day_twoshift!DM2="","",_scrb1_day_twoshift!DM2)</f>
         <v/>
       </c>
       <c r="M46" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!DL2="","",_scrb1_day_twoshift!DL2)</f>
+        <f>IF(_scrb1_day_twoshift!DN2="","",_scrb1_day_twoshift!DN2)</f>
         <v/>
       </c>
       <c r="N46" s="71"/>
       <c r="O46" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!DM2="","",_scrb1_day_twoshift!DM2)</f>
+        <f>IF(_scrb1_day_twoshift!DO2="","",_scrb1_day_twoshift!DO2)</f>
         <v/>
       </c>
       <c r="P46" s="72"/>
-      <c r="Q46" s="79"/>
-      <c r="R46" s="79"/>
-      <c r="S46" s="79"/>
-      <c r="T46" s="79"/>
-      <c r="U46" s="79"/>
-      <c r="V46" s="79"/>
-      <c r="W46" s="79"/>
-      <c r="X46" s="79"/>
-      <c r="Y46" s="79"/>
-      <c r="Z46" s="79"/>
+      <c r="Q46" s="78"/>
+      <c r="R46" s="78"/>
+      <c r="S46" s="78"/>
+      <c r="T46" s="78"/>
+      <c r="U46" s="78"/>
+      <c r="V46" s="78"/>
+      <c r="W46" s="78"/>
+      <c r="X46" s="78"/>
+      <c r="Y46" s="78"/>
+      <c r="Z46" s="78"/>
     </row>
     <row r="47" ht="13.5" spans="1:26">
       <c r="A47" s="29"/>
@@ -5492,49 +5521,49 @@
         <v>28</v>
       </c>
       <c r="K47" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!DJ3="","",_scrb1_day_twoshift!DJ3)</f>
+        <f>IF(_scrb1_day_twoshift!DL3="","",_scrb1_day_twoshift!DL3)</f>
         <v/>
       </c>
       <c r="L47" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!DK3="","",_scrb1_day_twoshift!DK3)</f>
+        <f>IF(_scrb1_day_twoshift!DM3="","",_scrb1_day_twoshift!DM3)</f>
         <v/>
       </c>
       <c r="M47" s="8" t="str">
-        <f>IF(_scrb1_day_twoshift!DL3="","",_scrb1_day_twoshift!DL3)</f>
+        <f>IF(_scrb1_day_twoshift!DN3="","",_scrb1_day_twoshift!DN3)</f>
         <v/>
       </c>
       <c r="N47" s="71"/>
       <c r="O47" s="17" t="str">
-        <f>IF(_scrb1_day_twoshift!DM3="","",_scrb1_day_twoshift!DM3)</f>
+        <f>IF(_scrb1_day_twoshift!DO3="","",_scrb1_day_twoshift!DO3)</f>
         <v/>
       </c>
       <c r="P47" s="72"/>
-      <c r="Q47" s="79"/>
-      <c r="R47" s="79"/>
-      <c r="S47" s="79"/>
-      <c r="T47" s="79"/>
-      <c r="U47" s="79"/>
-      <c r="V47" s="79"/>
-      <c r="W47" s="79"/>
-      <c r="X47" s="79"/>
-      <c r="Y47" s="79"/>
-      <c r="Z47" s="79"/>
+      <c r="Q47" s="78"/>
+      <c r="R47" s="78"/>
+      <c r="S47" s="78"/>
+      <c r="T47" s="78"/>
+      <c r="U47" s="78"/>
+      <c r="V47" s="78"/>
+      <c r="W47" s="78"/>
+      <c r="X47" s="78"/>
+      <c r="Y47" s="78"/>
+      <c r="Z47" s="78"/>
     </row>
     <row r="48" ht="13.5" spans="1:20">
       <c r="A48" s="11" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -5549,8 +5578,8 @@
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="6"/>
-      <c r="S48" s="80"/>
-      <c r="T48" s="80"/>
+      <c r="S48" s="79"/>
+      <c r="T48" s="79"/>
     </row>
     <row r="49" ht="13.5" spans="1:20">
       <c r="A49" s="13"/>
@@ -5574,44 +5603,44 @@
         <v>23</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="Q49" s="8" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="R49" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="S49" s="80"/>
-      <c r="T49" s="80"/>
+        <v>172</v>
+      </c>
+      <c r="S49" s="79"/>
+      <c r="T49" s="79"/>
     </row>
     <row r="50" ht="13.5" spans="1:20">
       <c r="A50" s="11" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C50" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!AK2="","",_scrb1_day_twoshift!AK2)</f>
@@ -5677,13 +5706,13 @@
         <f>IF(_scrb1_day_twoshift!AZ2="","",_scrb1_day_twoshift!AZ2)</f>
         <v/>
       </c>
-      <c r="S50" s="80"/>
-      <c r="T50" s="80"/>
+      <c r="S50" s="79"/>
+      <c r="T50" s="79"/>
     </row>
     <row r="51" ht="13.5" spans="1:20">
       <c r="A51" s="13"/>
       <c r="B51" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C51" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!AK3="","",_scrb1_day_twoshift!AK3)</f>
@@ -5749,15 +5778,15 @@
         <f>IF(_scrb1_day_twoshift!AZ3="","",_scrb1_day_twoshift!AZ3)</f>
         <v/>
       </c>
-      <c r="S51" s="80"/>
-      <c r="T51" s="80"/>
+      <c r="S51" s="79"/>
+      <c r="T51" s="79"/>
     </row>
     <row r="52" ht="13.5" spans="1:20">
       <c r="A52" s="11" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C52" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!BB2="","",_scrb1_day_twoshift!BB2)</f>
@@ -5823,13 +5852,13 @@
         <f>IF(_scrb1_day_twoshift!BQ2="","",_scrb1_day_twoshift!BQ2)</f>
         <v/>
       </c>
-      <c r="S52" s="80"/>
-      <c r="T52" s="80"/>
+      <c r="S52" s="79"/>
+      <c r="T52" s="79"/>
     </row>
     <row r="53" ht="13.5" spans="1:20">
       <c r="A53" s="13"/>
       <c r="B53" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C53" s="8" t="str">
         <f>IF(_scrb1_day_twoshift!BB3="","",_scrb1_day_twoshift!BB3)</f>
@@ -5895,8 +5924,8 @@
         <f>IF(_scrb1_day_twoshift!BQ3="","",_scrb1_day_twoshift!BQ3)</f>
         <v/>
       </c>
-      <c r="S53" s="80"/>
-      <c r="T53" s="80"/>
+      <c r="S53" s="79"/>
+      <c r="T53" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -5959,346 +5988,352 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:DM1"/>
+  <dimension ref="A1:DO1"/>
   <sheetViews>
-    <sheetView topLeftCell="CO1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="CN1" sqref="CN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="53" width="35.625" customWidth="1"/>
     <col min="54" max="70" width="32.625" customWidth="1"/>
-    <col min="71" max="118" width="30.625" customWidth="1"/>
+    <col min="71" max="120" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:117">
+    <row r="1" spans="1:119">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="R1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="S1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="T1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="U1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="V1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="W1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="X1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="Y1" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="Z1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="AA1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="AB1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="AC1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="AD1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="AE1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="AF1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="AG1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AH1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AI1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="BX1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BY1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="BZ1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="CA1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="CB1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="CC1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="CD1" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="CE1" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="CF1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="CH1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="CI1" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="CJ1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="CK1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="CL1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="CM1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="CN1" t="s">
-        <v>252</v>
+        <v>261</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>262</v>
       </c>
       <c r="CP1" t="s">
-        <v>253</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="CR1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="CS1" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="CT1" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="CU1" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="CV1" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="CW1" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="CX1" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="CY1" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="CZ1" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="DA1" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="DB1" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="DC1" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="DD1" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="DE1" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="DF1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="DG1" t="s">
-        <v>270</v>
+        <v>279</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>280</v>
       </c>
       <c r="DI1" t="s">
-        <v>143</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="DK1" t="s">
-        <v>272</v>
+        <v>152</v>
       </c>
       <c r="DL1" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="DM1" t="s">
-        <v>274</v>
+        <v>283</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>284</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -6320,7 +6355,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="B1">
         <v>4</v>

--- a/excel/finished/wg4#烧结/4烧结生产报表.xlsx
+++ b/excel/finished/wg4#烧结/4烧结生产报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9570"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="生产日报" sheetId="1" r:id="rId1"/>
@@ -2105,11 +2105,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2139,22 +2139,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2169,14 +2161,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2191,22 +2228,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -2214,53 +2235,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2279,6 +2256,29 @@
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2310,13 +2310,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2328,7 +2358,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2340,7 +2400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2352,7 +2412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2370,7 +2430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2382,31 +2442,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2424,67 +2478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2693,54 +2693,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2776,6 +2732,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2790,16 +2775,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2808,137 +2808,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2991,9 +2991,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3085,9 +3082,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3097,13 +3091,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3491,7 +3485,7 @@
   <dimension ref="A1:AK53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3521,10 +3515,10 @@
       <c r="I2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="29" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="7" t="s">
@@ -3561,10 +3555,10 @@
         <v>11</v>
       </c>
       <c r="I3" s="13"/>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="30" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="8" t="s">
@@ -3622,19 +3616,19 @@
       <c r="I4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="31" t="str">
+      <c r="J4" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!BS2="","",_scrb1_day_twoshift!BS2)</f>
         <v/>
       </c>
-      <c r="K4" s="31" t="str">
+      <c r="K4" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!BT2="","",_scrb1_day_twoshift!BT2)</f>
         <v/>
       </c>
-      <c r="L4" s="31" t="str">
+      <c r="L4" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!BU2="","",_scrb1_day_twoshift!BU2)</f>
         <v/>
       </c>
-      <c r="M4" s="31" t="str">
+      <c r="M4" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!BV2="","",_scrb1_day_twoshift!BV2)</f>
         <v/>
       </c>
@@ -3696,19 +3690,19 @@
       <c r="I5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="31" t="str">
+      <c r="J5" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!BS3="","",_scrb1_day_twoshift!BS3)</f>
         <v/>
       </c>
-      <c r="K5" s="31" t="str">
+      <c r="K5" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!BT3="","",_scrb1_day_twoshift!BT3)</f>
         <v/>
       </c>
-      <c r="L5" s="31" t="str">
+      <c r="L5" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!BU3="","",_scrb1_day_twoshift!BU3)</f>
         <v/>
       </c>
-      <c r="M5" s="31" t="str">
+      <c r="M5" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!BV3="","",_scrb1_day_twoshift!BV3)</f>
         <v/>
       </c>
@@ -3770,44 +3764,44 @@
       <c r="I6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="31" t="str">
+      <c r="J6" s="30" t="str">
         <f t="shared" ref="J6:V6" si="0">IFERROR(AVERAGE(J4:J5),"")</f>
         <v/>
       </c>
-      <c r="K6" s="31" t="str">
+      <c r="K6" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L6" s="31" t="str">
+      <c r="L6" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M6" s="31" t="str">
+      <c r="M6" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N6" s="31" t="str">
+      <c r="N6" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O6" s="31" t="str">
+      <c r="O6" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P6" s="31" t="str">
+      <c r="P6" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q6" s="31" t="str">
+      <c r="Q6" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R6" s="31" t="str">
+      <c r="R6" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
       <c r="U6" s="8" t="str">
         <f>IFERROR(AVERAGE(U4:U5),"")</f>
         <v/>
@@ -3841,22 +3835,22 @@
         <f>IF(_scrb1_day_twoshift!H3="","",_scrb1_day_twoshift!H3)</f>
         <v/>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
     </row>
     <row r="8" ht="25.5" spans="1:24">
       <c r="A8" s="7" t="s">
@@ -3877,10 +3871,10 @@
       <c r="I8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="32" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="8" t="s">
@@ -3925,35 +3919,35 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="34" t="s">
+      <c r="J9" s="26"/>
+      <c r="K9" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="L9" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="35" t="s">
+      <c r="M9" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="N9" s="35" t="s">
+      <c r="N9" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="35" t="s">
+      <c r="O9" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="35" t="s">
+      <c r="P9" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="Q9" s="35" t="s">
+      <c r="Q9" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="R9" s="35" t="s">
+      <c r="R9" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="S9" s="35" t="s">
+      <c r="S9" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="T9" s="35" t="s">
+      <c r="T9" s="34" t="s">
         <v>55</v>
       </c>
       <c r="U9" s="17"/>
@@ -3984,26 +3978,26 @@
         <v/>
       </c>
       <c r="I10" s="8"/>
-      <c r="J10" s="31">
+      <c r="J10" s="30">
         <v>2</v>
       </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="57" t="str">
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="56" t="str">
         <f>IF(SUM(S10:T10)=0,"",SUM(S10:T10))</f>
         <v/>
       </c>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="57"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="56"/>
     </row>
     <row r="11" ht="13.5" spans="1:24">
       <c r="A11" s="8" t="s">
@@ -4022,26 +4016,26 @@
         <v/>
       </c>
       <c r="I11" s="8"/>
-      <c r="J11" s="31">
+      <c r="J11" s="30">
         <v>5</v>
       </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="57" t="str">
+      <c r="K11" s="35"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="56" t="str">
         <f>IF(SUM(S11:T11)=0,"",SUM(S11:T11))</f>
         <v/>
       </c>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="57"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="56"/>
     </row>
     <row r="12" ht="13.5" spans="1:24">
       <c r="A12" s="7" t="s">
@@ -4060,26 +4054,26 @@
         <v/>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="31">
+      <c r="J12" s="30">
         <v>8</v>
       </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="57" t="str">
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="56" t="str">
         <f>IF(SUM(S12:T12)=0,"",SUM(S12:T12))</f>
         <v/>
       </c>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="57"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="56"/>
     </row>
     <row r="13" ht="13.5" spans="1:24">
       <c r="A13" s="9"/>
@@ -4091,26 +4085,26 @@
       <c r="G13" s="9"/>
       <c r="H13" s="10"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="31">
+      <c r="J13" s="30">
         <v>11</v>
       </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="57" t="str">
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="56" t="str">
         <f>IF(SUM(S13:T13)=0,"",SUM(S13:T13))</f>
         <v/>
       </c>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="57"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="56"/>
     </row>
     <row r="14" ht="13.5" spans="1:24">
       <c r="A14" s="7" t="s">
@@ -4129,21 +4123,21 @@
         <v>65</v>
       </c>
       <c r="I14" s="8"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="73"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="71"/>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:24">
       <c r="A15" s="11" t="s">
@@ -4156,21 +4150,21 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="57"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="56"/>
     </row>
     <row r="16" ht="28" customHeight="1" spans="1:24">
       <c r="A16" s="12"/>
@@ -4181,54 +4175,54 @@
       <c r="I16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="36" t="str">
+      <c r="J16" s="30"/>
+      <c r="K16" s="35" t="str">
         <f>IFERROR(AVERAGE(K10:K13),"")</f>
         <v/>
       </c>
-      <c r="L16" s="37" t="str">
+      <c r="L16" s="36" t="str">
         <f t="shared" ref="L16:V16" si="1">IFERROR(AVERAGE(L10:L13),"")</f>
         <v/>
       </c>
-      <c r="M16" s="37" t="str">
+      <c r="M16" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N16" s="37" t="str">
+      <c r="N16" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O16" s="37" t="str">
+      <c r="O16" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P16" s="37" t="str">
+      <c r="P16" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q16" s="37" t="str">
+      <c r="Q16" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R16" s="37" t="str">
+      <c r="R16" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="57" t="str">
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="56" t="str">
         <f>IFERROR(AVERAGE(U10:U13),"")</f>
         <v/>
       </c>
-      <c r="V16" s="37" t="str">
+      <c r="V16" s="36" t="str">
         <f>IFERROR(AVERAGE(V10:V13),"")</f>
         <v/>
       </c>
-      <c r="W16" s="37" t="str">
+      <c r="W16" s="36" t="str">
         <f>IFERROR(AVERAGE(W10:W13),"")</f>
         <v/>
       </c>
-      <c r="X16" s="57" t="str">
+      <c r="X16" s="56" t="str">
         <f>IFERROR(AVERAGE(X10:X13),"")</f>
         <v/>
       </c>
@@ -4239,22 +4233,22 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:22">
       <c r="A18" s="12"/>
@@ -4265,10 +4259,10 @@
       <c r="I18" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="43" t="s">
+      <c r="J18" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="30" t="s">
         <v>68</v>
       </c>
       <c r="L18" s="8" t="s">
@@ -4292,8 +4286,8 @@
       <c r="R18" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
       <c r="U18" s="14" t="s">
         <v>76</v>
       </c>
@@ -4308,10 +4302,10 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="44" t="s">
+      <c r="J19" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="30" t="s">
         <v>79</v>
       </c>
       <c r="L19" s="8" t="s">
@@ -4335,8 +4329,8 @@
       <c r="R19" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="S19" s="71"/>
-      <c r="T19" s="71"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
       <c r="U19" s="17" t="s">
         <v>80</v>
       </c>
@@ -4353,28 +4347,28 @@
       <c r="I20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="44"/>
-      <c r="K20" s="31" t="str">
+      <c r="J20" s="43"/>
+      <c r="K20" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!CH2="","",_scrb1_day_twoshift!CH2)</f>
         <v/>
       </c>
-      <c r="L20" s="31" t="str">
+      <c r="L20" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!CI2="","",_scrb1_day_twoshift!CI2)</f>
         <v/>
       </c>
-      <c r="M20" s="31" t="str">
+      <c r="M20" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!CJ2="","",_scrb1_day_twoshift!CJ2)</f>
         <v/>
       </c>
-      <c r="N20" s="31" t="str">
+      <c r="N20" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!CK2="","",_scrb1_day_twoshift!CK2)</f>
         <v/>
       </c>
-      <c r="O20" s="31" t="str">
+      <c r="O20" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!CL2="","",_scrb1_day_twoshift!CL2)</f>
         <v/>
       </c>
-      <c r="P20" s="31" t="s">
+      <c r="P20" s="30" t="s">
         <v>82</v>
       </c>
       <c r="Q20" s="17" t="s">
@@ -4383,8 +4377,8 @@
       <c r="R20" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
       <c r="U20" s="17" t="s">
         <v>85</v>
       </c>
@@ -4401,28 +4395,28 @@
       <c r="I21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="44"/>
-      <c r="K21" s="31" t="str">
+      <c r="J21" s="43"/>
+      <c r="K21" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!CH3="","",_scrb1_day_twoshift!CH3)</f>
         <v/>
       </c>
-      <c r="L21" s="31" t="str">
+      <c r="L21" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!CI3="","",_scrb1_day_twoshift!CI3)</f>
         <v/>
       </c>
-      <c r="M21" s="31" t="str">
+      <c r="M21" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!CJ3="","",_scrb1_day_twoshift!CJ3)</f>
         <v/>
       </c>
-      <c r="N21" s="31" t="str">
+      <c r="N21" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!CK3="","",_scrb1_day_twoshift!CK3)</f>
         <v/>
       </c>
-      <c r="O21" s="31" t="str">
+      <c r="O21" s="30" t="str">
         <f>IF(_scrb1_day_twoshift!CL3="","",_scrb1_day_twoshift!CL3)</f>
         <v/>
       </c>
-      <c r="P21" s="31" t="s">
+      <c r="P21" s="30" t="s">
         <v>87</v>
       </c>
       <c r="Q21" s="17" t="s">
@@ -4431,8 +4425,8 @@
       <c r="R21" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
       <c r="U21" s="17" t="s">
         <v>90</v>
       </c>
@@ -4449,45 +4443,45 @@
       <c r="I22" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="43">
         <f t="shared" ref="J22:R22" si="2">IF(SUM(J20:J21)="","",SUM(J20:J21))</f>
         <v>0</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M22" s="31">
+      <c r="M22" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N22" s="31">
+      <c r="N22" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O22" s="31">
+      <c r="O22" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P22" s="31" t="s">
+      <c r="P22" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="Q22" s="31">
+      <c r="Q22" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R22" s="31" t="s">
+      <c r="R22" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="S22" s="71">
+      <c r="S22" s="69">
         <f>SUM(S20:S21)</f>
         <v>0</v>
       </c>
-      <c r="T22" s="71">
+      <c r="T22" s="69">
         <f>SUM(T20:T21)</f>
         <v>0</v>
       </c>
@@ -4513,35 +4507,35 @@
       <c r="E23" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="45"/>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="45"/>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="45"/>
-      <c r="AH23" s="45"/>
-      <c r="AI23" s="45"/>
-      <c r="AJ23" s="45"/>
-      <c r="AK23" s="45"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="44"/>
+      <c r="AI23" s="44"/>
+      <c r="AJ23" s="44"/>
+      <c r="AK23" s="44"/>
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:20">
       <c r="A24" s="18" t="s">
@@ -4553,30 +4547,30 @@
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="47" t="s">
+      <c r="J24" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="K24" s="48"/>
-      <c r="L24" s="49" t="s">
+      <c r="K24" s="47"/>
+      <c r="L24" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="M24" s="50"/>
-      <c r="N24" s="51" t="s">
+      <c r="M24" s="49"/>
+      <c r="N24" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="O24" s="52" t="s">
+      <c r="O24" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="P24" s="53"/>
+      <c r="P24" s="51"/>
       <c r="Q24" s="15" t="s">
         <v>105</v>
       </c>
       <c r="R24" s="16"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="74"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
     </row>
     <row r="25" ht="28" customHeight="1" spans="1:20">
       <c r="A25" s="19"/>
@@ -4585,10 +4579,10 @@
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="54" t="s">
+      <c r="J25" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="54" t="s">
+      <c r="K25" s="52" t="s">
         <v>28</v>
       </c>
       <c r="L25" s="7" t="s">
@@ -4597,7 +4591,7 @@
       <c r="M25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N25" s="55"/>
+      <c r="N25" s="53"/>
       <c r="O25" s="14" t="s">
         <v>26</v>
       </c>
@@ -4610,8 +4604,8 @@
       <c r="R25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="S25" s="74"/>
-      <c r="T25" s="74"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
     </row>
     <row r="26" ht="21" customHeight="1" spans="1:20">
       <c r="A26" s="19"/>
@@ -4622,44 +4616,44 @@
       <c r="I26" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="J26" s="31" t="str">
+      <c r="J26" s="35" t="str">
         <f>IF(_scrb1_day_twoshift!CR2="","",_scrb1_day_twoshift!CR2)</f>
         <v/>
       </c>
-      <c r="K26" s="31" t="str">
+      <c r="K26" s="35" t="str">
         <f>IF(_scrb1_day_twoshift!CR3="","",_scrb1_day_twoshift!CR3)</f>
         <v/>
       </c>
-      <c r="L26" s="8" t="str">
+      <c r="L26" s="36" t="str">
+        <f>IFERROR(O26*$B$4,"")</f>
+        <v/>
+      </c>
+      <c r="M26" s="36" t="str">
+        <f>IFERROR(P26*$C$4,"")</f>
+        <v/>
+      </c>
+      <c r="N26" s="54">
+        <f>SUM(L26:M26)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="36" t="str">
         <f>IF(_scrb1_day_twoshift!CS2="","",_scrb1_day_twoshift!CS2)</f>
         <v/>
       </c>
-      <c r="M26" s="8" t="str">
+      <c r="P26" s="36" t="str">
         <f>IF(_scrb1_day_twoshift!CS3="","",_scrb1_day_twoshift!CS3)</f>
         <v/>
       </c>
-      <c r="N26" s="56">
-        <f>SUM(J26:M26)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="57" t="str">
-        <f>IFERROR(L26/B4,"")</f>
-        <v/>
-      </c>
-      <c r="P26" s="57" t="str">
-        <f>IFERROR(M26/C4,"")</f>
-        <v/>
-      </c>
-      <c r="Q26" s="17" t="str">
+      <c r="Q26" s="56" t="str">
         <f>IF(_scrb1_day_twoshift!DD2="","",_scrb1_day_twoshift!DD2)</f>
         <v/>
       </c>
-      <c r="R26" s="17" t="str">
+      <c r="R26" s="56" t="str">
         <f>IF(_scrb1_day_twoshift!DD3="","",_scrb1_day_twoshift!DD3)</f>
         <v/>
       </c>
-      <c r="S26" s="74"/>
-      <c r="T26" s="74"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
     </row>
     <row r="27" ht="21" customHeight="1" spans="1:20">
       <c r="A27" s="19"/>
@@ -4670,44 +4664,44 @@
       <c r="I27" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="J27" s="31" t="str">
+      <c r="J27" s="35" t="str">
         <f>IF(_scrb1_day_twoshift!CT2="","",_scrb1_day_twoshift!CT2)</f>
         <v/>
       </c>
-      <c r="K27" s="31" t="str">
+      <c r="K27" s="35" t="str">
         <f>IF(_scrb1_day_twoshift!CT3="","",_scrb1_day_twoshift!CT3)</f>
         <v/>
       </c>
-      <c r="L27" s="8" t="str">
+      <c r="L27" s="36" t="str">
+        <f>IFERROR(O27*$B$4,"")</f>
+        <v/>
+      </c>
+      <c r="M27" s="36" t="str">
+        <f>IFERROR(P27*$C$4,"")</f>
+        <v/>
+      </c>
+      <c r="N27" s="54">
+        <f>SUM(L27:M27)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="36" t="str">
         <f>IF(_scrb1_day_twoshift!CU2="","",_scrb1_day_twoshift!CU2)</f>
         <v/>
       </c>
-      <c r="M27" s="8" t="str">
+      <c r="P27" s="36" t="str">
         <f>IF(_scrb1_day_twoshift!CU3="","",_scrb1_day_twoshift!CU3)</f>
         <v/>
       </c>
-      <c r="N27" s="56">
-        <f>SUM(J27:M27)</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="57" t="str">
-        <f>IFERROR(L27/B4,"")</f>
-        <v/>
-      </c>
-      <c r="P27" s="57" t="str">
-        <f>IFERROR(M27/C5,"")</f>
-        <v/>
-      </c>
-      <c r="Q27" s="17" t="str">
+      <c r="Q27" s="56" t="str">
         <f>IF(_scrb1_day_twoshift!DE2="","",_scrb1_day_twoshift!DE2)</f>
         <v/>
       </c>
-      <c r="R27" s="17" t="str">
+      <c r="R27" s="56" t="str">
         <f>IF(_scrb1_day_twoshift!DE3="","",_scrb1_day_twoshift!DE3)</f>
         <v/>
       </c>
-      <c r="S27" s="74"/>
-      <c r="T27" s="74"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
     </row>
     <row r="28" ht="24" customHeight="1" spans="1:20">
       <c r="A28" s="19"/>
@@ -4718,44 +4712,44 @@
       <c r="I28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="J28" s="31" t="str">
+      <c r="J28" s="35" t="str">
         <f>IF(_scrb1_day_twoshift!CV2="","",_scrb1_day_twoshift!CV2)</f>
         <v/>
       </c>
-      <c r="K28" s="31" t="str">
+      <c r="K28" s="35" t="str">
         <f>IF(_scrb1_day_twoshift!CV3="","",_scrb1_day_twoshift!CV3)</f>
         <v/>
       </c>
-      <c r="L28" s="8" t="str">
+      <c r="L28" s="36" t="str">
+        <f>IFERROR(O28*$B$4,"")</f>
+        <v/>
+      </c>
+      <c r="M28" s="36" t="str">
+        <f>IFERROR(P28*$C$4,"")</f>
+        <v/>
+      </c>
+      <c r="N28" s="54">
+        <f>SUM(L28:M28)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="36" t="str">
         <f>IF(_scrb1_day_twoshift!CW2="","",_scrb1_day_twoshift!CW2)</f>
         <v/>
       </c>
-      <c r="M28" s="8" t="str">
+      <c r="P28" s="36" t="str">
         <f>IF(_scrb1_day_twoshift!CW3="","",_scrb1_day_twoshift!CW3)</f>
         <v/>
       </c>
-      <c r="N28" s="56">
-        <f>SUM(J28:M28)</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="57" t="str">
-        <f>IFERROR(L28/B4,"")</f>
-        <v/>
-      </c>
-      <c r="P28" s="57" t="str">
-        <f>IFERROR(M28/C4,"")</f>
-        <v/>
-      </c>
-      <c r="Q28" s="17" t="str">
+      <c r="Q28" s="56" t="str">
         <f>IF(_scrb1_day_twoshift!DF2="","",_scrb1_day_twoshift!DF2)</f>
         <v/>
       </c>
-      <c r="R28" s="17" t="str">
+      <c r="R28" s="56" t="str">
         <f>IF(_scrb1_day_twoshift!DF3="","",_scrb1_day_twoshift!DF3)</f>
         <v/>
       </c>
-      <c r="S28" s="74"/>
-      <c r="T28" s="74"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:20">
       <c r="A29" s="19"/>
@@ -4766,44 +4760,44 @@
       <c r="I29" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="J29" s="31" t="str">
+      <c r="J29" s="35" t="str">
         <f>IF(_scrb1_day_twoshift!CX2="","",_scrb1_day_twoshift!CX2)</f>
         <v/>
       </c>
-      <c r="K29" s="31" t="str">
+      <c r="K29" s="35" t="str">
         <f>IF(_scrb1_day_twoshift!CX3="","",_scrb1_day_twoshift!CX3)</f>
         <v/>
       </c>
-      <c r="L29" s="8" t="str">
+      <c r="L29" s="36" t="str">
+        <f>IFERROR(O29*$B$4,"")</f>
+        <v/>
+      </c>
+      <c r="M29" s="36" t="str">
+        <f>IFERROR(P29*$C$4,"")</f>
+        <v/>
+      </c>
+      <c r="N29" s="54">
+        <f>SUM(L29:M29)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="36" t="str">
         <f>IF(_scrb1_day_twoshift!CY2="","",_scrb1_day_twoshift!CY2)</f>
         <v/>
       </c>
-      <c r="M29" s="8" t="str">
+      <c r="P29" s="36" t="str">
         <f>IF(_scrb1_day_twoshift!CY3="","",_scrb1_day_twoshift!CY3)</f>
         <v/>
       </c>
-      <c r="N29" s="56">
-        <f>SUM(J29:M29)</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="57" t="str">
-        <f>IFERROR(L29/B4,"")</f>
-        <v/>
-      </c>
-      <c r="P29" s="57" t="str">
-        <f>IFERROR(M29/C4,"")</f>
-        <v/>
-      </c>
-      <c r="Q29" s="17" t="str">
+      <c r="Q29" s="56" t="str">
         <f>IF(_scrb1_day_twoshift!DG2="","",_scrb1_day_twoshift!DG2)</f>
         <v/>
       </c>
-      <c r="R29" s="17" t="str">
+      <c r="R29" s="56" t="str">
         <f>IF(_scrb1_day_twoshift!DG3="","",_scrb1_day_twoshift!DG3)</f>
         <v/>
       </c>
-      <c r="S29" s="74"/>
-      <c r="T29" s="74"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
     </row>
     <row r="30" ht="26" customHeight="1" spans="1:20">
       <c r="A30" s="19"/>
@@ -4814,47 +4808,47 @@
       <c r="I30" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J30" s="31" t="str">
+      <c r="J30" s="35" t="str">
         <f>IF(_scrb1_day_twoshift!CZ2="","",_scrb1_day_twoshift!CZ2)</f>
         <v/>
       </c>
-      <c r="K30" s="31" t="str">
+      <c r="K30" s="35" t="str">
         <f>IF(_scrb1_day_twoshift!CZ3="","",_scrb1_day_twoshift!CZ3)</f>
         <v/>
       </c>
-      <c r="L30" s="8" t="str">
+      <c r="L30" s="36" t="str">
+        <f>IFERROR(O30*$B$4,"")</f>
+        <v/>
+      </c>
+      <c r="M30" s="36" t="str">
+        <f>IFERROR(P30*$C$4,"")</f>
+        <v/>
+      </c>
+      <c r="N30" s="54">
+        <f>SUM(L30:M30)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="36" t="str">
         <f>IF(_scrb1_day_twoshift!DA2="","",_scrb1_day_twoshift!DA2)</f>
         <v/>
       </c>
-      <c r="M30" s="8" t="str">
+      <c r="P30" s="36" t="str">
         <f>IF(_scrb1_day_twoshift!DA3="","",_scrb1_day_twoshift!DA3)</f>
         <v/>
       </c>
-      <c r="N30" s="56">
-        <f>SUM(J30:M30)</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="57" t="str">
-        <f>IFERROR(L30/B4,"")</f>
-        <v/>
-      </c>
-      <c r="P30" s="57" t="str">
-        <f>IFERROR(M30/C4,"")</f>
-        <v/>
-      </c>
-      <c r="Q30" s="17" t="str">
+      <c r="Q30" s="56" t="str">
         <f>IF(_scrb1_day_twoshift!DH2="","",_scrb1_day_twoshift!DH2)</f>
         <v/>
       </c>
-      <c r="R30" s="17" t="str">
+      <c r="R30" s="56" t="str">
         <f>IF(_scrb1_day_twoshift!DH3="","",_scrb1_day_twoshift!DH3)</f>
         <v/>
       </c>
-      <c r="S30" s="74"/>
-      <c r="T30" s="74"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
     </row>
     <row r="31" ht="26" customHeight="1" spans="1:20">
-      <c r="A31" s="20"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -4862,54 +4856,54 @@
       <c r="I31" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="J31" s="58" t="str">
+      <c r="J31" s="55" t="str">
         <f>IF(_scrb1_day_twoshift!DB2="","",_scrb1_day_twoshift!DB2)</f>
         <v/>
       </c>
-      <c r="K31" s="58" t="str">
+      <c r="K31" s="55" t="str">
         <f>IF(_scrb1_day_twoshift!DB3="","",_scrb1_day_twoshift!DB3)</f>
         <v/>
       </c>
-      <c r="L31" s="17" t="str">
+      <c r="L31" s="36" t="str">
+        <f>IFERROR(O31*$B$4,"")</f>
+        <v/>
+      </c>
+      <c r="M31" s="36" t="str">
+        <f>IFERROR(P31*$C$4,"")</f>
+        <v/>
+      </c>
+      <c r="N31" s="54">
+        <f>SUM(L31:M31)</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="56" t="str">
         <f>IF(_scrb1_day_twoshift!DC2="","",_scrb1_day_twoshift!DC2)</f>
         <v/>
       </c>
-      <c r="M31" s="17" t="str">
+      <c r="P31" s="56" t="str">
         <f>IF(_scrb1_day_twoshift!DC3="","",_scrb1_day_twoshift!DC3)</f>
         <v/>
       </c>
-      <c r="N31" s="17">
-        <f>SUM(J31:M31)</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="57" t="str">
-        <f>IFERROR(L31/B4,"")</f>
-        <v/>
-      </c>
-      <c r="P31" s="57" t="str">
-        <f>IFERROR(M31/C4,"")</f>
-        <v/>
-      </c>
-      <c r="Q31" s="17" t="str">
+      <c r="Q31" s="56" t="str">
         <f>IF(_scrb1_day_twoshift!DI2="","",_scrb1_day_twoshift!DI2)</f>
         <v/>
       </c>
-      <c r="R31" s="17" t="str">
+      <c r="R31" s="56" t="str">
         <f>IF(_scrb1_day_twoshift!DI3="","",_scrb1_day_twoshift!DI3)</f>
         <v/>
       </c>
-      <c r="S31" s="74"/>
-      <c r="T31" s="74"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
     </row>
     <row r="32" ht="26" customHeight="1" spans="1:5">
-      <c r="A32" s="20"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
     </row>
     <row r="33" ht="26" customHeight="1" spans="1:5">
-      <c r="A33" s="21"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -4944,7 +4938,7 @@
       <c r="E35" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="I35" s="59"/>
+      <c r="I35" s="57"/>
       <c r="J35" s="11" t="s">
         <v>117</v>
       </c>
@@ -4963,10 +4957,10 @@
       <c r="O35" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="P35" s="46" t="s">
+      <c r="P35" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="Q35" s="75"/>
+      <c r="Q35" s="73"/>
       <c r="R35" s="4" t="s">
         <v>123</v>
       </c>
@@ -4980,16 +4974,16 @@
       <c r="Z35" s="6"/>
     </row>
     <row r="36" ht="13.5" spans="1:26">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="60" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="58" t="s">
         <v>124</v>
       </c>
       <c r="K36" s="17" t="s">
@@ -5007,8 +5001,8 @@
       <c r="O36" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="P36" s="61"/>
-      <c r="Q36" s="76"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="74"/>
       <c r="R36" s="8" t="s">
         <v>34</v>
       </c>
@@ -5029,20 +5023,20 @@
       <c r="Y36" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="Z36" s="69" t="s">
+      <c r="Z36" s="67" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="37" ht="13.5" spans="1:26">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="59"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="57"/>
       <c r="J37" s="12"/>
       <c r="K37" s="17" t="s">
         <v>128</v>
@@ -5059,8 +5053,8 @@
       <c r="O37" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="76"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="74"/>
       <c r="R37" s="8" t="s">
         <v>133</v>
       </c>
@@ -5081,7 +5075,7 @@
       <c r="Y37" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="Z37" s="71"/>
+      <c r="Z37" s="69"/>
     </row>
     <row r="38" ht="13.5" spans="1:26">
       <c r="A38" s="11" t="s">
@@ -5096,19 +5090,19 @@
       <c r="D38" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="H38" s="24" t="s">
+      <c r="H38" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="I38" s="59"/>
+      <c r="I38" s="57"/>
       <c r="J38" s="13"/>
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
@@ -5127,36 +5121,36 @@
       <c r="W38" s="8"/>
       <c r="X38" s="8"/>
       <c r="Y38" s="17"/>
-      <c r="Z38" s="71"/>
+      <c r="Z38" s="69"/>
     </row>
     <row r="39" ht="13.5" spans="1:26">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="H39" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="I39" s="59"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="63"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="61"/>
       <c r="P39" s="4" t="s">
         <v>148</v>
       </c>
@@ -5169,10 +5163,10 @@
       <c r="W39" s="8"/>
       <c r="X39" s="8"/>
       <c r="Y39" s="17"/>
-      <c r="Z39" s="71"/>
+      <c r="Z39" s="69"/>
     </row>
     <row r="40" ht="13.5" spans="1:26">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="23" t="s">
         <v>149</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -5202,13 +5196,13 @@
         <f>IF(_scrb1_day_twoshift!AG2="","",_scrb1_day_twoshift!AG2)</f>
         <v/>
       </c>
-      <c r="I40" s="59"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="64"/>
-      <c r="N40" s="64"/>
-      <c r="O40" s="65"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="63"/>
       <c r="P40" s="4" t="s">
         <v>150</v>
       </c>
@@ -5221,7 +5215,7 @@
       <c r="W40" s="8"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="17"/>
-      <c r="Z40" s="71"/>
+      <c r="Z40" s="69"/>
     </row>
     <row r="41" ht="13.5" spans="1:26">
       <c r="A41" s="13"/>
@@ -5252,13 +5246,13 @@
         <f>IF(_scrb1_day_twoshift!AG3="","",_scrb1_day_twoshift!AG3)</f>
         <v/>
       </c>
-      <c r="I41" s="59"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="65"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="63"/>
       <c r="P41" s="4" t="s">
         <v>108</v>
       </c>
@@ -5271,23 +5265,23 @@
       <c r="W41" s="8"/>
       <c r="X41" s="8"/>
       <c r="Y41" s="17"/>
-      <c r="Z41" s="71"/>
+      <c r="Z41" s="69"/>
     </row>
     <row r="42" ht="13.5" spans="1:26">
-      <c r="A42" s="26"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="64"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="65"/>
+      <c r="A42" s="25"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="62"/>
+      <c r="O42" s="63"/>
       <c r="P42" s="4" t="s">
         <v>109</v>
       </c>
@@ -5300,10 +5294,10 @@
       <c r="W42" s="8"/>
       <c r="X42" s="8"/>
       <c r="Y42" s="17"/>
-      <c r="Z42" s="71"/>
+      <c r="Z42" s="69"/>
     </row>
     <row r="43" ht="13.5" spans="1:26">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="23" t="s">
         <v>151</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -5333,13 +5327,13 @@
         <f>IF(_scrb1_day_twoshift!AH2="","",_scrb1_day_twoshift!AH2)</f>
         <v/>
       </c>
-      <c r="I43" s="59"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="66"/>
-      <c r="M43" s="66"/>
-      <c r="N43" s="66"/>
-      <c r="O43" s="67"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="65"/>
       <c r="P43" s="4" t="s">
         <v>110</v>
       </c>
@@ -5352,7 +5346,7 @@
       <c r="W43" s="8"/>
       <c r="X43" s="8"/>
       <c r="Y43" s="17"/>
-      <c r="Z43" s="71"/>
+      <c r="Z43" s="69"/>
     </row>
     <row r="44" ht="13.5" spans="1:26">
       <c r="A44" s="13"/>
@@ -5383,7 +5377,7 @@
         <f>IF(_scrb1_day_twoshift!AH3="","",_scrb1_day_twoshift!AH3)</f>
         <v/>
       </c>
-      <c r="I44" s="68"/>
+      <c r="I44" s="66"/>
       <c r="J44" s="11" t="s">
         <v>2</v>
       </c>
@@ -5406,17 +5400,17 @@
       <c r="W44" s="8"/>
       <c r="X44" s="8"/>
       <c r="Y44" s="17"/>
-      <c r="Z44" s="71"/>
+      <c r="Z44" s="69"/>
     </row>
     <row r="45" ht="13.5" spans="1:26">
-      <c r="A45" s="26"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="68"/>
+      <c r="A45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="66"/>
       <c r="J45" s="13"/>
       <c r="K45" s="7" t="s">
         <v>153</v>
@@ -5427,23 +5421,23 @@
       <c r="M45" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="N45" s="69" t="s">
+      <c r="N45" s="67" t="s">
         <v>156</v>
       </c>
       <c r="O45" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="P45" s="70"/>
-      <c r="Q45" s="77"/>
-      <c r="R45" s="77"/>
-      <c r="S45" s="77"/>
-      <c r="T45" s="77"/>
-      <c r="U45" s="77"/>
-      <c r="V45" s="77"/>
-      <c r="W45" s="77"/>
-      <c r="X45" s="77"/>
-      <c r="Y45" s="77"/>
-      <c r="Z45" s="77"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="75"/>
+      <c r="R45" s="75"/>
+      <c r="S45" s="75"/>
+      <c r="T45" s="75"/>
+      <c r="U45" s="75"/>
+      <c r="V45" s="75"/>
+      <c r="W45" s="75"/>
+      <c r="X45" s="75"/>
+      <c r="Y45" s="75"/>
+      <c r="Z45" s="75"/>
     </row>
     <row r="46" ht="13.5" spans="1:26">
       <c r="A46" s="4" t="s">
@@ -5474,7 +5468,7 @@
         <f>IF(_scrb1_day_twoshift!AI2="","",_scrb1_day_twoshift!AI2)</f>
         <v/>
       </c>
-      <c r="I46" s="68"/>
+      <c r="I46" s="66"/>
       <c r="J46" s="7" t="s">
         <v>26</v>
       </c>
@@ -5490,33 +5484,33 @@
         <f>IF(_scrb1_day_twoshift!DN2="","",_scrb1_day_twoshift!DN2)</f>
         <v/>
       </c>
-      <c r="N46" s="71"/>
+      <c r="N46" s="69"/>
       <c r="O46" s="17" t="str">
         <f>IF(_scrb1_day_twoshift!DO2="","",_scrb1_day_twoshift!DO2)</f>
         <v/>
       </c>
-      <c r="P46" s="72"/>
-      <c r="Q46" s="78"/>
-      <c r="R46" s="78"/>
-      <c r="S46" s="78"/>
-      <c r="T46" s="78"/>
-      <c r="U46" s="78"/>
-      <c r="V46" s="78"/>
-      <c r="W46" s="78"/>
-      <c r="X46" s="78"/>
-      <c r="Y46" s="78"/>
-      <c r="Z46" s="78"/>
+      <c r="P46" s="70"/>
+      <c r="Q46" s="76"/>
+      <c r="R46" s="76"/>
+      <c r="S46" s="76"/>
+      <c r="T46" s="76"/>
+      <c r="U46" s="76"/>
+      <c r="V46" s="76"/>
+      <c r="W46" s="76"/>
+      <c r="X46" s="76"/>
+      <c r="Y46" s="76"/>
+      <c r="Z46" s="76"/>
     </row>
     <row r="47" ht="13.5" spans="1:26">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="68"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="66"/>
       <c r="J47" s="7" t="s">
         <v>28</v>
       </c>
@@ -5532,22 +5526,22 @@
         <f>IF(_scrb1_day_twoshift!DN3="","",_scrb1_day_twoshift!DN3)</f>
         <v/>
       </c>
-      <c r="N47" s="71"/>
+      <c r="N47" s="69"/>
       <c r="O47" s="17" t="str">
         <f>IF(_scrb1_day_twoshift!DO3="","",_scrb1_day_twoshift!DO3)</f>
         <v/>
       </c>
-      <c r="P47" s="72"/>
-      <c r="Q47" s="78"/>
-      <c r="R47" s="78"/>
-      <c r="S47" s="78"/>
-      <c r="T47" s="78"/>
-      <c r="U47" s="78"/>
-      <c r="V47" s="78"/>
-      <c r="W47" s="78"/>
-      <c r="X47" s="78"/>
-      <c r="Y47" s="78"/>
-      <c r="Z47" s="78"/>
+      <c r="P47" s="70"/>
+      <c r="Q47" s="76"/>
+      <c r="R47" s="76"/>
+      <c r="S47" s="76"/>
+      <c r="T47" s="76"/>
+      <c r="U47" s="76"/>
+      <c r="V47" s="76"/>
+      <c r="W47" s="76"/>
+      <c r="X47" s="76"/>
+      <c r="Y47" s="76"/>
+      <c r="Z47" s="76"/>
     </row>
     <row r="48" ht="13.5" spans="1:20">
       <c r="A48" s="11" t="s">
@@ -5578,8 +5572,8 @@
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="6"/>
-      <c r="S48" s="79"/>
-      <c r="T48" s="79"/>
+      <c r="S48" s="77"/>
+      <c r="T48" s="77"/>
     </row>
     <row r="49" ht="13.5" spans="1:20">
       <c r="A49" s="13"/>
@@ -5632,8 +5626,8 @@
       <c r="R49" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="S49" s="79"/>
-      <c r="T49" s="79"/>
+      <c r="S49" s="77"/>
+      <c r="T49" s="77"/>
     </row>
     <row r="50" ht="13.5" spans="1:20">
       <c r="A50" s="11" t="s">
@@ -5706,8 +5700,8 @@
         <f>IF(_scrb1_day_twoshift!AZ2="","",_scrb1_day_twoshift!AZ2)</f>
         <v/>
       </c>
-      <c r="S50" s="79"/>
-      <c r="T50" s="79"/>
+      <c r="S50" s="77"/>
+      <c r="T50" s="77"/>
     </row>
     <row r="51" ht="13.5" spans="1:20">
       <c r="A51" s="13"/>
@@ -5778,8 +5772,8 @@
         <f>IF(_scrb1_day_twoshift!AZ3="","",_scrb1_day_twoshift!AZ3)</f>
         <v/>
       </c>
-      <c r="S51" s="79"/>
-      <c r="T51" s="79"/>
+      <c r="S51" s="77"/>
+      <c r="T51" s="77"/>
     </row>
     <row r="52" ht="13.5" spans="1:20">
       <c r="A52" s="11" t="s">
@@ -5852,8 +5846,8 @@
         <f>IF(_scrb1_day_twoshift!BQ2="","",_scrb1_day_twoshift!BQ2)</f>
         <v/>
       </c>
-      <c r="S52" s="79"/>
-      <c r="T52" s="79"/>
+      <c r="S52" s="77"/>
+      <c r="T52" s="77"/>
     </row>
     <row r="53" ht="13.5" spans="1:20">
       <c r="A53" s="13"/>
@@ -5924,8 +5918,8 @@
         <f>IF(_scrb1_day_twoshift!BQ3="","",_scrb1_day_twoshift!BQ3)</f>
         <v/>
       </c>
-      <c r="S53" s="79"/>
-      <c r="T53" s="79"/>
+      <c r="S53" s="77"/>
+      <c r="T53" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -5990,8 +5984,8 @@
   <sheetPr/>
   <dimension ref="A1:DO1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="CN1" sqref="CN1"/>
+    <sheetView topLeftCell="CP1" workbookViewId="0">
+      <selection activeCell="CS1" sqref="CS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
